--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4298,10 +4298,10 @@
   <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E231" sqref="E231"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5969,7 +5969,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -4298,10 +4298,10 @@
   <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11594,7 +11594,7 @@
         <v>864</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4301,7 +4301,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11314,13 +11314,13 @@
         <v>825</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>826</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="912">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3509,10 +3509,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_030_CWLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3759,6 +3755,72 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3843,7 +3905,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3880,6 +3942,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3912,7 +3986,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4016,6 +4090,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4295,10 +4399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
@@ -10151,7 +10255,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11279,7 +11383,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>819</v>
@@ -11349,30 +11453,30 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>832</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11380,13 +11484,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11398,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11406,22 +11510,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11429,13 +11533,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11447,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11455,13 +11559,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11473,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11481,25 +11585,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11507,25 +11611,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>850</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11533,13 +11637,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11559,25 +11663,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>857</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11585,13 +11689,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>863</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>864</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11611,13 +11715,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>865</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>866</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11637,13 +11741,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>868</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>869</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>870</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11663,22 +11767,22 @@
         <v>289</v>
       </c>
       <c r="B290" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="C290" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="E290" s="33">
+        <v>0</v>
+      </c>
+      <c r="F290" s="33">
+        <v>0</v>
+      </c>
+      <c r="G290" s="33">
+        <v>0</v>
+      </c>
+      <c r="I290" s="34" t="s">
         <v>872</v>
-      </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11686,25 +11790,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="D291" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>876</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11712,25 +11816,25 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>880</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11738,14 +11842,14 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" t="s">
         <v>882</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>883</v>
       </c>
-      <c r="D293" t="s">
-        <v>884</v>
-      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11756,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11764,13 +11868,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>887</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>888</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11790,13 +11894,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C295" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="D295" s="25" t="s">
         <v>890</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>891</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11816,13 +11920,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>892</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>893</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11835,6 +11939,130 @@
       </c>
       <c r="I296" s="24" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="40">
+        <v>296</v>
+      </c>
+      <c r="B297" s="41" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="42" t="s">
+        <v>896</v>
+      </c>
+      <c r="D297" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="E297" s="43">
+        <v>1</v>
+      </c>
+      <c r="F297" s="43">
+        <v>1</v>
+      </c>
+      <c r="G297" s="43">
+        <v>1</v>
+      </c>
+      <c r="I297" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="40">
+        <v>297</v>
+      </c>
+      <c r="B298" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="C298" s="42" t="s">
+        <v>900</v>
+      </c>
+      <c r="D298" s="41" t="s">
+        <v>901</v>
+      </c>
+      <c r="E298" s="43">
+        <v>1</v>
+      </c>
+      <c r="F298" s="43">
+        <v>1</v>
+      </c>
+      <c r="G298" s="43">
+        <v>1</v>
+      </c>
+      <c r="I298" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="40">
+        <v>298</v>
+      </c>
+      <c r="B299" s="41" t="s">
+        <v>903</v>
+      </c>
+      <c r="C299" s="42" t="s">
+        <v>904</v>
+      </c>
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="I299" s="44" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="40">
+        <v>299</v>
+      </c>
+      <c r="B300" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="41" t="s">
+        <v>908</v>
+      </c>
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="I300" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="40">
+        <v>300</v>
+      </c>
+      <c r="B301" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="D301" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="I301" s="44" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3662,18 +3662,6 @@
   </si>
   <si>
     <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3986,7 +3974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4089,9 +4077,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4105,9 +4090,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4399,13 +4381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10255,7 +10237,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11453,29 +11435,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
+    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="36" t="s">
+      <c r="B278" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="36" t="s">
-        <v>902</v>
-      </c>
-      <c r="D278" s="37" t="s">
+      <c r="C278" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="D278" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="39" t="s">
+      <c r="E278" s="37">
+        <v>1</v>
+      </c>
+      <c r="F278" s="37">
+        <v>1</v>
+      </c>
+      <c r="G278" s="37">
+        <v>1</v>
+      </c>
+      <c r="I278" s="38" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11502,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11762,94 +11744,97 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="C290" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="D290" s="23" t="s">
         <v>872</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" s="18" t="s">
+      <c r="B291" t="s">
         <v>874</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="C291" t="s">
         <v>875</v>
       </c>
+      <c r="D291" t="s">
+        <v>876</v>
+      </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>876</v>
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
+      <c r="A292" s="19">
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" t="s">
+        <v>879</v>
+      </c>
+      <c r="D292" t="s">
+        <v>880</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>877</v>
       </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>880</v>
-      </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="31">
+      <c r="A293" s="19">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="D293" t="s">
+      <c r="C293" s="18" t="s">
         <v>883</v>
       </c>
+      <c r="D293" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11859,8 +11844,8 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" t="s">
-        <v>880</v>
+      <c r="I293" s="24" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11890,17 +11875,17 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
+      <c r="A295" s="19">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
         <v>888</v>
       </c>
       <c r="C295" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>889</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>890</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11915,154 +11900,128 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="31">
+    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
         <v>295</v>
       </c>
-      <c r="B296" s="25" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="D296" s="25" t="s">
+      <c r="B296" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="40">
+      <c r="C296" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="E296" s="41">
+        <v>1</v>
+      </c>
+      <c r="F296" s="41">
+        <v>1</v>
+      </c>
+      <c r="G296" s="41">
+        <v>1</v>
+      </c>
+      <c r="I296" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
         <v>296</v>
       </c>
-      <c r="B297" s="41" t="s">
+      <c r="B297" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="D297" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297" s="41">
+        <v>1</v>
+      </c>
+      <c r="F297" s="41">
+        <v>1</v>
+      </c>
+      <c r="G297" s="41">
+        <v>1</v>
+      </c>
+      <c r="I297" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="42" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="43">
-        <v>1</v>
-      </c>
-      <c r="F297" s="43">
-        <v>1</v>
-      </c>
-      <c r="G297" s="43">
-        <v>1</v>
-      </c>
-      <c r="I297" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="40">
+    </row>
+    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="19">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="42" t="s">
+      <c r="B298" s="39" t="s">
         <v>900</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="C298" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="43">
-        <v>1</v>
-      </c>
-      <c r="F298" s="43">
-        <v>1</v>
-      </c>
-      <c r="G298" s="43">
-        <v>1</v>
-      </c>
-      <c r="I298" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="40">
+      <c r="E298" s="41">
+        <v>1</v>
+      </c>
+      <c r="F298" s="41">
+        <v>1</v>
+      </c>
+      <c r="G298" s="41">
+        <v>1</v>
+      </c>
+      <c r="I298" s="42" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
+      <c r="B299" s="39" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="42" t="s">
+      <c r="C299" s="40" t="s">
         <v>904</v>
       </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="I299" s="44" t="s">
+      <c r="D299" s="39" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="40">
+      <c r="E299" s="41">
+        <v>1</v>
+      </c>
+      <c r="F299" s="41">
+        <v>1</v>
+      </c>
+      <c r="G299" s="41">
+        <v>1</v>
+      </c>
+      <c r="I299" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
+      <c r="B300" s="39" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="42" t="s">
+      <c r="D300" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="D300" s="41" t="s">
+      <c r="E300" s="41">
+        <v>1</v>
+      </c>
+      <c r="F300" s="41">
+        <v>1</v>
+      </c>
+      <c r="G300" s="41">
+        <v>1</v>
+      </c>
+      <c r="I300" s="42" t="s">
         <v>908</v>
-      </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="I300" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="40">
-        <v>300</v>
-      </c>
-      <c r="B301" s="41" t="s">
-        <v>909</v>
-      </c>
-      <c r="D301" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
-      <c r="I301" s="44" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3665,6 +3665,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_034_ldfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福利（小游戏）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>by3d_shtx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3809,6 +3821,82 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>饺子换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3974,7 +4062,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4077,6 +4165,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4092,6 +4183,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4102,6 +4196,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4381,13 +4481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4400,6 +4500,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -10237,7 +10338,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11435,29 +11536,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="34">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="35" t="s">
-        <v>899</v>
-      </c>
-      <c r="D278" s="36" t="s">
+      <c r="C278" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="E278" s="37">
-        <v>1</v>
-      </c>
-      <c r="F278" s="37">
-        <v>1</v>
-      </c>
-      <c r="G278" s="37">
-        <v>1</v>
-      </c>
-      <c r="I278" s="38" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11484,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11744,97 +11845,94 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="19">
+    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="31">
         <v>289</v>
       </c>
-      <c r="B290" s="18" t="s">
+      <c r="B290" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="23" t="s">
+      <c r="E290" s="33">
+        <v>0</v>
+      </c>
+      <c r="F290" s="33">
+        <v>0</v>
+      </c>
+      <c r="G290" s="33">
+        <v>0</v>
+      </c>
+      <c r="I290" s="34" t="s">
         <v>872</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="31">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="19">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>880</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>877</v>
-      </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
+      <c r="A293" s="31">
         <v>292</v>
       </c>
-      <c r="B293" s="25" t="s">
+      <c r="B293" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" t="s">
         <v>883</v>
       </c>
-      <c r="D293" s="25" t="s">
-        <v>884</v>
-      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11844,8 +11942,8 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="24" t="s">
-        <v>736</v>
+      <c r="I293" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11875,17 +11973,17 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="19">
+      <c r="A295" s="31">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
         <v>888</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11900,128 +11998,208 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="31">
         <v>295</v>
       </c>
-      <c r="B296" s="39" t="s">
+      <c r="B296" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="40" t="s">
-        <v>893</v>
-      </c>
-      <c r="D296" s="39" t="s">
-        <v>894</v>
-      </c>
-      <c r="E296" s="41">
-        <v>1</v>
-      </c>
-      <c r="F296" s="41">
-        <v>1</v>
-      </c>
-      <c r="G296" s="41">
-        <v>1</v>
-      </c>
-      <c r="I296" s="42" t="s">
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="24" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="40">
+        <v>296</v>
+      </c>
+      <c r="B297" s="41" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="39" t="s">
+      <c r="C297" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="40" t="s">
+      <c r="D297" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="39" t="s">
+      <c r="E297" s="43">
+        <v>1</v>
+      </c>
+      <c r="F297" s="43">
+        <v>1</v>
+      </c>
+      <c r="G297" s="43">
+        <v>1</v>
+      </c>
+      <c r="I297" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="E297" s="41">
-        <v>1</v>
-      </c>
-      <c r="F297" s="41">
-        <v>1</v>
-      </c>
-      <c r="G297" s="41">
-        <v>1</v>
-      </c>
-      <c r="I297" s="42" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="19">
+    </row>
+    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="40">
         <v>297</v>
       </c>
-      <c r="B298" s="39" t="s">
+      <c r="B298" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="C298" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="40" t="s">
+      <c r="D298" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="41">
-        <v>1</v>
-      </c>
-      <c r="F298" s="41">
-        <v>1</v>
-      </c>
-      <c r="G298" s="41">
-        <v>1</v>
-      </c>
-      <c r="I298" s="42" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
+      <c r="E298" s="43">
+        <v>1</v>
+      </c>
+      <c r="F298" s="43">
+        <v>1</v>
+      </c>
+      <c r="G298" s="43">
+        <v>1</v>
+      </c>
+      <c r="I298" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="40">
         <v>298</v>
       </c>
-      <c r="B299" s="39" t="s">
+      <c r="B299" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="40" t="s">
+      <c r="C299" s="42" t="s">
         <v>904</v>
       </c>
-      <c r="D299" s="39" t="s">
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="I299" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="E299" s="41">
-        <v>1</v>
-      </c>
-      <c r="F299" s="41">
-        <v>1</v>
-      </c>
-      <c r="G299" s="41">
-        <v>1</v>
-      </c>
-      <c r="I299" s="42" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
+    </row>
+    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="40">
         <v>299</v>
       </c>
-      <c r="B300" s="39" t="s">
+      <c r="B300" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="D300" s="39" t="s">
+      <c r="C300" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="E300" s="41">
-        <v>1</v>
-      </c>
-      <c r="F300" s="41">
-        <v>1</v>
-      </c>
-      <c r="G300" s="41">
-        <v>1</v>
-      </c>
-      <c r="I300" s="42" t="s">
+      <c r="D300" s="41" t="s">
         <v>908</v>
+      </c>
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="I300" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="40">
+        <v>300</v>
+      </c>
+      <c r="B301" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="D301" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="I301" s="44" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="C302" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="D302" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1</v>
+      </c>
+      <c r="G302" s="2">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="46" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="C303" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="D303" s="45" t="s">
+        <v>918</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="46" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="917">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3662,18 +3662,6 @@
   </si>
   <si>
     <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4062,7 +4050,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4165,9 +4153,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4181,9 +4166,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4481,13 +4463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10338,7 +10320,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11536,29 +11518,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
+    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="36" t="s">
+      <c r="B278" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="36" t="s">
-        <v>902</v>
-      </c>
-      <c r="D278" s="37" t="s">
+      <c r="C278" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="D278" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="39" t="s">
+      <c r="E278" s="37">
+        <v>1</v>
+      </c>
+      <c r="F278" s="37">
+        <v>1</v>
+      </c>
+      <c r="G278" s="37">
+        <v>1</v>
+      </c>
+      <c r="I278" s="38" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11585,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11845,94 +11827,97 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="C290" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
+      <c r="D290" s="23" t="s">
         <v>872</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" s="18" t="s">
+      <c r="B291" t="s">
         <v>874</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="C291" t="s">
         <v>875</v>
       </c>
+      <c r="D291" t="s">
+        <v>876</v>
+      </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>876</v>
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
+      <c r="A292" s="19">
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" t="s">
+        <v>879</v>
+      </c>
+      <c r="D292" t="s">
+        <v>880</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>877</v>
       </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>880</v>
-      </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="31">
+      <c r="A293" s="19">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="D293" t="s">
+      <c r="C293" s="18" t="s">
         <v>883</v>
       </c>
+      <c r="D293" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11942,8 +11927,8 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" t="s">
-        <v>880</v>
+      <c r="I293" s="24" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11973,17 +11958,17 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
+      <c r="A295" s="19">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
         <v>888</v>
       </c>
       <c r="C295" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>889</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>890</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11998,169 +11983,170 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="31">
+    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
         <v>295</v>
       </c>
-      <c r="B296" s="25" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="D296" s="25" t="s">
+      <c r="B296" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="40">
+      <c r="C296" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="D296" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="E296" s="41">
+        <v>1</v>
+      </c>
+      <c r="F296" s="41">
+        <v>1</v>
+      </c>
+      <c r="G296" s="41">
+        <v>1</v>
+      </c>
+      <c r="I296" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
         <v>296</v>
       </c>
-      <c r="B297" s="41" t="s">
+      <c r="B297" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="D297" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297" s="41">
+        <v>1</v>
+      </c>
+      <c r="F297" s="41">
+        <v>1</v>
+      </c>
+      <c r="G297" s="41">
+        <v>1</v>
+      </c>
+      <c r="I297" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="42" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="43">
-        <v>1</v>
-      </c>
-      <c r="F297" s="43">
-        <v>1</v>
-      </c>
-      <c r="G297" s="43">
-        <v>1</v>
-      </c>
-      <c r="I297" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="40">
+    </row>
+    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="19">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="42" t="s">
+      <c r="B298" s="39" t="s">
         <v>900</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="C298" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="43">
-        <v>1</v>
-      </c>
-      <c r="F298" s="43">
-        <v>1</v>
-      </c>
-      <c r="G298" s="43">
-        <v>1</v>
-      </c>
-      <c r="I298" s="44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="40">
+      <c r="E298" s="41">
+        <v>1</v>
+      </c>
+      <c r="F298" s="41">
+        <v>1</v>
+      </c>
+      <c r="G298" s="41">
+        <v>1</v>
+      </c>
+      <c r="I298" s="42" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="19">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
+      <c r="B299" s="39" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="42" t="s">
+      <c r="C299" s="40" t="s">
         <v>904</v>
       </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="I299" s="44" t="s">
+      <c r="D299" s="39" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="40">
+      <c r="E299" s="41">
+        <v>1</v>
+      </c>
+      <c r="F299" s="41">
+        <v>1</v>
+      </c>
+      <c r="G299" s="41">
+        <v>1</v>
+      </c>
+      <c r="I299" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="19">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
+      <c r="B300" s="39" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="42" t="s">
+      <c r="D300" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="D300" s="41" t="s">
+      <c r="E300" s="41">
+        <v>1</v>
+      </c>
+      <c r="F300" s="41">
+        <v>1</v>
+      </c>
+      <c r="G300" s="41">
+        <v>1</v>
+      </c>
+      <c r="I300" s="42" t="s">
         <v>908</v>
       </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="I300" s="44" t="s">
-        <v>898</v>
-      </c>
     </row>
     <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="40">
+      <c r="A301" s="19">
         <v>300</v>
       </c>
-      <c r="B301" s="41" t="s">
+      <c r="B301" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="D301" s="41" t="s">
+      <c r="C301" s="44" t="s">
         <v>910</v>
       </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
+      <c r="D301" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="E301" s="2">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <v>1</v>
+      </c>
+      <c r="G301" s="2">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2"/>
       <c r="I301" s="44" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="7">
+      <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="45" t="s">
-        <v>912</v>
-      </c>
-      <c r="C302" s="46" t="s">
+      <c r="B302" s="43" t="s">
         <v>913</v>
       </c>
-      <c r="D302" s="45" t="s">
+      <c r="C302" s="44" t="s">
         <v>914</v>
       </c>
+      <c r="D302" s="43" t="s">
+        <v>915</v>
+      </c>
       <c r="E302" s="2">
         <v>1</v>
       </c>
@@ -12171,35 +12157,8 @@
         <v>1</v>
       </c>
       <c r="H302" s="2"/>
-      <c r="I302" s="46" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="7">
-        <v>302</v>
-      </c>
-      <c r="B303" s="45" t="s">
+      <c r="I302" s="44" t="s">
         <v>916</v>
-      </c>
-      <c r="C303" s="46" t="s">
-        <v>917</v>
-      </c>
-      <c r="D303" s="45" t="s">
-        <v>918</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2">
-        <v>1</v>
-      </c>
-      <c r="G303" s="2">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="46" t="s">
-        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="918">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3885,6 +3885,10 @@
       </rPr>
       <t>日23:59:59</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4469,7 +4473,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C291" sqref="C291"/>
+      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12090,6 +12094,9 @@
       </c>
       <c r="B300" s="39" t="s">
         <v>906</v>
+      </c>
+      <c r="C300" s="40" t="s">
+        <v>917</v>
       </c>
       <c r="D300" s="39" t="s">
         <v>907</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="921">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3890,6 +3890,15 @@
   <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
   </si>
 </sst>
 </file>
@@ -4467,13 +4476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
+      <selection pane="bottomRight" activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12166,6 +12175,33 @@
       <c r="H302" s="2"/>
       <c r="I302" s="44" t="s">
         <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="19">
+        <v>302</v>
+      </c>
+      <c r="B303" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C303" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="D303" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="42" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4479,10 +4479,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B307" sqref="B307"/>
+      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11828,13 +11828,13 @@
         <v>869</v>
       </c>
       <c r="E289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" s="32" t="s">
         <v>736</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3815,64 +3815,25 @@
     <t>act_039_jzhhl</t>
   </si>
   <si>
-    <t>饺子换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_JZHHLManager</t>
   </si>
   <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
+      <t>12月21</t>
     </r>
     <r>
       <rPr>
@@ -4063,7 +4024,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4166,6 +4127,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4197,6 +4161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4479,10 +4446,10 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D276" sqref="D276"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11338,13 +11305,13 @@
         <v>807</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
@@ -11482,29 +11449,29 @@
         <v>822</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
+    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="31">
         <v>275</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="I276" s="24" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>826</v>
       </c>
     </row>
@@ -11531,29 +11498,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="34">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="35" t="s">
+      <c r="C278" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="E278" s="37">
-        <v>1</v>
-      </c>
-      <c r="F278" s="37">
-        <v>1</v>
-      </c>
-      <c r="G278" s="37">
-        <v>1</v>
-      </c>
-      <c r="I278" s="38" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11828,13 +11795,13 @@
         <v>869</v>
       </c>
       <c r="E289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" s="32" t="s">
         <v>736</v>
@@ -11893,7 +11860,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="19">
+      <c r="A292" s="31">
         <v>291</v>
       </c>
       <c r="B292" t="s">
@@ -11971,7 +11938,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="19">
+      <c r="A295" s="31">
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
@@ -11996,104 +11963,104 @@
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>295</v>
       </c>
-      <c r="B296" s="39" t="s">
+      <c r="B296" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="40" t="s">
+      <c r="C296" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="39" t="s">
+      <c r="D296" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="E296" s="41">
-        <v>1</v>
-      </c>
-      <c r="F296" s="41">
-        <v>1</v>
-      </c>
-      <c r="G296" s="41">
-        <v>1</v>
-      </c>
-      <c r="I296" s="42" t="s">
+      <c r="E296" s="42">
+        <v>1</v>
+      </c>
+      <c r="F296" s="42">
+        <v>1</v>
+      </c>
+      <c r="G296" s="42">
+        <v>1</v>
+      </c>
+      <c r="I296" s="43" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="297" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>296</v>
       </c>
-      <c r="B297" s="39" t="s">
+      <c r="B297" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="40" t="s">
+      <c r="C297" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="39" t="s">
+      <c r="D297" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="E297" s="41">
-        <v>1</v>
-      </c>
-      <c r="F297" s="41">
-        <v>1</v>
-      </c>
-      <c r="G297" s="41">
-        <v>1</v>
-      </c>
-      <c r="I297" s="42" t="s">
+      <c r="E297" s="42">
+        <v>1</v>
+      </c>
+      <c r="F297" s="42">
+        <v>1</v>
+      </c>
+      <c r="G297" s="42">
+        <v>1</v>
+      </c>
+      <c r="I297" s="43" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="298" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="19">
+    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="31">
         <v>297</v>
       </c>
-      <c r="B298" s="39" t="s">
+      <c r="B298" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="40" t="s">
+      <c r="C298" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="E298" s="41">
-        <v>1</v>
-      </c>
-      <c r="F298" s="41">
-        <v>1</v>
-      </c>
-      <c r="G298" s="41">
-        <v>1</v>
-      </c>
-      <c r="I298" s="42" t="s">
+      <c r="E298" s="42">
+        <v>1</v>
+      </c>
+      <c r="F298" s="42">
+        <v>1</v>
+      </c>
+      <c r="G298" s="42">
+        <v>1</v>
+      </c>
+      <c r="I298" s="43" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="41" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>298</v>
       </c>
-      <c r="B299" s="39" t="s">
+      <c r="B299" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="40" t="s">
+      <c r="C299" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="D299" s="39" t="s">
+      <c r="D299" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="E299" s="41">
-        <v>1</v>
-      </c>
-      <c r="F299" s="41">
-        <v>1</v>
-      </c>
-      <c r="G299" s="41">
-        <v>1</v>
-      </c>
-      <c r="I299" s="42" t="s">
+      <c r="E299" s="42">
+        <v>1</v>
+      </c>
+      <c r="F299" s="42">
+        <v>1</v>
+      </c>
+      <c r="G299" s="42">
+        <v>1</v>
+      </c>
+      <c r="I299" s="43" t="s">
         <v>895</v>
       </c>
     </row>
@@ -12101,68 +12068,67 @@
       <c r="A300" s="19">
         <v>299</v>
       </c>
-      <c r="B300" s="39" t="s">
+      <c r="B300" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="40" t="s">
-        <v>917</v>
-      </c>
-      <c r="D300" s="39" t="s">
+      <c r="C300" s="41" t="s">
+        <v>916</v>
+      </c>
+      <c r="D300" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="E300" s="41">
-        <v>1</v>
-      </c>
-      <c r="F300" s="41">
-        <v>1</v>
-      </c>
-      <c r="G300" s="41">
-        <v>1</v>
-      </c>
-      <c r="I300" s="42" t="s">
+      <c r="E300" s="42">
+        <v>1</v>
+      </c>
+      <c r="F300" s="42">
+        <v>1</v>
+      </c>
+      <c r="G300" s="42">
+        <v>1</v>
+      </c>
+      <c r="I300" s="43" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="19">
+    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="31">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="C301" s="44" t="s">
+      <c r="C301" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="D301" s="43" t="s">
-        <v>911</v>
-      </c>
-      <c r="E301" s="2">
-        <v>1</v>
-      </c>
-      <c r="F301" s="2">
-        <v>1</v>
-      </c>
-      <c r="G301" s="2">
-        <v>1</v>
-      </c>
-      <c r="H301" s="2"/>
-      <c r="I301" s="44" t="s">
-        <v>912</v>
+      <c r="E301" s="33">
+        <v>1</v>
+      </c>
+      <c r="F301" s="33">
+        <v>1</v>
+      </c>
+      <c r="G301" s="33">
+        <v>1</v>
+      </c>
+      <c r="I301" s="45" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="C302" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="C302" s="44" t="s">
-        <v>914</v>
-      </c>
-      <c r="D302" s="43" t="s">
-        <v>915</v>
-      </c>
       <c r="E302" s="2">
         <v>1</v>
       </c>
@@ -12173,23 +12139,23 @@
         <v>1</v>
       </c>
       <c r="H302" s="2"/>
-      <c r="I302" s="44" t="s">
-        <v>916</v>
+      <c r="I302" s="43" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="19">
+      <c r="A303" s="31">
         <v>302</v>
       </c>
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="C303" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="C303" s="43" t="s">
+      <c r="D303" s="44" t="s">
         <v>919</v>
       </c>
-      <c r="D303" s="43" t="s">
-        <v>920</v>
-      </c>
       <c r="E303" s="2">
         <v>1</v>
       </c>
@@ -12200,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="2"/>
-      <c r="I303" s="42" t="s">
+      <c r="I303" s="43" t="s">
         <v>644</v>
       </c>
     </row>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4402,10 +4402,10 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6073,7 +6073,7 @@
         <v>190</v>
       </c>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3222,43 +3222,246 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_LXDHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_xlxphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_XLXPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_czlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiftCZLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_fcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防沉迷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFCMManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_yk_gz</t>
+  </si>
+  <si>
+    <t>Act_009_YKGZManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动：贵族月卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+  </si>
+  <si>
+    <t>新月卡</t>
+  </si>
+  <si>
+    <t>Sys_011_YuekaManager</t>
+  </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_BBLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙虾兑换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_LXDHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_lxdh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_xlxphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_XLXPHBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_czlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiftCZLBManager</t>
+    <t>act_026_xrcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_XRCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_ZABDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_LMLHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_sgxxlyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_SGXXLYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTGXTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_mfflq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_MFFLQManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_JQSHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_mfhf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_MFHFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_xycd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_XYCDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_ljyjcfk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPL_LJYJCFKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3266,54 +3469,268 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_fcm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防沉迷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSFCMManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_009_yk_gz</t>
-  </si>
-  <si>
-    <t>Act_009_YKGZManager</t>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqflManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_WXHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_GQFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星掉落脚本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_hd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动：贵族月卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_011_yueka_new</t>
-  </si>
-  <si>
-    <t>新月卡</t>
-  </si>
-  <si>
-    <t>Sys_011_YuekaManager</t>
-  </si>
-  <si>
-    <t>act_026_bblb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_BBLBManager</t>
+    <t>act_031_gqkl_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_GQKLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+  </si>
+  <si>
+    <t>一本万利</t>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3321,151 +3738,61 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_026_xrcdj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人抽大奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_XRCDJManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_zabd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_ZABDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_lmlh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_LMLHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_sgxxlyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_SGXXLYDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐引导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTGXTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_tgxt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_jqshl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_mfflq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_MFFLQManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_JQSHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_mfhf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_MFHFManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_xycd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_XYCDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_ljyjcfk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPL_LJYJCFKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金抽福卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任务系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTaskManager</t>
+    <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3473,367 +3800,98 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_029_hlqjd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_029_HLQJDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_hd_zjm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_cwlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqflManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_WXHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_GQFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星掉落脚本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_hd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DHDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_GQKLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_jjsl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSJJSLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_xyxyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额福利券（跳转小游戏入口）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYXyxydManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_vip1ztlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_033_VIP1ZTLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_xrzxlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRZXGiftManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_shtx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DSHTXManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_035_ybwl</t>
-  </si>
-  <si>
-    <t>一本万利</t>
-  </si>
-  <si>
-    <t>Act_035_YBWLManager</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>act_035_jhs</t>
-  </si>
-  <si>
-    <t>聚划算</t>
-  </si>
-  <si>
-    <t>Act_035_JHSManager</t>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡掉落需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_GELBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12dhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二兑换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12DHHLManager</t>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lhsjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二礼盒收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lh_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双12礼盒掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHDROPManager</t>
-  </si>
-  <si>
-    <t>act_038_by_and_cjj_conduct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>饺子换好礼→圣诞福利</t>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜 → 金元宝榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>12月21</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3844,22 +3902,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日23:59:59</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>cjj互导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
+    <t>双十二页签→元旦活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3943,7 +4002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3992,6 +4051,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4024,7 +4089,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4160,10 +4225,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4443,13 +4517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5141,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10300,7 +10374,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10415,7 +10489,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10953,30 +11027,30 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="49">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>757</v>
+      <c r="E257" s="48">
+        <v>1</v>
+      </c>
+      <c r="F257" s="48">
+        <v>1</v>
+      </c>
+      <c r="G257" s="48">
+        <v>1</v>
+      </c>
+      <c r="I257" s="47" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10984,14 +11058,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>760</v>
-      </c>
       <c r="E258" s="20">
         <v>0</v>
       </c>
@@ -11002,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11010,14 +11084,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="D259" s="18" t="s">
-        <v>764</v>
-      </c>
       <c r="E259" s="20">
         <v>0</v>
       </c>
@@ -11028,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11036,25 +11110,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>767</v>
-      </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11062,25 +11136,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>771</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11088,25 +11162,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D262" t="s">
         <v>773</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11114,13 +11188,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="18" t="s">
         <v>778</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>779</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11140,25 +11214,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C264" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="20">
+        <v>0</v>
+      </c>
+      <c r="F264" s="20">
+        <v>0</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>782</v>
-      </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11166,13 +11240,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="18" t="s">
         <v>785</v>
-      </c>
-      <c r="D265" s="18" t="s">
-        <v>786</v>
       </c>
       <c r="E265" s="20">
         <v>0</v>
@@ -11192,25 +11266,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="D266" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="E266" s="20">
+        <v>0</v>
+      </c>
+      <c r="F266" s="20">
+        <v>0</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>789</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11218,25 +11292,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="E267" s="20">
+        <v>0</v>
+      </c>
+      <c r="F267" s="20">
+        <v>0</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11244,13 +11318,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D268" s="23" t="s">
         <v>795</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>796</v>
       </c>
       <c r="E268" s="20">
         <v>0</v>
@@ -11270,13 +11344,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>799</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>800</v>
       </c>
       <c r="E269" s="20">
         <v>0</v>
@@ -11296,13 +11370,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="C270" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C270" s="16" t="s">
-        <v>803</v>
-      </c>
       <c r="D270" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11323,13 +11397,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="D271" s="22" t="s">
         <v>805</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>806</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11350,25 +11424,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="E272" s="20">
+        <v>1</v>
+      </c>
+      <c r="F272" s="20">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>1</v>
+      </c>
+      <c r="I272" s="24" t="s">
         <v>810</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11376,14 +11450,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="D273" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>814</v>
-      </c>
       <c r="E273" s="20">
         <v>1</v>
       </c>
@@ -11394,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11402,14 +11476,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C274" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>817</v>
-      </c>
       <c r="E274">
         <v>1</v>
       </c>
@@ -11420,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11428,14 +11502,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>820</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
@@ -11446,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11454,25 +11528,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C276" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D276" s="45" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="D276" s="46" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11480,22 +11554,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
         <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11503,25 +11577,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="D278" s="37" t="s">
+      <c r="E278" s="38">
+        <v>0</v>
+      </c>
+      <c r="F278" s="38">
+        <v>0</v>
+      </c>
+      <c r="G278" s="38">
+        <v>0</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11529,13 +11603,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11547,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11555,22 +11629,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>835</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11578,13 +11652,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11596,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11604,13 +11678,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11622,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11630,25 +11704,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>845</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11656,25 +11730,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>849</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11682,13 +11756,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>859</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>860</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11708,25 +11782,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>856</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11734,13 +11808,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>862</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>863</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11760,13 +11834,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>864</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>865</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11786,13 +11860,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>868</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>869</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11812,25 +11886,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="D290" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="23" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11838,25 +11912,25 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" t="s">
         <v>874</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>875</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
         <v>876</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11864,14 +11938,14 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
-        <v>880</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11882,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11890,13 +11964,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" s="25" t="s">
         <v>883</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>884</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11916,13 +11990,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>886</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>887</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11942,13 +12016,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>888</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11968,25 +12042,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="41" t="s">
+      <c r="D296" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="E296" s="42">
+        <v>0</v>
+      </c>
+      <c r="F296" s="42">
+        <v>0</v>
+      </c>
+      <c r="G296" s="42">
+        <v>0</v>
+      </c>
+      <c r="I296" s="43" t="s">
         <v>894</v>
-      </c>
-      <c r="E296" s="42">
-        <v>1</v>
-      </c>
-      <c r="F296" s="42">
-        <v>1</v>
-      </c>
-      <c r="G296" s="42">
-        <v>1</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11994,25 +12068,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="41" t="s">
+      <c r="D297" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="40" t="s">
-        <v>898</v>
-      </c>
       <c r="E297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12020,10 +12094,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="40" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="E298" s="42">
         <v>1</v>
@@ -12034,8 +12108,8 @@
       <c r="G298" s="42">
         <v>1</v>
       </c>
-      <c r="I298" s="43" t="s">
-        <v>902</v>
+      <c r="I298" s="41" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12043,25 +12117,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="40" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D299" s="40" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12069,13 +12143,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="40" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D300" s="40" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E300" s="42">
         <v>1</v>
@@ -12087,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="43" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12095,52 +12169,53 @@
         <v>300</v>
       </c>
       <c r="B301" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="C301" s="32" t="s">
-        <v>914</v>
+        <v>906</v>
+      </c>
+      <c r="C301" s="47" t="s">
+        <v>921</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301" s="33">
-        <v>1</v>
-      </c>
-      <c r="F301" s="33">
-        <v>1</v>
-      </c>
-      <c r="G301" s="33">
-        <v>1</v>
-      </c>
-      <c r="I301" s="45" t="s">
-        <v>915</v>
+        <v>907</v>
+      </c>
+      <c r="E301" s="48">
+        <v>1</v>
+      </c>
+      <c r="F301" s="48">
+        <v>1</v>
+      </c>
+      <c r="G301" s="48">
+        <v>1</v>
+      </c>
+      <c r="H301" s="48"/>
+      <c r="I301" s="47" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C302" s="45" t="s">
-        <v>912</v>
-      </c>
-      <c r="D302" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
-      </c>
-      <c r="F302" s="2">
-        <v>1</v>
-      </c>
-      <c r="G302" s="2">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2"/>
-      <c r="I302" s="43" t="s">
-        <v>644</v>
+      <c r="B302" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="C302" s="47" t="s">
+        <v>923</v>
+      </c>
+      <c r="D302" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="E302" s="48">
+        <v>1</v>
+      </c>
+      <c r="F302" s="48">
+        <v>1</v>
+      </c>
+      <c r="G302" s="48">
+        <v>1</v>
+      </c>
+      <c r="H302" s="48"/>
+      <c r="I302" s="47" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12148,13 +12223,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="44" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C303" s="44" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D303" s="44" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -12168,6 +12243,59 @@
       <c r="H303" s="2"/>
       <c r="I303" s="43" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="19">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>914</v>
+      </c>
+      <c r="C304" t="s">
+        <v>915</v>
+      </c>
+      <c r="D304" t="s">
+        <v>916</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="19">
+        <v>304</v>
+      </c>
+      <c r="B305" s="46" t="s">
+        <v>925</v>
+      </c>
+      <c r="C305" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="D305" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="E305" s="48">
+        <v>1</v>
+      </c>
+      <c r="F305" s="48">
+        <v>1</v>
+      </c>
+      <c r="G305" s="48">
+        <v>1</v>
+      </c>
+      <c r="H305" s="48"/>
+      <c r="I305" s="47" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="936">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3210,10 +3210,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>节日特惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_025_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3800,12 +3796,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
   </si>
   <si>
@@ -3852,72 +3842,75 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>饺子收集榜 → 金元宝榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月4日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动</t>
+    <t>双十二页签→元旦活动→欢乐庆典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二→庆典礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_013_ffyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅小游戏版块上浮弹幕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_013_FFYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（畅玩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_ZP1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +3995,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,25 +4016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,7 +4064,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4135,15 +4110,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4151,12 +4117,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4168,13 +4128,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -4183,61 +4137,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4517,13 +4423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:AJ307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5215,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6478,13 +6384,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>
@@ -10374,7 +10280,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10489,7 +10395,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -11027,134 +10933,134 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="49">
+    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="47" t="s">
+      <c r="B257" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="47" t="s">
+      <c r="C257" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="D257" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="47" t="s">
+      <c r="E257" s="26">
+        <v>1</v>
+      </c>
+      <c r="F257" s="26">
+        <v>1</v>
+      </c>
+      <c r="G257" s="26">
+        <v>1</v>
+      </c>
+      <c r="I257" s="25" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="I258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="48">
-        <v>1</v>
-      </c>
-      <c r="F257" s="48">
-        <v>1</v>
-      </c>
-      <c r="G257" s="48">
-        <v>1</v>
-      </c>
-      <c r="I257" s="47" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
-        <v>257</v>
-      </c>
-      <c r="B258" s="18" t="s">
+    </row>
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C258" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
-        <v>258</v>
-      </c>
-      <c r="B259" s="18" t="s">
+      <c r="C259" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
-        <v>259</v>
-      </c>
-      <c r="B260" s="18" t="s">
+      <c r="C260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+    </row>
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <v>260</v>
+      </c>
+      <c r="B261" s="15" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
-        <v>260</v>
-      </c>
-      <c r="B261" s="18" t="s">
+      <c r="C261" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>770</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11162,39 +11068,39 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D262" t="s">
         <v>772</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>773</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>778</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11209,1093 +11115,1310 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+    </row>
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
-        <v>264</v>
-      </c>
-      <c r="B265" s="18" t="s">
+      <c r="C265" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="I265" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="E265" s="20">
-        <v>0</v>
-      </c>
-      <c r="F265" s="20">
-        <v>1</v>
-      </c>
-      <c r="G265" s="20">
-        <v>1</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="C266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="16">
+        <v>266</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
+        <v>267</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>0</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+      <c r="I268" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
+        <v>268</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1</v>
+      </c>
+      <c r="I269" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="16">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D270" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E270" s="17">
+        <v>0</v>
+      </c>
+      <c r="F270" s="17">
+        <v>0</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+      <c r="I270" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="16">
+        <v>270</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="16">
+        <v>271</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="16">
+        <v>272</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="16">
+        <v>273</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E274" s="17">
+        <v>1</v>
+      </c>
+      <c r="F274" s="17">
+        <v>1</v>
+      </c>
+      <c r="G274" s="17">
+        <v>1</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="16">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="16">
+        <v>275</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="E276" s="17">
+        <v>1</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="16">
+        <v>276</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E277" s="17">
+        <v>1</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="16">
+        <v>277</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="16">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="16">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="16">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="16">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="16">
+        <v>282</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="16">
+        <v>284</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E285" s="17">
+        <v>1</v>
+      </c>
+      <c r="F285" s="17">
+        <v>1</v>
+      </c>
+      <c r="G285" s="17">
+        <v>1</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
-        <v>265</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
-        <v>266</v>
-      </c>
-      <c r="B267" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="C267" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
-        <v>267</v>
-      </c>
-      <c r="B268" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="E286" s="17">
+        <v>1</v>
+      </c>
+      <c r="F286" s="17">
+        <v>1</v>
+      </c>
+      <c r="G286" s="17">
+        <v>1</v>
+      </c>
+      <c r="I286" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="16">
+        <v>286</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="E287" s="17">
+        <v>1</v>
+      </c>
+      <c r="F287" s="17">
+        <v>1</v>
+      </c>
+      <c r="G287" s="17">
+        <v>1</v>
+      </c>
+      <c r="I287" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E288" s="17">
+        <v>0</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="I288" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="16">
+        <v>288</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D289" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="E289" s="17">
+        <v>0</v>
+      </c>
+      <c r="F289" s="17">
+        <v>0</v>
+      </c>
+      <c r="G289" s="17">
+        <v>0</v>
+      </c>
+      <c r="I289" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
-        <v>268</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="E269" s="20">
-        <v>0</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="16">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>872</v>
+      </c>
+      <c r="C291" t="s">
+        <v>873</v>
+      </c>
+      <c r="D291" t="s">
+        <v>874</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>876</v>
+      </c>
+      <c r="C292" t="s">
+        <v>877</v>
+      </c>
+      <c r="D292" t="s">
+        <v>878</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
-        <v>269</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D270" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="E270" s="17">
-        <v>0</v>
-      </c>
-      <c r="F270" s="17">
-        <v>0</v>
-      </c>
-      <c r="G270" s="17">
-        <v>0</v>
-      </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
-        <v>270</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="C271" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="16">
+        <v>294</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
-        <v>271</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>808</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
-        <v>272</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>811</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="D273" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
-        <v>273</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="I274" s="24" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
-        <v>274</v>
-      </c>
-      <c r="B275" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="C275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="I275" s="24" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="31">
-        <v>275</v>
-      </c>
-      <c r="B276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="C276" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="D276" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
-        <v>276</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="C278" s="36" t="s">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+      <c r="H296" s="17"/>
+      <c r="I296" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="O296" s="17"/>
+      <c r="P296" s="17"/>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="17"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+    </row>
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="16">
+        <v>296</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+      <c r="H297" s="17"/>
+      <c r="I297" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
+    </row>
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="16">
+        <v>297</v>
+      </c>
+      <c r="B298" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="D278" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="E278" s="38">
-        <v>0</v>
-      </c>
-      <c r="F278" s="38">
-        <v>0</v>
-      </c>
-      <c r="G278" s="38">
-        <v>0</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
-        <v>278</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
-        <v>279</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
-        <v>280</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
-        <v>281</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
-        <v>282</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
-        <v>283</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
-        <v>284</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="C285" s="28" t="s">
-        <v>858</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="30" t="s">
+      <c r="C298" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="D298" s="26"/>
+      <c r="E298" s="26">
+        <v>1</v>
+      </c>
+      <c r="F298" s="26">
+        <v>1</v>
+      </c>
+      <c r="G298" s="26">
+        <v>1</v>
+      </c>
+      <c r="H298" s="26"/>
+      <c r="I298" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+    </row>
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="16">
+        <v>298</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E299" s="17">
+        <v>0</v>
+      </c>
+      <c r="F299" s="17">
+        <v>0</v>
+      </c>
+      <c r="G299" s="17">
+        <v>0</v>
+      </c>
+      <c r="H299" s="17"/>
+      <c r="I299" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="17"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
+    </row>
+    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="16">
+        <v>299</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E300" s="17">
+        <v>1</v>
+      </c>
+      <c r="F300" s="17">
+        <v>1</v>
+      </c>
+      <c r="G300" s="17">
+        <v>1</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="17"/>
+      <c r="Q300" s="17"/>
+      <c r="R300" s="17"/>
+      <c r="S300" s="17"/>
+      <c r="T300" s="17"/>
+      <c r="U300" s="17"/>
+      <c r="V300" s="17"/>
+      <c r="W300" s="17"/>
+      <c r="X300" s="17"/>
+      <c r="Y300" s="17"/>
+      <c r="Z300" s="17"/>
+      <c r="AA300" s="17"/>
+      <c r="AB300" s="17"/>
+      <c r="AC300" s="17"/>
+      <c r="AD300" s="17"/>
+      <c r="AE300" s="17"/>
+      <c r="AF300" s="17"/>
+      <c r="AG300" s="17"/>
+      <c r="AH300" s="17"/>
+      <c r="AI300" s="17"/>
+      <c r="AJ300" s="17"/>
+    </row>
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="16">
+        <v>300</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C301" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="E301" s="26">
+        <v>1</v>
+      </c>
+      <c r="F301" s="26">
+        <v>1</v>
+      </c>
+      <c r="G301" s="26">
+        <v>1</v>
+      </c>
+      <c r="H301" s="26"/>
+      <c r="I301" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="17"/>
+      <c r="Q301" s="17"/>
+      <c r="R301" s="17"/>
+      <c r="S301" s="17"/>
+      <c r="T301" s="17"/>
+      <c r="U301" s="17"/>
+      <c r="V301" s="17"/>
+      <c r="W301" s="17"/>
+      <c r="X301" s="17"/>
+      <c r="Y301" s="17"/>
+      <c r="Z301" s="17"/>
+      <c r="AA301" s="17"/>
+      <c r="AB301" s="17"/>
+      <c r="AC301" s="17"/>
+      <c r="AD301" s="17"/>
+      <c r="AE301" s="17"/>
+      <c r="AF301" s="17"/>
+      <c r="AG301" s="17"/>
+      <c r="AH301" s="17"/>
+      <c r="AI301" s="17"/>
+      <c r="AJ301" s="17"/>
+    </row>
+    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="16">
+        <v>301</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C302" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E302" s="26">
+        <v>1</v>
+      </c>
+      <c r="F302" s="26">
+        <v>1</v>
+      </c>
+      <c r="G302" s="26">
+        <v>1</v>
+      </c>
+      <c r="H302" s="26"/>
+      <c r="I302" s="25" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="16">
+        <v>302</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="I303" s="19" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
-        <v>285</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="19">
-        <v>286</v>
-      </c>
-      <c r="B287" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="19">
-        <v>287</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>864</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="31">
-        <v>288</v>
-      </c>
-      <c r="B289" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="C289" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="E289" s="33">
-        <v>0</v>
-      </c>
-      <c r="F289" s="33">
-        <v>0</v>
-      </c>
-      <c r="G289" s="33">
-        <v>0</v>
-      </c>
-      <c r="I289" s="32" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="19">
-        <v>289</v>
-      </c>
-      <c r="B290" s="18" t="s">
-        <v>869</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="19">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>873</v>
-      </c>
-      <c r="C291" t="s">
-        <v>874</v>
-      </c>
-      <c r="D291" t="s">
-        <v>875</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="31">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
-        <v>877</v>
-      </c>
-      <c r="C292" t="s">
-        <v>878</v>
-      </c>
-      <c r="D292" t="s">
-        <v>879</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
-        <v>292</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>882</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="19">
-        <v>293</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="31">
-        <v>294</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
-        <v>295</v>
-      </c>
-      <c r="B296" s="40" t="s">
-        <v>891</v>
-      </c>
-      <c r="C296" s="41" t="s">
-        <v>892</v>
-      </c>
-      <c r="D296" s="40" t="s">
-        <v>893</v>
-      </c>
-      <c r="E296" s="42">
-        <v>0</v>
-      </c>
-      <c r="F296" s="42">
-        <v>0</v>
-      </c>
-      <c r="G296" s="42">
-        <v>0</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="C297" s="41" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="42">
-        <v>0</v>
-      </c>
-      <c r="F297" s="42">
-        <v>0</v>
-      </c>
-      <c r="G297" s="42">
-        <v>0</v>
-      </c>
-      <c r="I297" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="31">
-        <v>297</v>
-      </c>
-      <c r="B298" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="41" t="s">
+    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="16">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" t="s">
+        <v>913</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="16">
+        <v>304</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C305" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="26">
+        <v>1</v>
+      </c>
+      <c r="F305" s="26">
+        <v>1</v>
+      </c>
+      <c r="G305" s="26">
+        <v>1</v>
+      </c>
+      <c r="H305" s="26"/>
+      <c r="I305" s="25" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="16">
+        <v>305</v>
+      </c>
+      <c r="B306" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="E298" s="42">
-        <v>1</v>
-      </c>
-      <c r="F298" s="42">
-        <v>1</v>
-      </c>
-      <c r="G298" s="42">
-        <v>1</v>
-      </c>
-      <c r="I298" s="41" t="s">
+      <c r="C306" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="E306" s="26">
+        <v>1</v>
+      </c>
+      <c r="F306" s="26">
+        <v>1</v>
+      </c>
+      <c r="G306" s="26">
+        <v>1</v>
+      </c>
+      <c r="I306" s="25" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="16">
+        <v>306</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="E307" s="26">
+        <v>1</v>
+      </c>
+      <c r="F307" s="26">
+        <v>1</v>
+      </c>
+      <c r="G307" s="26">
+        <v>1</v>
+      </c>
+      <c r="I307" s="25" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
-        <v>298</v>
-      </c>
-      <c r="B299" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="C299" s="41" t="s">
-        <v>901</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="E299" s="42">
-        <v>0</v>
-      </c>
-      <c r="F299" s="42">
-        <v>0</v>
-      </c>
-      <c r="G299" s="42">
-        <v>0</v>
-      </c>
-      <c r="I299" s="43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
-        <v>299</v>
-      </c>
-      <c r="B300" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="E300" s="42">
-        <v>1</v>
-      </c>
-      <c r="F300" s="42">
-        <v>1</v>
-      </c>
-      <c r="G300" s="42">
-        <v>1</v>
-      </c>
-      <c r="I300" s="43" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="31">
-        <v>300</v>
-      </c>
-      <c r="B301" s="46" t="s">
-        <v>906</v>
-      </c>
-      <c r="C301" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>907</v>
-      </c>
-      <c r="E301" s="48">
-        <v>1</v>
-      </c>
-      <c r="F301" s="48">
-        <v>1</v>
-      </c>
-      <c r="G301" s="48">
-        <v>1</v>
-      </c>
-      <c r="H301" s="48"/>
-      <c r="I301" s="47" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="19">
-        <v>301</v>
-      </c>
-      <c r="B302" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="C302" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="D302" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="E302" s="48">
-        <v>1</v>
-      </c>
-      <c r="F302" s="48">
-        <v>1</v>
-      </c>
-      <c r="G302" s="48">
-        <v>1</v>
-      </c>
-      <c r="H302" s="48"/>
-      <c r="I302" s="47" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="31">
-        <v>302</v>
-      </c>
-      <c r="B303" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>912</v>
-      </c>
-      <c r="D303" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1</v>
-      </c>
-      <c r="F303" s="2">
-        <v>1</v>
-      </c>
-      <c r="G303" s="2">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2"/>
-      <c r="I303" s="43" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="19">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>914</v>
-      </c>
-      <c r="C304" t="s">
-        <v>915</v>
-      </c>
-      <c r="D304" t="s">
-        <v>916</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="19">
-        <v>304</v>
-      </c>
-      <c r="B305" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="C305" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="D305" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="E305" s="48">
-        <v>1</v>
-      </c>
-      <c r="F305" s="48">
-        <v>1</v>
-      </c>
-      <c r="G305" s="48">
-        <v>1</v>
-      </c>
-      <c r="H305" s="48"/>
-      <c r="I305" s="47" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="943">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3842,10 +3842,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子收集榜 → 金元宝榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3910,7 +3906,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>饺子换好礼→圣诞福利→元旦好礼→欢乐福利</t>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--礼包模板（感恩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_LB1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--排行榜模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--兑换模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4423,13 +4451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ307"/>
+  <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10941,7 +10969,7 @@
         <v>754</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>755</v>
@@ -10956,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11929,13 +11957,13 @@
         <v>887</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" s="19" t="s">
         <v>736</v>
@@ -12057,7 +12085,7 @@
         <v>898</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="26">
@@ -12071,7 +12099,7 @@
       </c>
       <c r="H298" s="26"/>
       <c r="I298" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12214,13 +12242,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E301" s="26">
         <v>1</v>
@@ -12233,7 +12261,7 @@
       </c>
       <c r="H301" s="26"/>
       <c r="I301" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12271,7 +12299,7 @@
         <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="D302" s="24" t="s">
         <v>906</v>
@@ -12287,7 +12315,7 @@
       </c>
       <c r="H302" s="26"/>
       <c r="I302" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12347,7 +12375,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C305" s="25" t="s">
         <v>915</v>
@@ -12374,14 +12402,14 @@
         <v>305</v>
       </c>
       <c r="B306" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="C306" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="D306" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="D306" s="24" t="s">
-        <v>929</v>
-      </c>
       <c r="E306" s="26">
         <v>1</v>
       </c>
@@ -12392,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12400,14 +12428,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C307" s="25" t="s">
         <v>930</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="D307" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="D307" s="24" t="s">
-        <v>932</v>
-      </c>
       <c r="E307" s="26">
         <v>1</v>
       </c>
@@ -12418,7 +12446,56 @@
         <v>1</v>
       </c>
       <c r="I307" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="16">
+        <v>307</v>
+      </c>
+      <c r="B308" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="16">
+        <v>308</v>
+      </c>
+      <c r="B309" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="943">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4454,10 +4454,10 @@
   <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G309" sqref="G309"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6412,13 +6412,13 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3858,10 +3858,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3870,10 +3866,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_013_ffyd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3940,13 +3932,51 @@
   <si>
     <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_collect_words</t>
+  </si>
+  <si>
+    <t>通用活动--发财礼包模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jbp</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4022,8 +4052,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4060,6 +4109,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4092,7 +4153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4162,16 +4223,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4451,16 +4536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ309"/>
+  <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
@@ -4473,7 +4558,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4587,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4528,7 +4613,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4554,7 +4639,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4580,7 +4665,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4606,7 +4691,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4632,7 +4717,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4658,7 +4743,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4684,7 +4769,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4710,7 +4795,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4736,7 +4821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4762,7 +4847,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4788,7 +4873,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4814,7 +4899,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4840,7 +4925,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4866,7 +4951,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4892,7 +4977,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4918,7 +5003,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4944,7 +5029,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4970,7 +5055,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4996,7 +5081,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5022,7 +5107,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5048,7 +5133,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5074,7 +5159,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5100,7 +5185,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5126,7 +5211,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5152,7 +5237,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5178,7 +5263,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5204,7 +5289,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5230,7 +5315,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5256,7 +5341,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5282,7 +5367,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5308,7 +5393,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5334,7 +5419,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5360,7 +5445,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5386,7 +5471,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5412,7 +5497,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5438,7 +5523,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5464,7 +5549,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5490,7 +5575,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5516,7 +5601,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -5542,7 +5627,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -5568,7 +5653,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -5594,7 +5679,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -5620,7 +5705,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -5646,7 +5731,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -5672,7 +5757,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -5698,7 +5783,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -5724,7 +5809,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -5750,7 +5835,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5776,7 +5861,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5802,7 +5887,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5826,7 +5911,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5852,7 +5937,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5878,7 +5963,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5904,7 +5989,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5930,7 +6015,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5956,7 +6041,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -5982,7 +6067,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6008,7 +6093,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6034,7 +6119,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6060,7 +6145,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6086,7 +6171,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -6112,7 +6197,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -6138,7 +6223,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -6164,7 +6249,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -6190,7 +6275,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -6216,7 +6301,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -6242,7 +6327,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -6268,7 +6353,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -6294,7 +6379,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -6320,7 +6405,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6346,7 +6431,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -6372,7 +6457,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -6398,7 +6483,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -6412,19 +6497,19 @@
         <v>222</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6450,7 +6535,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6476,7 +6561,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6502,7 +6587,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6528,7 +6613,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6554,7 +6639,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6580,7 +6665,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6606,7 +6691,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6632,7 +6717,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6658,7 +6743,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6684,7 +6769,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6710,7 +6795,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6736,7 +6821,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6762,7 +6847,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6788,7 +6873,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6814,7 +6899,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6840,7 +6925,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6866,7 +6951,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6892,7 +6977,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6918,7 +7003,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -6944,7 +7029,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -6970,7 +7055,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -6996,7 +7081,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7022,7 +7107,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7048,7 +7133,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7074,7 +7159,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7100,7 +7185,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -7126,7 +7211,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -7152,7 +7237,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -7178,7 +7263,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -7204,7 +7289,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -7230,7 +7315,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -7256,7 +7341,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -7282,7 +7367,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -7308,7 +7393,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -7334,7 +7419,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -7360,7 +7445,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -7386,7 +7471,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -7412,7 +7497,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -7438,7 +7523,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -7464,7 +7549,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -7490,7 +7575,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -7516,7 +7601,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -7542,7 +7627,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -7568,7 +7653,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -7594,7 +7679,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -7620,7 +7705,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -7646,7 +7731,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -7672,7 +7757,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -7698,7 +7783,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -7724,7 +7809,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -7750,7 +7835,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -7776,7 +7861,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -7802,7 +7887,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -7828,7 +7913,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -7854,7 +7939,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -7880,7 +7965,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -7906,7 +7991,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -7932,7 +8017,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -7958,7 +8043,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -7984,7 +8069,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8010,7 +8095,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8036,7 +8121,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8062,7 +8147,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -8088,7 +8173,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -8114,7 +8199,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -8140,7 +8225,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -8166,7 +8251,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -8192,7 +8277,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -8218,7 +8303,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -8244,7 +8329,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -8270,7 +8355,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -8296,7 +8381,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -8322,7 +8407,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -8348,7 +8433,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -8374,7 +8459,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -8400,7 +8485,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -8426,7 +8511,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -8452,7 +8537,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -8478,7 +8563,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -8504,7 +8589,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -8530,7 +8615,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -8556,7 +8641,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -8582,7 +8667,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -8608,7 +8693,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -8634,7 +8719,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -8660,7 +8745,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -8686,7 +8771,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -8712,7 +8797,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -8738,7 +8823,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -8764,7 +8849,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -8790,7 +8875,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8816,7 +8901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8842,7 +8927,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8868,7 +8953,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8892,7 +8977,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8916,7 +9001,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8940,7 +9025,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8964,7 +9049,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -8990,7 +9075,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -9014,7 +9099,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -9038,7 +9123,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -9062,7 +9147,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -9088,7 +9173,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -9114,7 +9199,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -9138,7 +9223,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -9162,7 +9247,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -9186,7 +9271,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -9210,7 +9295,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -9233,7 +9318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -9256,7 +9341,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -9279,7 +9364,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -9302,7 +9387,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -9325,7 +9410,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -9348,7 +9433,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -9371,7 +9456,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -9394,7 +9479,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -9417,7 +9502,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -9440,7 +9525,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -9463,7 +9548,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -9486,7 +9571,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -9509,7 +9594,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -9532,7 +9617,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -9555,7 +9640,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -9578,7 +9663,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -9601,7 +9686,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -9624,7 +9709,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -9647,7 +9732,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -9670,7 +9755,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -9693,7 +9778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -9719,7 +9804,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9745,7 +9830,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9771,7 +9856,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9794,7 +9879,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9817,7 +9902,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9840,7 +9925,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9863,7 +9948,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9886,7 +9971,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9909,7 +9994,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9932,7 +10017,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9955,7 +10040,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9978,7 +10063,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -10001,7 +10086,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -10024,7 +10109,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -10047,7 +10132,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -10070,7 +10155,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -10093,7 +10178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -10116,7 +10201,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -10139,7 +10224,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -10162,7 +10247,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -10185,7 +10270,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -10208,7 +10293,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -10231,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -10254,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -10277,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -10300,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -10323,7 +10408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -10346,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -10369,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -10392,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -10415,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -10441,7 +10526,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -10467,7 +10552,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -10493,7 +10578,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -10519,7 +10604,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -10545,7 +10630,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -10571,7 +10656,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -10597,7 +10682,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -10623,7 +10708,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10649,7 +10734,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10675,7 +10760,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10701,7 +10786,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10727,7 +10812,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10753,7 +10838,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10779,7 +10864,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10805,7 +10890,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10831,7 +10916,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10857,7 +10942,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10883,33 +10968,34 @@
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
+      <c r="E254" s="27">
+        <v>1</v>
+      </c>
+      <c r="F254" s="27">
+        <v>1</v>
+      </c>
+      <c r="G254" s="27">
+        <v>1</v>
+      </c>
+      <c r="H254" s="27"/>
+      <c r="I254" s="25" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -10935,7 +11021,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -10961,33 +11047,34 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="25" t="s">
-        <v>923</v>
-      </c>
-      <c r="D257" s="25" t="s">
+      <c r="C257" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="E257" s="26">
-        <v>1</v>
-      </c>
-      <c r="F257" s="26">
-        <v>1</v>
-      </c>
-      <c r="G257" s="26">
-        <v>1</v>
-      </c>
-      <c r="I257" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E257" s="17">
+        <v>1</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17"/>
+      <c r="I257" s="15" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A258" s="16">
         <v>257</v>
       </c>
@@ -11013,7 +11100,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A259" s="16">
         <v>258</v>
       </c>
@@ -11039,7 +11126,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A260" s="16">
         <v>259</v>
       </c>
@@ -11065,7 +11152,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -11091,7 +11178,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -11117,7 +11204,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -11143,7 +11230,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A264" s="16">
         <v>263</v>
       </c>
@@ -11169,7 +11256,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A265" s="16">
         <v>264</v>
       </c>
@@ -11195,7 +11282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A266" s="16">
         <v>265</v>
       </c>
@@ -11221,7 +11308,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A267" s="16">
         <v>266</v>
       </c>
@@ -11247,7 +11334,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A268" s="16">
         <v>267</v>
       </c>
@@ -11273,7 +11360,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -11299,7 +11386,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A270" s="16">
         <v>269</v>
       </c>
@@ -11325,7 +11412,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -11351,7 +11438,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A272" s="16">
         <v>271</v>
       </c>
@@ -11377,7 +11464,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A273" s="16">
         <v>272</v>
       </c>
@@ -11403,7 +11490,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A274" s="16">
         <v>273</v>
       </c>
@@ -11429,7 +11516,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A275" s="16">
         <v>274</v>
       </c>
@@ -11455,7 +11542,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
@@ -11469,7 +11556,7 @@
         <v>823</v>
       </c>
       <c r="E276" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="17">
         <v>1</v>
@@ -11481,7 +11568,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11492,7 +11579,7 @@
         <v>826</v>
       </c>
       <c r="E277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="17">
         <v>1</v>
@@ -11504,7 +11591,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
@@ -11530,7 +11617,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="16">
         <v>278</v>
       </c>
@@ -11556,7 +11643,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -11579,7 +11666,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -11605,7 +11692,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="16">
         <v>281</v>
       </c>
@@ -11631,7 +11718,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
@@ -11657,7 +11744,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
@@ -11683,111 +11770,111 @@
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="16">
+    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A285" s="31">
         <v>284</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="E285" s="17">
-        <v>1</v>
-      </c>
-      <c r="F285" s="17">
-        <v>1</v>
-      </c>
-      <c r="G285" s="17">
-        <v>1</v>
-      </c>
-      <c r="I285" s="19" t="s">
+      <c r="E285" s="32">
+        <v>1</v>
+      </c>
+      <c r="F285" s="32">
+        <v>1</v>
+      </c>
+      <c r="G285" s="32">
+        <v>1</v>
+      </c>
+      <c r="I285" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="16">
+    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A286" s="31">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="E286" s="17">
-        <v>1</v>
-      </c>
-      <c r="F286" s="17">
-        <v>1</v>
-      </c>
-      <c r="G286" s="17">
-        <v>1</v>
-      </c>
-      <c r="I286" s="19" t="s">
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="32">
+        <v>1</v>
+      </c>
+      <c r="G286" s="32">
+        <v>1</v>
+      </c>
+      <c r="I286" s="32" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="16">
+    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="31">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="32" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="E287" s="17">
-        <v>1</v>
-      </c>
-      <c r="F287" s="17">
-        <v>1</v>
-      </c>
-      <c r="G287" s="17">
-        <v>1</v>
-      </c>
-      <c r="I287" s="19" t="s">
+      <c r="E287" s="32">
+        <v>1</v>
+      </c>
+      <c r="F287" s="32">
+        <v>1</v>
+      </c>
+      <c r="G287" s="32">
+        <v>1</v>
+      </c>
+      <c r="I287" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A288" s="29">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="17">
-        <v>0</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="19" t="s">
+      <c r="E288" s="30">
+        <v>0</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="I288" s="30" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -11813,7 +11900,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:36" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
@@ -11839,59 +11926,59 @@
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="16">
+    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A291" s="33">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="34" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="16">
+    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A292" s="33">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
+      <c r="E292" s="34">
+        <v>1</v>
+      </c>
+      <c r="F292" s="34">
+        <v>1</v>
+      </c>
+      <c r="G292" s="34">
+        <v>1</v>
+      </c>
+      <c r="I292" s="34" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
@@ -11905,7 +11992,7 @@
         <v>882</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -11917,7 +12004,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
@@ -11931,7 +12018,7 @@
         <v>885</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -11943,33 +12030,34 @@
         <v>736</v>
       </c>
     </row>
-    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:36" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="18" t="s">
         <v>886</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
+      <c r="E295" s="17">
+        <v>0</v>
+      </c>
+      <c r="F295" s="17">
+        <v>0</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+      <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
@@ -12023,7 +12111,7 @@
       <c r="AI296" s="17"/>
       <c r="AJ296" s="17"/>
     </row>
-    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12077,28 +12165,28 @@
       <c r="AI297" s="17"/>
       <c r="AJ297" s="17"/>
     </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C298" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26">
-        <v>1</v>
-      </c>
-      <c r="F298" s="26">
-        <v>1</v>
-      </c>
-      <c r="G298" s="26">
-        <v>1</v>
-      </c>
-      <c r="H298" s="26"/>
-      <c r="I298" s="25" t="s">
+      <c r="D298" s="17"/>
+      <c r="E298" s="17">
+        <v>1</v>
+      </c>
+      <c r="F298" s="17">
+        <v>1</v>
+      </c>
+      <c r="G298" s="17">
+        <v>1</v>
+      </c>
+      <c r="H298" s="17"/>
+      <c r="I298" s="15" t="s">
         <v>920</v>
       </c>
       <c r="J298" s="17"/>
@@ -12129,7 +12217,7 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12183,7 +12271,7 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
@@ -12237,31 +12325,31 @@
       <c r="AI300" s="17"/>
       <c r="AJ300" s="17"/>
     </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="24" t="s">
-        <v>933</v>
+      <c r="B301" s="26" t="s">
+        <v>931</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D301" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="E301" s="26">
-        <v>1</v>
-      </c>
-      <c r="F301" s="26">
-        <v>1</v>
-      </c>
-      <c r="G301" s="26">
-        <v>1</v>
-      </c>
-      <c r="H301" s="26"/>
+        <v>937</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="E301" s="27">
+        <v>1</v>
+      </c>
+      <c r="F301" s="27">
+        <v>1</v>
+      </c>
+      <c r="G301" s="27">
+        <v>1</v>
+      </c>
+      <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12291,211 +12379,270 @@
       <c r="AI301" s="17"/>
       <c r="AJ301" s="17"/>
     </row>
-    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="24" t="s">
+      <c r="B302" s="26" t="s">
         <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="D302" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="D302" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="E302" s="26">
-        <v>1</v>
-      </c>
-      <c r="F302" s="26">
-        <v>1</v>
-      </c>
-      <c r="G302" s="26">
-        <v>1</v>
-      </c>
-      <c r="H302" s="26"/>
+      <c r="E302" s="27">
+        <v>1</v>
+      </c>
+      <c r="F302" s="27">
+        <v>1</v>
+      </c>
+      <c r="G302" s="27">
+        <v>1</v>
+      </c>
+      <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="D303" s="18" t="s">
+      <c r="D303" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="E303" s="17">
-        <v>1</v>
-      </c>
-      <c r="F303" s="17">
-        <v>1</v>
-      </c>
-      <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="19" t="s">
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+      <c r="F303" s="27">
+        <v>1</v>
+      </c>
+      <c r="G303" s="27">
+        <v>1</v>
+      </c>
+      <c r="H303" s="27"/>
+      <c r="I303" s="28" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="23" t="s">
+      <c r="E304" s="17">
+        <v>1</v>
+      </c>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
+      <c r="G304" s="17">
+        <v>1</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="19" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="24" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="26">
-        <v>1</v>
-      </c>
-      <c r="F305" s="26">
-        <v>1</v>
-      </c>
-      <c r="G305" s="26">
-        <v>1</v>
-      </c>
-      <c r="H305" s="26"/>
-      <c r="I305" s="25" t="s">
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="H305" s="17"/>
+      <c r="I305" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="C306" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D306" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="E306" s="26">
-        <v>1</v>
-      </c>
-      <c r="F306" s="26">
-        <v>1</v>
-      </c>
-      <c r="G306" s="26">
-        <v>1</v>
-      </c>
-      <c r="I306" s="25" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="H306" s="17"/>
+      <c r="I306" s="15" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="24" t="s">
+      <c r="B307" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="C307" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="D307" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="E307" s="26">
-        <v>1</v>
-      </c>
-      <c r="F307" s="26">
-        <v>1</v>
-      </c>
-      <c r="G307" s="26">
-        <v>1</v>
-      </c>
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+      <c r="F307" s="27">
+        <v>1</v>
+      </c>
+      <c r="G307" s="27">
+        <v>1</v>
+      </c>
+      <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="E308" s="27">
+        <v>1</v>
+      </c>
+      <c r="F308" s="27">
+        <v>1</v>
+      </c>
+      <c r="G308" s="27">
+        <v>1</v>
+      </c>
+      <c r="H308" s="27"/>
+      <c r="I308" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="D308" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="17.25">
+      <c r="A310" s="16">
+        <v>309</v>
+      </c>
+      <c r="B310" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="C310" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
+      <c r="D310" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="E310" s="27">
+        <v>1</v>
+      </c>
+      <c r="F310" s="27">
+        <v>1</v>
+      </c>
+      <c r="G310" s="27">
+        <v>1</v>
+      </c>
+      <c r="H310" s="27"/>
+      <c r="I310" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="17.25">
+      <c r="A311" s="16">
+        <v>310</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="E311" s="27">
+        <v>1</v>
+      </c>
+      <c r="F311" s="27">
+        <v>1</v>
+      </c>
+      <c r="G311" s="27">
+        <v>1</v>
+      </c>
+      <c r="H311" s="27"/>
+      <c r="I311" s="28" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -12514,19 +12661,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4072,7 +4072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4121,6 +4121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4153,7 +4159,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4258,6 +4264,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4539,10 +4554,10 @@
   <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6483,29 +6498,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="5">
+    <row r="75" spans="1:9" s="36" customFormat="1" ht="16.5">
+      <c r="A75" s="35">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="35">
+        <v>0</v>
+      </c>
+      <c r="F75" s="36">
+        <v>0</v>
+      </c>
+      <c r="G75" s="36">
+        <v>0</v>
+      </c>
+      <c r="I75" s="37" t="s">
         <v>647</v>
       </c>
     </row>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="966">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3154,14 +3154,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3796,25 +3788,13 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
     <t>捕鱼通用掉落活动</t>
   </si>
   <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
     <t>act_040_by_and_cjj_to_ddz_conduct</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3887,14 +3867,6 @@
   </si>
   <si>
     <t>Act_Ty_ZP1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3970,6 +3942,156 @@
   </si>
   <si>
     <t>SYS_JBPManager</t>
+  </si>
+  <si>
+    <t>act_041_yybjsj</t>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_015_YYBJSJManager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_fkqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_QJD1Manager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4072,7 +4194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4123,7 +4245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4159,7 +4293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4232,19 +4366,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4265,6 +4390,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4273,6 +4410,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4551,13 +4727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ311"/>
+  <dimension ref="A1:AJ317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5249,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -6264,29 +6440,29 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="5">
+    <row r="66" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A66" s="36">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
+      <c r="E66" s="36">
+        <v>0</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0</v>
+      </c>
+      <c r="G66" s="37">
+        <v>0</v>
+      </c>
+      <c r="I66" s="39" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6498,29 +6674,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="36" customFormat="1" ht="16.5">
-      <c r="A75" s="35">
+    <row r="75" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A75" s="36">
         <v>74</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="35">
-        <v>0</v>
-      </c>
-      <c r="F75" s="36">
-        <v>0</v>
-      </c>
-      <c r="G75" s="36">
-        <v>0</v>
-      </c>
-      <c r="I75" s="37" t="s">
+      <c r="E75" s="36">
+        <v>0</v>
+      </c>
+      <c r="F75" s="37">
+        <v>0</v>
+      </c>
+      <c r="G75" s="37">
+        <v>0</v>
+      </c>
+      <c r="I75" s="38" t="s">
         <v>647</v>
       </c>
     </row>
@@ -10408,7 +10584,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10523,7 +10699,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10939,7 +11115,7 @@
         <v>734</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>735</v>
@@ -10965,7 +11141,7 @@
         <v>739</v>
       </c>
       <c r="C253" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>740</v>
@@ -10974,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" s="9" t="s">
         <v>737</v>
@@ -10987,26 +11163,26 @@
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="25" t="s">
+      <c r="B254" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="D254" s="25" t="s">
-        <v>742</v>
-      </c>
-      <c r="E254" s="27">
-        <v>1</v>
-      </c>
-      <c r="F254" s="27">
-        <v>1</v>
-      </c>
-      <c r="G254" s="27">
-        <v>1</v>
-      </c>
-      <c r="H254" s="27"/>
-      <c r="I254" s="25" t="s">
+      <c r="D254" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="E254" s="25">
+        <v>0</v>
+      </c>
+      <c r="F254" s="25">
+        <v>0</v>
+      </c>
+      <c r="G254" s="25">
+        <v>0</v>
+      </c>
+      <c r="H254" s="25"/>
+      <c r="I254" s="24" t="s">
         <v>738</v>
       </c>
     </row>
@@ -11015,25 +11191,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11041,25 +11217,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11067,13 +11243,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E257" s="17">
         <v>1</v>
@@ -11086,7 +11262,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11094,13 +11270,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11112,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11120,14 +11296,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>762</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11138,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11146,25 +11322,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11172,25 +11348,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11198,25 +11374,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" t="s">
+        <v>770</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D262" t="s">
-        <v>772</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11224,13 +11400,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11250,25 +11426,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11276,13 +11452,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>782</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>784</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11302,25 +11478,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11328,25 +11504,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>791</v>
-      </c>
       <c r="D267" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11354,13 +11530,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E268" s="17">
         <v>0</v>
@@ -11380,13 +11556,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11406,13 +11582,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11432,13 +11608,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11458,25 +11634,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>808</v>
-      </c>
       <c r="D272" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11484,14 +11660,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>812</v>
-      </c>
       <c r="E273" s="17">
         <v>1</v>
       </c>
@@ -11502,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11510,13 +11686,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="D274" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11528,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11536,25 +11712,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D275" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>0</v>
-      </c>
-      <c r="G275" s="17">
-        <v>0</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11562,25 +11738,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11588,22 +11764,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11611,25 +11787,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11637,13 +11813,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11655,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11663,22 +11839,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11686,13 +11862,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11704,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11712,13 +11888,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11730,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11738,13 +11914,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11756,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5">
@@ -11764,128 +11940,128 @@
         <v>283</v>
       </c>
       <c r="B284" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="D284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A285" s="31">
+    </row>
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A285" s="28">
         <v>284</v>
       </c>
-      <c r="B285" s="31" t="s">
+      <c r="B285" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>855</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="28">
+        <v>285</v>
+      </c>
+      <c r="B286" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A287" s="28">
+        <v>286</v>
+      </c>
+      <c r="B287" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="D285" s="31" t="s">
+      <c r="C287" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="E285" s="32">
-        <v>1</v>
-      </c>
-      <c r="F285" s="32">
-        <v>1</v>
-      </c>
-      <c r="G285" s="32">
-        <v>1</v>
-      </c>
-      <c r="I285" s="32" t="s">
+      <c r="D287" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="29" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A286" s="31">
-        <v>285</v>
-      </c>
-      <c r="B286" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="C286" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="D286" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A287" s="31">
-        <v>286</v>
-      </c>
-      <c r="B287" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="C287" s="32" t="s">
+    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A288" s="26">
+        <v>287</v>
+      </c>
+      <c r="B288" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="C288" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="D288" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="E287" s="32">
-        <v>1</v>
-      </c>
-      <c r="F287" s="32">
-        <v>1</v>
-      </c>
-      <c r="G287" s="32">
-        <v>1</v>
-      </c>
-      <c r="I287" s="32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
-      <c r="A288" s="29">
-        <v>287</v>
-      </c>
-      <c r="B288" s="30" t="s">
-        <v>862</v>
-      </c>
-      <c r="C288" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="D288" s="29" t="s">
-        <v>863</v>
-      </c>
-      <c r="E288" s="30">
-        <v>0</v>
-      </c>
-      <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="30">
-        <v>1</v>
-      </c>
-      <c r="I288" s="30" t="s">
+      <c r="E288" s="27">
+        <v>0</v>
+      </c>
+      <c r="F288" s="27">
+        <v>1</v>
+      </c>
+      <c r="G288" s="27">
+        <v>1</v>
+      </c>
+      <c r="I288" s="27" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11894,13 +12070,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D289" s="15" t="s">
         <v>865</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="D289" s="15" t="s">
-        <v>867</v>
       </c>
       <c r="E289" s="17">
         <v>0</v>
@@ -11920,77 +12096,77 @@
         <v>289</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="D290" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="18" t="s">
+    </row>
+    <row r="291" spans="1:36" s="31" customFormat="1" ht="16.5">
+      <c r="A291" s="30">
+        <v>290</v>
+      </c>
+      <c r="B291" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="C291" s="31" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A291" s="33">
-        <v>290</v>
-      </c>
-      <c r="B291" s="34" t="s">
+      <c r="D291" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="E291" s="31">
+        <v>1</v>
+      </c>
+      <c r="F291" s="31">
+        <v>1</v>
+      </c>
+      <c r="G291" s="31">
+        <v>1</v>
+      </c>
+      <c r="I291" s="31" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="34" t="s">
+    </row>
+    <row r="292" spans="1:36" s="31" customFormat="1" ht="16.5">
+      <c r="A292" s="30">
+        <v>291</v>
+      </c>
+      <c r="B292" s="31" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
+      <c r="C292" s="31" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A292" s="33">
-        <v>291</v>
-      </c>
-      <c r="B292" s="34" t="s">
+      <c r="D292" s="31" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="E292" s="34">
-        <v>1</v>
-      </c>
-      <c r="F292" s="34">
-        <v>1</v>
-      </c>
-      <c r="G292" s="34">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
-        <v>875</v>
+      <c r="E292" s="31">
+        <v>1</v>
+      </c>
+      <c r="F292" s="31">
+        <v>1</v>
+      </c>
+      <c r="G292" s="31">
+        <v>1</v>
+      </c>
+      <c r="I292" s="31" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -11998,13 +12174,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>880</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>882</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12024,13 +12200,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>883</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>885</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -12050,13 +12226,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12077,13 +12253,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D296" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12096,7 +12272,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12131,13 +12307,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D297" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>896</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12150,7 +12326,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12185,10 +12361,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12202,7 +12378,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12237,13 +12413,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="D299" s="18" t="s">
         <v>899</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>901</v>
       </c>
       <c r="E299" s="17">
         <v>0</v>
@@ -12256,7 +12432,7 @@
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12291,13 +12467,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E300" s="17">
         <v>1</v>
@@ -12310,7 +12486,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12344,27 +12520,27 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="26" t="s">
-        <v>931</v>
-      </c>
-      <c r="C301" s="25" t="s">
-        <v>937</v>
-      </c>
-      <c r="D301" s="26" t="s">
-        <v>930</v>
-      </c>
-      <c r="E301" s="27">
-        <v>1</v>
-      </c>
-      <c r="F301" s="27">
-        <v>1</v>
-      </c>
-      <c r="G301" s="27">
-        <v>1</v>
-      </c>
-      <c r="H301" s="27"/>
-      <c r="I301" s="25" t="s">
-        <v>935</v>
+      <c r="B301" s="40" t="s">
+        <v>954</v>
+      </c>
+      <c r="C301" s="41" t="s">
+        <v>929</v>
+      </c>
+      <c r="D301" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="E301" s="42">
+        <v>1</v>
+      </c>
+      <c r="F301" s="42">
+        <v>1</v>
+      </c>
+      <c r="G301" s="42">
+        <v>1</v>
+      </c>
+      <c r="H301" s="42"/>
+      <c r="I301" s="41" t="s">
+        <v>927</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12398,53 +12574,53 @@
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="D302" s="26" t="s">
-        <v>906</v>
-      </c>
-      <c r="E302" s="27">
-        <v>1</v>
-      </c>
-      <c r="F302" s="27">
-        <v>1</v>
-      </c>
-      <c r="G302" s="27">
-        <v>1</v>
-      </c>
-      <c r="H302" s="27"/>
-      <c r="I302" s="25" t="s">
-        <v>935</v>
+      <c r="B302" s="40" t="s">
+        <v>955</v>
+      </c>
+      <c r="C302" s="41" t="s">
+        <v>928</v>
+      </c>
+      <c r="D302" s="40" t="s">
+        <v>964</v>
+      </c>
+      <c r="E302" s="42">
+        <v>1</v>
+      </c>
+      <c r="F302" s="42">
+        <v>1</v>
+      </c>
+      <c r="G302" s="42">
+        <v>1</v>
+      </c>
+      <c r="H302" s="42"/>
+      <c r="I302" s="41" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>910</v>
-      </c>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="28" t="s">
+      <c r="B303" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="C303" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="D303" s="40" t="s">
+        <v>953</v>
+      </c>
+      <c r="E303" s="42">
+        <v>1</v>
+      </c>
+      <c r="F303" s="42">
+        <v>1</v>
+      </c>
+      <c r="G303" s="42">
+        <v>1</v>
+      </c>
+      <c r="H303" s="42"/>
+      <c r="I303" s="43" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12453,13 +12629,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12472,7 +12648,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12480,13 +12656,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12499,88 +12675,88 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="H306" s="17"/>
-      <c r="I306" s="15" t="s">
-        <v>923</v>
+      <c r="B306" s="46" t="s">
+        <v>918</v>
+      </c>
+      <c r="C306" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="D306" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="E306" s="31">
+        <v>1</v>
+      </c>
+      <c r="F306" s="31">
+        <v>1</v>
+      </c>
+      <c r="G306" s="31">
+        <v>1</v>
+      </c>
+      <c r="H306" s="31"/>
+      <c r="I306" s="47" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="26" t="s">
+      <c r="B307" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="47" t="s">
+        <v>922</v>
+      </c>
+      <c r="D307" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="E307" s="31">
+        <v>1</v>
+      </c>
+      <c r="F307" s="31">
+        <v>1</v>
+      </c>
+      <c r="G307" s="31">
+        <v>1</v>
+      </c>
+      <c r="H307" s="31"/>
+      <c r="I307" s="47" t="s">
         <v>927</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>928</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>929</v>
-      </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="25" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="26" t="s">
-        <v>932</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>934</v>
-      </c>
-      <c r="E308" s="27">
-        <v>1</v>
-      </c>
-      <c r="F308" s="27">
-        <v>1</v>
-      </c>
-      <c r="G308" s="27">
-        <v>1</v>
-      </c>
-      <c r="H308" s="27"/>
-      <c r="I308" s="25" t="s">
-        <v>935</v>
+      <c r="B308" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C308" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="D308" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="E308" s="31">
+        <v>1</v>
+      </c>
+      <c r="F308" s="31">
+        <v>1</v>
+      </c>
+      <c r="G308" s="31">
+        <v>1</v>
+      </c>
+      <c r="H308" s="31"/>
+      <c r="I308" s="47" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12588,13 +12764,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12610,54 +12786,204 @@
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>942</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>943</v>
-      </c>
-      <c r="E310" s="27">
-        <v>1</v>
-      </c>
-      <c r="F310" s="27">
-        <v>1</v>
-      </c>
-      <c r="G310" s="27">
-        <v>1</v>
-      </c>
-      <c r="H310" s="27"/>
-      <c r="I310" s="25" t="s">
-        <v>944</v>
+      <c r="B310" s="48" t="s">
+        <v>933</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="48" t="s">
+        <v>937</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="D311" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="H311" s="17"/>
+      <c r="I311" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
+      <c r="A312" s="16">
+        <v>311</v>
+      </c>
+      <c r="B312" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="D312" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="34" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="17.25">
+      <c r="A313" s="16">
+        <v>312</v>
+      </c>
+      <c r="B313" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="C313" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="D313" s="35" t="s">
         <v>946</v>
       </c>
-      <c r="D311" s="24" t="s">
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="33" t="s">
         <v>947</v>
       </c>
-      <c r="E311" s="27">
-        <v>1</v>
-      </c>
-      <c r="F311" s="27">
-        <v>1</v>
-      </c>
-      <c r="G311" s="27">
-        <v>1</v>
-      </c>
-      <c r="H311" s="27"/>
-      <c r="I311" s="28" t="s">
-        <v>644</v>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
+      <c r="B314" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="C314" s="45" t="s">
+        <v>948</v>
+      </c>
+      <c r="D314" s="45"/>
+      <c r="E314" s="45">
+        <v>1</v>
+      </c>
+      <c r="F314" s="45">
+        <v>1</v>
+      </c>
+      <c r="G314" s="45">
+        <v>1</v>
+      </c>
+      <c r="H314" s="45"/>
+      <c r="I314" s="45" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
+      <c r="A315" s="16">
+        <v>314</v>
+      </c>
+      <c r="B315" s="44" t="s">
+        <v>957</v>
+      </c>
+      <c r="C315" s="45" t="s">
+        <v>949</v>
+      </c>
+      <c r="D315" s="45"/>
+      <c r="E315" s="45">
+        <v>1</v>
+      </c>
+      <c r="F315" s="45">
+        <v>1</v>
+      </c>
+      <c r="G315" s="45">
+        <v>1</v>
+      </c>
+      <c r="H315" s="45"/>
+      <c r="I315" s="45" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="C316" s="50"/>
+      <c r="D316" s="50"/>
+      <c r="E316" s="50">
+        <v>1</v>
+      </c>
+      <c r="F316" s="50">
+        <v>1</v>
+      </c>
+      <c r="G316" s="50">
+        <v>1</v>
+      </c>
+      <c r="H316" s="50"/>
+      <c r="I316" s="50" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="49" t="s">
+        <v>962</v>
+      </c>
+      <c r="C317" s="50"/>
+      <c r="D317" s="50"/>
+      <c r="E317" s="50">
+        <v>1</v>
+      </c>
+      <c r="F317" s="50">
+        <v>1</v>
+      </c>
+      <c r="G317" s="50">
+        <v>1</v>
+      </c>
+      <c r="H317" s="50"/>
+      <c r="I317" s="51" t="s">
+        <v>963</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3811,10 +3811,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_013_DLFLManager</t>
   </si>
   <si>
@@ -4091,6 +4087,10 @@
   </si>
   <si>
     <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4733,7 +4733,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
+      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11164,13 +11164,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12364,7 +12364,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12521,13 +12521,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="40" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D301" s="40" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E301" s="42">
         <v>1</v>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="H301" s="42"/>
       <c r="I301" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12575,13 +12575,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="40" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C302" s="41" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D302" s="40" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E302" s="42">
         <v>1</v>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="H302" s="42"/>
       <c r="I302" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12602,13 +12602,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>904</v>
       </c>
       <c r="D303" s="40" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E303" s="42">
         <v>1</v>
@@ -12656,16 +12656,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C305" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>910</v>
-      </c>
       <c r="E305" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="17">
         <v>1</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12683,13 +12683,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="C306" s="47" t="s">
         <v>918</v>
       </c>
-      <c r="C306" s="47" t="s">
+      <c r="D306" s="46" t="s">
         <v>919</v>
-      </c>
-      <c r="D306" s="46" t="s">
-        <v>920</v>
       </c>
       <c r="E306" s="31">
         <v>1</v>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="H306" s="31"/>
       <c r="I306" s="47" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12710,13 +12710,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="47" t="s">
         <v>921</v>
       </c>
-      <c r="C307" s="47" t="s">
+      <c r="D307" s="46" t="s">
         <v>922</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>923</v>
       </c>
       <c r="E307" s="31">
         <v>1</v>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="H307" s="31"/>
       <c r="I307" s="47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12737,13 +12737,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="47" t="s">
         <v>924</v>
       </c>
-      <c r="C308" s="47" t="s">
+      <c r="D308" s="46" t="s">
         <v>925</v>
-      </c>
-      <c r="D308" s="46" t="s">
-        <v>926</v>
       </c>
       <c r="E308" s="31">
         <v>1</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="H308" s="31"/>
       <c r="I308" s="47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12764,13 +12764,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>931</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>932</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12787,13 +12787,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="48" t="s">
+        <v>932</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>934</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>935</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12814,13 +12814,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="48" t="s">
+        <v>936</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="48" t="s">
         <v>938</v>
-      </c>
-      <c r="D311" s="48" t="s">
-        <v>939</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12841,13 +12841,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="33" t="s">
         <v>940</v>
       </c>
-      <c r="C312" s="33" t="s">
+      <c r="D312" s="32" t="s">
         <v>941</v>
-      </c>
-      <c r="D312" s="32" t="s">
-        <v>942</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="34" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12868,13 +12868,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C313" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="C313" s="33" t="s">
+      <c r="D313" s="35" t="s">
         <v>945</v>
-      </c>
-      <c r="D313" s="35" t="s">
-        <v>946</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12895,10 +12895,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C314" s="45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D314" s="45"/>
       <c r="E314" s="45">
@@ -12912,7 +12912,7 @@
       </c>
       <c r="H314" s="45"/>
       <c r="I314" s="45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12920,10 +12920,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="44" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D315" s="45"/>
       <c r="E315" s="45">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="H315" s="45"/>
       <c r="I315" s="45" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12945,7 +12945,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="50"/>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H316" s="50"/>
       <c r="I316" s="50" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12968,7 +12968,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="50"/>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="H317" s="50"/>
       <c r="I317" s="51" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="961">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4034,45 +4034,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月1号</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_TY_JZSJBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4082,6 +4043,13 @@
   </si>
   <si>
     <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4284,7 +4252,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4423,13 +4391,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4712,10 +4674,10 @@
   <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12483,7 +12445,7 @@
         <v>925</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E300" s="39">
         <v>1</v>
@@ -12537,7 +12499,7 @@
         <v>924</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E301" s="39">
         <v>1</v>
@@ -12615,7 +12577,7 @@
         <v>908</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>906</v>
@@ -12896,51 +12858,33 @@
         <v>954</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="16" customFormat="1" ht="16.5">
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="46" t="s">
-        <v>956</v>
-      </c>
-      <c r="C315" s="47"/>
-      <c r="D315" s="47"/>
-      <c r="E315" s="47">
-        <v>1</v>
-      </c>
-      <c r="F315" s="47">
-        <v>1</v>
-      </c>
-      <c r="G315" s="47">
-        <v>1</v>
-      </c>
-      <c r="H315" s="47"/>
-      <c r="I315" s="47" t="s">
-        <v>957</v>
+      <c r="B315" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="I315" s="18" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A316" s="5">
-        <v>315</v>
-      </c>
-      <c r="B316" s="46" t="s">
-        <v>958</v>
-      </c>
-      <c r="C316" s="47"/>
-      <c r="D316" s="47"/>
-      <c r="E316" s="47">
-        <v>1</v>
-      </c>
-      <c r="F316" s="47">
-        <v>1</v>
-      </c>
-      <c r="G316" s="47">
-        <v>1</v>
-      </c>
-      <c r="H316" s="47"/>
-      <c r="I316" s="48" t="s">
-        <v>959</v>
-      </c>
+      <c r="A316" s="46"/>
+      <c r="B316" s="17"/>
+      <c r="I316" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="970">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3990,6 +3990,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3998,58 +4018,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_001_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4070,6 +4046,30 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_drop_style/act_004_baozhu</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4078,7 +4078,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8号</t>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4086,7 +4086,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4255,13 +4259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4297,7 +4301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4346,6 +4350,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4388,18 +4395,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4418,7 +4413,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4427,7 +4422,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4442,7 +4437,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4724,16 +4725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4745,7 +4746,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4774,7 +4775,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4800,7 +4801,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4826,7 +4827,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4852,7 +4853,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4878,7 +4879,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4904,7 +4905,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="5">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4930,7 +4931,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4956,7 +4957,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="5">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4982,7 +4983,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="5">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -5008,7 +5009,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="5">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5034,7 +5035,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="5">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5060,7 +5061,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5086,7 +5087,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5112,7 +5113,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="5">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5138,7 +5139,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="5">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5164,7 +5165,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="5">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5190,7 +5191,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="5">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5216,7 +5217,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="5">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5242,7 +5243,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="5">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5268,7 +5269,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="5">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5294,7 +5295,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="5">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5320,7 +5321,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
-      <c r="A23" s="5">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5346,7 +5347,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
-      <c r="A24" s="5">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5372,7 +5373,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
-      <c r="A25" s="5">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5398,7 +5399,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="5">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5424,7 +5425,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="5">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5450,7 +5451,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
-      <c r="A28" s="5">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5476,7 +5477,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
-      <c r="A29" s="5">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5502,7 +5503,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
-      <c r="A30" s="5">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5528,7 +5529,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
-      <c r="A31" s="5">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5554,7 +5555,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
-      <c r="A32" s="5">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5580,7 +5581,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
-      <c r="A33" s="5">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5606,7 +5607,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
-      <c r="A34" s="5">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5632,7 +5633,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
-      <c r="A35" s="5">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5658,7 +5659,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
-      <c r="A36" s="5">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5684,7 +5685,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
-      <c r="A37" s="5">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5710,7 +5711,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
-      <c r="A38" s="5">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5736,7 +5737,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
-      <c r="A39" s="5">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5762,7 +5763,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
-      <c r="A40" s="5">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5788,7 +5789,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
-      <c r="A41" s="5">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5814,7 +5815,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
-      <c r="A42" s="5">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5840,7 +5841,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
-      <c r="A43" s="5">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5866,7 +5867,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
-      <c r="A44" s="5">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5892,7 +5893,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
-      <c r="A45" s="5">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5918,7 +5919,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
-      <c r="A46" s="5">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5944,7 +5945,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
-      <c r="A47" s="5">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5970,7 +5971,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
-      <c r="A48" s="5">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5996,7 +5997,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
-      <c r="A49" s="5">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -6022,7 +6023,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
-      <c r="A50" s="5">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -6048,7 +6049,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
-      <c r="A51" s="5">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -6074,7 +6075,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
-      <c r="A52" s="5">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -6098,7 +6099,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -6124,7 +6125,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
-      <c r="A54" s="5">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -6150,7 +6151,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
-      <c r="A55" s="5">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6176,7 +6177,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
-      <c r="A56" s="5">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6202,7 +6203,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
-      <c r="A57" s="5">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6228,7 +6229,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
-      <c r="A58" s="5">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6254,7 +6255,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
-      <c r="A59" s="5">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6280,7 +6281,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="5">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6306,7 +6307,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
-      <c r="A61" s="5">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6332,7 +6333,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
-      <c r="A62" s="5">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6358,7 +6359,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
-      <c r="A63" s="5">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6384,7 +6385,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
-      <c r="A64" s="5">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6410,7 +6411,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
-      <c r="A65" s="5">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6436,7 +6437,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="5">
+      <c r="A66" s="16">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6462,7 +6463,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
-      <c r="A67" s="5">
+      <c r="A67" s="16">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6488,7 +6489,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
-      <c r="A68" s="5">
+      <c r="A68" s="16">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6514,7 +6515,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
-      <c r="A69" s="5">
+      <c r="A69" s="16">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6540,7 +6541,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
-      <c r="A70" s="5">
+      <c r="A70" s="16">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6566,7 +6567,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
-      <c r="A71" s="5">
+      <c r="A71" s="16">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6592,7 +6593,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
-      <c r="A72" s="5">
+      <c r="A72" s="16">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6618,7 +6619,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
-      <c r="A73" s="5">
+      <c r="A73" s="16">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6643,34 +6644,34 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="35" customFormat="1" ht="16.5">
-      <c r="A74" s="5">
+    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="34">
-        <v>0</v>
-      </c>
-      <c r="F74" s="35">
-        <v>0</v>
-      </c>
-      <c r="G74" s="35">
-        <v>0</v>
-      </c>
-      <c r="I74" s="36" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="5">
+      <c r="A75" s="16">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6696,7 +6697,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
-      <c r="A76" s="5">
+      <c r="A76" s="16">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6722,7 +6723,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
-      <c r="A77" s="5">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6748,7 +6749,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
-      <c r="A78" s="5">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6774,7 +6775,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
-      <c r="A79" s="5">
+      <c r="A79" s="16">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6800,7 +6801,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
-      <c r="A80" s="5">
+      <c r="A80" s="16">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6826,7 +6827,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
-      <c r="A81" s="5">
+      <c r="A81" s="16">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6852,7 +6853,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
-      <c r="A82" s="5">
+      <c r="A82" s="16">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6878,7 +6879,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
-      <c r="A83" s="5">
+      <c r="A83" s="16">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6904,7 +6905,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
-      <c r="A84" s="5">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6930,7 +6931,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
-      <c r="A85" s="5">
+      <c r="A85" s="16">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6956,7 +6957,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
-      <c r="A86" s="5">
+      <c r="A86" s="16">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6982,7 +6983,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
-      <c r="A87" s="5">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -7008,7 +7009,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
-      <c r="A88" s="5">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -7034,7 +7035,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
-      <c r="A89" s="5">
+      <c r="A89" s="16">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7060,7 +7061,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
-      <c r="A90" s="5">
+      <c r="A90" s="16">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -7086,7 +7087,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
-      <c r="A91" s="5">
+      <c r="A91" s="16">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -7112,7 +7113,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
-      <c r="A92" s="5">
+      <c r="A92" s="16">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -7138,7 +7139,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="5">
+      <c r="A93" s="16">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -7164,7 +7165,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
-      <c r="A94" s="5">
+      <c r="A94" s="16">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7190,7 +7191,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
-      <c r="A95" s="5">
+      <c r="A95" s="16">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7216,7 +7217,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
-      <c r="A96" s="5">
+      <c r="A96" s="16">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7242,7 +7243,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
-      <c r="A97" s="5">
+      <c r="A97" s="16">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7268,7 +7269,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
-      <c r="A98" s="5">
+      <c r="A98" s="16">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7294,7 +7295,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
-      <c r="A99" s="5">
+      <c r="A99" s="16">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7320,7 +7321,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
-      <c r="A100" s="5">
+      <c r="A100" s="16">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7346,7 +7347,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
-      <c r="A101" s="5">
+      <c r="A101" s="16">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7372,7 +7373,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
-      <c r="A102" s="5">
+      <c r="A102" s="16">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7398,7 +7399,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
-      <c r="A103" s="5">
+      <c r="A103" s="16">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7424,7 +7425,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
-      <c r="A104" s="5">
+      <c r="A104" s="16">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7450,7 +7451,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
-      <c r="A105" s="5">
+      <c r="A105" s="16">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7476,7 +7477,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
-      <c r="A106" s="5">
+      <c r="A106" s="16">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7502,7 +7503,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
-      <c r="A107" s="5">
+      <c r="A107" s="16">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7528,7 +7529,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
-      <c r="A108" s="5">
+      <c r="A108" s="16">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7554,7 +7555,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
-      <c r="A109" s="5">
+      <c r="A109" s="16">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7580,7 +7581,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
-      <c r="A110" s="5">
+      <c r="A110" s="16">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7606,7 +7607,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
-      <c r="A111" s="5">
+      <c r="A111" s="16">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7632,7 +7633,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
-      <c r="A112" s="5">
+      <c r="A112" s="16">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7658,7 +7659,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
-      <c r="A113" s="5">
+      <c r="A113" s="16">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7684,7 +7685,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
-      <c r="A114" s="5">
+      <c r="A114" s="16">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7710,7 +7711,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
-      <c r="A115" s="5">
+      <c r="A115" s="16">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7736,7 +7737,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
-      <c r="A116" s="5">
+      <c r="A116" s="16">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7762,7 +7763,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
-      <c r="A117" s="5">
+      <c r="A117" s="16">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7788,7 +7789,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
-      <c r="A118" s="5">
+      <c r="A118" s="16">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7814,7 +7815,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="5">
+      <c r="A119" s="16">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7840,7 +7841,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
-      <c r="A120" s="5">
+      <c r="A120" s="16">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7866,7 +7867,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
-      <c r="A121" s="5">
+      <c r="A121" s="16">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7892,7 +7893,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
-      <c r="A122" s="5">
+      <c r="A122" s="16">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7918,7 +7919,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
-      <c r="A123" s="5">
+      <c r="A123" s="16">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7944,7 +7945,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
-      <c r="A124" s="5">
+      <c r="A124" s="16">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7970,7 +7971,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
-      <c r="A125" s="5">
+      <c r="A125" s="16">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7996,7 +7997,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
-      <c r="A126" s="5">
+      <c r="A126" s="16">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -8022,7 +8023,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
-      <c r="A127" s="5">
+      <c r="A127" s="16">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -8048,7 +8049,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
-      <c r="A128" s="5">
+      <c r="A128" s="16">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -8074,7 +8075,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
-      <c r="A129" s="5">
+      <c r="A129" s="16">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -8100,7 +8101,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
-      <c r="A130" s="5">
+      <c r="A130" s="16">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -8126,7 +8127,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
-      <c r="A131" s="5">
+      <c r="A131" s="16">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -8152,7 +8153,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
-      <c r="A132" s="5">
+      <c r="A132" s="16">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8178,7 +8179,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
-      <c r="A133" s="5">
+      <c r="A133" s="16">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8204,7 +8205,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
-      <c r="A134" s="5">
+      <c r="A134" s="16">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8230,7 +8231,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
-      <c r="A135" s="5">
+      <c r="A135" s="16">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8256,7 +8257,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
-      <c r="A136" s="5">
+      <c r="A136" s="16">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8282,7 +8283,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
-      <c r="A137" s="5">
+      <c r="A137" s="16">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8308,7 +8309,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
-      <c r="A138" s="5">
+      <c r="A138" s="16">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8334,7 +8335,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
-      <c r="A139" s="5">
+      <c r="A139" s="16">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8360,7 +8361,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
-      <c r="A140" s="5">
+      <c r="A140" s="16">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8386,7 +8387,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
-      <c r="A141" s="5">
+      <c r="A141" s="16">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8412,7 +8413,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
-      <c r="A142" s="5">
+      <c r="A142" s="16">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8438,7 +8439,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
-      <c r="A143" s="5">
+      <c r="A143" s="16">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8464,7 +8465,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
-      <c r="A144" s="5">
+      <c r="A144" s="16">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8490,7 +8491,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
-      <c r="A145" s="5">
+      <c r="A145" s="16">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8516,7 +8517,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
-      <c r="A146" s="5">
+      <c r="A146" s="16">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8542,7 +8543,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
-      <c r="A147" s="5">
+      <c r="A147" s="16">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8568,7 +8569,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
-      <c r="A148" s="5">
+      <c r="A148" s="16">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8594,7 +8595,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
-      <c r="A149" s="5">
+      <c r="A149" s="16">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8620,7 +8621,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
-      <c r="A150" s="5">
+      <c r="A150" s="16">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8646,7 +8647,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
-      <c r="A151" s="5">
+      <c r="A151" s="16">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8672,7 +8673,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
-      <c r="A152" s="5">
+      <c r="A152" s="16">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8698,7 +8699,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
-      <c r="A153" s="5">
+      <c r="A153" s="16">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8724,7 +8725,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
-      <c r="A154" s="5">
+      <c r="A154" s="16">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8750,7 +8751,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
-      <c r="A155" s="5">
+      <c r="A155" s="16">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8776,7 +8777,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
-      <c r="A156" s="5">
+      <c r="A156" s="16">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8802,7 +8803,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
-      <c r="A157" s="5">
+      <c r="A157" s="16">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8828,7 +8829,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
-      <c r="A158" s="5">
+      <c r="A158" s="16">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8854,7 +8855,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
-      <c r="A159" s="5">
+      <c r="A159" s="16">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8880,7 +8881,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
-      <c r="A160" s="5">
+      <c r="A160" s="16">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8906,7 +8907,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
-      <c r="A161" s="5">
+      <c r="A161" s="16">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8932,7 +8933,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
-      <c r="A162" s="5">
+      <c r="A162" s="16">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8958,7 +8959,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
-      <c r="A163" s="5">
+      <c r="A163" s="16">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8984,7 +8985,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
-      <c r="A164" s="5">
+      <c r="A164" s="16">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -9010,7 +9011,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
-      <c r="A165" s="5">
+      <c r="A165" s="16">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -9036,7 +9037,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
-      <c r="A166" s="5">
+      <c r="A166" s="16">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -9062,7 +9063,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
-      <c r="A167" s="5">
+      <c r="A167" s="16">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -9088,7 +9089,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
-      <c r="A168" s="5">
+      <c r="A168" s="16">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -9114,7 +9115,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
-      <c r="A169" s="5">
+      <c r="A169" s="16">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -9138,7 +9139,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
-      <c r="A170" s="5">
+      <c r="A170" s="16">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -9162,7 +9163,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
-      <c r="A171" s="5">
+      <c r="A171" s="16">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9186,7 +9187,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
-      <c r="A172" s="5">
+      <c r="A172" s="16">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9210,7 +9211,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
-      <c r="A173" s="5">
+      <c r="A173" s="16">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9236,7 +9237,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
-      <c r="A174" s="5">
+      <c r="A174" s="16">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9260,7 +9261,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
-      <c r="A175" s="5">
+      <c r="A175" s="16">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9284,7 +9285,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
-      <c r="A176" s="5">
+      <c r="A176" s="16">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9308,7 +9309,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
-      <c r="A177" s="5">
+      <c r="A177" s="16">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9334,7 +9335,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
-      <c r="A178" s="5">
+      <c r="A178" s="16">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9360,7 +9361,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
-      <c r="A179" s="5">
+      <c r="A179" s="16">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9384,7 +9385,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A180" s="5">
+      <c r="A180" s="16">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
@@ -9408,7 +9409,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A181" s="5">
+      <c r="A181" s="16">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9432,7 +9433,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A182" s="5">
+      <c r="A182" s="16">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9456,7 +9457,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
-      <c r="A183" s="5">
+      <c r="A183" s="16">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -9479,7 +9480,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
-      <c r="A184" s="5">
+      <c r="A184" s="16">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9502,7 +9503,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
-      <c r="A185" s="5">
+      <c r="A185" s="16">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9525,7 +9526,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
-      <c r="A186" s="5">
+      <c r="A186" s="16">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9548,7 +9549,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
-      <c r="A187" s="5">
+      <c r="A187" s="16">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9571,7 +9572,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
-      <c r="A188" s="5">
+      <c r="A188" s="16">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9594,7 +9595,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
-      <c r="A189" s="5">
+      <c r="A189" s="16">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9617,7 +9618,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
-      <c r="A190" s="5">
+      <c r="A190" s="16">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9640,7 +9641,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
-      <c r="A191" s="5">
+      <c r="A191" s="16">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9663,7 +9664,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
-      <c r="A192" s="5">
+      <c r="A192" s="16">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9686,7 +9687,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
-      <c r="A193" s="5">
+      <c r="A193" s="16">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9709,7 +9710,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
-      <c r="A194" s="5">
+      <c r="A194" s="16">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9732,7 +9733,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
-      <c r="A195" s="5">
+      <c r="A195" s="16">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9755,7 +9756,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
-      <c r="A196" s="5">
+      <c r="A196" s="16">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9778,7 +9779,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
-      <c r="A197" s="5">
+      <c r="A197" s="16">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9801,7 +9802,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
-      <c r="A198" s="5">
+      <c r="A198" s="16">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9824,7 +9825,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
-      <c r="A199" s="5">
+      <c r="A199" s="16">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9847,7 +9848,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
-      <c r="A200" s="5">
+      <c r="A200" s="16">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9870,7 +9871,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
-      <c r="A201" s="5">
+      <c r="A201" s="16">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9893,7 +9894,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
-      <c r="A202" s="5">
+      <c r="A202" s="16">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9916,7 +9917,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
-      <c r="A203" s="5">
+      <c r="A203" s="16">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9939,7 +9940,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
-      <c r="A204" s="5">
+      <c r="A204" s="16">
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -9965,7 +9966,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
-      <c r="A205" s="5">
+      <c r="A205" s="16">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9991,7 +9992,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
-      <c r="A206" s="5">
+      <c r="A206" s="16">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -10017,7 +10018,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
-      <c r="A207" s="5">
+      <c r="A207" s="16">
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -10040,7 +10041,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
-      <c r="A208" s="5">
+      <c r="A208" s="16">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -10063,7 +10064,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
-      <c r="A209" s="5">
+      <c r="A209" s="16">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -10086,7 +10087,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
-      <c r="A210" s="5">
+      <c r="A210" s="16">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -10109,7 +10110,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
-      <c r="A211" s="5">
+      <c r="A211" s="16">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -10132,7 +10133,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
-      <c r="A212" s="5">
+      <c r="A212" s="16">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -10155,7 +10156,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
-      <c r="A213" s="5">
+      <c r="A213" s="16">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10178,7 +10179,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
-      <c r="A214" s="5">
+      <c r="A214" s="16">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10201,7 +10202,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
-      <c r="A215" s="5">
+      <c r="A215" s="16">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10224,7 +10225,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
-      <c r="A216" s="5">
+      <c r="A216" s="16">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10247,7 +10248,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
-      <c r="A217" s="5">
+      <c r="A217" s="16">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10270,7 +10271,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
-      <c r="A218" s="5">
+      <c r="A218" s="16">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10293,7 +10294,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
-      <c r="A219" s="5">
+      <c r="A219" s="16">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10316,7 +10317,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
-      <c r="A220" s="5">
+      <c r="A220" s="16">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10339,7 +10340,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
-      <c r="A221" s="5">
+      <c r="A221" s="16">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10362,7 +10363,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
-      <c r="A222" s="5">
+      <c r="A222" s="16">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10385,7 +10386,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
-      <c r="A223" s="5">
+      <c r="A223" s="16">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10408,7 +10409,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
-      <c r="A224" s="5">
+      <c r="A224" s="16">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10431,7 +10432,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
-      <c r="A225" s="5">
+      <c r="A225" s="16">
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -10454,7 +10455,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
-      <c r="A226" s="5">
+      <c r="A226" s="16">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10477,7 +10478,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
-      <c r="A227" s="5">
+      <c r="A227" s="16">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10500,7 +10501,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5">
-      <c r="A228" s="5">
+      <c r="A228" s="16">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10523,7 +10524,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5">
-      <c r="A229" s="5">
+      <c r="A229" s="16">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10546,7 +10547,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5">
-      <c r="A230" s="5">
+      <c r="A230" s="16">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10569,7 +10570,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5">
-      <c r="A231" s="5">
+      <c r="A231" s="16">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10592,7 +10593,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5">
-      <c r="A232" s="5">
+      <c r="A232" s="16">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10615,7 +10616,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
-      <c r="A233" s="5">
+      <c r="A233" s="16">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10638,7 +10639,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
-      <c r="A234" s="5">
+      <c r="A234" s="16">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10661,7 +10662,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
-      <c r="A235" s="5">
+      <c r="A235" s="16">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10687,7 +10688,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
-      <c r="A236" s="5">
+      <c r="A236" s="16">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10713,7 +10714,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
-      <c r="A237" s="5">
+      <c r="A237" s="16">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10739,7 +10740,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
-      <c r="A238" s="5">
+      <c r="A238" s="16">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10765,7 +10766,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
-      <c r="A239" s="5">
+      <c r="A239" s="16">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10791,7 +10792,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
-      <c r="A240" s="5">
+      <c r="A240" s="16">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10817,7 +10818,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
-      <c r="A241" s="5">
+      <c r="A241" s="16">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10843,7 +10844,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
-      <c r="A242" s="5">
+      <c r="A242" s="16">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10869,7 +10870,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
-      <c r="A243" s="5">
+      <c r="A243" s="16">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10895,7 +10896,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
-      <c r="A244" s="5">
+      <c r="A244" s="16">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10921,7 +10922,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
-      <c r="A245" s="5">
+      <c r="A245" s="16">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10947,7 +10948,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
-      <c r="A246" s="5">
+      <c r="A246" s="16">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10973,7 +10974,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
-      <c r="A247" s="5">
+      <c r="A247" s="16">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10999,7 +11000,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
-      <c r="A248" s="5">
+      <c r="A248" s="16">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -11025,7 +11026,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
-      <c r="A249" s="5">
+      <c r="A249" s="16">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -11051,7 +11052,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
-      <c r="A250" s="5">
+      <c r="A250" s="16">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -11077,7 +11078,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
-      <c r="A251" s="5">
+      <c r="A251" s="16">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -11103,7 +11104,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
-      <c r="A252" s="5">
+      <c r="A252" s="16">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -11129,34 +11130,34 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
-      <c r="A253" s="5">
+      <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="23" t="s">
+      <c r="B253" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="C253" s="24" t="s">
+      <c r="C253" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="D253" s="23" t="s">
+      <c r="D253" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="E253" s="24">
-        <v>1</v>
-      </c>
-      <c r="F253" s="24">
-        <v>1</v>
-      </c>
-      <c r="G253" s="24">
-        <v>1</v>
-      </c>
-      <c r="H253" s="24"/>
-      <c r="I253" s="23" t="s">
+      <c r="E253" s="25">
+        <v>1</v>
+      </c>
+      <c r="F253" s="25">
+        <v>1</v>
+      </c>
+      <c r="G253" s="25">
+        <v>1</v>
+      </c>
+      <c r="H253" s="25"/>
+      <c r="I253" s="24" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
-      <c r="A254" s="5">
+      <c r="A254" s="16">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -11182,7 +11183,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
-      <c r="A255" s="5">
+      <c r="A255" s="16">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11207,8 +11208,8 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="22" customFormat="1" ht="16.5">
-      <c r="A256" s="5">
+    <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
+      <c r="A256" s="16">
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
@@ -11220,22 +11221,22 @@
       <c r="D256" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E256" s="16">
-        <v>1</v>
-      </c>
-      <c r="F256" s="16">
-        <v>1</v>
-      </c>
-      <c r="G256" s="16">
-        <v>1</v>
-      </c>
-      <c r="H256" s="16"/>
+      <c r="E256" s="17">
+        <v>1</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A257" s="5">
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A257" s="16">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
@@ -11247,21 +11248,21 @@
       <c r="D257" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="E257" s="16">
-        <v>0</v>
-      </c>
-      <c r="F257" s="16">
-        <v>1</v>
-      </c>
-      <c r="G257" s="16">
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A258" s="5">
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A258" s="16">
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
@@ -11273,21 +11274,21 @@
       <c r="D258" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="E258" s="16">
-        <v>0</v>
-      </c>
-      <c r="F258" s="16">
-        <v>1</v>
-      </c>
-      <c r="G258" s="16">
+      <c r="E258" s="17">
+        <v>0</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+      <c r="G258" s="17">
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A259" s="5">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A259" s="16">
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
@@ -11299,21 +11300,21 @@
       <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A260" s="5">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A260" s="16">
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
@@ -11325,13 +11326,13 @@
       <c r="D260" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
@@ -11339,7 +11340,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
-      <c r="A261" s="5">
+      <c r="A261" s="16">
         <v>260</v>
       </c>
       <c r="B261" t="s">
@@ -11365,7 +11366,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
-      <c r="A262" s="5">
+      <c r="A262" s="16">
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
@@ -11390,8 +11391,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A263" s="5">
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
@@ -11403,21 +11404,21 @@
       <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
         <v>0</v>
       </c>
       <c r="I263" s="15" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A264" s="5">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A264" s="16">
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
@@ -11429,21 +11430,21 @@
       <c r="D264" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="E264" s="16">
-        <v>0</v>
-      </c>
-      <c r="F264" s="16">
-        <v>1</v>
-      </c>
-      <c r="G264" s="16">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>1</v>
+      </c>
+      <c r="G264" s="17">
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A265" s="5">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A265" s="16">
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
@@ -11455,21 +11456,21 @@
       <c r="D265" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A266" s="5">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A266" s="16">
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
@@ -11478,24 +11479,24 @@
       <c r="C266" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="D266" s="17" t="s">
+      <c r="D266" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A267" s="5">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A267" s="16">
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
@@ -11504,24 +11505,24 @@
       <c r="C267" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="D267" s="17" t="s">
+      <c r="D267" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="E267" s="16">
-        <v>0</v>
-      </c>
-      <c r="F267" s="16">
-        <v>0</v>
-      </c>
-      <c r="G267" s="16">
-        <v>0</v>
-      </c>
-      <c r="I267" s="18" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A268" s="5">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A268" s="16">
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
@@ -11530,24 +11531,24 @@
       <c r="C268" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="D268" s="17" t="s">
+      <c r="D268" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="E268" s="16">
-        <v>0</v>
-      </c>
-      <c r="F268" s="16">
-        <v>1</v>
-      </c>
-      <c r="G268" s="16">
-        <v>1</v>
-      </c>
-      <c r="I268" s="18" t="s">
+      <c r="E268" s="17">
+        <v>0</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1</v>
+      </c>
+      <c r="G268" s="17">
+        <v>1</v>
+      </c>
+      <c r="I268" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A269" s="5">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A269" s="16">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
@@ -11556,24 +11557,24 @@
       <c r="C269" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="D269" s="17" t="s">
+      <c r="D269" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="E269" s="16">
-        <v>0</v>
-      </c>
-      <c r="F269" s="16">
-        <v>0</v>
-      </c>
-      <c r="G269" s="16">
-        <v>0</v>
-      </c>
-      <c r="I269" s="18" t="s">
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>0</v>
+      </c>
+      <c r="G269" s="17">
+        <v>0</v>
+      </c>
+      <c r="I269" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A270" s="5">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A270" s="16">
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
@@ -11582,24 +11583,24 @@
       <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="D270" s="17" t="s">
+      <c r="D270" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="E270" s="16">
-        <v>1</v>
-      </c>
-      <c r="F270" s="16">
-        <v>1</v>
-      </c>
-      <c r="G270" s="16">
-        <v>1</v>
-      </c>
-      <c r="I270" s="18" t="s">
+      <c r="E270" s="17">
+        <v>1</v>
+      </c>
+      <c r="F270" s="17">
+        <v>1</v>
+      </c>
+      <c r="G270" s="17">
+        <v>1</v>
+      </c>
+      <c r="I270" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A271" s="5">
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A271" s="16">
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
@@ -11608,24 +11609,24 @@
       <c r="C271" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="D271" s="17" t="s">
+      <c r="D271" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="E271" s="16">
-        <v>1</v>
-      </c>
-      <c r="F271" s="16">
-        <v>1</v>
-      </c>
-      <c r="G271" s="16">
-        <v>1</v>
-      </c>
-      <c r="I271" s="18" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A272" s="5">
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A272" s="16">
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
@@ -11634,24 +11635,24 @@
       <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D272" s="17" t="s">
+      <c r="D272" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="E272" s="16">
-        <v>1</v>
-      </c>
-      <c r="F272" s="16">
-        <v>1</v>
-      </c>
-      <c r="G272" s="16">
-        <v>1</v>
-      </c>
-      <c r="I272" s="18" t="s">
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A273" s="5">
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
@@ -11660,24 +11661,24 @@
       <c r="C273" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D273" s="17" t="s">
+      <c r="D273" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="E273" s="16">
-        <v>1</v>
-      </c>
-      <c r="F273" s="16">
-        <v>1</v>
-      </c>
-      <c r="G273" s="16">
-        <v>1</v>
-      </c>
-      <c r="I273" s="18" t="s">
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A274" s="5">
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A274" s="16">
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
@@ -11686,24 +11687,24 @@
       <c r="C274" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D274" s="17" t="s">
+      <c r="D274" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E274" s="16">
-        <v>0</v>
-      </c>
-      <c r="F274" s="16">
-        <v>0</v>
-      </c>
-      <c r="G274" s="16">
-        <v>0</v>
-      </c>
-      <c r="I274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A275" s="5">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
@@ -11712,24 +11713,24 @@
       <c r="C275" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D275" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="E275" s="16">
-        <v>0</v>
-      </c>
-      <c r="F275" s="16">
-        <v>1</v>
-      </c>
-      <c r="G275" s="16">
-        <v>1</v>
-      </c>
-      <c r="I275" s="18" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A276" s="5">
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A276" s="16">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
@@ -11738,21 +11739,21 @@
       <c r="C276" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="E276" s="16">
-        <v>0</v>
-      </c>
-      <c r="F276" s="16">
-        <v>1</v>
-      </c>
-      <c r="G276" s="16">
-        <v>1</v>
-      </c>
-      <c r="I276" s="18" t="s">
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A277" s="5">
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A277" s="16">
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
@@ -11761,24 +11762,24 @@
       <c r="C277" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="D277" s="17" t="s">
+      <c r="D277" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="E277" s="16">
-        <v>0</v>
-      </c>
-      <c r="F277" s="16">
-        <v>0</v>
-      </c>
-      <c r="G277" s="16">
-        <v>0</v>
-      </c>
-      <c r="I277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
-      <c r="A278" s="5">
+      <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
@@ -11787,7 +11788,7 @@
       <c r="C278" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D278" s="17" t="s">
+      <c r="D278" s="18" t="s">
         <v>826</v>
       </c>
       <c r="E278">
@@ -11799,12 +11800,12 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="18" t="s">
+      <c r="I278" s="19" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
-      <c r="A279" s="5">
+      <c r="A279" s="16">
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
@@ -11822,12 +11823,12 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="18" t="s">
+      <c r="I279" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
-      <c r="A280" s="5">
+      <c r="A280" s="16">
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
@@ -11836,7 +11837,7 @@
       <c r="C280" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="D280" s="17" t="s">
+      <c r="D280" s="18" t="s">
         <v>830</v>
       </c>
       <c r="E280">
@@ -11848,12 +11849,12 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="18" t="s">
+      <c r="I280" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
-      <c r="A281" s="5">
+      <c r="A281" s="16">
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
@@ -11862,7 +11863,7 @@
       <c r="C281" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="D281" s="17" t="s">
+      <c r="D281" s="18" t="s">
         <v>831</v>
       </c>
       <c r="E281">
@@ -11874,12 +11875,12 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="18" t="s">
+      <c r="I281" s="19" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
-      <c r="A282" s="5">
+      <c r="A282" s="16">
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
@@ -11888,7 +11889,7 @@
       <c r="C282" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="D282" s="17" t="s">
+      <c r="D282" s="18" t="s">
         <v>845</v>
       </c>
       <c r="E282">
@@ -11900,21 +11901,21 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="18" t="s">
+      <c r="I282" s="19" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
-      <c r="A283" s="5">
+      <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="19" t="s">
+      <c r="B283" s="20" t="s">
         <v>840</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="D283" s="17" t="s">
+      <c r="D283" s="18" t="s">
         <v>842</v>
       </c>
       <c r="E283">
@@ -11926,142 +11927,142 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="18" t="s">
+      <c r="I283" s="19" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A284" s="5">
+    <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="B284" s="28" t="s">
         <v>851</v>
       </c>
-      <c r="C284" s="28" t="s">
+      <c r="C284" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="D284" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="E284" s="28">
-        <v>1</v>
-      </c>
-      <c r="F284" s="28">
-        <v>1</v>
-      </c>
-      <c r="G284" s="28">
-        <v>1</v>
-      </c>
-      <c r="I284" s="28" t="s">
+      <c r="E284" s="29">
+        <v>1</v>
+      </c>
+      <c r="F284" s="29">
+        <v>1</v>
+      </c>
+      <c r="G284" s="29">
+        <v>1</v>
+      </c>
+      <c r="I284" s="29" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A285" s="5">
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="C285" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="E285" s="28">
-        <v>1</v>
-      </c>
-      <c r="F285" s="28">
-        <v>1</v>
-      </c>
-      <c r="G285" s="28">
-        <v>1</v>
-      </c>
-      <c r="I285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A286" s="5">
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="28" t="s">
+      <c r="B286" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C286" s="28" t="s">
+      <c r="C286" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D286" s="27" t="s">
+      <c r="D286" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="E286" s="28">
-        <v>1</v>
-      </c>
-      <c r="F286" s="28">
-        <v>1</v>
-      </c>
-      <c r="G286" s="28">
-        <v>1</v>
-      </c>
-      <c r="I286" s="28" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="26" customFormat="1" ht="16.5">
-      <c r="A287" s="5">
+    <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="26" t="s">
+      <c r="B287" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="26" t="s">
+      <c r="C287" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="D287" s="25" t="s">
+      <c r="D287" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="E287" s="26">
-        <v>0</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="26" t="s">
+      <c r="E287" s="27">
+        <v>0</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="46" customFormat="1" ht="16.5">
-      <c r="A288" s="48">
+    <row r="288" spans="1:9" s="36" customFormat="1" ht="16.5">
+      <c r="A288" s="46">
         <v>287</v>
       </c>
-      <c r="B288" s="45" t="s">
+      <c r="B288" s="35" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="45" t="s">
+      <c r="C288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="45" t="s">
+      <c r="D288" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="46">
-        <v>1</v>
-      </c>
-      <c r="F288" s="46">
-        <v>1</v>
-      </c>
-      <c r="G288" s="46">
-        <v>1</v>
-      </c>
-      <c r="I288" s="45" t="s">
+      <c r="E288" s="36">
+        <v>1</v>
+      </c>
+      <c r="F288" s="36">
+        <v>1</v>
+      </c>
+      <c r="G288" s="36">
+        <v>1</v>
+      </c>
+      <c r="I288" s="35" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
-      <c r="A289" s="5">
+      <c r="A289" s="16">
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
@@ -12070,7 +12071,7 @@
       <c r="C289" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D289" s="17" t="s">
+      <c r="D289" s="18" t="s">
         <v>865</v>
       </c>
       <c r="E289">
@@ -12082,73 +12083,73 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="18" t="s">
+      <c r="I289" s="19" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="29" customFormat="1" ht="16.5">
-      <c r="A290" s="5">
+    <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="29" t="s">
+      <c r="B290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="C290" s="29" t="s">
+      <c r="C290" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="D290" s="29" t="s">
+      <c r="D290" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="E290" s="29">
-        <v>1</v>
-      </c>
-      <c r="F290" s="29">
-        <v>1</v>
-      </c>
-      <c r="G290" s="29">
-        <v>1</v>
-      </c>
-      <c r="I290" s="29" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="29" customFormat="1" ht="16.5">
-      <c r="A291" s="5">
+    <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="29" t="s">
+      <c r="B291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="29" t="s">
+      <c r="C291" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="29" t="s">
+      <c r="D291" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="E291" s="29">
-        <v>1</v>
-      </c>
-      <c r="F291" s="29">
-        <v>1</v>
-      </c>
-      <c r="G291" s="29">
-        <v>1</v>
-      </c>
-      <c r="I291" s="29" t="s">
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
-      <c r="A292" s="5">
+      <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="19" t="s">
+      <c r="B292" s="20" t="s">
         <v>875</v>
       </c>
       <c r="C292" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D292" s="19" t="s">
+      <c r="D292" s="20" t="s">
         <v>877</v>
       </c>
       <c r="E292">
@@ -12160,21 +12161,21 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="18" t="s">
+      <c r="I292" s="19" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
-      <c r="A293" s="5">
+      <c r="A293" s="16">
         <v>292</v>
       </c>
-      <c r="B293" s="19" t="s">
+      <c r="B293" s="20" t="s">
         <v>878</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D293" s="19" t="s">
+      <c r="D293" s="20" t="s">
         <v>880</v>
       </c>
       <c r="E293">
@@ -12186,800 +12187,794 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="18" t="s">
+      <c r="I293" s="19" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
-      <c r="A294" s="5">
+      <c r="A294" s="16">
         <v>293</v>
       </c>
-      <c r="B294" s="17" t="s">
+      <c r="B294" s="18" t="s">
         <v>881</v>
       </c>
       <c r="C294" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="D294" s="17" t="s">
+      <c r="D294" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="E294" s="16">
-        <v>0</v>
-      </c>
-      <c r="F294" s="16">
-        <v>0</v>
-      </c>
-      <c r="G294" s="16">
-        <v>0</v>
-      </c>
-      <c r="H294" s="16"/>
-      <c r="I294" s="18" t="s">
+      <c r="E294" s="17">
+        <v>0</v>
+      </c>
+      <c r="F294" s="17">
+        <v>0</v>
+      </c>
+      <c r="G294" s="17">
+        <v>0</v>
+      </c>
+      <c r="H294" s="17"/>
+      <c r="I294" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A295" s="5">
+    <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="18" t="s">
         <v>885</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="D295" s="17" t="s">
+      <c r="D295" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="E295" s="16">
-        <v>0</v>
-      </c>
-      <c r="F295" s="16">
-        <v>0</v>
-      </c>
-      <c r="G295" s="16">
-        <v>0</v>
-      </c>
-      <c r="H295" s="16"/>
-      <c r="I295" s="18" t="s">
+      <c r="E295" s="17">
+        <v>0</v>
+      </c>
+      <c r="F295" s="17">
+        <v>0</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+      <c r="H295" s="17"/>
+      <c r="I295" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J295" s="16"/>
-      <c r="K295" s="16"/>
-      <c r="L295" s="16"/>
-      <c r="M295" s="16"/>
-      <c r="N295" s="16"/>
-      <c r="O295" s="16"/>
-      <c r="P295" s="16"/>
-      <c r="Q295" s="16"/>
-      <c r="R295" s="16"/>
-      <c r="S295" s="16"/>
-      <c r="T295" s="16"/>
-      <c r="U295" s="16"/>
-      <c r="V295" s="16"/>
-      <c r="W295" s="16"/>
-      <c r="X295" s="16"/>
-      <c r="Y295" s="16"/>
-      <c r="Z295" s="16"/>
-      <c r="AA295" s="16"/>
-      <c r="AB295" s="16"/>
-      <c r="AC295" s="16"/>
-      <c r="AD295" s="16"/>
-      <c r="AE295" s="16"/>
-      <c r="AF295" s="16"/>
-      <c r="AG295" s="16"/>
-      <c r="AH295" s="16"/>
-      <c r="AI295" s="16"/>
-      <c r="AJ295" s="16"/>
-    </row>
-    <row r="296" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A296" s="5">
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="O295" s="17"/>
+      <c r="P295" s="17"/>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="17"/>
+      <c r="S295" s="17"/>
+      <c r="T295" s="17"/>
+      <c r="U295" s="17"/>
+      <c r="V295" s="17"/>
+      <c r="W295" s="17"/>
+      <c r="X295" s="17"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="17"/>
+      <c r="AA295" s="17"/>
+      <c r="AB295" s="17"/>
+      <c r="AC295" s="17"/>
+      <c r="AD295" s="17"/>
+      <c r="AE295" s="17"/>
+      <c r="AF295" s="17"/>
+      <c r="AG295" s="17"/>
+      <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
+      <c r="AJ295" s="17"/>
+    </row>
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A296" s="16">
         <v>295</v>
       </c>
-      <c r="B296" s="17" t="s">
+      <c r="B296" s="18" t="s">
         <v>889</v>
       </c>
       <c r="C296" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="D296" s="17" t="s">
+      <c r="D296" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="E296" s="16">
-        <v>0</v>
-      </c>
-      <c r="F296" s="16">
-        <v>0</v>
-      </c>
-      <c r="G296" s="16">
-        <v>0</v>
-      </c>
-      <c r="H296" s="16"/>
-      <c r="I296" s="18" t="s">
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+      <c r="H296" s="17"/>
+      <c r="I296" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J296" s="16"/>
-      <c r="K296" s="16"/>
-      <c r="L296" s="16"/>
-      <c r="M296" s="16"/>
-      <c r="N296" s="16"/>
-      <c r="O296" s="16"/>
-      <c r="P296" s="16"/>
-      <c r="Q296" s="16"/>
-      <c r="R296" s="16"/>
-      <c r="S296" s="16"/>
-      <c r="T296" s="16"/>
-      <c r="U296" s="16"/>
-      <c r="V296" s="16"/>
-      <c r="W296" s="16"/>
-      <c r="X296" s="16"/>
-      <c r="Y296" s="16"/>
-      <c r="Z296" s="16"/>
-      <c r="AA296" s="16"/>
-      <c r="AB296" s="16"/>
-      <c r="AC296" s="16"/>
-      <c r="AD296" s="16"/>
-      <c r="AE296" s="16"/>
-      <c r="AF296" s="16"/>
-      <c r="AG296" s="16"/>
-      <c r="AH296" s="16"/>
-      <c r="AI296" s="16"/>
-      <c r="AJ296" s="16"/>
-    </row>
-    <row r="297" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A297" s="5">
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="O296" s="17"/>
+      <c r="P296" s="17"/>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="17"/>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+    </row>
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
+      <c r="A297" s="16">
         <v>296</v>
       </c>
-      <c r="B297" s="17" t="s">
+      <c r="B297" s="18" t="s">
         <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="D297" s="17" t="s">
+      <c r="D297" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="E297" s="16">
-        <v>0</v>
-      </c>
-      <c r="F297" s="16">
-        <v>0</v>
-      </c>
-      <c r="G297" s="16">
-        <v>0</v>
-      </c>
-      <c r="H297" s="16"/>
-      <c r="I297" s="18" t="s">
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+      <c r="H297" s="17"/>
+      <c r="I297" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="J297" s="16"/>
-      <c r="K297" s="16"/>
-      <c r="L297" s="16"/>
-      <c r="M297" s="16"/>
-      <c r="N297" s="16"/>
-      <c r="O297" s="16"/>
-      <c r="P297" s="16"/>
-      <c r="Q297" s="16"/>
-      <c r="R297" s="16"/>
-      <c r="S297" s="16"/>
-      <c r="T297" s="16"/>
-      <c r="U297" s="16"/>
-      <c r="V297" s="16"/>
-      <c r="W297" s="16"/>
-      <c r="X297" s="16"/>
-      <c r="Y297" s="16"/>
-      <c r="Z297" s="16"/>
-      <c r="AA297" s="16"/>
-      <c r="AB297" s="16"/>
-      <c r="AC297" s="16"/>
-      <c r="AD297" s="16"/>
-      <c r="AE297" s="16"/>
-      <c r="AF297" s="16"/>
-      <c r="AG297" s="16"/>
-      <c r="AH297" s="16"/>
-      <c r="AI297" s="16"/>
-      <c r="AJ297" s="16"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="17"/>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
     </row>
     <row r="298" spans="1:36" ht="16.5">
-      <c r="A298" s="5">
+      <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="17" t="s">
+      <c r="B298" s="38" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C298" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="D298" s="17" t="s">
+      <c r="D298" s="38" t="s">
         <v>897</v>
       </c>
-      <c r="E298" s="16">
-        <v>1</v>
-      </c>
-      <c r="F298" s="16">
-        <v>1</v>
-      </c>
-      <c r="G298" s="16">
-        <v>1</v>
-      </c>
-      <c r="H298" s="16"/>
-      <c r="I298" s="18" t="s">
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="J298" s="16"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="16"/>
-      <c r="M298" s="16"/>
-      <c r="N298" s="16"/>
-      <c r="O298" s="16"/>
-      <c r="P298" s="16"/>
-      <c r="Q298" s="16"/>
-      <c r="R298" s="16"/>
-      <c r="S298" s="16"/>
-      <c r="T298" s="16"/>
-      <c r="U298" s="16"/>
-      <c r="V298" s="16"/>
-      <c r="W298" s="16"/>
-      <c r="X298" s="16"/>
-      <c r="Y298" s="16"/>
-      <c r="Z298" s="16"/>
-      <c r="AA298" s="16"/>
-      <c r="AB298" s="16"/>
-      <c r="AC298" s="16"/>
-      <c r="AD298" s="16"/>
-      <c r="AE298" s="16"/>
-      <c r="AF298" s="16"/>
-      <c r="AG298" s="16"/>
-      <c r="AH298" s="16"/>
-      <c r="AI298" s="16"/>
-      <c r="AJ298" s="16"/>
-    </row>
-    <row r="299" spans="1:36" s="20" customFormat="1" ht="16.5">
-      <c r="A299" s="5">
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+    </row>
+    <row r="299" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C299" s="38" t="s">
+      <c r="B299" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="D299" s="37" t="s">
+      <c r="D299" s="41" t="s">
         <v>948</v>
       </c>
-      <c r="E299" s="39">
-        <v>1</v>
-      </c>
-      <c r="F299" s="39">
-        <v>1</v>
-      </c>
-      <c r="G299" s="39">
-        <v>1</v>
-      </c>
-      <c r="H299" s="39"/>
-      <c r="I299" s="38" t="s">
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="H299" s="43"/>
+      <c r="I299" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="J299" s="16"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="16"/>
-      <c r="M299" s="16"/>
-      <c r="N299" s="16"/>
-      <c r="O299" s="16"/>
-      <c r="P299" s="16"/>
-      <c r="Q299" s="16"/>
-      <c r="R299" s="16"/>
-      <c r="S299" s="16"/>
-      <c r="T299" s="16"/>
-      <c r="U299" s="16"/>
-      <c r="V299" s="16"/>
-      <c r="W299" s="16"/>
-      <c r="X299" s="16"/>
-      <c r="Y299" s="16"/>
-      <c r="Z299" s="16"/>
-      <c r="AA299" s="16"/>
-      <c r="AB299" s="16"/>
-      <c r="AC299" s="16"/>
-      <c r="AD299" s="16"/>
-      <c r="AE299" s="16"/>
-      <c r="AF299" s="16"/>
-      <c r="AG299" s="16"/>
-      <c r="AH299" s="16"/>
-      <c r="AI299" s="16"/>
-      <c r="AJ299" s="16"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="17"/>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="17"/>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
     </row>
     <row r="300" spans="1:36" ht="16.5">
-      <c r="A300" s="5">
+      <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="37" t="s">
-        <v>946</v>
-      </c>
-      <c r="C300" s="38" t="s">
+      <c r="B300" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="D300" s="37" t="s">
+      <c r="D300" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="E300" s="39">
-        <v>1</v>
-      </c>
-      <c r="F300" s="39">
-        <v>1</v>
-      </c>
-      <c r="G300" s="39">
-        <v>1</v>
-      </c>
-      <c r="H300" s="39"/>
-      <c r="I300" s="38" t="s">
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="H300" s="43"/>
+      <c r="I300" s="42" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="16" customFormat="1" ht="16.5">
-      <c r="A301" s="5">
+    <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
+      <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="37" t="s">
+      <c r="B301" s="41" t="s">
         <v>943</v>
       </c>
-      <c r="C301" s="37" t="s">
+      <c r="C301" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="D301" s="37" t="s">
+      <c r="D301" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="E301" s="39">
-        <v>1</v>
-      </c>
-      <c r="F301" s="39">
-        <v>1</v>
-      </c>
-      <c r="G301" s="39">
-        <v>1</v>
-      </c>
-      <c r="H301" s="39"/>
-      <c r="I301" s="40" t="s">
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="H301" s="43"/>
+      <c r="I301" s="44" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
-      <c r="A302" s="5">
+      <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="C302" s="16" t="s">
+      <c r="C302" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="D302" s="16" t="s">
+      <c r="D302" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="E302" s="16">
-        <v>1</v>
-      </c>
-      <c r="F302" s="16">
-        <v>1</v>
-      </c>
-      <c r="G302" s="16">
-        <v>1</v>
-      </c>
-      <c r="H302" s="16"/>
-      <c r="I302" s="18" t="s">
+      <c r="E302" s="17">
+        <v>1</v>
+      </c>
+      <c r="F302" s="17">
+        <v>1</v>
+      </c>
+      <c r="G302" s="17">
+        <v>1</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
-      <c r="A303" s="5">
+      <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="17" t="s">
+      <c r="B303" s="18" t="s">
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="D303" s="17" t="s">
+      <c r="D303" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="H303" s="16"/>
+      <c r="E303" s="17">
+        <v>1</v>
+      </c>
+      <c r="F303" s="17">
+        <v>1</v>
+      </c>
+      <c r="G303" s="17">
+        <v>1</v>
+      </c>
+      <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
-      <c r="A304" s="5">
+      <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="38" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="39" t="s">
         <v>912</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="E304" s="29">
-        <v>1</v>
-      </c>
-      <c r="F304" s="29">
-        <v>1</v>
-      </c>
-      <c r="G304" s="29">
-        <v>1</v>
-      </c>
-      <c r="H304" s="29"/>
-      <c r="I304" s="42" t="s">
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="39" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5">
-      <c r="A305" s="5">
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="41" t="s">
+      <c r="B305" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="42" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="41" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="29">
-        <v>1</v>
-      </c>
-      <c r="F305" s="29">
-        <v>1</v>
-      </c>
-      <c r="G305" s="29">
-        <v>1</v>
-      </c>
-      <c r="H305" s="29"/>
-      <c r="I305" s="42" t="s">
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="I305" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5">
-      <c r="A306" s="5">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="41" t="s">
+      <c r="B306" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="42" t="s">
+      <c r="C306" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D306" s="41" t="s">
+      <c r="D306" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="E306" s="29">
-        <v>1</v>
-      </c>
-      <c r="F306" s="29">
-        <v>1</v>
-      </c>
-      <c r="G306" s="29">
-        <v>1</v>
-      </c>
-      <c r="H306" s="29"/>
-      <c r="I306" s="42" t="s">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
-      <c r="A307" s="5">
+      <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="17" t="s">
+      <c r="B307" s="18" t="s">
         <v>923</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="D307" s="17" t="s">
+      <c r="D307" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="17.25">
-      <c r="A308" s="5">
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="37" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D308" s="17" t="s">
+      <c r="D308" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="E308" s="16">
-        <v>1</v>
-      </c>
-      <c r="F308" s="16">
-        <v>1</v>
-      </c>
-      <c r="G308" s="16">
-        <v>1</v>
-      </c>
-      <c r="H308" s="16"/>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
       <c r="I308" s="15" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="17.25">
-      <c r="A309" s="5">
+    <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="43" t="s">
+      <c r="B309" s="37" t="s">
         <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D309" s="43" t="s">
+      <c r="D309" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="H309" s="16"/>
-      <c r="I309" s="18" t="s">
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+      <c r="I309" s="19" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="16.5">
-      <c r="A310" s="5">
+    <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="30" t="s">
+      <c r="D310" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="E310" s="22">
-        <v>1</v>
-      </c>
-      <c r="F310" s="22">
-        <v>1</v>
-      </c>
-      <c r="G310" s="22">
-        <v>1</v>
-      </c>
-      <c r="H310" s="22"/>
-      <c r="I310" s="32" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="17.25">
-      <c r="A311" s="5">
+    <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
+      <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="33" t="s">
+      <c r="B311" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D311" s="33" t="s">
+      <c r="D311" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="E311" s="22">
-        <v>1</v>
-      </c>
-      <c r="F311" s="22">
-        <v>1</v>
-      </c>
-      <c r="G311" s="22">
-        <v>1</v>
-      </c>
-      <c r="H311" s="22"/>
-      <c r="I311" s="31" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
-      <c r="A312" s="5">
+      <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="44" t="s">
+      <c r="B312" s="34" t="s">
+        <v>953</v>
+      </c>
+      <c r="C312" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="C312" s="45" t="s">
+      <c r="D312" s="36"/>
+      <c r="E312" s="36">
+        <v>1</v>
+      </c>
+      <c r="F312" s="36">
+        <v>1</v>
+      </c>
+      <c r="G312" s="36">
+        <v>1</v>
+      </c>
+      <c r="H312" s="36"/>
+      <c r="I312" s="35" t="s">
         <v>955</v>
       </c>
-      <c r="D312" s="46"/>
-      <c r="E312" s="46">
-        <v>1</v>
-      </c>
-      <c r="F312" s="46">
-        <v>1</v>
-      </c>
-      <c r="G312" s="46">
-        <v>1</v>
-      </c>
-      <c r="H312" s="46"/>
-      <c r="I312" s="45" t="s">
-        <v>940</v>
-      </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
-      <c r="A313" s="5">
+      <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="44" t="s">
+      <c r="B313" s="34" t="s">
         <v>956</v>
       </c>
-      <c r="C313" s="45" t="s">
+      <c r="C313" s="35" t="s">
         <v>957</v>
       </c>
-      <c r="D313" s="46"/>
-      <c r="E313" s="46">
-        <v>1</v>
-      </c>
-      <c r="F313" s="46">
-        <v>1</v>
-      </c>
-      <c r="G313" s="46">
-        <v>1</v>
-      </c>
-      <c r="H313" s="46"/>
-      <c r="I313" s="45" t="s">
+      <c r="D313" s="36"/>
+      <c r="E313" s="36">
+        <v>1</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+      <c r="G313" s="36">
+        <v>1</v>
+      </c>
+      <c r="H313" s="36"/>
+      <c r="I313" s="35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
+      <c r="B314" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="D314" s="36"/>
+      <c r="E314" s="36">
+        <v>1</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+      <c r="G314" s="36">
+        <v>1</v>
+      </c>
+      <c r="H314" s="36"/>
+      <c r="I314" s="35" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
+      <c r="A315" s="16">
+        <v>314</v>
+      </c>
+      <c r="B315" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36">
+        <v>1</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+      <c r="G315" s="36">
+        <v>1</v>
+      </c>
+      <c r="H315" s="36"/>
+      <c r="I315" s="35" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A314" s="5">
-        <v>313</v>
-      </c>
-      <c r="B314" s="44" t="s">
-        <v>959</v>
-      </c>
-      <c r="C314" s="46" t="s">
-        <v>960</v>
-      </c>
-      <c r="D314" s="46"/>
-      <c r="E314" s="46">
-        <v>1</v>
-      </c>
-      <c r="F314" s="46">
-        <v>1</v>
-      </c>
-      <c r="G314" s="46">
-        <v>1</v>
-      </c>
-      <c r="H314" s="46"/>
-      <c r="I314" s="45" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
-      <c r="A315" s="5">
-        <v>314</v>
-      </c>
-      <c r="B315" s="44" t="s">
-        <v>962</v>
-      </c>
-      <c r="C315" s="45" t="s">
-        <v>963</v>
-      </c>
-      <c r="D315" s="46"/>
-      <c r="E315" s="46">
-        <v>1</v>
-      </c>
-      <c r="F315" s="46">
-        <v>1</v>
-      </c>
-      <c r="G315" s="46">
-        <v>1</v>
-      </c>
-      <c r="H315" s="46"/>
-      <c r="I315" s="45" t="s">
+    <row r="316" spans="1:9" ht="16.5">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="34" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
-      <c r="A316" s="5">
-        <v>315</v>
-      </c>
-      <c r="B316" s="44" t="s">
-        <v>951</v>
-      </c>
-      <c r="C316" s="45" t="s">
+      <c r="C316" s="35" t="s">
         <v>965</v>
       </c>
-      <c r="D316" s="46"/>
-      <c r="E316" s="46">
-        <v>1</v>
-      </c>
-      <c r="F316" s="46">
-        <v>1</v>
-      </c>
-      <c r="G316" s="46">
-        <v>1</v>
-      </c>
-      <c r="H316" s="46"/>
-      <c r="I316" s="45" t="s">
+      <c r="D316" s="36"/>
+      <c r="E316" s="36">
+        <v>1</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+      <c r="G316" s="36">
+        <v>1</v>
+      </c>
+      <c r="H316" s="36"/>
+      <c r="I316" s="35" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36">
+        <v>1</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+      <c r="G317" s="36">
+        <v>1</v>
+      </c>
+      <c r="H317" s="36"/>
+      <c r="I317" s="35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
+      <c r="B318" s="34" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
-      <c r="A317" s="5">
-        <v>316</v>
-      </c>
-      <c r="B317" s="44" t="s">
-        <v>966</v>
-      </c>
-      <c r="C317" s="45" t="s">
-        <v>953</v>
-      </c>
-      <c r="D317" s="46"/>
-      <c r="E317" s="46">
-        <v>1</v>
-      </c>
-      <c r="F317" s="46">
-        <v>1</v>
-      </c>
-      <c r="G317" s="46">
-        <v>1</v>
-      </c>
-      <c r="H317" s="46"/>
-      <c r="I317" s="45" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="16.5">
-      <c r="A318" s="5">
-        <v>317</v>
-      </c>
-      <c r="B318" s="44" t="s">
-        <v>950</v>
-      </c>
-      <c r="C318" s="45" t="s">
-        <v>967</v>
-      </c>
-      <c r="D318" s="46"/>
-      <c r="E318" s="46">
-        <v>1</v>
-      </c>
-      <c r="F318" s="46">
-        <v>1</v>
-      </c>
-      <c r="G318" s="46">
-        <v>1</v>
-      </c>
-      <c r="H318" s="46"/>
+      <c r="C318" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36">
+        <v>1</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+      <c r="G318" s="36">
+        <v>1</v>
+      </c>
+      <c r="H318" s="36"/>
       <c r="I318" s="47" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="975">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3974,110 +3974,176 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>阳光榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TYBYDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月1号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月1号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_001_ygbd</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4280,7 +4346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4404,12 +4470,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4429,6 +4489,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4708,13 +4771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ318"/>
+  <dimension ref="A1:AJ320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
+      <selection pane="bottomRight" activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11105,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>734</v>
@@ -11119,22 +11182,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C253" s="24" t="s">
         <v>738</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E253" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="24"/>
       <c r="I253" s="23" t="s">
@@ -12020,29 +12083,29 @@
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A288" s="5">
+    <row r="288" spans="1:9" s="46" customFormat="1" ht="16.5">
+      <c r="A288" s="48">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="45" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="45" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="45" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="16">
-        <v>0</v>
-      </c>
-      <c r="F288" s="16">
-        <v>0</v>
-      </c>
-      <c r="G288" s="16">
-        <v>0</v>
-      </c>
-      <c r="I288" s="15" t="s">
+      <c r="E288" s="46">
+        <v>1</v>
+      </c>
+      <c r="F288" s="46">
+        <v>1</v>
+      </c>
+      <c r="G288" s="46">
+        <v>1</v>
+      </c>
+      <c r="I288" s="45" t="s">
         <v>733</v>
       </c>
     </row>
@@ -12424,13 +12487,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C299" s="38" t="s">
         <v>922</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E299" s="39">
         <v>1</v>
@@ -12478,13 +12541,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C300" s="38" t="s">
         <v>921</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E300" s="39">
         <v>1</v>
@@ -12505,13 +12568,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C301" s="37" t="s">
         <v>900</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E301" s="39">
         <v>1</v>
@@ -12562,7 +12625,7 @@
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>905</v>
@@ -12585,13 +12648,13 @@
       <c r="A304" s="5">
         <v>303</v>
       </c>
-      <c r="B304" s="43" t="s">
+      <c r="B304" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="44" t="s">
+      <c r="C304" s="42" t="s">
         <v>912</v>
       </c>
-      <c r="D304" s="43" t="s">
+      <c r="D304" s="41" t="s">
         <v>913</v>
       </c>
       <c r="E304" s="29">
@@ -12604,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="29"/>
-      <c r="I304" s="44" t="s">
+      <c r="I304" s="42" t="s">
         <v>910</v>
       </c>
     </row>
@@ -12612,13 +12675,13 @@
       <c r="A305" s="5">
         <v>304</v>
       </c>
-      <c r="B305" s="43" t="s">
+      <c r="B305" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="44" t="s">
+      <c r="C305" s="42" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="43" t="s">
+      <c r="D305" s="41" t="s">
         <v>916</v>
       </c>
       <c r="E305" s="29">
@@ -12631,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="H305" s="29"/>
-      <c r="I305" s="44" t="s">
+      <c r="I305" s="42" t="s">
         <v>920</v>
       </c>
     </row>
@@ -12639,13 +12702,13 @@
       <c r="A306" s="5">
         <v>305</v>
       </c>
-      <c r="B306" s="43" t="s">
+      <c r="B306" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="44" t="s">
+      <c r="C306" s="42" t="s">
         <v>918</v>
       </c>
-      <c r="D306" s="43" t="s">
+      <c r="D306" s="41" t="s">
         <v>919</v>
       </c>
       <c r="E306" s="29">
@@ -12658,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="H306" s="29"/>
-      <c r="I306" s="44" t="s">
+      <c r="I306" s="42" t="s">
         <v>920</v>
       </c>
     </row>
@@ -12689,7 +12752,7 @@
       <c r="A308" s="5">
         <v>307</v>
       </c>
-      <c r="B308" s="45" t="s">
+      <c r="B308" s="43" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -12716,13 +12779,13 @@
       <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="45" t="s">
+      <c r="B309" s="43" t="s">
         <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D309" s="45" t="s">
+      <c r="D309" s="43" t="s">
         <v>932</v>
       </c>
       <c r="E309" s="16">
@@ -12797,175 +12860,225 @@
       <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="41" t="s">
-        <v>960</v>
-      </c>
-      <c r="C312" s="42" t="s">
-        <v>941</v>
-      </c>
-      <c r="D312" s="42"/>
-      <c r="E312" s="42">
-        <v>1</v>
-      </c>
-      <c r="F312" s="42">
-        <v>1</v>
-      </c>
-      <c r="G312" s="42">
-        <v>1</v>
-      </c>
-      <c r="H312" s="42"/>
-      <c r="I312" s="42" t="s">
-        <v>950</v>
+      <c r="B312" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="D312" s="22"/>
+      <c r="E312" s="22">
+        <v>1</v>
+      </c>
+      <c r="F312" s="22">
+        <v>1</v>
+      </c>
+      <c r="G312" s="22">
+        <v>1</v>
+      </c>
+      <c r="H312" s="22"/>
+      <c r="I312" s="31" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="41" t="s">
-        <v>961</v>
-      </c>
-      <c r="C313" s="42" t="s">
-        <v>942</v>
-      </c>
-      <c r="D313" s="42"/>
-      <c r="E313" s="42">
-        <v>1</v>
-      </c>
-      <c r="F313" s="42">
-        <v>1</v>
-      </c>
-      <c r="G313" s="42">
-        <v>1</v>
-      </c>
-      <c r="H313" s="42"/>
-      <c r="I313" s="42" t="s">
-        <v>949</v>
+      <c r="B313" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="D313" s="22"/>
+      <c r="E313" s="22">
+        <v>1</v>
+      </c>
+      <c r="F313" s="22">
+        <v>1</v>
+      </c>
+      <c r="G313" s="22">
+        <v>1</v>
+      </c>
+      <c r="H313" s="22"/>
+      <c r="I313" s="31" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="C314" s="47" t="s">
+      <c r="C314" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="D314" s="48"/>
-      <c r="E314" s="48">
-        <v>1</v>
-      </c>
-      <c r="F314" s="48">
-        <v>1</v>
-      </c>
-      <c r="G314" s="48">
-        <v>1</v>
-      </c>
-      <c r="H314" s="48"/>
-      <c r="I314" s="49" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="D314" s="46"/>
+      <c r="E314" s="46">
+        <v>1</v>
+      </c>
+      <c r="F314" s="46">
+        <v>1</v>
+      </c>
+      <c r="G314" s="46">
+        <v>1</v>
+      </c>
+      <c r="H314" s="46"/>
+      <c r="I314" s="45" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="44" t="s">
         <v>956</v>
       </c>
-      <c r="C315" s="48" t="s">
+      <c r="C315" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="D315" s="46"/>
+      <c r="E315" s="46">
+        <v>1</v>
+      </c>
+      <c r="F315" s="46">
+        <v>1</v>
+      </c>
+      <c r="G315" s="46">
+        <v>1</v>
+      </c>
+      <c r="H315" s="46"/>
+      <c r="I315" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="D315" s="48"/>
-      <c r="E315" s="48">
-        <v>1</v>
-      </c>
-      <c r="F315" s="48">
-        <v>1</v>
-      </c>
-      <c r="G315" s="48">
-        <v>1</v>
-      </c>
-      <c r="H315" s="48"/>
-      <c r="I315" s="49" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
+    </row>
+    <row r="316" spans="1:9" s="16" customFormat="1" ht="16.5">
       <c r="A316" s="5">
         <v>315</v>
       </c>
-      <c r="B316" s="46" t="s">
-        <v>957</v>
-      </c>
-      <c r="C316" s="48" t="s">
+      <c r="B316" s="44" t="s">
         <v>959</v>
       </c>
-      <c r="D316" s="48"/>
-      <c r="E316" s="48">
-        <v>1</v>
-      </c>
-      <c r="F316" s="48">
-        <v>1</v>
-      </c>
-      <c r="G316" s="48">
-        <v>1</v>
-      </c>
-      <c r="H316" s="48"/>
-      <c r="I316" s="49" t="s">
-        <v>641</v>
+      <c r="C316" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="D316" s="46"/>
+      <c r="E316" s="46">
+        <v>1</v>
+      </c>
+      <c r="F316" s="46">
+        <v>1</v>
+      </c>
+      <c r="G316" s="46">
+        <v>1</v>
+      </c>
+      <c r="H316" s="46"/>
+      <c r="I316" s="45" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="5">
         <v>316</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="44" t="s">
         <v>962</v>
       </c>
-      <c r="C317" s="47" t="s">
+      <c r="C317" s="45" t="s">
         <v>963</v>
       </c>
-      <c r="D317" s="48"/>
-      <c r="E317" s="48">
-        <v>1</v>
-      </c>
-      <c r="F317" s="48">
-        <v>1</v>
-      </c>
-      <c r="G317" s="48">
-        <v>1</v>
-      </c>
-      <c r="H317" s="48"/>
-      <c r="I317" s="47" t="s">
-        <v>965</v>
+      <c r="D317" s="46"/>
+      <c r="E317" s="46">
+        <v>1</v>
+      </c>
+      <c r="F317" s="46">
+        <v>1</v>
+      </c>
+      <c r="G317" s="46">
+        <v>1</v>
+      </c>
+      <c r="H317" s="46"/>
+      <c r="I317" s="45" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="5">
         <v>317</v>
       </c>
-      <c r="B318" s="46" t="s">
+      <c r="B318" s="44" t="s">
+        <v>951</v>
+      </c>
+      <c r="C318" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="D318" s="46"/>
+      <c r="E318" s="46">
+        <v>1</v>
+      </c>
+      <c r="F318" s="46">
+        <v>1</v>
+      </c>
+      <c r="G318" s="46">
+        <v>1</v>
+      </c>
+      <c r="H318" s="46"/>
+      <c r="I318" s="45" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
+      <c r="A319" s="5">
+        <v>318</v>
+      </c>
+      <c r="B319" s="44" t="s">
         <v>966</v>
       </c>
-      <c r="C318" s="47" t="s">
+      <c r="C319" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="D319" s="46"/>
+      <c r="E319" s="46">
+        <v>1</v>
+      </c>
+      <c r="F319" s="46">
+        <v>1</v>
+      </c>
+      <c r="G319" s="46">
+        <v>1</v>
+      </c>
+      <c r="H319" s="46"/>
+      <c r="I319" s="45" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="5">
+        <v>319</v>
+      </c>
+      <c r="B320" s="44" t="s">
+        <v>950</v>
+      </c>
+      <c r="C320" s="45" t="s">
         <v>967</v>
       </c>
-      <c r="D318" s="48"/>
-      <c r="E318" s="48">
-        <v>1</v>
-      </c>
-      <c r="F318" s="48">
-        <v>1</v>
-      </c>
-      <c r="G318" s="48">
-        <v>1</v>
-      </c>
-      <c r="H318" s="48"/>
-      <c r="I318" s="47" t="s">
-        <v>964</v>
+      <c r="D320" s="46"/>
+      <c r="E320" s="46">
+        <v>1</v>
+      </c>
+      <c r="F320" s="46">
+        <v>1</v>
+      </c>
+      <c r="G320" s="46">
+        <v>1</v>
+      </c>
+      <c r="H320" s="46"/>
+      <c r="I320" s="47" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="969">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4095,55 +4095,6 @@
   </si>
   <si>
     <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4771,13 +4722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ320"/>
+  <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C325" sqref="C325"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12860,61 +12811,61 @@
       <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="30" t="s">
-        <v>969</v>
-      </c>
-      <c r="C312" s="31" t="s">
-        <v>970</v>
-      </c>
-      <c r="D312" s="22"/>
-      <c r="E312" s="22">
-        <v>1</v>
-      </c>
-      <c r="F312" s="22">
-        <v>1</v>
-      </c>
-      <c r="G312" s="22">
-        <v>1</v>
-      </c>
-      <c r="H312" s="22"/>
-      <c r="I312" s="31" t="s">
-        <v>971</v>
+      <c r="B312" s="44" t="s">
+        <v>954</v>
+      </c>
+      <c r="C312" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="D312" s="46"/>
+      <c r="E312" s="46">
+        <v>1</v>
+      </c>
+      <c r="F312" s="46">
+        <v>1</v>
+      </c>
+      <c r="G312" s="46">
+        <v>1</v>
+      </c>
+      <c r="H312" s="46"/>
+      <c r="I312" s="45" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="30" t="s">
-        <v>972</v>
-      </c>
-      <c r="C313" s="31" t="s">
-        <v>973</v>
-      </c>
-      <c r="D313" s="22"/>
-      <c r="E313" s="22">
-        <v>1</v>
-      </c>
-      <c r="F313" s="22">
-        <v>1</v>
-      </c>
-      <c r="G313" s="22">
-        <v>1</v>
-      </c>
-      <c r="H313" s="22"/>
-      <c r="I313" s="31" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+      <c r="B313" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="C313" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="D313" s="46"/>
+      <c r="E313" s="46">
+        <v>1</v>
+      </c>
+      <c r="F313" s="46">
+        <v>1</v>
+      </c>
+      <c r="G313" s="46">
+        <v>1</v>
+      </c>
+      <c r="H313" s="46"/>
+      <c r="I313" s="45" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="16" customFormat="1" ht="16.5">
       <c r="A314" s="5">
         <v>313</v>
       </c>
       <c r="B314" s="44" t="s">
-        <v>954</v>
-      </c>
-      <c r="C314" s="45" t="s">
-        <v>955</v>
+        <v>959</v>
+      </c>
+      <c r="C314" s="46" t="s">
+        <v>960</v>
       </c>
       <c r="D314" s="46"/>
       <c r="E314" s="46">
@@ -12928,7 +12879,7 @@
       </c>
       <c r="H314" s="46"/>
       <c r="I314" s="45" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12936,10 +12887,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="44" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D315" s="46"/>
       <c r="E315" s="46">
@@ -12953,18 +12904,18 @@
       </c>
       <c r="H315" s="46"/>
       <c r="I315" s="45" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="16" customFormat="1" ht="16.5">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="5">
         <v>315</v>
       </c>
       <c r="B316" s="44" t="s">
-        <v>959</v>
-      </c>
-      <c r="C316" s="46" t="s">
-        <v>960</v>
+        <v>951</v>
+      </c>
+      <c r="C316" s="45" t="s">
+        <v>965</v>
       </c>
       <c r="D316" s="46"/>
       <c r="E316" s="46">
@@ -12978,7 +12929,7 @@
       </c>
       <c r="H316" s="46"/>
       <c r="I316" s="45" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -12986,10 +12937,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C317" s="45" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="D317" s="46"/>
       <c r="E317" s="46">
@@ -13003,7 +12954,7 @@
       </c>
       <c r="H317" s="46"/>
       <c r="I317" s="45" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13011,10 +12962,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C318" s="45" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D318" s="46"/>
       <c r="E318" s="46">
@@ -13027,57 +12978,7 @@
         <v>1</v>
       </c>
       <c r="H318" s="46"/>
-      <c r="I318" s="45" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16.5">
-      <c r="A319" s="5">
-        <v>318</v>
-      </c>
-      <c r="B319" s="44" t="s">
-        <v>966</v>
-      </c>
-      <c r="C319" s="45" t="s">
-        <v>953</v>
-      </c>
-      <c r="D319" s="46"/>
-      <c r="E319" s="46">
-        <v>1</v>
-      </c>
-      <c r="F319" s="46">
-        <v>1</v>
-      </c>
-      <c r="G319" s="46">
-        <v>1</v>
-      </c>
-      <c r="H319" s="46"/>
-      <c r="I319" s="45" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
-      <c r="A320" s="5">
-        <v>319</v>
-      </c>
-      <c r="B320" s="44" t="s">
-        <v>950</v>
-      </c>
-      <c r="C320" s="45" t="s">
-        <v>967</v>
-      </c>
-      <c r="D320" s="46"/>
-      <c r="E320" s="46">
-        <v>1</v>
-      </c>
-      <c r="F320" s="46">
-        <v>1</v>
-      </c>
-      <c r="G320" s="46">
-        <v>1</v>
-      </c>
-      <c r="H320" s="46"/>
-      <c r="I320" s="47" t="s">
+      <c r="I318" s="47" t="s">
         <v>968</v>
       </c>
     </row>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="963">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -4293,7 +4284,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,9 +4333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4384,9 +4372,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4409,9 +4394,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4727,13 +4709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ317"/>
+  <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C305" sqref="C305"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4763,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4775,7 +4757,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4801,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -4827,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -4853,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -4879,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -4905,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -4931,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -4957,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -4983,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5009,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5035,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5061,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5087,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5113,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5139,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5165,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5191,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5217,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5243,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5269,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5295,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5321,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5347,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5373,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5399,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5425,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5436,7 +5418,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5451,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5477,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5503,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5529,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5555,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5581,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5607,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5633,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5659,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5685,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5711,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5737,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5763,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5789,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5815,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -5841,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -5867,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -5893,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -5919,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -5945,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -5971,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -5997,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6008,7 +5990,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6023,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6049,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6075,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6099,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6125,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6133,7 +6115,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6151,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6159,7 +6141,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6177,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6203,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6229,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6255,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6281,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6307,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6333,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6359,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6385,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6411,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6437,33 +6419,33 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A66" s="36">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="36">
-        <v>0</v>
-      </c>
-      <c r="F66" s="37">
-        <v>0</v>
-      </c>
-      <c r="G66" s="37">
-        <v>0</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>645</v>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6480,16 +6462,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6515,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6532,16 +6514,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6567,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6593,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6619,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6645,59 +6627,59 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="34">
+        <v>0</v>
+      </c>
+      <c r="F74" s="35">
+        <v>0</v>
+      </c>
+      <c r="G74" s="35">
+        <v>0</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A75" s="36">
-        <v>74</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>659</v>
-      </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="36">
-        <v>0</v>
-      </c>
-      <c r="F75" s="37">
-        <v>0</v>
-      </c>
-      <c r="G75" s="37">
-        <v>0</v>
-      </c>
-      <c r="I75" s="38" t="s">
-        <v>647</v>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -6714,16 +6696,16 @@
         <v>225</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6748,8 +6730,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>651</v>
+      <c r="I77" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6766,16 +6748,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6792,15 +6774,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6827,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -6853,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -6879,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -6905,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -6931,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -6948,16 +6930,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -6983,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7009,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7035,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7052,16 +7034,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7078,16 +7060,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7104,16 +7086,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7130,16 +7112,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7156,16 +7138,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7190,8 +7172,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>645</v>
+      <c r="I94" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7217,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7243,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7269,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7295,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7321,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7338,16 +7320,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7364,16 +7346,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7398,8 +7380,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>681</v>
+      <c r="I102" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7416,16 +7398,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7442,15 +7424,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7476,8 +7458,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>648</v>
+      <c r="I105" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7502,8 +7484,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>645</v>
+      <c r="I106" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7529,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7581,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7607,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7633,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7659,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7685,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7711,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7737,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7789,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7815,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -7841,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -7867,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -7893,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -7919,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -7945,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -7971,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -7997,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8017,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8043,12 +8025,12 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8075,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8101,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8127,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8153,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8179,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8231,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8257,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8283,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8309,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8335,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8361,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8387,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8413,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8430,16 +8412,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8450,22 +8432,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8473,25 +8455,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8499,25 +8481,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8525,10 +8507,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>652</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8543,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8568,8 +8550,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>695</v>
+      <c r="I147" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8595,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8621,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8647,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8673,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8699,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8725,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8751,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8777,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8787,12 +8769,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8803,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8811,14 +8793,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -8828,8 +8810,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>648</v>
+      <c r="I157" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -8837,10 +8819,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -8854,8 +8836,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>645</v>
+      <c r="I158" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -8881,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -8907,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -8933,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -8950,16 +8932,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -8976,16 +8958,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -8999,19 +8981,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9019,25 +9001,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9047,23 +9029,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9071,25 +9053,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9115,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9128,9 +9110,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9140,8 +9120,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>647</v>
+      <c r="I169" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9149,23 +9129,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9173,10 +9153,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9189,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9197,10 +9177,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>657</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9213,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9221,22 +9201,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9250,9 +9232,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9263,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9271,23 +9251,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9295,23 +9275,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>644</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9319,23 +9299,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9361,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9374,44 +9356,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9419,10 +9399,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9435,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9443,10 +9423,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9459,31 +9439,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9491,11 +9470,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9506,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9514,11 +9493,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9529,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9537,11 +9516,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9552,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9560,11 +9539,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9575,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9583,11 +9562,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9598,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9606,11 +9585,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9621,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9629,11 +9608,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9644,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9652,11 +9631,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9667,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9675,11 +9654,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9690,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9698,11 +9677,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9713,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9721,11 +9700,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9736,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9744,11 +9723,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9759,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9767,10 +9746,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9790,11 +9769,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9805,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9813,11 +9792,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -9828,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -9836,11 +9815,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -9851,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -9859,11 +9838,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -9874,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -9882,11 +9861,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -9897,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -9905,11 +9884,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -9920,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -9928,11 +9907,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -9943,30 +9922,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -9974,14 +9956,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -9992,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10000,14 +9982,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10018,32 +10000,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10052,11 +10031,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10067,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10075,11 +10054,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10090,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10098,11 +10077,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10113,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10121,22 +10100,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10144,22 +10123,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10167,11 +10146,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10182,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10190,11 +10169,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10205,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10213,11 +10192,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10228,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10236,11 +10215,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10251,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10259,10 +10238,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10282,11 +10261,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10297,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10305,11 +10284,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10320,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10328,11 +10307,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10343,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10351,11 +10330,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10366,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10374,11 +10353,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10389,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10397,11 +10376,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10412,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10420,11 +10399,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10435,18 +10414,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10466,22 +10445,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10489,13 +10468,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10517,7 +10496,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10558,16 +10537,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>884</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10581,16 +10560,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>887</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10604,22 +10583,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10627,22 +10606,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10650,22 +10629,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10673,10 +10652,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>665</v>
@@ -10689,6 +10668,9 @@
       </c>
       <c r="G235">
         <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10696,10 +10678,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>811</v>
+        <v>669</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10713,8 +10695,8 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="I236" t="s">
-        <v>666</v>
+      <c r="I236" s="9" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10722,25 +10704,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>670</v>
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10748,16 +10730,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -10774,16 +10756,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>680</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -10792,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10800,13 +10782,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10817,8 +10799,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>685</v>
+      <c r="I240" s="9" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10826,13 +10808,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10844,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10852,13 +10834,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10870,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10878,13 +10860,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10896,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10904,13 +10886,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10922,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10930,13 +10912,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10948,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -10956,13 +10938,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10974,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -10982,13 +10964,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11000,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11008,16 +10990,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -11026,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11037,13 +11019,13 @@
         <v>723</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -11052,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11060,14 +11042,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11078,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11089,10 +11071,10 @@
         <v>731</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11112,78 +11094,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C252" t="s">
+        <v>739</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C253" t="s">
-        <v>742</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253">
-        <v>0</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>737</v>
+      <c r="B253" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="E253" s="24">
+        <v>0</v>
+      </c>
+      <c r="F253" s="24">
+        <v>0</v>
+      </c>
+      <c r="G253" s="24">
+        <v>0</v>
+      </c>
+      <c r="H253" s="24"/>
+      <c r="I253" s="23" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="C254" s="25" t="s">
+      <c r="B254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="24" t="s">
-        <v>950</v>
-      </c>
-      <c r="E254" s="25">
-        <v>0</v>
-      </c>
-      <c r="F254" s="25">
-        <v>0</v>
-      </c>
-      <c r="G254" s="25">
-        <v>0</v>
-      </c>
-      <c r="H254" s="25"/>
-      <c r="I254" s="24" t="s">
-        <v>738</v>
+      <c r="C254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11191,13 +11173,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11209,90 +11191,90 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="22" customFormat="1" ht="16.5">
       <c r="A256" s="5">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C256" s="9" t="s">
+      <c r="B256" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="C256" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
-      <c r="A257" s="16">
+      <c r="E256" s="16">
+        <v>1</v>
+      </c>
+      <c r="F256" s="16">
+        <v>1</v>
+      </c>
+      <c r="G256" s="16">
+        <v>1</v>
+      </c>
+      <c r="H256" s="16"/>
+      <c r="I256" s="15" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A257" s="5">
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>915</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="E257" s="17">
-        <v>1</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17"/>
+      <c r="E257" s="16">
+        <v>0</v>
+      </c>
+      <c r="F257" s="16">
+        <v>1</v>
+      </c>
+      <c r="G257" s="16">
+        <v>1</v>
+      </c>
       <c r="I257" s="15" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A258" s="16">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A258" s="5">
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="E258" s="17">
-        <v>0</v>
-      </c>
-      <c r="F258" s="17">
-        <v>1</v>
-      </c>
-      <c r="G258" s="17">
+      <c r="E258" s="16">
+        <v>0</v>
+      </c>
+      <c r="F258" s="16">
+        <v>1</v>
+      </c>
+      <c r="G258" s="16">
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A259" s="16">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A259" s="5">
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
@@ -11304,68 +11286,68 @@
       <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="E259" s="17">
-        <v>0</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A260" s="16">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A260" s="5">
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
+        <v>764</v>
+      </c>
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A261" s="16">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
+      <c r="A261" s="5">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" t="s">
         <v>766</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" t="s">
         <v>767</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>768</v>
       </c>
     </row>
@@ -11373,16 +11355,16 @@
       <c r="A262" s="5">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>769</v>
+      <c r="B262" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="D262" t="s">
-        <v>770</v>
-      </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11392,63 +11374,63 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="16" customFormat="1" ht="16.5">
       <c r="A263" s="5">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="15" t="s">
         <v>774</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A264" s="16">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A264" s="5">
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
+        <v>779</v>
+      </c>
+      <c r="E264" s="16">
+        <v>0</v>
+      </c>
+      <c r="F264" s="16">
+        <v>1</v>
+      </c>
+      <c r="G264" s="16">
+        <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A265" s="16">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A265" s="5">
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
@@ -11460,613 +11442,613 @@
       <c r="D265" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>1</v>
-      </c>
-      <c r="G265" s="17">
-        <v>1</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A266" s="16">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A266" s="5">
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="D266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A267" s="16">
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A267" s="5">
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A268" s="16">
+      <c r="E267" s="16">
+        <v>0</v>
+      </c>
+      <c r="F267" s="16">
+        <v>0</v>
+      </c>
+      <c r="G267" s="16">
+        <v>0</v>
+      </c>
+      <c r="I267" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A268" s="5">
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D268" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>0</v>
-      </c>
-      <c r="G268" s="17">
-        <v>0</v>
-      </c>
-      <c r="I268" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A269" s="16">
+      <c r="E268" s="16">
+        <v>0</v>
+      </c>
+      <c r="F268" s="16">
+        <v>1</v>
+      </c>
+      <c r="G268" s="16">
+        <v>1</v>
+      </c>
+      <c r="I268" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A269" s="5">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="E269" s="16">
+        <v>0</v>
+      </c>
+      <c r="F269" s="16">
+        <v>0</v>
+      </c>
+      <c r="G269" s="16">
+        <v>0</v>
+      </c>
+      <c r="I269" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>795</v>
-      </c>
-      <c r="D269" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="E269" s="17">
-        <v>0</v>
-      </c>
-      <c r="F269" s="17">
-        <v>1</v>
-      </c>
-      <c r="G269" s="17">
-        <v>1</v>
-      </c>
-      <c r="I269" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A270" s="16">
-        <v>269</v>
-      </c>
-      <c r="B270" s="15" t="s">
+      <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="D270" s="18" t="s">
+      <c r="E270" s="16">
+        <v>1</v>
+      </c>
+      <c r="F270" s="16">
+        <v>1</v>
+      </c>
+      <c r="G270" s="16">
+        <v>1</v>
+      </c>
+      <c r="I270" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="E270" s="17">
-        <v>0</v>
-      </c>
-      <c r="F270" s="17">
-        <v>0</v>
-      </c>
-      <c r="G270" s="17">
-        <v>0</v>
-      </c>
-      <c r="I270" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A271" s="16">
-        <v>270</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="D271" s="18" t="s">
+      <c r="D271" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A272" s="16">
+      <c r="E271" s="16">
+        <v>1</v>
+      </c>
+      <c r="F271" s="16">
+        <v>1</v>
+      </c>
+      <c r="G271" s="16">
+        <v>1</v>
+      </c>
+      <c r="I271" s="18" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A272" s="5">
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
+      <c r="D272" s="17" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A273" s="16">
+      <c r="E272" s="16">
+        <v>1</v>
+      </c>
+      <c r="F272" s="16">
+        <v>1</v>
+      </c>
+      <c r="G272" s="16">
+        <v>1</v>
+      </c>
+      <c r="I272" s="18" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A273" s="5">
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="D273" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="E273" s="17">
-        <v>1</v>
-      </c>
-      <c r="F273" s="17">
-        <v>1</v>
-      </c>
-      <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A274" s="16">
+      <c r="E273" s="16">
+        <v>1</v>
+      </c>
+      <c r="F273" s="16">
+        <v>1</v>
+      </c>
+      <c r="G273" s="16">
+        <v>1</v>
+      </c>
+      <c r="I273" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A274" s="5">
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D274" s="18" t="s">
+      <c r="D274" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="E274" s="17">
-        <v>1</v>
-      </c>
-      <c r="F274" s="17">
-        <v>1</v>
-      </c>
-      <c r="G274" s="17">
-        <v>1</v>
-      </c>
-      <c r="I274" s="19" t="s">
+      <c r="E274" s="16">
+        <v>0</v>
+      </c>
+      <c r="F274" s="16">
+        <v>0</v>
+      </c>
+      <c r="G274" s="16">
+        <v>0</v>
+      </c>
+      <c r="I274" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A275" s="16">
-        <v>274</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>849</v>
-      </c>
       <c r="C275" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="D275" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>0</v>
-      </c>
-      <c r="G275" s="17">
-        <v>0</v>
-      </c>
-      <c r="I275" s="19" t="s">
+      <c r="D275" s="17" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A276" s="16">
+      <c r="E275" s="16">
+        <v>0</v>
+      </c>
+      <c r="F275" s="16">
+        <v>1</v>
+      </c>
+      <c r="G275" s="16">
+        <v>1</v>
+      </c>
+      <c r="I275" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A276" s="5">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
         <v>820</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D276" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
+      <c r="E276" s="16">
+        <v>0</v>
+      </c>
+      <c r="F276" s="16">
+        <v>1</v>
+      </c>
+      <c r="G276" s="16">
+        <v>1</v>
+      </c>
+      <c r="I276" s="18" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A277" s="16">
+    <row r="277" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A277" s="5">
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
         <v>823</v>
       </c>
       <c r="C277" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="D277" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
+      <c r="E277" s="16">
+        <v>0</v>
+      </c>
+      <c r="F277" s="16">
+        <v>0</v>
+      </c>
+      <c r="G277" s="16">
+        <v>0</v>
+      </c>
+      <c r="I277" s="18" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A278" s="16">
+    <row r="278" spans="1:9" ht="16.5">
+      <c r="A278" s="5">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D278" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="C278" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D278" s="18" t="s">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="I278" s="18" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5">
-      <c r="A279" s="16">
-        <v>278</v>
-      </c>
-      <c r="B279" s="15" t="s">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="C281" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="D281" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5">
-      <c r="A280" s="16">
-        <v>279</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5">
-      <c r="A281" s="16">
-        <v>280</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>835</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="D281" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="19" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5">
-      <c r="A282" s="16">
-        <v>281</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5">
-      <c r="A283" s="16">
-        <v>282</v>
-      </c>
-      <c r="B283" s="15" t="s">
-        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="D284" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="E284" s="28">
+        <v>1</v>
+      </c>
+      <c r="F284" s="28">
+        <v>1</v>
+      </c>
+      <c r="G284" s="28">
+        <v>1</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="28" t="s">
         <v>848</v>
       </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5">
-      <c r="A284" s="16">
-        <v>283</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>844</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A285" s="28">
-        <v>284</v>
-      </c>
-      <c r="B285" s="28" t="s">
+      <c r="C285" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="E285" s="28">
+        <v>1</v>
+      </c>
+      <c r="F285" s="28">
+        <v>1</v>
+      </c>
+      <c r="G285" s="28">
+        <v>1</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="28" customFormat="1" ht="16.5">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C286" s="28" t="s">
         <v>855</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D286" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A286" s="28">
-        <v>285</v>
-      </c>
-      <c r="B286" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>852</v>
-      </c>
-      <c r="E286" s="29">
-        <v>1</v>
-      </c>
-      <c r="F286" s="29">
-        <v>1</v>
-      </c>
-      <c r="G286" s="29">
-        <v>1</v>
-      </c>
-      <c r="I286" s="29" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
-      <c r="A287" s="28">
+      <c r="E286" s="28">
+        <v>1</v>
+      </c>
+      <c r="F286" s="28">
+        <v>1</v>
+      </c>
+      <c r="G286" s="28">
+        <v>1</v>
+      </c>
+      <c r="I286" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="26" customFormat="1" ht="16.5">
+      <c r="A287" s="5">
         <v>286</v>
       </c>
-      <c r="B287" s="29" t="s">
+      <c r="B287" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="C287" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="D287" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A288" s="26">
+      <c r="E287" s="26">
+        <v>0</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A288" s="5">
         <v>287</v>
       </c>
-      <c r="B288" s="27" t="s">
+      <c r="B288" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="26" t="s">
-        <v>861</v>
-      </c>
-      <c r="E288" s="27">
-        <v>0</v>
-      </c>
-      <c r="F288" s="27">
-        <v>1</v>
-      </c>
-      <c r="G288" s="27">
-        <v>1</v>
-      </c>
-      <c r="I288" s="27" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
-      <c r="A289" s="16">
+      <c r="E288" s="16">
+        <v>0</v>
+      </c>
+      <c r="F288" s="16">
+        <v>0</v>
+      </c>
+      <c r="G288" s="16">
+        <v>0</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" ht="16.5">
+      <c r="A289" s="5">
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
@@ -12075,111 +12057,111 @@
       <c r="C289" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D289" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="E289" s="17">
-        <v>0</v>
-      </c>
-      <c r="F289" s="17">
-        <v>0</v>
-      </c>
-      <c r="G289" s="17">
-        <v>0</v>
-      </c>
-      <c r="I289" s="15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="290" spans="1:36" ht="16.5">
-      <c r="A290" s="16">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="18" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" s="29" customFormat="1" ht="16.5">
+      <c r="A290" s="5">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="C290" s="15" t="s">
+      <c r="B290" s="29" t="s">
         <v>867</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="C290" s="29" t="s">
         <v>868</v>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="D290" s="29" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="291" spans="1:36" s="31" customFormat="1" ht="16.5">
-      <c r="A291" s="30">
+      <c r="E290" s="29">
+        <v>1</v>
+      </c>
+      <c r="F290" s="29">
+        <v>1</v>
+      </c>
+      <c r="G290" s="29">
+        <v>1</v>
+      </c>
+      <c r="I290" s="29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" s="29" customFormat="1" ht="16.5">
+      <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="B291" s="31" t="s">
+      <c r="B291" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="29" t="s">
+        <v>872</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="E291" s="29">
+        <v>1</v>
+      </c>
+      <c r="F291" s="29">
+        <v>1</v>
+      </c>
+      <c r="G291" s="29">
+        <v>1</v>
+      </c>
+      <c r="I291" s="29" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="31" t="s">
-        <v>871</v>
-      </c>
-      <c r="D291" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="E291" s="31">
-        <v>1</v>
-      </c>
-      <c r="F291" s="31">
-        <v>1</v>
-      </c>
-      <c r="G291" s="31">
-        <v>1</v>
-      </c>
-      <c r="I291" s="31" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="292" spans="1:36" s="31" customFormat="1" ht="16.5">
-      <c r="A292" s="30">
+    </row>
+    <row r="292" spans="1:36" ht="16.5">
+      <c r="A292" s="5">
         <v>291</v>
       </c>
-      <c r="B292" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="C292" s="31" t="s">
+      <c r="B292" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="31" t="s">
+      <c r="C292" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="E292" s="31">
-        <v>1</v>
-      </c>
-      <c r="F292" s="31">
-        <v>1</v>
-      </c>
-      <c r="G292" s="31">
-        <v>1</v>
-      </c>
-      <c r="I292" s="31" t="s">
-        <v>873</v>
+      <c r="D292" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="18" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
-      <c r="A293" s="16">
+      <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="19" t="s">
         <v>878</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="D293" s="19" t="s">
         <v>880</v>
       </c>
       <c r="E293">
@@ -12191,803 +12173,777 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="19" t="s">
-        <v>736</v>
+      <c r="I293" s="18" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
-      <c r="A294" s="16">
+      <c r="A294" s="5">
         <v>293</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="17" t="s">
         <v>881</v>
       </c>
       <c r="C294" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D294" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="D294" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="295" spans="1:36" ht="16.5">
-      <c r="A295" s="16">
+      <c r="E294" s="16">
+        <v>0</v>
+      </c>
+      <c r="F294" s="16">
+        <v>0</v>
+      </c>
+      <c r="G294" s="16">
+        <v>0</v>
+      </c>
+      <c r="H294" s="16"/>
+      <c r="I294" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="18" t="s">
-        <v>884</v>
+      <c r="B295" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="E295" s="17">
-        <v>0</v>
-      </c>
-      <c r="F295" s="17">
-        <v>0</v>
-      </c>
-      <c r="G295" s="17">
-        <v>0</v>
-      </c>
-      <c r="H295" s="17"/>
-      <c r="I295" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A296" s="16">
+        <v>886</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="E295" s="16">
+        <v>0</v>
+      </c>
+      <c r="F295" s="16">
+        <v>0</v>
+      </c>
+      <c r="G295" s="16">
+        <v>0</v>
+      </c>
+      <c r="H295" s="16"/>
+      <c r="I295" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J295" s="16"/>
+      <c r="K295" s="16"/>
+      <c r="L295" s="16"/>
+      <c r="M295" s="16"/>
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+      <c r="P295" s="16"/>
+      <c r="Q295" s="16"/>
+      <c r="R295" s="16"/>
+      <c r="S295" s="16"/>
+      <c r="T295" s="16"/>
+      <c r="U295" s="16"/>
+      <c r="V295" s="16"/>
+      <c r="W295" s="16"/>
+      <c r="X295" s="16"/>
+      <c r="Y295" s="16"/>
+      <c r="Z295" s="16"/>
+      <c r="AA295" s="16"/>
+      <c r="AB295" s="16"/>
+      <c r="AC295" s="16"/>
+      <c r="AD295" s="16"/>
+      <c r="AE295" s="16"/>
+      <c r="AF295" s="16"/>
+      <c r="AG295" s="16"/>
+      <c r="AH295" s="16"/>
+      <c r="AI295" s="16"/>
+      <c r="AJ295" s="16"/>
+    </row>
+    <row r="296" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A296" s="5">
         <v>295</v>
       </c>
-      <c r="B296" s="18" t="s">
+      <c r="B296" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="E296" s="16">
+        <v>0</v>
+      </c>
+      <c r="F296" s="16">
+        <v>0</v>
+      </c>
+      <c r="G296" s="16">
+        <v>0</v>
+      </c>
+      <c r="H296" s="16"/>
+      <c r="I296" s="18" t="s">
         <v>888</v>
       </c>
-      <c r="C296" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="E296" s="17">
-        <v>0</v>
-      </c>
-      <c r="F296" s="17">
-        <v>0</v>
-      </c>
-      <c r="G296" s="17">
-        <v>0</v>
-      </c>
-      <c r="H296" s="17"/>
-      <c r="I296" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="J296" s="17"/>
-      <c r="K296" s="17"/>
-      <c r="L296" s="17"/>
-      <c r="M296" s="17"/>
-      <c r="N296" s="17"/>
-      <c r="O296" s="17"/>
-      <c r="P296" s="17"/>
-      <c r="Q296" s="17"/>
-      <c r="R296" s="17"/>
-      <c r="S296" s="17"/>
-      <c r="T296" s="17"/>
-      <c r="U296" s="17"/>
-      <c r="V296" s="17"/>
-      <c r="W296" s="17"/>
-      <c r="X296" s="17"/>
-      <c r="Y296" s="17"/>
-      <c r="Z296" s="17"/>
-      <c r="AA296" s="17"/>
-      <c r="AB296" s="17"/>
-      <c r="AC296" s="17"/>
-      <c r="AD296" s="17"/>
-      <c r="AE296" s="17"/>
-      <c r="AF296" s="17"/>
-      <c r="AG296" s="17"/>
-      <c r="AH296" s="17"/>
-      <c r="AI296" s="17"/>
-      <c r="AJ296" s="17"/>
-    </row>
-    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A297" s="16">
+      <c r="J296" s="16"/>
+      <c r="K296" s="16"/>
+      <c r="L296" s="16"/>
+      <c r="M296" s="16"/>
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+      <c r="P296" s="16"/>
+      <c r="Q296" s="16"/>
+      <c r="R296" s="16"/>
+      <c r="S296" s="16"/>
+      <c r="T296" s="16"/>
+      <c r="U296" s="16"/>
+      <c r="V296" s="16"/>
+      <c r="W296" s="16"/>
+      <c r="X296" s="16"/>
+      <c r="Y296" s="16"/>
+      <c r="Z296" s="16"/>
+      <c r="AA296" s="16"/>
+      <c r="AB296" s="16"/>
+      <c r="AC296" s="16"/>
+      <c r="AD296" s="16"/>
+      <c r="AE296" s="16"/>
+      <c r="AF296" s="16"/>
+      <c r="AG296" s="16"/>
+      <c r="AH296" s="16"/>
+      <c r="AI296" s="16"/>
+      <c r="AJ296" s="16"/>
+    </row>
+    <row r="297" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A297" s="5">
         <v>296</v>
       </c>
-      <c r="B297" s="18" t="s">
-        <v>892</v>
+      <c r="B297" s="17" t="s">
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="D297" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16">
+        <v>1</v>
+      </c>
+      <c r="F297" s="16">
+        <v>1</v>
+      </c>
+      <c r="G297" s="16">
+        <v>1</v>
+      </c>
+      <c r="H297" s="16"/>
+      <c r="I297" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="J297" s="16"/>
+      <c r="K297" s="16"/>
+      <c r="L297" s="16"/>
+      <c r="M297" s="16"/>
+      <c r="N297" s="16"/>
+      <c r="O297" s="16"/>
+      <c r="P297" s="16"/>
+      <c r="Q297" s="16"/>
+      <c r="R297" s="16"/>
+      <c r="S297" s="16"/>
+      <c r="T297" s="16"/>
+      <c r="U297" s="16"/>
+      <c r="V297" s="16"/>
+      <c r="W297" s="16"/>
+      <c r="X297" s="16"/>
+      <c r="Y297" s="16"/>
+      <c r="Z297" s="16"/>
+      <c r="AA297" s="16"/>
+      <c r="AB297" s="16"/>
+      <c r="AC297" s="16"/>
+      <c r="AD297" s="16"/>
+      <c r="AE297" s="16"/>
+      <c r="AF297" s="16"/>
+      <c r="AG297" s="16"/>
+      <c r="AH297" s="16"/>
+      <c r="AI297" s="16"/>
+      <c r="AJ297" s="16"/>
+    </row>
+    <row r="298" spans="1:36" s="21" customFormat="1" ht="16.5">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+      <c r="B298" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="E297" s="17">
-        <v>0</v>
-      </c>
-      <c r="F297" s="17">
-        <v>0</v>
-      </c>
-      <c r="G297" s="17">
-        <v>0</v>
-      </c>
-      <c r="H297" s="17"/>
-      <c r="I297" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="J297" s="17"/>
-      <c r="K297" s="17"/>
-      <c r="L297" s="17"/>
-      <c r="M297" s="17"/>
-      <c r="N297" s="17"/>
-      <c r="O297" s="17"/>
-      <c r="P297" s="17"/>
-      <c r="Q297" s="17"/>
-      <c r="R297" s="17"/>
-      <c r="S297" s="17"/>
-      <c r="T297" s="17"/>
-      <c r="U297" s="17"/>
-      <c r="V297" s="17"/>
-      <c r="W297" s="17"/>
-      <c r="X297" s="17"/>
-      <c r="Y297" s="17"/>
-      <c r="Z297" s="17"/>
-      <c r="AA297" s="17"/>
-      <c r="AB297" s="17"/>
-      <c r="AC297" s="17"/>
-      <c r="AD297" s="17"/>
-      <c r="AE297" s="17"/>
-      <c r="AF297" s="17"/>
-      <c r="AG297" s="17"/>
-      <c r="AH297" s="17"/>
-      <c r="AI297" s="17"/>
-      <c r="AJ297" s="17"/>
-    </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A298" s="16">
-        <v>297</v>
-      </c>
-      <c r="B298" s="18" t="s">
+      <c r="C298" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="D298" s="17"/>
-      <c r="E298" s="17">
-        <v>1</v>
-      </c>
-      <c r="F298" s="17">
-        <v>1</v>
-      </c>
-      <c r="G298" s="17">
-        <v>1</v>
-      </c>
-      <c r="H298" s="17"/>
-      <c r="I298" s="15" t="s">
+      <c r="E298" s="16">
+        <v>0</v>
+      </c>
+      <c r="F298" s="16">
+        <v>0</v>
+      </c>
+      <c r="G298" s="16">
+        <v>0</v>
+      </c>
+      <c r="H298" s="16"/>
+      <c r="I298" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J298" s="16"/>
+      <c r="K298" s="16"/>
+      <c r="L298" s="16"/>
+      <c r="M298" s="16"/>
+      <c r="N298" s="16"/>
+      <c r="O298" s="16"/>
+      <c r="P298" s="16"/>
+      <c r="Q298" s="16"/>
+      <c r="R298" s="16"/>
+      <c r="S298" s="16"/>
+      <c r="T298" s="16"/>
+      <c r="U298" s="16"/>
+      <c r="V298" s="16"/>
+      <c r="W298" s="16"/>
+      <c r="X298" s="16"/>
+      <c r="Y298" s="16"/>
+      <c r="Z298" s="16"/>
+      <c r="AA298" s="16"/>
+      <c r="AB298" s="16"/>
+      <c r="AC298" s="16"/>
+      <c r="AD298" s="16"/>
+      <c r="AE298" s="16"/>
+      <c r="AF298" s="16"/>
+      <c r="AG298" s="16"/>
+      <c r="AH298" s="16"/>
+      <c r="AI298" s="16"/>
+      <c r="AJ298" s="16"/>
+    </row>
+    <row r="299" spans="1:36" ht="16.5">
+      <c r="A299" s="5">
+        <v>298</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="H299" s="16"/>
+      <c r="I299" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="J299" s="16"/>
+      <c r="K299" s="16"/>
+      <c r="L299" s="16"/>
+      <c r="M299" s="16"/>
+      <c r="N299" s="16"/>
+      <c r="O299" s="16"/>
+      <c r="P299" s="16"/>
+      <c r="Q299" s="16"/>
+      <c r="R299" s="16"/>
+      <c r="S299" s="16"/>
+      <c r="T299" s="16"/>
+      <c r="U299" s="16"/>
+      <c r="V299" s="16"/>
+      <c r="W299" s="16"/>
+      <c r="X299" s="16"/>
+      <c r="Y299" s="16"/>
+      <c r="Z299" s="16"/>
+      <c r="AA299" s="16"/>
+      <c r="AB299" s="16"/>
+      <c r="AC299" s="16"/>
+      <c r="AD299" s="16"/>
+      <c r="AE299" s="16"/>
+      <c r="AF299" s="16"/>
+      <c r="AG299" s="16"/>
+      <c r="AH299" s="16"/>
+      <c r="AI299" s="16"/>
+      <c r="AJ299" s="16"/>
+    </row>
+    <row r="300" spans="1:36" s="20" customFormat="1" ht="16.5">
+      <c r="A300" s="5">
+        <v>299</v>
+      </c>
+      <c r="B300" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>925</v>
+      </c>
+      <c r="D300" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="J300" s="16"/>
+      <c r="K300" s="16"/>
+      <c r="L300" s="16"/>
+      <c r="M300" s="16"/>
+      <c r="N300" s="16"/>
+      <c r="O300" s="16"/>
+      <c r="P300" s="16"/>
+      <c r="Q300" s="16"/>
+      <c r="R300" s="16"/>
+      <c r="S300" s="16"/>
+      <c r="T300" s="16"/>
+      <c r="U300" s="16"/>
+      <c r="V300" s="16"/>
+      <c r="W300" s="16"/>
+      <c r="X300" s="16"/>
+      <c r="Y300" s="16"/>
+      <c r="Z300" s="16"/>
+      <c r="AA300" s="16"/>
+      <c r="AB300" s="16"/>
+      <c r="AC300" s="16"/>
+      <c r="AD300" s="16"/>
+      <c r="AE300" s="16"/>
+      <c r="AF300" s="16"/>
+      <c r="AG300" s="16"/>
+      <c r="AH300" s="16"/>
+      <c r="AI300" s="16"/>
+      <c r="AJ300" s="16"/>
+    </row>
+    <row r="301" spans="1:36" ht="16.5">
+      <c r="A301" s="5">
+        <v>300</v>
+      </c>
+      <c r="B301" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>924</v>
+      </c>
+      <c r="D301" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="E301" s="39">
+        <v>1</v>
+      </c>
+      <c r="F301" s="39">
+        <v>1</v>
+      </c>
+      <c r="G301" s="39">
+        <v>1</v>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" s="16" customFormat="1" ht="16.5">
+      <c r="A302" s="5">
+        <v>301</v>
+      </c>
+      <c r="B302" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="C302" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="D302" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="E302" s="39">
+        <v>1</v>
+      </c>
+      <c r="F302" s="39">
+        <v>1</v>
+      </c>
+      <c r="G302" s="39">
+        <v>1</v>
+      </c>
+      <c r="H302" s="39"/>
+      <c r="I302" s="40" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" ht="16.5">
+      <c r="A303" s="5">
+        <v>302</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="D303" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="H303" s="16"/>
+      <c r="I303" s="18" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="304" spans="1:36" ht="16.5">
+      <c r="A304" s="5">
+        <v>303</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E304" s="16">
+        <v>1</v>
+      </c>
+      <c r="F304" s="16">
+        <v>1</v>
+      </c>
+      <c r="G304" s="16">
+        <v>1</v>
+      </c>
+      <c r="H304" s="16"/>
+      <c r="I304" s="15" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
+      <c r="A305" s="5">
+        <v>304</v>
+      </c>
+      <c r="B305" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="C305" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="D305" s="43" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="29">
+        <v>1</v>
+      </c>
+      <c r="F305" s="29">
+        <v>1</v>
+      </c>
+      <c r="G305" s="29">
+        <v>1</v>
+      </c>
+      <c r="H305" s="29"/>
+      <c r="I305" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="J298" s="17"/>
-      <c r="K298" s="17"/>
-      <c r="L298" s="17"/>
-      <c r="M298" s="17"/>
-      <c r="N298" s="17"/>
-      <c r="O298" s="17"/>
-      <c r="P298" s="17"/>
-      <c r="Q298" s="17"/>
-      <c r="R298" s="17"/>
-      <c r="S298" s="17"/>
-      <c r="T298" s="17"/>
-      <c r="U298" s="17"/>
-      <c r="V298" s="17"/>
-      <c r="W298" s="17"/>
-      <c r="X298" s="17"/>
-      <c r="Y298" s="17"/>
-      <c r="Z298" s="17"/>
-      <c r="AA298" s="17"/>
-      <c r="AB298" s="17"/>
-      <c r="AC298" s="17"/>
-      <c r="AD298" s="17"/>
-      <c r="AE298" s="17"/>
-      <c r="AF298" s="17"/>
-      <c r="AG298" s="17"/>
-      <c r="AH298" s="17"/>
-      <c r="AI298" s="17"/>
-      <c r="AJ298" s="17"/>
-    </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
-      <c r="A299" s="16">
-        <v>298</v>
-      </c>
-      <c r="B299" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>898</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>899</v>
-      </c>
-      <c r="E299" s="17">
-        <v>0</v>
-      </c>
-      <c r="F299" s="17">
-        <v>0</v>
-      </c>
-      <c r="G299" s="17">
-        <v>0</v>
-      </c>
-      <c r="H299" s="17"/>
-      <c r="I299" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="J299" s="17"/>
-      <c r="K299" s="17"/>
-      <c r="L299" s="17"/>
-      <c r="M299" s="17"/>
-      <c r="N299" s="17"/>
-      <c r="O299" s="17"/>
-      <c r="P299" s="17"/>
-      <c r="Q299" s="17"/>
-      <c r="R299" s="17"/>
-      <c r="S299" s="17"/>
-      <c r="T299" s="17"/>
-      <c r="U299" s="17"/>
-      <c r="V299" s="17"/>
-      <c r="W299" s="17"/>
-      <c r="X299" s="17"/>
-      <c r="Y299" s="17"/>
-      <c r="Z299" s="17"/>
-      <c r="AA299" s="17"/>
-      <c r="AB299" s="17"/>
-      <c r="AC299" s="17"/>
-      <c r="AD299" s="17"/>
-      <c r="AE299" s="17"/>
-      <c r="AF299" s="17"/>
-      <c r="AG299" s="17"/>
-      <c r="AH299" s="17"/>
-      <c r="AI299" s="17"/>
-      <c r="AJ299" s="17"/>
-    </row>
-    <row r="300" spans="1:36" ht="16.5">
-      <c r="A300" s="16">
-        <v>299</v>
-      </c>
-      <c r="B300" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="E300" s="17">
-        <v>1</v>
-      </c>
-      <c r="F300" s="17">
-        <v>1</v>
-      </c>
-      <c r="G300" s="17">
-        <v>1</v>
-      </c>
-      <c r="H300" s="17"/>
-      <c r="I300" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="J300" s="17"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="17"/>
-      <c r="M300" s="17"/>
-      <c r="N300" s="17"/>
-      <c r="O300" s="17"/>
-      <c r="P300" s="17"/>
-      <c r="Q300" s="17"/>
-      <c r="R300" s="17"/>
-      <c r="S300" s="17"/>
-      <c r="T300" s="17"/>
-      <c r="U300" s="17"/>
-      <c r="V300" s="17"/>
-      <c r="W300" s="17"/>
-      <c r="X300" s="17"/>
-      <c r="Y300" s="17"/>
-      <c r="Z300" s="17"/>
-      <c r="AA300" s="17"/>
-      <c r="AB300" s="17"/>
-      <c r="AC300" s="17"/>
-      <c r="AD300" s="17"/>
-      <c r="AE300" s="17"/>
-      <c r="AF300" s="17"/>
-      <c r="AG300" s="17"/>
-      <c r="AH300" s="17"/>
-      <c r="AI300" s="17"/>
-      <c r="AJ300" s="17"/>
-    </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
-      <c r="A301" s="16">
-        <v>300</v>
-      </c>
-      <c r="B301" s="40" t="s">
-        <v>953</v>
-      </c>
-      <c r="C301" s="41" t="s">
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
+      <c r="A306" s="5">
+        <v>305</v>
+      </c>
+      <c r="B306" s="43" t="s">
+        <v>917</v>
+      </c>
+      <c r="C306" s="44" t="s">
+        <v>918</v>
+      </c>
+      <c r="D306" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="E306" s="29">
+        <v>1</v>
+      </c>
+      <c r="F306" s="29">
+        <v>1</v>
+      </c>
+      <c r="G306" s="29">
+        <v>1</v>
+      </c>
+      <c r="H306" s="29"/>
+      <c r="I306" s="44" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
+      <c r="A307" s="5">
+        <v>306</v>
+      </c>
+      <c r="B307" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="D307" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="E307" s="29">
+        <v>1</v>
+      </c>
+      <c r="F307" s="29">
+        <v>1</v>
+      </c>
+      <c r="G307" s="29">
+        <v>1</v>
+      </c>
+      <c r="H307" s="29"/>
+      <c r="I307" s="44" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
+      <c r="A308" s="5">
+        <v>307</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="D308" s="17" t="s">
         <v>928</v>
       </c>
-      <c r="D301" s="40" t="s">
-        <v>964</v>
-      </c>
-      <c r="E301" s="42">
-        <v>1</v>
-      </c>
-      <c r="F301" s="42">
-        <v>1</v>
-      </c>
-      <c r="G301" s="42">
-        <v>1</v>
-      </c>
-      <c r="H301" s="42"/>
-      <c r="I301" s="41" t="s">
-        <v>926</v>
-      </c>
-      <c r="J301" s="17"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="17"/>
-      <c r="M301" s="17"/>
-      <c r="N301" s="17"/>
-      <c r="O301" s="17"/>
-      <c r="P301" s="17"/>
-      <c r="Q301" s="17"/>
-      <c r="R301" s="17"/>
-      <c r="S301" s="17"/>
-      <c r="T301" s="17"/>
-      <c r="U301" s="17"/>
-      <c r="V301" s="17"/>
-      <c r="W301" s="17"/>
-      <c r="X301" s="17"/>
-      <c r="Y301" s="17"/>
-      <c r="Z301" s="17"/>
-      <c r="AA301" s="17"/>
-      <c r="AB301" s="17"/>
-      <c r="AC301" s="17"/>
-      <c r="AD301" s="17"/>
-      <c r="AE301" s="17"/>
-      <c r="AF301" s="17"/>
-      <c r="AG301" s="17"/>
-      <c r="AH301" s="17"/>
-      <c r="AI301" s="17"/>
-      <c r="AJ301" s="17"/>
-    </row>
-    <row r="302" spans="1:36" ht="16.5">
-      <c r="A302" s="16">
-        <v>301</v>
-      </c>
-      <c r="B302" s="40" t="s">
-        <v>954</v>
-      </c>
-      <c r="C302" s="41" t="s">
-        <v>927</v>
-      </c>
-      <c r="D302" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="E302" s="42">
-        <v>1</v>
-      </c>
-      <c r="F302" s="42">
-        <v>1</v>
-      </c>
-      <c r="G302" s="42">
-        <v>1</v>
-      </c>
-      <c r="H302" s="42"/>
-      <c r="I302" s="41" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
-      <c r="A303" s="16">
-        <v>302</v>
-      </c>
-      <c r="B303" s="40" t="s">
-        <v>951</v>
-      </c>
-      <c r="C303" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="D303" s="40" t="s">
-        <v>952</v>
-      </c>
-      <c r="E303" s="42">
-        <v>1</v>
-      </c>
-      <c r="F303" s="42">
-        <v>1</v>
-      </c>
-      <c r="G303" s="42">
-        <v>1</v>
-      </c>
-      <c r="H303" s="42"/>
-      <c r="I303" s="43" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:36" ht="16.5">
-      <c r="A304" s="16">
-        <v>303</v>
-      </c>
-      <c r="B304" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>907</v>
-      </c>
-      <c r="E304" s="17">
-        <v>1</v>
-      </c>
-      <c r="F304" s="17">
-        <v>1</v>
-      </c>
-      <c r="G304" s="17">
-        <v>1</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="16.5">
-      <c r="A305" s="16">
-        <v>304</v>
-      </c>
-      <c r="B305" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="C305" s="15" t="s">
-        <v>965</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="15" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5">
-      <c r="A306" s="16">
-        <v>305</v>
-      </c>
-      <c r="B306" s="46" t="s">
-        <v>917</v>
-      </c>
-      <c r="C306" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="D306" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="E306" s="31">
-        <v>1</v>
-      </c>
-      <c r="F306" s="31">
-        <v>1</v>
-      </c>
-      <c r="G306" s="31">
-        <v>1</v>
-      </c>
-      <c r="H306" s="31"/>
-      <c r="I306" s="47" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5">
-      <c r="A307" s="16">
-        <v>306</v>
-      </c>
-      <c r="B307" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="C307" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>922</v>
-      </c>
-      <c r="E307" s="31">
-        <v>1</v>
-      </c>
-      <c r="F307" s="31">
-        <v>1</v>
-      </c>
-      <c r="G307" s="31">
-        <v>1</v>
-      </c>
-      <c r="H307" s="31"/>
-      <c r="I307" s="47" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
-      <c r="A308" s="16">
-        <v>307</v>
-      </c>
-      <c r="B308" s="46" t="s">
-        <v>923</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>924</v>
-      </c>
-      <c r="D308" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="E308" s="31">
-        <v>1</v>
-      </c>
-      <c r="F308" s="31">
-        <v>1</v>
-      </c>
-      <c r="G308" s="31">
-        <v>1</v>
-      </c>
-      <c r="H308" s="31"/>
-      <c r="I308" s="47" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
-      <c r="A309" s="16">
+      <c r="E308" s="16">
+        <v>1</v>
+      </c>
+      <c r="F308" s="16">
+        <v>1</v>
+      </c>
+      <c r="G308" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="17.25">
+      <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="45" t="s">
         <v>929</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="D309" s="17" t="s">
         <v>931</v>
       </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="H309" s="16"/>
+      <c r="I309" s="15" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="17.25">
-      <c r="A310" s="16">
+      <c r="A310" s="5">
         <v>309</v>
       </c>
-      <c r="B310" s="48" t="s">
-        <v>932</v>
+      <c r="B310" s="45" t="s">
+        <v>933</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D310" s="18" t="s">
         <v>934</v>
       </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="H310" s="17"/>
-      <c r="I310" s="15" t="s">
+      <c r="D310" s="45" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" ht="17.25">
-      <c r="A311" s="16">
+      <c r="E310" s="16">
+        <v>1</v>
+      </c>
+      <c r="F310" s="16">
+        <v>1</v>
+      </c>
+      <c r="G310" s="16">
+        <v>1</v>
+      </c>
+      <c r="H310" s="16"/>
+      <c r="I310" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5">
+      <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="48" t="s">
+      <c r="B311" s="30" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C311" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="D311" s="48" t="s">
+      <c r="D311" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="H311" s="17"/>
-      <c r="I311" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5">
-      <c r="A312" s="16">
+      <c r="E311" s="22">
+        <v>1</v>
+      </c>
+      <c r="F311" s="22">
+        <v>1</v>
+      </c>
+      <c r="G311" s="22">
+        <v>1</v>
+      </c>
+      <c r="H311" s="22"/>
+      <c r="I311" s="32" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="17.25">
+      <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="32" t="s">
-        <v>939</v>
-      </c>
-      <c r="C312" s="33" t="s">
+      <c r="B312" s="33" t="s">
         <v>940</v>
       </c>
-      <c r="D312" s="32" t="s">
+      <c r="C312" s="31" t="s">
         <v>941</v>
       </c>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="34" t="s">
+      <c r="D312" s="33" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" ht="17.25">
-      <c r="A313" s="16">
+      <c r="E312" s="22">
+        <v>1</v>
+      </c>
+      <c r="F312" s="22">
+        <v>1</v>
+      </c>
+      <c r="G312" s="22">
+        <v>1</v>
+      </c>
+      <c r="H312" s="22"/>
+      <c r="I312" s="31" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
+      <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="35" t="s">
-        <v>943</v>
-      </c>
-      <c r="C313" s="33" t="s">
+      <c r="B313" s="41" t="s">
+        <v>952</v>
+      </c>
+      <c r="C313" s="42" t="s">
         <v>944</v>
       </c>
-      <c r="D313" s="35" t="s">
+      <c r="D313" s="42"/>
+      <c r="E313" s="42">
+        <v>1</v>
+      </c>
+      <c r="F313" s="42">
+        <v>1</v>
+      </c>
+      <c r="G313" s="42">
+        <v>1</v>
+      </c>
+      <c r="H313" s="42"/>
+      <c r="I313" s="42" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
+      <c r="A314" s="5">
+        <v>313</v>
+      </c>
+      <c r="B314" s="41" t="s">
+        <v>953</v>
+      </c>
+      <c r="C314" s="42" t="s">
         <v>945</v>
       </c>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="33" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
-      <c r="A314" s="16">
-        <v>313</v>
-      </c>
-      <c r="B314" s="44" t="s">
-        <v>955</v>
-      </c>
-      <c r="C314" s="45" t="s">
-        <v>947</v>
-      </c>
-      <c r="D314" s="45"/>
-      <c r="E314" s="45">
-        <v>1</v>
-      </c>
-      <c r="F314" s="45">
-        <v>1</v>
-      </c>
-      <c r="G314" s="45">
-        <v>1</v>
-      </c>
-      <c r="H314" s="45"/>
-      <c r="I314" s="45" t="s">
+      <c r="D314" s="42"/>
+      <c r="E314" s="42">
+        <v>1</v>
+      </c>
+      <c r="F314" s="42">
+        <v>1</v>
+      </c>
+      <c r="G314" s="42">
+        <v>1</v>
+      </c>
+      <c r="H314" s="42"/>
+      <c r="I314" s="42" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A315" s="5">
+        <v>314</v>
+      </c>
+      <c r="B315" s="46" t="s">
+        <v>956</v>
+      </c>
+      <c r="C315" s="47"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="47">
+        <v>1</v>
+      </c>
+      <c r="F315" s="47">
+        <v>1</v>
+      </c>
+      <c r="G315" s="47">
+        <v>1</v>
+      </c>
+      <c r="H315" s="47"/>
+      <c r="I315" s="47" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
+      <c r="B316" s="46" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
-      <c r="A315" s="16">
-        <v>314</v>
-      </c>
-      <c r="B315" s="44" t="s">
-        <v>956</v>
-      </c>
-      <c r="C315" s="45" t="s">
-        <v>948</v>
-      </c>
-      <c r="D315" s="45"/>
-      <c r="E315" s="45">
-        <v>1</v>
-      </c>
-      <c r="F315" s="45">
-        <v>1</v>
-      </c>
-      <c r="G315" s="45">
-        <v>1</v>
-      </c>
-      <c r="H315" s="45"/>
-      <c r="I315" s="45" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A316" s="16">
-        <v>315</v>
-      </c>
-      <c r="B316" s="49" t="s">
+      <c r="C316" s="47"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="47">
+        <v>1</v>
+      </c>
+      <c r="F316" s="47">
+        <v>1</v>
+      </c>
+      <c r="G316" s="47">
+        <v>1</v>
+      </c>
+      <c r="H316" s="47"/>
+      <c r="I316" s="48" t="s">
         <v>959</v>
       </c>
-      <c r="C316" s="50"/>
-      <c r="D316" s="50"/>
-      <c r="E316" s="50">
-        <v>1</v>
-      </c>
-      <c r="F316" s="50">
-        <v>1</v>
-      </c>
-      <c r="G316" s="50">
-        <v>1</v>
-      </c>
-      <c r="H316" s="50"/>
-      <c r="I316" s="50" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A317" s="16">
-        <v>316</v>
-      </c>
-      <c r="B317" s="49" t="s">
-        <v>961</v>
-      </c>
-      <c r="C317" s="50"/>
-      <c r="D317" s="50"/>
-      <c r="E317" s="50">
-        <v>1</v>
-      </c>
-      <c r="F317" s="50">
-        <v>1</v>
-      </c>
-      <c r="G317" s="50">
-        <v>1</v>
-      </c>
-      <c r="H317" s="50"/>
-      <c r="I317" s="51" t="s">
-        <v>962</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13010,7 +12966,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -2741,10 +2741,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包分享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3448,10 +3444,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐敲金蛋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3974,58 +3966,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TYBYDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>act_039_ty_sjb_style/act_001_ygbd</t>
   </si>
   <si>
     <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4046,6 +3998,140 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_sjb_style/act_002_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4054,11 +4140,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8号</t>
+    <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4070,7 +4152,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4082,7 +4188,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4090,15 +4196,195 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_003_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_004_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_005_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4106,7 +4392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4201,8 +4487,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4269,6 +4561,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4301,7 +4599,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4395,6 +4693,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4440,10 +4744,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4723,7 +5063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ318"/>
+  <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
@@ -4735,7 +5075,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -4746,7 +5086,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5421,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -6129,7 +6469,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6155,7 +6495,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6251,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6644,29 +6984,29 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
+    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="C74" s="31" t="s">
+      <c r="B74" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="31">
-        <v>0</v>
-      </c>
-      <c r="F74" s="32">
-        <v>0</v>
-      </c>
-      <c r="G74" s="32">
-        <v>0</v>
-      </c>
-      <c r="I74" s="33" t="s">
+      <c r="E74" s="33">
+        <v>0</v>
+      </c>
+      <c r="F74" s="34">
+        <v>0</v>
+      </c>
+      <c r="G74" s="34">
+        <v>0</v>
+      </c>
+      <c r="I74" s="35" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6696,30 +7036,30 @@
         <v>642</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5">
+    <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>648</v>
+      <c r="E76" s="48">
+        <v>1</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7369,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7814,30 +8154,30 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5">
-      <c r="A119" s="16">
+    <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>644</v>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="56" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8472,7 +8812,7 @@
         <v>426</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>427</v>
@@ -8498,7 +8838,7 @@
         <v>428</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>429</v>
@@ -8513,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8539,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8810,7 +9150,7 @@
         <v>462</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>463</v>
@@ -8955,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9191,10 +9531,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>657</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -10436,7 +10776,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s">
         <v>605</v>
@@ -10554,7 +10894,7 @@
         <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>631</v>
@@ -10620,13 +10960,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="D233" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10643,13 +10983,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10666,14 +11006,14 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E235">
         <v>0</v>
       </c>
@@ -10684,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10692,25 +11032,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10718,25 +11058,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>672</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10744,25 +11084,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>675</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10770,25 +11110,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>681</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10796,25 +11136,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10822,25 +11162,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -10848,25 +11188,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -10874,25 +11214,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -10900,13 +11240,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10918,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -10926,13 +11266,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10944,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -10952,13 +11292,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10970,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -10978,25 +11318,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11004,25 +11344,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11030,25 +11370,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11056,25 +11396,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11082,25 +11422,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11108,14 +11448,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C252" t="s">
+        <v>738</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C252" t="s">
-        <v>739</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -11126,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11134,13 +11474,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11153,7 +11493,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11161,25 +11501,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11187,25 +11527,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11213,13 +11553,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>749</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>750</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11232,7 +11572,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11240,14 +11580,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C257" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="D257" s="15" t="s">
-        <v>753</v>
-      </c>
       <c r="E257" s="17">
         <v>0</v>
       </c>
@@ -11258,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11266,14 +11606,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11284,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11292,25 +11632,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>760</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11318,25 +11658,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11344,25 +11684,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D261" t="s">
         <v>766</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>767</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11370,13 +11710,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="D262" s="15" t="s">
         <v>771</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>772</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11396,25 +11736,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11422,13 +11762,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>778</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>779</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11448,25 +11788,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11474,25 +11814,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>786</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11500,14 +11840,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11518,33 +11858,33 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A268" s="16">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="C268" s="15" t="s">
+      <c r="B268" s="51" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="51" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="50" t="s">
         <v>792</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="E268" s="17">
-        <v>0</v>
-      </c>
-      <c r="F268" s="17">
-        <v>1</v>
-      </c>
-      <c r="G268" s="17">
-        <v>1</v>
-      </c>
-      <c r="I268" s="19" t="s">
-        <v>733</v>
+      <c r="E268" s="2">
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <v>1</v>
+      </c>
+      <c r="G268" s="2">
+        <v>1</v>
+      </c>
+      <c r="I268" s="52" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11552,13 +11892,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>796</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11570,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11578,14 +11918,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="D270" s="18" t="s">
-        <v>799</v>
-      </c>
       <c r="E270" s="17">
         <v>0</v>
       </c>
@@ -11596,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11604,25 +11944,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>803</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11630,14 +11970,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>807</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -11648,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11656,25 +11996,25 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>810</v>
-      </c>
       <c r="E273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="17">
-        <v>1</v>
-      </c>
-      <c r="I273" s="19" t="s">
-        <v>814</v>
+        <v>0</v>
+      </c>
+      <c r="I273" s="15" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11682,25 +12022,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>813</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11708,25 +12048,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>816</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11734,22 +12074,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11757,25 +12097,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>823</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>892</v>
-      </c>
-      <c r="D277" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -11783,13 +12123,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -11801,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11809,22 +12149,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C279" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11832,13 +12172,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -11850,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11858,13 +12198,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C281" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="C281" s="15" t="s">
-        <v>836</v>
-      </c>
       <c r="D281" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11876,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11884,13 +12224,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11902,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11910,25 +12250,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -11936,13 +12276,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="D284" s="28" t="s">
         <v>851</v>
-      </c>
-      <c r="C284" s="29" t="s">
-        <v>852</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>853</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -11962,25 +12302,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>848</v>
-      </c>
-      <c r="C285" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="D285" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -11988,13 +12328,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="D286" s="28" t="s">
         <v>854</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>855</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>856</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12014,13 +12354,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C287" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>859</v>
-      </c>
       <c r="D287" s="26" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12035,30 +12375,30 @@
         <v>641</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="36" customFormat="1" ht="16.5">
-      <c r="A288" s="46">
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="D288" s="35" t="s">
-        <v>862</v>
-      </c>
-      <c r="E288" s="36">
-        <v>1</v>
-      </c>
-      <c r="F288" s="36">
-        <v>1</v>
-      </c>
-      <c r="G288" s="36">
-        <v>1</v>
-      </c>
-      <c r="I288" s="35" t="s">
-        <v>733</v>
+      <c r="E288" s="17">
+        <v>1</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="17">
+        <v>1</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12066,25 +12406,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="D289" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>864</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12092,25 +12432,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C290" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="D290" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>868</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12118,14 +12458,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="D291" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>873</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12136,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12144,14 +12484,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D292" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="C292" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>877</v>
-      </c>
       <c r="E292">
         <v>0</v>
       </c>
@@ -12162,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12170,14 +12510,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="C293" s="15" t="s">
-        <v>879</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>880</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -12188,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12196,13 +12536,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12215,7 +12555,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12223,13 +12563,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D295" s="18" t="s">
         <v>885</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>886</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>887</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12242,7 +12582,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12277,13 +12617,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="D296" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>891</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12296,7 +12636,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12331,13 +12671,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="D297" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>895</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12350,7 +12690,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12384,27 +12724,27 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="38" t="s">
+      <c r="B298" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="42" t="s">
         <v>896</v>
-      </c>
-      <c r="C298" s="39" t="s">
-        <v>899</v>
-      </c>
-      <c r="D298" s="38" t="s">
-        <v>897</v>
-      </c>
-      <c r="E298" s="30">
-        <v>1</v>
-      </c>
-      <c r="F298" s="30">
-        <v>1</v>
-      </c>
-      <c r="G298" s="30">
-        <v>1</v>
-      </c>
-      <c r="H298" s="30"/>
-      <c r="I298" s="40" t="s">
-        <v>898</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12438,27 +12778,27 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
-        <v>950</v>
-      </c>
-      <c r="C299" s="42" t="s">
-        <v>922</v>
-      </c>
-      <c r="D299" s="41" t="s">
-        <v>948</v>
-      </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="H299" s="43"/>
-      <c r="I299" s="42" t="s">
+      <c r="B299" s="43" t="s">
+        <v>955</v>
+      </c>
+      <c r="C299" s="44" t="s">
         <v>920</v>
+      </c>
+      <c r="D299" s="43" t="s">
+        <v>953</v>
+      </c>
+      <c r="E299" s="45">
+        <v>1</v>
+      </c>
+      <c r="F299" s="45">
+        <v>1</v>
+      </c>
+      <c r="G299" s="45">
+        <v>1</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="44" t="s">
+        <v>918</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12492,53 +12832,53 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
-        <v>951</v>
-      </c>
-      <c r="C300" s="42" t="s">
-        <v>921</v>
-      </c>
-      <c r="D300" s="41" t="s">
-        <v>947</v>
-      </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="H300" s="43"/>
-      <c r="I300" s="42" t="s">
-        <v>920</v>
+      <c r="B300" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="C300" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="D300" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="E300" s="45">
+        <v>1</v>
+      </c>
+      <c r="F300" s="45">
+        <v>1</v>
+      </c>
+      <c r="G300" s="45">
+        <v>1</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="44" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="41" t="s">
-        <v>943</v>
-      </c>
-      <c r="C301" s="41" t="s">
-        <v>900</v>
-      </c>
-      <c r="D301" s="41" t="s">
-        <v>944</v>
-      </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
-      <c r="H301" s="43"/>
-      <c r="I301" s="44" t="s">
+      <c r="B301" s="43" t="s">
+        <v>946</v>
+      </c>
+      <c r="C301" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="D301" s="43" t="s">
+        <v>947</v>
+      </c>
+      <c r="E301" s="45">
+        <v>1</v>
+      </c>
+      <c r="F301" s="45">
+        <v>1</v>
+      </c>
+      <c r="G301" s="45">
+        <v>1</v>
+      </c>
+      <c r="H301" s="45"/>
+      <c r="I301" s="46" t="s">
         <v>641</v>
       </c>
     </row>
@@ -12547,13 +12887,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>901</v>
-      </c>
-      <c r="C302" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>903</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12566,7 +12906,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12574,13 +12914,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12593,22 +12933,22 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="38" t="s">
+      <c r="B304" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="C304" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="D304" s="40" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="39" t="s">
-        <v>912</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>913</v>
-      </c>
       <c r="E304" s="30">
         <v>1</v>
       </c>
@@ -12619,8 +12959,8 @@
         <v>1</v>
       </c>
       <c r="H304" s="30"/>
-      <c r="I304" s="39" t="s">
-        <v>910</v>
+      <c r="I304" s="41" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12628,14 +12968,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C305" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>916</v>
-      </c>
       <c r="E305" s="17">
         <v>1</v>
       </c>
@@ -12646,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12654,25 +12994,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12680,13 +13020,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D307" s="18" t="s">
         <v>923</v>
-      </c>
-      <c r="C307" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>925</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12702,40 +13042,40 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="37" t="s">
+      <c r="B308" s="39" t="s">
+        <v>924</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="D308" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>927</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="37" t="s">
+      <c r="B309" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D309" s="39" t="s">
         <v>930</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>931</v>
-      </c>
-      <c r="D309" s="37" t="s">
-        <v>932</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12755,227 +13095,644 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>934</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>935</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="37" t="s">
+      <c r="B311" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="D311" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="D311" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="34" t="s">
-        <v>953</v>
-      </c>
-      <c r="C312" s="35" t="s">
-        <v>954</v>
-      </c>
-      <c r="D312" s="36"/>
-      <c r="E312" s="36">
-        <v>1</v>
-      </c>
-      <c r="F312" s="36">
-        <v>1</v>
-      </c>
-      <c r="G312" s="36">
-        <v>1</v>
-      </c>
-      <c r="H312" s="36"/>
-      <c r="I312" s="35" t="s">
-        <v>955</v>
+      <c r="B312" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D312" s="23"/>
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="32" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="34" t="s">
-        <v>956</v>
-      </c>
-      <c r="C313" s="35" t="s">
-        <v>957</v>
-      </c>
-      <c r="D313" s="36"/>
-      <c r="E313" s="36">
-        <v>1</v>
-      </c>
-      <c r="F313" s="36">
-        <v>1</v>
-      </c>
-      <c r="G313" s="36">
-        <v>1</v>
-      </c>
-      <c r="H313" s="36"/>
-      <c r="I313" s="35" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B313" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="32" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="C314" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="D314" s="36"/>
-      <c r="E314" s="36">
-        <v>1</v>
-      </c>
-      <c r="F314" s="36">
-        <v>1</v>
-      </c>
-      <c r="G314" s="36">
-        <v>1</v>
-      </c>
-      <c r="H314" s="36"/>
-      <c r="I314" s="35" t="s">
-        <v>955</v>
+      <c r="B314" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="D314" s="38"/>
+      <c r="E314" s="38">
+        <v>1</v>
+      </c>
+      <c r="F314" s="38">
+        <v>1</v>
+      </c>
+      <c r="G314" s="38">
+        <v>1</v>
+      </c>
+      <c r="H314" s="38"/>
+      <c r="I314" s="37" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
-        <v>962</v>
-      </c>
-      <c r="C315" s="35" t="s">
-        <v>963</v>
-      </c>
-      <c r="D315" s="36"/>
-      <c r="E315" s="36">
-        <v>1</v>
-      </c>
-      <c r="F315" s="36">
-        <v>1</v>
-      </c>
-      <c r="G315" s="36">
-        <v>1</v>
-      </c>
-      <c r="H315" s="36"/>
-      <c r="I315" s="35" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
+      <c r="B315" s="36" t="s">
+        <v>970</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="D315" s="38"/>
+      <c r="E315" s="38">
+        <v>1</v>
+      </c>
+      <c r="F315" s="38">
+        <v>1</v>
+      </c>
+      <c r="G315" s="38">
+        <v>1</v>
+      </c>
+      <c r="H315" s="38"/>
+      <c r="I315" s="37" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
-        <v>964</v>
-      </c>
-      <c r="C316" s="35" t="s">
-        <v>965</v>
-      </c>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36">
-        <v>1</v>
-      </c>
-      <c r="F316" s="36">
-        <v>1</v>
-      </c>
-      <c r="G316" s="36">
-        <v>1</v>
-      </c>
-      <c r="H316" s="36"/>
-      <c r="I316" s="35" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
+      <c r="B316" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="C316" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="D316" s="38"/>
+      <c r="E316" s="38">
+        <v>1</v>
+      </c>
+      <c r="F316" s="38">
+        <v>1</v>
+      </c>
+      <c r="G316" s="38">
+        <v>1</v>
+      </c>
+      <c r="H316" s="38"/>
+      <c r="I316" s="37" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="34" t="s">
-        <v>946</v>
-      </c>
-      <c r="C317" s="35" t="s">
-        <v>966</v>
-      </c>
-      <c r="D317" s="36"/>
-      <c r="E317" s="36">
-        <v>1</v>
-      </c>
-      <c r="F317" s="36">
-        <v>1</v>
-      </c>
-      <c r="G317" s="36">
-        <v>1</v>
-      </c>
-      <c r="H317" s="36"/>
-      <c r="I317" s="35" t="s">
-        <v>967</v>
+      <c r="B317" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D317" s="38"/>
+      <c r="E317" s="38">
+        <v>1</v>
+      </c>
+      <c r="F317" s="38">
+        <v>1</v>
+      </c>
+      <c r="G317" s="38">
+        <v>1</v>
+      </c>
+      <c r="H317" s="38"/>
+      <c r="I317" s="37" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="34" t="s">
-        <v>952</v>
-      </c>
-      <c r="C318" s="35" t="s">
+      <c r="B318" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="D318" s="38"/>
+      <c r="E318" s="38">
+        <v>1</v>
+      </c>
+      <c r="F318" s="38">
+        <v>1</v>
+      </c>
+      <c r="G318" s="38">
+        <v>1</v>
+      </c>
+      <c r="H318" s="38"/>
+      <c r="I318" s="37" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5">
+      <c r="A319" s="16">
+        <v>318</v>
+      </c>
+      <c r="B319" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="D319" s="38"/>
+      <c r="E319" s="38">
+        <v>1</v>
+      </c>
+      <c r="F319" s="38">
+        <v>1</v>
+      </c>
+      <c r="G319" s="38">
+        <v>1</v>
+      </c>
+      <c r="H319" s="38"/>
+      <c r="I319" s="37" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5">
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
+      <c r="B320" s="53" t="s">
         <v>968</v>
       </c>
-      <c r="D318" s="36"/>
-      <c r="E318" s="36">
-        <v>1</v>
-      </c>
-      <c r="F318" s="36">
-        <v>1</v>
-      </c>
-      <c r="G318" s="36">
-        <v>1</v>
-      </c>
-      <c r="H318" s="36"/>
-      <c r="I318" s="47" t="s">
-        <v>969</v>
-      </c>
+      <c r="C320" s="37" t="s">
+        <v>980</v>
+      </c>
+      <c r="D320" s="38"/>
+      <c r="E320" s="38">
+        <v>1</v>
+      </c>
+      <c r="F320" s="38">
+        <v>1</v>
+      </c>
+      <c r="G320" s="38">
+        <v>1</v>
+      </c>
+      <c r="H320" s="38"/>
+      <c r="I320" s="54" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
+      <c r="A321" s="16">
+        <v>320</v>
+      </c>
+      <c r="B321" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="C321" s="51" t="s">
+        <v>987</v>
+      </c>
+      <c r="D321" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <v>1</v>
+      </c>
+      <c r="G321" s="2">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2"/>
+      <c r="I321" s="51" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
+      <c r="B322" s="50" t="s">
+        <v>959</v>
+      </c>
+      <c r="C322" s="51" t="s">
+        <v>989</v>
+      </c>
+      <c r="D322" s="50" t="s">
+        <v>960</v>
+      </c>
+      <c r="E322" s="2">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2">
+        <v>1</v>
+      </c>
+      <c r="G322" s="2">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2"/>
+      <c r="I322" s="51" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="16.5">
+      <c r="A323" s="16">
+        <v>322</v>
+      </c>
+      <c r="B323" s="50" t="s">
+        <v>961</v>
+      </c>
+      <c r="C323" s="51" t="s">
+        <v>991</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2"/>
+      <c r="I323" s="51" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="61" t="s">
+        <v>992</v>
+      </c>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="52" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
+      <c r="A325" s="16">
+        <v>324</v>
+      </c>
+      <c r="B325" s="50" t="s">
+        <v>962</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>963</v>
+      </c>
+      <c r="D325" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <v>1</v>
+      </c>
+      <c r="G325" s="2">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2"/>
+      <c r="I325" s="51" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="50" t="s">
+        <v>995</v>
+      </c>
+      <c r="C326" s="52" t="s">
+        <v>996</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>1</v>
+      </c>
+      <c r="G326" s="2">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2"/>
+      <c r="I326" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="50" t="s">
+        <v>966</v>
+      </c>
+      <c r="C327" s="52" t="s">
+        <v>998</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2"/>
+      <c r="I327" s="51" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="50" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C328" s="52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2">
+        <v>1</v>
+      </c>
+      <c r="G328" s="2">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2"/>
+      <c r="I328" s="51" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C329" s="52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D329" s="50" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <v>1</v>
+      </c>
+      <c r="G329" s="2">
+        <v>1</v>
+      </c>
+      <c r="H329" s="2"/>
+      <c r="I329" s="51" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="57" t="s">
+        <v>983</v>
+      </c>
+      <c r="C330" s="58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D330" s="57" t="s">
+        <v>984</v>
+      </c>
+      <c r="E330" s="59">
+        <v>1</v>
+      </c>
+      <c r="F330" s="59">
+        <v>1</v>
+      </c>
+      <c r="G330" s="59">
+        <v>1</v>
+      </c>
+      <c r="H330" s="59"/>
+      <c r="I330" s="60" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
+      <c r="A331" s="16">
+        <v>330</v>
+      </c>
+      <c r="B331" s="50" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C331" s="51" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <v>1</v>
+      </c>
+      <c r="G331" s="2">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2"/>
+      <c r="I331" s="51" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
+      <c r="B332" s="50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C332" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>1</v>
+      </c>
+      <c r="G332" s="2">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2"/>
+      <c r="I332" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="50" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C333" s="51" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2">
+        <v>1</v>
+      </c>
+      <c r="G333" s="2">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2"/>
+      <c r="I333" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
+      <c r="A334" s="16">
+        <v>333</v>
+      </c>
+      <c r="B334" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C334" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <v>1</v>
+      </c>
+      <c r="G334" s="2">
+        <v>1</v>
+      </c>
+      <c r="H334" s="2"/>
+      <c r="I334" s="51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="16.5">
+      <c r="B335" s="18"/>
+    </row>
+    <row r="336" spans="1:9" ht="16.5">
+      <c r="B336" s="18"/>
+    </row>
+    <row r="337" spans="2:2" ht="16.5">
+      <c r="B337" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="958">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3752,10 +3752,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lh_drop_ani</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3810,14 +3806,6 @@
   </si>
   <si>
     <t>act_040_ydfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4671,13 +4659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ316"/>
+  <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C325" sqref="C325"/>
+      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11082,13 +11070,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C253" s="24" t="s">
         <v>738</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E253" s="24">
         <v>0</v>
@@ -11164,7 +11152,7 @@
         <v>749</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>750</v>
@@ -11180,7 +11168,7 @@
       </c>
       <c r="H256" s="16"/>
       <c r="I256" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1" ht="16.5">
@@ -12282,21 +12270,23 @@
         <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="D297" s="16"/>
+        <v>894</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>895</v>
+      </c>
       <c r="E297" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="16"/>
-      <c r="I297" s="15" t="s">
-        <v>910</v>
+      <c r="I297" s="18" t="s">
+        <v>888</v>
       </c>
       <c r="J297" s="16"/>
       <c r="K297" s="16"/>
@@ -12326,31 +12316,31 @@
       <c r="AI297" s="16"/>
       <c r="AJ297" s="16"/>
     </row>
-    <row r="298" spans="1:36" s="21" customFormat="1" ht="16.5">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="5">
         <v>297</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E298" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" s="16"/>
       <c r="I298" s="18" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="J298" s="16"/>
       <c r="K298" s="16"/>
@@ -12380,31 +12370,31 @@
       <c r="AI298" s="16"/>
       <c r="AJ298" s="16"/>
     </row>
-    <row r="299" spans="1:36" ht="16.5">
+    <row r="299" spans="1:36" s="20" customFormat="1" ht="16.5">
       <c r="A299" s="5">
         <v>298</v>
       </c>
-      <c r="B299" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="H299" s="16"/>
-      <c r="I299" s="18" t="s">
-        <v>899</v>
+      <c r="B299" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="C299" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="D299" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="E299" s="39">
+        <v>1</v>
+      </c>
+      <c r="F299" s="39">
+        <v>1</v>
+      </c>
+      <c r="G299" s="39">
+        <v>1</v>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="38" t="s">
+        <v>920</v>
       </c>
       <c r="J299" s="16"/>
       <c r="K299" s="16"/>
@@ -12434,18 +12424,18 @@
       <c r="AI299" s="16"/>
       <c r="AJ299" s="16"/>
     </row>
-    <row r="300" spans="1:36" s="20" customFormat="1" ht="16.5">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="5">
         <v>299</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C300" s="38" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E300" s="39">
         <v>1</v>
@@ -12458,48 +12448,21 @@
       </c>
       <c r="H300" s="39"/>
       <c r="I300" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="J300" s="16"/>
-      <c r="K300" s="16"/>
-      <c r="L300" s="16"/>
-      <c r="M300" s="16"/>
-      <c r="N300" s="16"/>
-      <c r="O300" s="16"/>
-      <c r="P300" s="16"/>
-      <c r="Q300" s="16"/>
-      <c r="R300" s="16"/>
-      <c r="S300" s="16"/>
-      <c r="T300" s="16"/>
-      <c r="U300" s="16"/>
-      <c r="V300" s="16"/>
-      <c r="W300" s="16"/>
-      <c r="X300" s="16"/>
-      <c r="Y300" s="16"/>
-      <c r="Z300" s="16"/>
-      <c r="AA300" s="16"/>
-      <c r="AB300" s="16"/>
-      <c r="AC300" s="16"/>
-      <c r="AD300" s="16"/>
-      <c r="AE300" s="16"/>
-      <c r="AF300" s="16"/>
-      <c r="AG300" s="16"/>
-      <c r="AH300" s="16"/>
-      <c r="AI300" s="16"/>
-      <c r="AJ300" s="16"/>
-    </row>
-    <row r="301" spans="1:36" ht="16.5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="301" spans="1:36" s="16" customFormat="1" ht="16.5">
       <c r="A301" s="5">
         <v>300</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>924</v>
+        <v>945</v>
+      </c>
+      <c r="C301" s="37" t="s">
+        <v>900</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E301" s="39">
         <v>1</v>
@@ -12511,49 +12474,49 @@
         <v>1</v>
       </c>
       <c r="H301" s="39"/>
-      <c r="I301" s="38" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="302" spans="1:36" s="16" customFormat="1" ht="16.5">
+      <c r="I301" s="40" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="5">
         <v>301</v>
       </c>
-      <c r="B302" s="37" t="s">
-        <v>948</v>
-      </c>
-      <c r="C302" s="37" t="s">
+      <c r="B302" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="D302" s="37" t="s">
-        <v>949</v>
-      </c>
-      <c r="E302" s="39">
-        <v>1</v>
-      </c>
-      <c r="F302" s="39">
-        <v>1</v>
-      </c>
-      <c r="G302" s="39">
-        <v>1</v>
-      </c>
-      <c r="H302" s="39"/>
-      <c r="I302" s="40" t="s">
-        <v>641</v>
+      <c r="C302" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="E302" s="16">
+        <v>1</v>
+      </c>
+      <c r="F302" s="16">
+        <v>1</v>
+      </c>
+      <c r="G302" s="16">
+        <v>1</v>
+      </c>
+      <c r="H302" s="16"/>
+      <c r="I302" s="18" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="5">
         <v>302</v>
       </c>
-      <c r="B303" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="C303" s="16" t="s">
-        <v>903</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>904</v>
+      <c r="B303" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>905</v>
       </c>
       <c r="E303" s="16">
         <v>1</v>
@@ -12565,35 +12528,35 @@
         <v>1</v>
       </c>
       <c r="H303" s="16"/>
-      <c r="I303" s="18" t="s">
-        <v>905</v>
+      <c r="I303" s="15" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="5">
         <v>303</v>
       </c>
-      <c r="B304" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>958</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="E304" s="16">
-        <v>1</v>
-      </c>
-      <c r="F304" s="16">
-        <v>1</v>
-      </c>
-      <c r="G304" s="16">
-        <v>1</v>
-      </c>
-      <c r="H304" s="16"/>
-      <c r="I304" s="15" t="s">
-        <v>907</v>
+      <c r="B304" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>912</v>
+      </c>
+      <c r="D304" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="E304" s="29">
+        <v>1</v>
+      </c>
+      <c r="F304" s="29">
+        <v>1</v>
+      </c>
+      <c r="G304" s="29">
+        <v>1</v>
+      </c>
+      <c r="H304" s="29"/>
+      <c r="I304" s="44" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12620,7 +12583,7 @@
       </c>
       <c r="H305" s="29"/>
       <c r="I305" s="44" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12647,41 +12610,37 @@
       </c>
       <c r="H306" s="29"/>
       <c r="I306" s="44" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="5">
         <v>306</v>
       </c>
-      <c r="B307" s="43" t="s">
-        <v>920</v>
-      </c>
-      <c r="C307" s="44" t="s">
-        <v>921</v>
-      </c>
-      <c r="D307" s="43" t="s">
-        <v>922</v>
-      </c>
-      <c r="E307" s="29">
-        <v>1</v>
-      </c>
-      <c r="F307" s="29">
-        <v>1</v>
-      </c>
-      <c r="G307" s="29">
-        <v>1</v>
-      </c>
-      <c r="H307" s="29"/>
-      <c r="I307" s="44" t="s">
+      <c r="B307" s="17" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5">
+      <c r="C307" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="17.25">
       <c r="A308" s="5">
         <v>307</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="45" t="s">
         <v>926</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -12698,6 +12657,10 @@
       </c>
       <c r="G308" s="16">
         <v>1</v>
+      </c>
+      <c r="H308" s="16"/>
+      <c r="I308" s="15" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="17.25">
@@ -12705,14 +12668,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="D309" s="17" t="s">
         <v>931</v>
       </c>
+      <c r="D309" s="45" t="s">
+        <v>932</v>
+      </c>
       <c r="E309" s="16">
         <v>1</v>
       </c>
@@ -12723,50 +12686,50 @@
         <v>1</v>
       </c>
       <c r="H309" s="16"/>
-      <c r="I309" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="17.25">
+      <c r="I309" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="5">
         <v>309</v>
       </c>
-      <c r="B310" s="45" t="s">
+      <c r="B310" s="30" t="s">
         <v>933</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="C310" s="31" t="s">
         <v>934</v>
       </c>
-      <c r="D310" s="45" t="s">
+      <c r="D310" s="30" t="s">
         <v>935</v>
       </c>
-      <c r="E310" s="16">
-        <v>1</v>
-      </c>
-      <c r="F310" s="16">
-        <v>1</v>
-      </c>
-      <c r="G310" s="16">
-        <v>1</v>
-      </c>
-      <c r="H310" s="16"/>
-      <c r="I310" s="18" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="16.5">
+      <c r="E310" s="22">
+        <v>1</v>
+      </c>
+      <c r="F310" s="22">
+        <v>1</v>
+      </c>
+      <c r="G310" s="22">
+        <v>1</v>
+      </c>
+      <c r="H310" s="22"/>
+      <c r="I310" s="32" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="17.25">
       <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="30" t="s">
-        <v>936</v>
+      <c r="B311" s="33" t="s">
+        <v>937</v>
       </c>
       <c r="C311" s="31" t="s">
-        <v>937</v>
-      </c>
-      <c r="D311" s="30" t="s">
         <v>938</v>
       </c>
+      <c r="D311" s="33" t="s">
+        <v>939</v>
+      </c>
       <c r="E311" s="22">
         <v>1</v>
       </c>
@@ -12777,35 +12740,33 @@
         <v>1</v>
       </c>
       <c r="H311" s="22"/>
-      <c r="I311" s="32" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="17.25">
+      <c r="I311" s="31" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="5">
         <v>311</v>
       </c>
-      <c r="B312" s="33" t="s">
-        <v>940</v>
-      </c>
-      <c r="C312" s="31" t="s">
+      <c r="B312" s="41" t="s">
+        <v>949</v>
+      </c>
+      <c r="C312" s="42" t="s">
         <v>941</v>
       </c>
-      <c r="D312" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="E312" s="22">
-        <v>1</v>
-      </c>
-      <c r="F312" s="22">
-        <v>1</v>
-      </c>
-      <c r="G312" s="22">
-        <v>1</v>
-      </c>
-      <c r="H312" s="22"/>
-      <c r="I312" s="31" t="s">
-        <v>943</v>
+      <c r="D312" s="42"/>
+      <c r="E312" s="42">
+        <v>1</v>
+      </c>
+      <c r="F312" s="42">
+        <v>1</v>
+      </c>
+      <c r="G312" s="42">
+        <v>1</v>
+      </c>
+      <c r="H312" s="42"/>
+      <c r="I312" s="42" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12813,10 +12774,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="41" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D313" s="42"/>
       <c r="E313" s="42">
@@ -12830,61 +12791,36 @@
       </c>
       <c r="H313" s="42"/>
       <c r="I313" s="42" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="41" t="s">
-        <v>953</v>
-      </c>
-      <c r="C314" s="42" t="s">
-        <v>945</v>
-      </c>
-      <c r="D314" s="42"/>
-      <c r="E314" s="42">
-        <v>1</v>
-      </c>
-      <c r="F314" s="42">
-        <v>1</v>
-      </c>
-      <c r="G314" s="42">
-        <v>1</v>
-      </c>
-      <c r="H314" s="42"/>
-      <c r="I314" s="42" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
-      <c r="A315" s="5">
-        <v>314</v>
-      </c>
-      <c r="B315" s="19" t="s">
-        <v>959</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="E315">
-        <v>1</v>
-      </c>
-      <c r="F315">
-        <v>1</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-      <c r="I315" s="18" t="s">
+      <c r="B314" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="I314" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A316" s="46"/>
-      <c r="B316" s="17"/>
-      <c r="I316" s="15"/>
+    <row r="315" spans="1:9" s="16" customFormat="1" ht="16.5">
+      <c r="A315" s="46"/>
+      <c r="B315" s="17"/>
+      <c r="I315" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="962">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4038,6 +4038,22 @@
   </si>
   <si>
     <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4240,7 +4256,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4379,7 +4395,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4659,13 +4684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ315"/>
+  <dimension ref="A1:AJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
+      <selection pane="bottomRight" activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12798,29 +12823,76 @@
       <c r="A314" s="5">
         <v>313</v>
       </c>
-      <c r="B314" s="19" t="s">
+      <c r="B314" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="C314" s="9" t="s">
+      <c r="C314" s="47" t="s">
         <v>957</v>
       </c>
-      <c r="E314">
-        <v>1</v>
-      </c>
-      <c r="F314">
-        <v>1</v>
-      </c>
-      <c r="G314">
-        <v>1</v>
-      </c>
-      <c r="I314" s="18" t="s">
+      <c r="D314" s="48"/>
+      <c r="E314" s="48">
+        <v>1</v>
+      </c>
+      <c r="F314" s="48">
+        <v>1</v>
+      </c>
+      <c r="G314" s="48">
+        <v>1</v>
+      </c>
+      <c r="H314" s="48"/>
+      <c r="I314" s="49" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="16" customFormat="1" ht="16.5">
-      <c r="A315" s="46"/>
-      <c r="B315" s="17"/>
-      <c r="I315" s="15"/>
+      <c r="A315" s="5">
+        <v>314</v>
+      </c>
+      <c r="B315" s="46" t="s">
+        <v>958</v>
+      </c>
+      <c r="C315" s="48" t="s">
+        <v>960</v>
+      </c>
+      <c r="D315" s="48"/>
+      <c r="E315" s="48">
+        <v>1</v>
+      </c>
+      <c r="F315" s="48">
+        <v>1</v>
+      </c>
+      <c r="G315" s="48">
+        <v>1</v>
+      </c>
+      <c r="H315" s="48"/>
+      <c r="I315" s="49" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
+      <c r="B316" s="46" t="s">
+        <v>959</v>
+      </c>
+      <c r="C316" s="48" t="s">
+        <v>961</v>
+      </c>
+      <c r="D316" s="48"/>
+      <c r="E316" s="48">
+        <v>1</v>
+      </c>
+      <c r="F316" s="48">
+        <v>1</v>
+      </c>
+      <c r="G316" s="48">
+        <v>1</v>
+      </c>
+      <c r="H316" s="48"/>
+      <c r="I316" s="49" t="s">
+        <v>641</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -4006,14 +4006,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_ygbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2月1号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4054,6 +4046,14 @@
   </si>
   <si>
     <t>爆竹皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4690,7 +4690,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A316" sqref="A316"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12406,7 +12406,7 @@
         <v>922</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E299" s="39">
         <v>1</v>
@@ -12460,7 +12460,7 @@
         <v>921</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E300" s="39">
         <v>1</v>
@@ -12538,7 +12538,7 @@
         <v>907</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>905</v>
@@ -12774,7 +12774,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="41" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="C312" s="42" t="s">
         <v>941</v>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H312" s="42"/>
       <c r="I312" s="42" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12799,7 +12799,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="41" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C313" s="42" t="s">
         <v>942</v>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="H313" s="42"/>
       <c r="I313" s="42" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12824,10 +12824,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="46" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C314" s="47" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D314" s="48"/>
       <c r="E314" s="48">
@@ -12849,10 +12849,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="46" t="s">
+        <v>956</v>
+      </c>
+      <c r="C315" s="48" t="s">
         <v>958</v>
-      </c>
-      <c r="C315" s="48" t="s">
-        <v>960</v>
       </c>
       <c r="D315" s="48"/>
       <c r="E315" s="48">
@@ -12874,10 +12874,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="C316" s="48" t="s">
         <v>959</v>
-      </c>
-      <c r="C316" s="48" t="s">
-        <v>961</v>
       </c>
       <c r="D316" s="48"/>
       <c r="E316" s="48">

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="968">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4054,6 +4054,30 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4684,13 +4708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ316"/>
+  <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="A317" sqref="A317:XFD318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12894,6 +12918,56 @@
         <v>641</v>
       </c>
     </row>
+    <row r="317" spans="1:9" ht="16.5">
+      <c r="A317" s="5">
+        <v>316</v>
+      </c>
+      <c r="B317" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="C317" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="D317" s="48"/>
+      <c r="E317" s="48">
+        <v>1</v>
+      </c>
+      <c r="F317" s="48">
+        <v>1</v>
+      </c>
+      <c r="G317" s="48">
+        <v>1</v>
+      </c>
+      <c r="H317" s="48"/>
+      <c r="I317" s="47" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
+      <c r="A318" s="5">
+        <v>317</v>
+      </c>
+      <c r="B318" s="46" t="s">
+        <v>966</v>
+      </c>
+      <c r="C318" s="47" t="s">
+        <v>967</v>
+      </c>
+      <c r="D318" s="48"/>
+      <c r="E318" s="48">
+        <v>1</v>
+      </c>
+      <c r="F318" s="48">
+        <v>1</v>
+      </c>
+      <c r="G318" s="48">
+        <v>1</v>
+      </c>
+      <c r="H318" s="48"/>
+      <c r="I318" s="47" t="s">
+        <v>964</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -4711,10 +4711,10 @@
   <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A317" sqref="A317:XFD318"/>
+      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1017">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4385,6 +4385,10 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_005_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5066,10 +5070,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13491,7 +13495,9 @@
       <c r="G325" s="2">
         <v>1</v>
       </c>
-      <c r="H325" s="2"/>
+      <c r="H325" s="2" t="s">
+        <v>1016</v>
+      </c>
       <c r="I325" s="51" t="s">
         <v>994</v>
       </c>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3947,38 +3947,6 @@
   </si>
   <si>
     <t>Act_Ty_QJD1Manager</t>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4603,7 +4571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4695,12 +4663,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5070,10 +5032,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
+      <selection pane="bottomRight" activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5090,7 +5052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6988,29 +6950,29 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
+    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="33">
-        <v>0</v>
-      </c>
-      <c r="F74" s="34">
-        <v>0</v>
-      </c>
-      <c r="G74" s="34">
-        <v>0</v>
-      </c>
-      <c r="I74" s="35" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7044,16 +7006,16 @@
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="46">
         <v>1</v>
       </c>
       <c r="F76" s="23">
@@ -7062,8 +7024,8 @@
       <c r="G76" s="23">
         <v>1</v>
       </c>
-      <c r="I76" s="49" t="s">
-        <v>957</v>
+      <c r="I76" s="47" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8180,8 +8142,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="56" t="s">
-        <v>982</v>
+      <c r="I119" s="54" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11478,13 +11440,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11869,13 +11831,13 @@
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="51" t="s">
+      <c r="B268" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="50" t="s">
+      <c r="D268" s="48" t="s">
         <v>792</v>
       </c>
       <c r="E268" s="2">
@@ -11887,7 +11849,7 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="50" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12018,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12728,13 +12690,13 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="C298" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="D298" s="40" t="s">
+      <c r="D298" s="38" t="s">
         <v>895</v>
       </c>
       <c r="E298" s="30">
@@ -12747,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="30"/>
-      <c r="I298" s="42" t="s">
+      <c r="I298" s="40" t="s">
         <v>896</v>
       </c>
       <c r="J298" s="17"/>
@@ -12782,26 +12744,26 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="C299" s="44" t="s">
+      <c r="B299" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="D299" s="43" t="s">
-        <v>953</v>
-      </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="D299" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="H299" s="43"/>
+      <c r="I299" s="42" t="s">
         <v>918</v>
       </c>
       <c r="J299" s="17"/>
@@ -12836,26 +12798,26 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
-        <v>956</v>
-      </c>
-      <c r="C300" s="44" t="s">
+      <c r="B300" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="42" t="s">
         <v>919</v>
       </c>
-      <c r="D300" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="D300" s="41" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="H300" s="43"/>
+      <c r="I300" s="42" t="s">
         <v>918</v>
       </c>
     </row>
@@ -12863,26 +12825,26 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
-        <v>946</v>
-      </c>
-      <c r="C301" s="43" t="s">
+      <c r="B301" s="41" t="s">
+        <v>941</v>
+      </c>
+      <c r="C301" s="41" t="s">
         <v>898</v>
       </c>
-      <c r="D301" s="43" t="s">
-        <v>947</v>
-      </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="46" t="s">
+      <c r="D301" s="41" t="s">
+        <v>942</v>
+      </c>
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="H301" s="43"/>
+      <c r="I301" s="44" t="s">
         <v>641</v>
       </c>
     </row>
@@ -12921,7 +12883,7 @@
         <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>903</v>
@@ -12944,13 +12906,13 @@
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="40" t="s">
+      <c r="B304" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="C304" s="39" t="s">
         <v>910</v>
       </c>
-      <c r="D304" s="40" t="s">
+      <c r="D304" s="38" t="s">
         <v>911</v>
       </c>
       <c r="E304" s="30">
@@ -12963,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="30"/>
-      <c r="I304" s="41" t="s">
+      <c r="I304" s="39" t="s">
         <v>908</v>
       </c>
     </row>
@@ -13046,7 +13008,7 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="39" t="s">
+      <c r="B308" s="37" t="s">
         <v>924</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -13072,13 +13034,13 @@
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="37" t="s">
         <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D309" s="39" t="s">
+      <c r="D309" s="37" t="s">
         <v>930</v>
       </c>
       <c r="E309" s="17">
@@ -13124,13 +13086,13 @@
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="37" t="s">
         <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="D311" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E311" s="17">
@@ -13150,240 +13112,242 @@
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="31" t="s">
-        <v>939</v>
-      </c>
-      <c r="C312" s="32" t="s">
-        <v>940</v>
-      </c>
-      <c r="D312" s="23"/>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="32" t="s">
-        <v>938</v>
+      <c r="B312" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C312" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="D312" s="36"/>
+      <c r="E312" s="36">
+        <v>1</v>
+      </c>
+      <c r="F312" s="36">
+        <v>1</v>
+      </c>
+      <c r="G312" s="36">
+        <v>1</v>
+      </c>
+      <c r="H312" s="36"/>
+      <c r="I312" s="35" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="31" t="s">
-        <v>941</v>
-      </c>
-      <c r="C313" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="D313" s="23"/>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="32" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+      <c r="B313" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D313" s="36"/>
+      <c r="E313" s="36">
+        <v>1</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+      <c r="G313" s="36">
+        <v>1</v>
+      </c>
+      <c r="H313" s="36"/>
+      <c r="I313" s="35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
-        <v>967</v>
-      </c>
-      <c r="C314" s="37" t="s">
+      <c r="B314" s="34" t="s">
+        <v>968</v>
+      </c>
+      <c r="C314" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="D314" s="38"/>
-      <c r="E314" s="38">
-        <v>1</v>
-      </c>
-      <c r="F314" s="38">
-        <v>1</v>
-      </c>
-      <c r="G314" s="38">
-        <v>1</v>
-      </c>
-      <c r="H314" s="38"/>
-      <c r="I314" s="37" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="16.5">
+      <c r="D314" s="36"/>
+      <c r="E314" s="36">
+        <v>1</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+      <c r="G314" s="36">
+        <v>1</v>
+      </c>
+      <c r="H314" s="36"/>
+      <c r="I314" s="35" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="36" t="s">
-        <v>970</v>
-      </c>
-      <c r="C315" s="37" t="s">
+      <c r="B315" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="C315" s="35" t="s">
         <v>971</v>
       </c>
-      <c r="D315" s="38"/>
-      <c r="E315" s="38">
-        <v>1</v>
-      </c>
-      <c r="F315" s="38">
-        <v>1</v>
-      </c>
-      <c r="G315" s="38">
-        <v>1</v>
-      </c>
-      <c r="H315" s="38"/>
-      <c r="I315" s="37" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="D315" s="36"/>
+      <c r="E315" s="36">
+        <v>1</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+      <c r="G315" s="36">
+        <v>1</v>
+      </c>
+      <c r="H315" s="36"/>
+      <c r="I315" s="35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="C316" s="38" t="s">
-        <v>974</v>
-      </c>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38">
-        <v>1</v>
-      </c>
-      <c r="F316" s="38">
-        <v>1</v>
-      </c>
-      <c r="G316" s="38">
-        <v>1</v>
-      </c>
-      <c r="H316" s="38"/>
-      <c r="I316" s="37" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B316" s="34" t="s">
+        <v>972</v>
+      </c>
+      <c r="C316" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="D316" s="36"/>
+      <c r="E316" s="36">
+        <v>1</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+      <c r="G316" s="36">
+        <v>1</v>
+      </c>
+      <c r="H316" s="36"/>
+      <c r="I316" s="35" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="36" t="s">
-        <v>949</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="D317" s="38"/>
-      <c r="E317" s="38">
-        <v>1</v>
-      </c>
-      <c r="F317" s="38">
-        <v>1</v>
-      </c>
-      <c r="G317" s="38">
-        <v>1</v>
-      </c>
-      <c r="H317" s="38"/>
-      <c r="I317" s="37" t="s">
-        <v>972</v>
+      <c r="B317" s="34" t="s">
+        <v>973</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36">
+        <v>1</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+      <c r="G317" s="36">
+        <v>1</v>
+      </c>
+      <c r="H317" s="36"/>
+      <c r="I317" s="35" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="36" t="s">
-        <v>977</v>
-      </c>
-      <c r="C318" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="D318" s="38"/>
-      <c r="E318" s="38">
-        <v>1</v>
-      </c>
-      <c r="F318" s="38">
-        <v>1</v>
-      </c>
-      <c r="G318" s="38">
-        <v>1</v>
-      </c>
-      <c r="H318" s="38"/>
-      <c r="I318" s="37" t="s">
-        <v>950</v>
+      <c r="B318" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>975</v>
+      </c>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36">
+        <v>1</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+      <c r="G318" s="36">
+        <v>1</v>
+      </c>
+      <c r="H318" s="36"/>
+      <c r="I318" s="52" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="36" t="s">
-        <v>978</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="D319" s="38"/>
-      <c r="E319" s="38">
-        <v>1</v>
-      </c>
-      <c r="F319" s="38">
-        <v>1</v>
-      </c>
-      <c r="G319" s="38">
-        <v>1</v>
-      </c>
-      <c r="H319" s="38"/>
-      <c r="I319" s="37" t="s">
-        <v>972</v>
+      <c r="B319" s="48" t="s">
+        <v>981</v>
+      </c>
+      <c r="C319" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="D319" s="48" t="s">
+        <v>983</v>
+      </c>
+      <c r="E319" s="2">
+        <v>1</v>
+      </c>
+      <c r="F319" s="2">
+        <v>1</v>
+      </c>
+      <c r="G319" s="2">
+        <v>1</v>
+      </c>
+      <c r="H319" s="2"/>
+      <c r="I319" s="49" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="53" t="s">
-        <v>968</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="D320" s="38"/>
-      <c r="E320" s="38">
-        <v>1</v>
-      </c>
-      <c r="F320" s="38">
-        <v>1</v>
-      </c>
-      <c r="G320" s="38">
-        <v>1</v>
-      </c>
-      <c r="H320" s="38"/>
-      <c r="I320" s="54" t="s">
-        <v>981</v>
+      <c r="B320" s="48" t="s">
+        <v>954</v>
+      </c>
+      <c r="C320" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="D320" s="48" t="s">
+        <v>955</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="2">
+        <v>1</v>
+      </c>
+      <c r="G320" s="2">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2"/>
+      <c r="I320" s="49" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="50" t="s">
+      <c r="B321" s="48" t="s">
+        <v>956</v>
+      </c>
+      <c r="C321" s="49" t="s">
         <v>986</v>
       </c>
-      <c r="C321" s="51" t="s">
-        <v>987</v>
-      </c>
-      <c r="D321" s="50" t="s">
-        <v>988</v>
-      </c>
+      <c r="D321" s="2"/>
       <c r="E321" s="2">
         <v>1</v>
       </c>
@@ -13394,23 +13358,19 @@
         <v>1</v>
       </c>
       <c r="H321" s="2"/>
-      <c r="I321" s="51" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" ht="16.5">
+      <c r="I321" s="49" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="50" t="s">
-        <v>959</v>
-      </c>
-      <c r="C322" s="51" t="s">
-        <v>989</v>
-      </c>
-      <c r="D322" s="50" t="s">
-        <v>960</v>
-      </c>
+      <c r="B322" s="59" t="s">
+        <v>987</v>
+      </c>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
       <c r="E322" s="2">
         <v>1</v>
       </c>
@@ -13421,21 +13381,23 @@
         <v>1</v>
       </c>
       <c r="H322" s="2"/>
-      <c r="I322" s="51" t="s">
-        <v>990</v>
+      <c r="I322" s="50" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
-        <v>961</v>
-      </c>
-      <c r="C323" s="51" t="s">
-        <v>991</v>
-      </c>
-      <c r="D323" s="2"/>
+      <c r="B323" s="48" t="s">
+        <v>957</v>
+      </c>
+      <c r="C323" s="48" t="s">
+        <v>958</v>
+      </c>
+      <c r="D323" s="48" t="s">
+        <v>959</v>
+      </c>
       <c r="E323" s="2">
         <v>1</v>
       </c>
@@ -13445,19 +13407,23 @@
       <c r="G323" s="2">
         <v>1</v>
       </c>
-      <c r="H323" s="2"/>
-      <c r="I323" s="51" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="H323" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I323" s="49" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="61" t="s">
-        <v>992</v>
-      </c>
-      <c r="C324" s="2"/>
+      <c r="B324" s="48" t="s">
+        <v>990</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>991</v>
+      </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <v>1</v>
@@ -13469,23 +13435,21 @@
         <v>1</v>
       </c>
       <c r="H324" s="2"/>
-      <c r="I324" s="52" t="s">
-        <v>993</v>
+      <c r="I324" s="49" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="50" t="s">
-        <v>962</v>
+      <c r="B325" s="48" t="s">
+        <v>961</v>
       </c>
       <c r="C325" s="50" t="s">
-        <v>963</v>
-      </c>
-      <c r="D325" s="50" t="s">
-        <v>964</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="D325" s="2"/>
       <c r="E325" s="2">
         <v>1</v>
       </c>
@@ -13495,10 +13459,8 @@
       <c r="G325" s="2">
         <v>1</v>
       </c>
-      <c r="H325" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I325" s="51" t="s">
+      <c r="H325" s="2"/>
+      <c r="I325" s="49" t="s">
         <v>994</v>
       </c>
     </row>
@@ -13506,10 +13468,10 @@
       <c r="A326" s="16">
         <v>325</v>
       </c>
-      <c r="B326" s="50" t="s">
+      <c r="B326" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="C326" s="52" t="s">
+      <c r="C326" s="50" t="s">
         <v>996</v>
       </c>
       <c r="D326" s="2"/>
@@ -13523,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="H326" s="2"/>
-      <c r="I326" s="51" t="s">
+      <c r="I326" s="49" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13531,13 +13493,15 @@
       <c r="A327" s="16">
         <v>326</v>
       </c>
-      <c r="B327" s="50" t="s">
-        <v>966</v>
-      </c>
-      <c r="C327" s="52" t="s">
+      <c r="B327" s="48" t="s">
         <v>998</v>
       </c>
-      <c r="D327" s="2"/>
+      <c r="C327" s="50" t="s">
+        <v>999</v>
+      </c>
+      <c r="D327" s="48" t="s">
+        <v>1000</v>
+      </c>
       <c r="E327" s="2">
         <v>1</v>
       </c>
@@ -13548,48 +13512,48 @@
         <v>1</v>
       </c>
       <c r="H327" s="2"/>
-      <c r="I327" s="51" t="s">
-        <v>999</v>
+      <c r="I327" s="49" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="16">
         <v>327</v>
       </c>
-      <c r="B328" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C328" s="52" t="s">
+      <c r="B328" s="55" t="s">
+        <v>978</v>
+      </c>
+      <c r="C328" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2">
-        <v>1</v>
-      </c>
-      <c r="F328" s="2">
-        <v>1</v>
-      </c>
-      <c r="G328" s="2">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2"/>
-      <c r="I328" s="51" t="s">
-        <v>1002</v>
+      <c r="D328" s="55" t="s">
+        <v>979</v>
+      </c>
+      <c r="E328" s="57">
+        <v>1</v>
+      </c>
+      <c r="F328" s="57">
+        <v>1</v>
+      </c>
+      <c r="G328" s="57">
+        <v>1</v>
+      </c>
+      <c r="H328" s="57"/>
+      <c r="I328" s="58" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="16">
         <v>328</v>
       </c>
-      <c r="B329" s="50" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C329" s="52" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D329" s="50" t="s">
-        <v>1005</v>
-      </c>
+      <c r="B329" s="48" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C329" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D329" s="2"/>
       <c r="E329" s="2">
         <v>1</v>
       </c>
@@ -13600,46 +13564,44 @@
         <v>1</v>
       </c>
       <c r="H329" s="2"/>
-      <c r="I329" s="51" t="s">
-        <v>1002</v>
+      <c r="I329" s="49" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="16">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
-        <v>983</v>
-      </c>
-      <c r="C330" s="58" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D330" s="57" t="s">
-        <v>984</v>
-      </c>
-      <c r="E330" s="59">
-        <v>1</v>
-      </c>
-      <c r="F330" s="59">
-        <v>1</v>
-      </c>
-      <c r="G330" s="59">
-        <v>1</v>
-      </c>
-      <c r="H330" s="59"/>
-      <c r="I330" s="60" t="s">
-        <v>985</v>
+      <c r="B330" s="48" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C330" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2">
+        <v>1</v>
+      </c>
+      <c r="F330" s="2">
+        <v>1</v>
+      </c>
+      <c r="G330" s="2">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2"/>
+      <c r="I330" s="49" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="16">
         <v>330</v>
       </c>
-      <c r="B331" s="50" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C331" s="51" t="s">
-        <v>1012</v>
+      <c r="B331" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>1004</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2">
@@ -13652,19 +13614,19 @@
         <v>1</v>
       </c>
       <c r="H331" s="2"/>
-      <c r="I331" s="51" t="s">
-        <v>1013</v>
+      <c r="I331" s="49" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="16">
         <v>331</v>
       </c>
-      <c r="B332" s="50" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C332" s="51" t="s">
-        <v>1014</v>
+      <c r="B332" s="48" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C332" s="49" t="s">
+        <v>1006</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2">
@@ -13677,58 +13639,8 @@
         <v>1</v>
       </c>
       <c r="H332" s="2"/>
-      <c r="I332" s="51" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
-      <c r="A333" s="16">
-        <v>332</v>
-      </c>
-      <c r="B333" s="50" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C333" s="51" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2">
-        <v>1</v>
-      </c>
-      <c r="F333" s="2">
-        <v>1</v>
-      </c>
-      <c r="G333" s="2">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2"/>
-      <c r="I333" s="51" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
-      <c r="A334" s="16">
-        <v>333</v>
-      </c>
-      <c r="B334" s="50" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C334" s="51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>1</v>
-      </c>
-      <c r="F334" s="2">
-        <v>1</v>
-      </c>
-      <c r="G334" s="2">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2"/>
-      <c r="I334" s="51" t="s">
-        <v>997</v>
+      <c r="I332" s="49" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="16.5">
@@ -13738,7 +13650,7 @@
       <c r="B336" s="18"/>
     </row>
     <row r="337" spans="2:2" ht="16.5">
-      <c r="B337" s="55"/>
+      <c r="B337" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5036,10 +5036,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11961,29 +11961,29 @@
         <v>802</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A273" s="16">
+    <row r="273" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A273" s="7">
         <v>272</v>
       </c>
-      <c r="B273" s="15" t="s">
+      <c r="B273" s="49" t="s">
         <v>807</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="49" t="s">
         <v>809</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="E273" s="17">
-        <v>0</v>
-      </c>
-      <c r="F273" s="17">
-        <v>0</v>
-      </c>
-      <c r="G273" s="17">
-        <v>0</v>
-      </c>
-      <c r="I273" s="15" t="s">
+      <c r="E273" s="2">
+        <v>1</v>
+      </c>
+      <c r="F273" s="2">
+        <v>1</v>
+      </c>
+      <c r="G273" s="2">
+        <v>1</v>
+      </c>
+      <c r="I273" s="49" t="s">
         <v>959</v>
       </c>
     </row>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>sys_xsfl</t>
+  </si>
+  <si>
+    <t>限时福利</t>
   </si>
   <si>
     <t>SYSXSFLManager</t>
@@ -3963,6 +3966,38 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_039_ty_sjb_style/act_001_ygbd</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4065,23 +4100,6 @@
     <t>Act_048_XNSMTManager</t>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9号关闭</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4353,12 +4371,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_by_hhl_style/act_004_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_006_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_meigui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_041_xyxfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4467,7 +4512,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4524,19 +4569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4572,7 +4611,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4675,15 +4714,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4696,16 +4726,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4726,34 +4756,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5036,10 +5060,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5056,7 +5080,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5069,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -5081,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5107,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5133,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5159,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5185,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5211,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5237,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5263,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5289,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5315,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5341,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5367,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5393,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5419,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5445,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5471,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5497,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5523,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5549,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5575,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5601,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5627,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5653,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5679,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5705,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5731,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5742,7 +5766,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5757,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5783,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5809,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5835,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5861,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5887,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5913,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5939,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5965,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5991,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -6017,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -6043,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -6069,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -6095,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6121,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6147,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6173,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6199,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6225,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6251,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6277,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6303,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6314,7 +6338,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6329,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6355,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6381,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6405,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6431,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6439,7 +6463,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6457,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6465,7 +6489,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6483,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6509,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6535,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6561,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6587,33 +6611,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A60" s="7">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="60" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>643</v>
+      <c r="D60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6621,13 +6645,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -6639,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6647,13 +6671,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -6665,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6673,13 +6697,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -6691,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6699,13 +6723,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -6717,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6725,13 +6749,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -6743,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6751,13 +6775,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -6769,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6777,13 +6801,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -6795,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6803,13 +6827,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -6821,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6829,13 +6853,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -6847,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6855,13 +6879,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -6873,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6881,13 +6905,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -6899,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6907,13 +6931,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -6925,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6933,13 +6957,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -6951,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -6959,13 +6983,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" s="31">
         <v>0</v>
@@ -6977,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -6985,13 +7009,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -7003,23 +7027,23 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="46" t="s">
+      <c r="B76" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="C76" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="46">
+      <c r="D76" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="43">
         <v>1</v>
       </c>
       <c r="F76" s="23">
@@ -7028,8 +7052,8 @@
       <c r="G76" s="23">
         <v>1</v>
       </c>
-      <c r="I76" s="47" t="s">
-        <v>951</v>
+      <c r="I76" s="44" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7037,13 +7061,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -7055,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7063,13 +7087,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -7081,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -7089,13 +7113,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -7107,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -7115,13 +7139,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -7133,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7141,13 +7165,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -7159,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7167,13 +7191,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -7185,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7193,13 +7217,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -7211,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7219,13 +7243,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -7237,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7245,13 +7269,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -7263,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7271,13 +7295,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -7289,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7297,13 +7321,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -7315,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7323,13 +7347,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -7341,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7349,13 +7373,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -7367,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7375,13 +7399,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -7393,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7401,13 +7425,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -7419,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7427,13 +7451,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -7445,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7453,13 +7477,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -7471,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7479,13 +7503,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7497,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7505,13 +7529,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -7523,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7531,13 +7555,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7549,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7557,13 +7581,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -7575,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7583,13 +7607,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -7601,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7609,13 +7633,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -7627,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7635,13 +7659,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -7653,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7661,13 +7685,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -7679,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7687,13 +7711,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7705,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7713,13 +7737,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -7731,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7739,13 +7763,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -7757,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7765,13 +7789,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -7783,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7791,13 +7815,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -7809,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7817,13 +7841,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -7835,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7843,13 +7867,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -7861,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7869,13 +7893,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -7887,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7895,13 +7919,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -7913,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7921,13 +7945,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -7939,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7947,13 +7971,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -7965,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7973,13 +7997,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -7991,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7999,13 +8023,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -8017,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -8025,13 +8049,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -8043,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -8051,13 +8075,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -8069,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -8077,13 +8101,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -8095,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8103,13 +8127,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -8121,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -8129,13 +8153,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
@@ -8146,8 +8170,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="54" t="s">
-        <v>976</v>
+      <c r="I119" s="49" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8155,13 +8179,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -8173,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8181,13 +8205,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -8199,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8207,13 +8231,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -8225,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8233,13 +8257,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -8251,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8259,13 +8283,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -8277,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8285,13 +8309,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -8303,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8311,13 +8335,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -8329,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8337,13 +8361,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -8355,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8363,13 +8387,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -8381,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8389,13 +8413,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -8407,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8415,13 +8439,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -8433,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8441,13 +8465,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -8459,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8467,13 +8491,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -8485,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8493,13 +8517,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -8511,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8519,13 +8543,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -8537,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8545,13 +8569,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -8563,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8571,13 +8595,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -8589,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8597,13 +8621,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -8615,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8623,13 +8647,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -8641,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8649,13 +8673,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -8667,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8675,13 +8699,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -8693,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8701,13 +8725,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -8719,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8727,13 +8751,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -8745,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8753,13 +8777,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -8771,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8779,13 +8803,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -8797,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8805,13 +8829,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -8823,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8831,13 +8855,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -8849,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8857,13 +8881,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -8875,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8883,13 +8907,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -8901,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8909,13 +8933,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -8927,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8935,13 +8959,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -8953,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8961,13 +8985,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -8979,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8987,13 +9011,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -9005,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -9013,13 +9037,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -9031,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -9039,13 +9063,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -9057,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -9065,13 +9089,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -9083,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -9091,13 +9115,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -9109,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -9117,13 +9141,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -9135,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9143,13 +9167,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -9161,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9169,13 +9193,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -9187,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9195,13 +9219,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -9213,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9221,13 +9245,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -9239,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9247,13 +9271,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -9265,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9273,13 +9297,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -9291,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9299,13 +9323,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9317,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9325,13 +9349,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -9343,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9351,13 +9375,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -9369,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9377,13 +9401,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -9395,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9403,13 +9427,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -9421,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9429,10 +9453,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9445,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9453,10 +9477,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9469,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9477,10 +9501,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9493,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9501,10 +9525,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9517,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9525,13 +9549,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -9543,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9551,10 +9575,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9567,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9575,10 +9599,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9591,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9599,10 +9623,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9615,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9623,13 +9647,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -9641,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9649,13 +9673,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
@@ -9667,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9675,10 +9699,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9691,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9699,10 +9723,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9715,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9723,10 +9747,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9739,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9747,10 +9771,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9763,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9771,10 +9795,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -9786,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9794,10 +9818,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -9809,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9817,10 +9841,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C185" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -9832,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9840,10 +9864,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9855,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9863,10 +9887,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C187" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9878,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9886,10 +9910,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C188" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -9901,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9909,10 +9933,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C189" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9924,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9932,10 +9956,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C190" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -9947,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9955,10 +9979,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -9970,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9978,10 +10002,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C192" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -9993,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -10001,10 +10025,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C193" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -10016,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -10024,10 +10048,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C194" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -10039,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -10047,10 +10071,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C195" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -10062,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -10070,10 +10094,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C196" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -10085,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -10093,10 +10117,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C197" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -10108,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10116,10 +10140,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C198" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -10131,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10139,10 +10163,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -10154,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10162,10 +10186,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -10177,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10185,10 +10209,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C201" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -10200,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10208,10 +10232,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C202" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -10223,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10231,10 +10255,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -10246,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10254,13 +10278,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -10272,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10280,13 +10304,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -10298,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10306,13 +10330,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10324,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10332,10 +10356,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -10347,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10355,10 +10379,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -10370,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10378,10 +10402,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C209" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -10393,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10401,10 +10425,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -10416,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10424,10 +10448,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10439,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10447,10 +10471,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -10462,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10470,10 +10494,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -10485,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10493,10 +10517,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C214" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -10508,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10516,10 +10540,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C215" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -10531,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10539,10 +10563,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C216" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -10554,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10562,10 +10586,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C217" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10577,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10585,10 +10609,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -10600,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10608,10 +10632,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -10623,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10631,10 +10655,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C220" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -10646,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10654,10 +10678,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C221" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10669,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10677,10 +10701,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C222" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -10692,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10700,10 +10724,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C223" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10715,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10723,10 +10747,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C224" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10738,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10746,10 +10770,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10761,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10769,13 +10793,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>615</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10792,13 +10816,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D227" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10815,13 +10839,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10838,13 +10862,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10861,13 +10885,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10884,13 +10908,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D231" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10907,13 +10931,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C232" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10930,13 +10954,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10953,13 +10977,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10976,25 +11000,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="I235" t="s">
         <v>662</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="I235" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -11002,25 +11026,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C236" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -11028,13 +11052,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -11046,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -11054,25 +11078,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C238" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>675</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -11080,14 +11104,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="D239" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>677</v>
-      </c>
       <c r="E239">
         <v>1</v>
       </c>
@@ -11098,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -11106,13 +11130,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11124,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11132,13 +11156,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11150,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11158,13 +11182,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11176,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11184,13 +11208,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11202,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11210,13 +11234,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11228,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11236,13 +11260,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11254,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11262,13 +11286,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11280,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11288,13 +11312,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11306,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11314,13 +11338,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -11332,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11340,13 +11364,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11358,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11366,14 +11390,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C250" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11384,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11392,13 +11416,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11410,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11418,13 +11442,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C252" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11436,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11444,13 +11468,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11463,7 +11487,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11471,13 +11495,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11489,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11497,13 +11521,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11515,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11523,13 +11547,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11542,7 +11566,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11550,25 +11574,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>750</v>
-      </c>
-      <c r="D257" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="E257" s="17">
-        <v>0</v>
-      </c>
-      <c r="F257" s="17">
-        <v>1</v>
-      </c>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="I257" s="15" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11576,13 +11600,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11594,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11602,13 +11626,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E259" s="17">
         <v>1</v>
@@ -11620,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11628,13 +11652,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E260" s="17">
         <v>0</v>
@@ -11646,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11654,25 +11678,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C261" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D261" t="s">
+        <v>766</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>767</v>
-      </c>
-      <c r="D261" t="s">
-        <v>765</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11680,13 +11704,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11698,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11706,13 +11730,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E263" s="17">
         <v>0</v>
@@ -11724,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11732,13 +11756,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11750,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11758,13 +11782,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11776,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11784,14 +11808,14 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="D266" s="18" t="s">
-        <v>783</v>
-      </c>
       <c r="E266" s="17">
         <v>0</v>
       </c>
@@ -11802,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11810,14 +11834,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>787</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11828,22 +11852,22 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="49" t="s">
+      <c r="B268" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="C268" s="46" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="45" t="s">
         <v>792</v>
       </c>
-      <c r="C268" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="D268" s="48" t="s">
-        <v>791</v>
-      </c>
       <c r="E268" s="2">
         <v>1</v>
       </c>
@@ -11853,8 +11877,8 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-      <c r="I268" s="50" t="s">
-        <v>731</v>
+      <c r="I268" s="47" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11862,13 +11886,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11880,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11888,13 +11912,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11906,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11914,14 +11938,14 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>801</v>
       </c>
-      <c r="D271" s="18" t="s">
-        <v>800</v>
-      </c>
       <c r="E271" s="17">
         <v>1</v>
       </c>
@@ -11932,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="I271" s="19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11940,51 +11964,51 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A273" s="7">
+    </row>
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A273" s="16">
         <v>272</v>
       </c>
-      <c r="B273" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C273" s="49" t="s">
+      <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="D273" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="E273" s="2">
-        <v>1</v>
-      </c>
-      <c r="F273" s="2">
-        <v>1</v>
-      </c>
-      <c r="G273" s="2">
-        <v>1</v>
-      </c>
-      <c r="I273" s="49" t="s">
-        <v>959</v>
+      <c r="E273" s="17">
+        <v>1</v>
+      </c>
+      <c r="F273" s="17">
+        <v>1</v>
+      </c>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11992,13 +12016,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E274" s="17">
         <v>0</v>
@@ -12010,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12018,13 +12042,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C275" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>813</v>
-      </c>
       <c r="D275" s="18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -12036,30 +12060,30 @@
         <v>1</v>
       </c>
       <c r="I275" s="19" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A276" s="16">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A276" s="55">
         <v>275</v>
       </c>
-      <c r="B276" s="15" t="s">
-        <v>817</v>
-      </c>
-      <c r="C276" s="15" t="s">
+      <c r="B276" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
+      <c r="C276" s="52" t="s">
         <v>819</v>
+      </c>
+      <c r="E276" s="53">
+        <v>1</v>
+      </c>
+      <c r="F276" s="53">
+        <v>1</v>
+      </c>
+      <c r="G276" s="53">
+        <v>1</v>
+      </c>
+      <c r="I276" s="54" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12067,13 +12091,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E277" s="17">
         <v>0</v>
@@ -12085,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12093,13 +12117,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12111,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12119,11 +12143,11 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="C279" s="15" t="s">
-        <v>824</v>
-      </c>
       <c r="E279">
         <v>0</v>
       </c>
@@ -12134,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12142,25 +12166,25 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D280" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12168,13 +12192,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12186,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12194,13 +12218,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12212,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12220,13 +12244,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -12238,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12246,13 +12270,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D284" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12264,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12272,13 +12296,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C285" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>844</v>
-      </c>
       <c r="D285" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -12290,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="29" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12298,13 +12322,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D286" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12316,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -12324,14 +12348,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C287" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="D287" s="26" t="s">
-        <v>855</v>
-      </c>
       <c r="E287" s="27">
         <v>0</v>
       </c>
@@ -12342,7 +12366,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="27" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12350,13 +12374,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E288" s="17">
         <v>1</v>
@@ -12368,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12376,13 +12400,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -12394,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="I289" s="19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12402,13 +12426,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C290" s="30" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D290" s="30" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E290" s="30">
         <v>1</v>
@@ -12420,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="30" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12428,25 +12452,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="D291" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="E291" s="30">
+        <v>1</v>
+      </c>
+      <c r="F291" s="30">
+        <v>1</v>
+      </c>
+      <c r="G291" s="30">
+        <v>1</v>
+      </c>
+      <c r="I291" s="30" t="s">
         <v>868</v>
-      </c>
-      <c r="C291" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="E291" s="30">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30">
-        <v>1</v>
-      </c>
-      <c r="G291" s="30">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12454,13 +12478,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12472,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12480,13 +12504,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12498,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12506,13 +12530,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12525,7 +12549,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12533,13 +12557,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12552,7 +12576,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12587,13 +12611,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12606,7 +12630,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12641,13 +12665,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12660,7 +12684,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12694,27 +12718,27 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="C298" s="39" t="s">
+      <c r="B298" s="35" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="D298" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="E298" s="30">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>1</v>
+      </c>
+      <c r="G298" s="30">
+        <v>1</v>
+      </c>
+      <c r="H298" s="30"/>
+      <c r="I298" s="37" t="s">
         <v>896</v>
-      </c>
-      <c r="D298" s="38" t="s">
-        <v>894</v>
-      </c>
-      <c r="E298" s="30">
-        <v>1</v>
-      </c>
-      <c r="F298" s="30">
-        <v>1</v>
-      </c>
-      <c r="G298" s="30">
-        <v>1</v>
-      </c>
-      <c r="H298" s="30"/>
-      <c r="I298" s="40" t="s">
-        <v>895</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12748,27 +12772,27 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="41" t="s">
-        <v>949</v>
-      </c>
-      <c r="C299" s="42" t="s">
-        <v>919</v>
-      </c>
-      <c r="D299" s="41" t="s">
-        <v>947</v>
-      </c>
-      <c r="E299" s="43">
-        <v>1</v>
-      </c>
-      <c r="F299" s="43">
-        <v>1</v>
-      </c>
-      <c r="G299" s="43">
-        <v>1</v>
-      </c>
-      <c r="H299" s="43"/>
-      <c r="I299" s="42" t="s">
-        <v>917</v>
+      <c r="B299" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>920</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="E299" s="40">
+        <v>1</v>
+      </c>
+      <c r="F299" s="40">
+        <v>1</v>
+      </c>
+      <c r="G299" s="40">
+        <v>1</v>
+      </c>
+      <c r="H299" s="40"/>
+      <c r="I299" s="39" t="s">
+        <v>918</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12802,54 +12826,54 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="41" t="s">
-        <v>950</v>
-      </c>
-      <c r="C300" s="42" t="s">
+      <c r="B300" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="C300" s="39" t="s">
+        <v>919</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="E300" s="40">
+        <v>1</v>
+      </c>
+      <c r="F300" s="40">
+        <v>1</v>
+      </c>
+      <c r="G300" s="40">
+        <v>1</v>
+      </c>
+      <c r="H300" s="40"/>
+      <c r="I300" s="39" t="s">
         <v>918</v>
-      </c>
-      <c r="D300" s="41" t="s">
-        <v>946</v>
-      </c>
-      <c r="E300" s="43">
-        <v>1</v>
-      </c>
-      <c r="F300" s="43">
-        <v>1</v>
-      </c>
-      <c r="G300" s="43">
-        <v>1</v>
-      </c>
-      <c r="H300" s="43"/>
-      <c r="I300" s="42" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="41" t="s">
-        <v>940</v>
-      </c>
-      <c r="C301" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="D301" s="41" t="s">
-        <v>941</v>
-      </c>
-      <c r="E301" s="43">
-        <v>1</v>
-      </c>
-      <c r="F301" s="43">
-        <v>1</v>
-      </c>
-      <c r="G301" s="43">
-        <v>1</v>
-      </c>
-      <c r="H301" s="43"/>
-      <c r="I301" s="44" t="s">
-        <v>640</v>
+      <c r="B301" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>898</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="E301" s="40">
+        <v>1</v>
+      </c>
+      <c r="F301" s="40">
+        <v>1</v>
+      </c>
+      <c r="G301" s="40">
+        <v>1</v>
+      </c>
+      <c r="H301" s="40"/>
+      <c r="I301" s="41" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
@@ -12857,13 +12881,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12876,7 +12900,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12884,13 +12908,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12903,34 +12927,34 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="38" t="s">
+      <c r="B304" s="35" t="s">
+        <v>909</v>
+      </c>
+      <c r="C304" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="D304" s="35" t="s">
+        <v>911</v>
+      </c>
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="30">
+        <v>1</v>
+      </c>
+      <c r="G304" s="30">
+        <v>1</v>
+      </c>
+      <c r="H304" s="30"/>
+      <c r="I304" s="36" t="s">
         <v>908</v>
-      </c>
-      <c r="C304" s="39" t="s">
-        <v>909</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>910</v>
-      </c>
-      <c r="E304" s="30">
-        <v>1</v>
-      </c>
-      <c r="F304" s="30">
-        <v>1</v>
-      </c>
-      <c r="G304" s="30">
-        <v>1</v>
-      </c>
-      <c r="H304" s="30"/>
-      <c r="I304" s="39" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12938,13 +12962,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E305" s="17">
         <v>1</v>
@@ -12956,33 +12980,33 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A306" s="55">
+        <v>305</v>
+      </c>
+      <c r="B306" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="C306" s="52" t="s">
+        <v>916</v>
+      </c>
+      <c r="D306" s="51" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A306" s="16">
-        <v>305</v>
-      </c>
-      <c r="B306" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>917</v>
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12990,13 +13014,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13012,14 +13036,14 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="37" t="s">
-        <v>923</v>
+      <c r="B308" s="34" t="s">
+        <v>924</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -13031,22 +13055,22 @@
         <v>1</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="37" t="s">
-        <v>927</v>
+      <c r="B309" s="34" t="s">
+        <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="D309" s="37" t="s">
         <v>929</v>
       </c>
+      <c r="D309" s="34" t="s">
+        <v>930</v>
+      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -13057,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="19" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13065,13 +13089,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -13083,22 +13107,22 @@
         <v>1</v>
       </c>
       <c r="I310" s="19" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="37" t="s">
-        <v>934</v>
+      <c r="B311" s="34" t="s">
+        <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="D311" s="37" t="s">
         <v>936</v>
       </c>
+      <c r="D311" s="34" t="s">
+        <v>937</v>
+      </c>
       <c r="E311" s="17">
         <v>1</v>
       </c>
@@ -13109,552 +13133,621 @@
         <v>1</v>
       </c>
       <c r="I311" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="34" t="s">
-        <v>961</v>
-      </c>
-      <c r="C312" s="35" t="s">
-        <v>963</v>
-      </c>
-      <c r="D312" s="36"/>
-      <c r="E312" s="36">
-        <v>1</v>
-      </c>
-      <c r="F312" s="36">
-        <v>1</v>
-      </c>
-      <c r="G312" s="36">
-        <v>1</v>
-      </c>
-      <c r="H312" s="36"/>
-      <c r="I312" s="35" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5">
+      <c r="B312" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="34" t="s">
-        <v>964</v>
-      </c>
-      <c r="C313" s="35" t="s">
-        <v>965</v>
-      </c>
-      <c r="D313" s="36"/>
-      <c r="E313" s="36">
-        <v>1</v>
-      </c>
-      <c r="F313" s="36">
-        <v>1</v>
-      </c>
-      <c r="G313" s="36">
-        <v>1</v>
-      </c>
-      <c r="H313" s="36"/>
-      <c r="I313" s="35" t="s">
-        <v>966</v>
+      <c r="B313" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="34" t="s">
-        <v>967</v>
-      </c>
-      <c r="C314" s="36" t="s">
+      <c r="B314" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="D314" s="36"/>
-      <c r="E314" s="36">
-        <v>1</v>
-      </c>
-      <c r="F314" s="36">
-        <v>1</v>
-      </c>
-      <c r="G314" s="36">
-        <v>1</v>
-      </c>
-      <c r="H314" s="36"/>
-      <c r="I314" s="35" t="s">
-        <v>969</v>
+      <c r="E314" s="17">
+        <v>1</v>
+      </c>
+      <c r="F314" s="17">
+        <v>1</v>
+      </c>
+      <c r="G314" s="17">
+        <v>1</v>
+      </c>
+      <c r="I314" s="15" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="34" t="s">
-        <v>943</v>
-      </c>
-      <c r="C315" s="35" t="s">
+      <c r="B315" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="D315" s="36"/>
-      <c r="E315" s="36">
-        <v>1</v>
-      </c>
-      <c r="F315" s="36">
-        <v>1</v>
-      </c>
-      <c r="G315" s="36">
-        <v>1</v>
-      </c>
-      <c r="H315" s="36"/>
-      <c r="I315" s="35" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="34" t="s">
-        <v>971</v>
-      </c>
-      <c r="C316" s="35" t="s">
-        <v>945</v>
-      </c>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36">
-        <v>1</v>
-      </c>
-      <c r="F316" s="36">
-        <v>1</v>
-      </c>
-      <c r="G316" s="36">
-        <v>1</v>
-      </c>
-      <c r="H316" s="36"/>
-      <c r="I316" s="35" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
+      <c r="B316" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="34" t="s">
-        <v>972</v>
-      </c>
-      <c r="C317" s="35" t="s">
-        <v>973</v>
-      </c>
-      <c r="D317" s="36"/>
-      <c r="E317" s="36">
-        <v>1</v>
-      </c>
-      <c r="F317" s="36">
-        <v>1</v>
-      </c>
-      <c r="G317" s="36">
-        <v>1</v>
-      </c>
-      <c r="H317" s="36"/>
-      <c r="I317" s="35" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="16.5">
+      <c r="B317" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C317" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="E317" s="17">
+        <v>1</v>
+      </c>
+      <c r="F317" s="17">
+        <v>1</v>
+      </c>
+      <c r="G317" s="17">
+        <v>1</v>
+      </c>
+      <c r="I317" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="51" t="s">
-        <v>962</v>
-      </c>
-      <c r="C318" s="35" t="s">
-        <v>974</v>
-      </c>
-      <c r="D318" s="36"/>
-      <c r="E318" s="36">
-        <v>1</v>
-      </c>
-      <c r="F318" s="36">
-        <v>1</v>
-      </c>
-      <c r="G318" s="36">
-        <v>1</v>
-      </c>
-      <c r="H318" s="36"/>
-      <c r="I318" s="52" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16.5">
+      <c r="B318" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="C318" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="E318" s="17">
+        <v>1</v>
+      </c>
+      <c r="F318" s="17">
+        <v>1</v>
+      </c>
+      <c r="G318" s="17">
+        <v>1</v>
+      </c>
+      <c r="I318" s="15" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="48" t="s">
-        <v>980</v>
-      </c>
-      <c r="C319" s="49" t="s">
-        <v>981</v>
-      </c>
-      <c r="D319" s="48" t="s">
-        <v>982</v>
-      </c>
-      <c r="E319" s="2">
-        <v>1</v>
-      </c>
-      <c r="F319" s="2">
-        <v>1</v>
-      </c>
-      <c r="G319" s="2">
-        <v>1</v>
-      </c>
-      <c r="H319" s="2"/>
-      <c r="I319" s="49" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
+      <c r="B319" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="E319" s="17">
+        <v>1</v>
+      </c>
+      <c r="F319" s="17">
+        <v>1</v>
+      </c>
+      <c r="G319" s="17">
+        <v>1</v>
+      </c>
+      <c r="I319" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>953</v>
-      </c>
-      <c r="C320" s="49" t="s">
-        <v>983</v>
-      </c>
-      <c r="D320" s="48" t="s">
-        <v>954</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-      <c r="F320" s="2">
-        <v>1</v>
-      </c>
-      <c r="G320" s="2">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2"/>
-      <c r="I320" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="16.5">
+        <v>967</v>
+      </c>
+      <c r="C320" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="E320" s="17">
+        <v>1</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="48" t="s">
-        <v>955</v>
-      </c>
-      <c r="C321" s="49" t="s">
+      <c r="B321" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2">
-        <v>1</v>
-      </c>
-      <c r="F321" s="2">
-        <v>1</v>
-      </c>
-      <c r="G321" s="2">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2"/>
-      <c r="I321" s="49" t="s">
-        <v>952</v>
+      <c r="C321" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="E321" s="17">
+        <v>1</v>
+      </c>
+      <c r="F321" s="17">
+        <v>1</v>
+      </c>
+      <c r="G321" s="17">
+        <v>1</v>
+      </c>
+      <c r="I321" s="15" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="59" t="s">
-        <v>986</v>
-      </c>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2">
-        <v>1</v>
-      </c>
-      <c r="F322" s="2">
-        <v>1</v>
-      </c>
-      <c r="G322" s="2">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2"/>
-      <c r="I322" s="50" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" ht="16.5">
+      <c r="B322" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C322" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="E322" s="17">
+        <v>1</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="15" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="48" t="s">
-        <v>956</v>
-      </c>
-      <c r="C323" s="48" t="s">
-        <v>957</v>
-      </c>
-      <c r="D323" s="48" t="s">
+      <c r="B323" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C323" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="E323" s="17">
+        <v>1</v>
+      </c>
+      <c r="F323" s="17">
+        <v>1</v>
+      </c>
+      <c r="G323" s="17">
+        <v>1</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="F323" s="2">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I323" s="49" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="16.5">
+    </row>
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="48" t="s">
-        <v>989</v>
-      </c>
-      <c r="C324" s="50" t="s">
-        <v>990</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="49" t="s">
+      <c r="B324" s="50" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" ht="16.5">
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="48" t="s">
-        <v>960</v>
-      </c>
-      <c r="C325" s="50" t="s">
-        <v>992</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2"/>
-      <c r="I325" s="49" t="s">
+      <c r="B325" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="C325" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="D325" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="E325" s="17">
+        <v>1</v>
+      </c>
+      <c r="F325" s="17">
+        <v>1</v>
+      </c>
+      <c r="G325" s="17">
+        <v>1</v>
+      </c>
+      <c r="H325" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I325" s="15" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A326" s="16">
         <v>325</v>
       </c>
-      <c r="B326" s="48" t="s">
+      <c r="B326" s="18" t="s">
         <v>994</v>
       </c>
-      <c r="C326" s="50" t="s">
+      <c r="C326" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2"/>
-      <c r="I326" s="49" t="s">
+      <c r="E326" s="17">
+        <v>1</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="16.5">
+    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A327" s="16">
         <v>326</v>
       </c>
-      <c r="B327" s="48" t="s">
+      <c r="B327" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C327" s="19" t="s">
         <v>997</v>
       </c>
-      <c r="C327" s="50" t="s">
+      <c r="E327" s="17">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="D327" s="48" t="s">
-        <v>999</v>
-      </c>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="49" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" ht="16.5">
+    </row>
+    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A328" s="16">
         <v>327</v>
       </c>
-      <c r="B328" s="55" t="s">
-        <v>977</v>
-      </c>
-      <c r="C328" s="56" t="s">
+      <c r="B328" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="D328" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="E328" s="57">
-        <v>1</v>
-      </c>
-      <c r="F328" s="57">
-        <v>1</v>
-      </c>
-      <c r="G328" s="57">
-        <v>1</v>
-      </c>
-      <c r="H328" s="57"/>
-      <c r="I328" s="58" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" ht="16.5">
+      <c r="E328" s="17">
+        <v>1</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A329" s="16">
         <v>328</v>
       </c>
-      <c r="B329" s="48" t="s">
+      <c r="B329" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D329" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="C329" s="49" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="G329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="49" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" ht="16.5">
+    </row>
+    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A330" s="16">
         <v>329</v>
       </c>
-      <c r="B330" s="48" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C330" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2">
-        <v>1</v>
-      </c>
-      <c r="F330" s="2">
-        <v>1</v>
-      </c>
-      <c r="G330" s="2">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2"/>
-      <c r="I330" s="49" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="16.5">
+      <c r="B330" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D330" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A331" s="16">
         <v>330</v>
       </c>
-      <c r="B331" s="48" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C331" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>1</v>
-      </c>
-      <c r="G331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="49" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="16.5">
+      <c r="B331" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C331" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A332" s="16">
         <v>331</v>
       </c>
-      <c r="B332" s="48" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C332" s="49" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>1</v>
-      </c>
-      <c r="G332" s="2">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="49" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" ht="16.5">
-      <c r="B335" s="18"/>
-    </row>
-    <row r="336" spans="1:9" ht="16.5">
-      <c r="B336" s="18"/>
-    </row>
-    <row r="337" spans="2:2" ht="16.5">
-      <c r="B337" s="53"/>
+      <c r="B332" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C332" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C333" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E333" s="17">
+        <v>1</v>
+      </c>
+      <c r="F333" s="17">
+        <v>1</v>
+      </c>
+      <c r="G333" s="17">
+        <v>1</v>
+      </c>
+      <c r="I333" s="15" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A334" s="16">
+        <v>333</v>
+      </c>
+      <c r="B334" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C334" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E334" s="17">
+        <v>1</v>
+      </c>
+      <c r="F334" s="17">
+        <v>1</v>
+      </c>
+      <c r="G334" s="17">
+        <v>1</v>
+      </c>
+      <c r="I334" s="15" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A335" s="16">
+        <v>334</v>
+      </c>
+      <c r="B335" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C335" s="52" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E335" s="53">
+        <v>1</v>
+      </c>
+      <c r="F335" s="53">
+        <v>1</v>
+      </c>
+      <c r="G335" s="53">
+        <v>1</v>
+      </c>
+      <c r="I335" s="52" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A336" s="16">
+        <v>335</v>
+      </c>
+      <c r="B336" s="51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C336" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E336" s="53">
+        <v>1</v>
+      </c>
+      <c r="F336" s="53">
+        <v>1</v>
+      </c>
+      <c r="G336" s="53">
+        <v>1</v>
+      </c>
+      <c r="I336" s="52" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A337" s="16">
+        <v>336</v>
+      </c>
+      <c r="B337" s="51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C337" s="54" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E337" s="53">
+        <v>1</v>
+      </c>
+      <c r="F337" s="53">
+        <v>1</v>
+      </c>
+      <c r="G337" s="53">
+        <v>1</v>
+      </c>
+      <c r="I337" s="52" t="s">
+        <v>1018</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
@@ -13680,7 +13773,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>sys_xsfl</t>
-  </si>
-  <si>
-    <t>限时福利</t>
   </si>
   <si>
     <t>SYSXSFLManager</t>
@@ -4357,6 +4354,10 @@
   </si>
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4571,7 +4572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4750,6 +4751,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5032,10 +5036,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C311" sqref="C311"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5065,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -5077,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5103,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5129,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5155,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5181,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5207,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5233,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5259,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5285,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5311,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5337,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5363,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5389,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5415,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5441,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5467,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5493,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5519,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5545,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5571,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5597,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5623,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5649,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5675,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5701,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5727,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5738,7 +5742,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5753,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5779,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5805,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5831,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5857,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5883,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5909,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5935,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5961,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5987,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -6013,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -6039,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -6065,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -6091,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6117,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6143,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6169,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6195,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6221,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6247,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6273,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6299,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6310,7 +6314,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6325,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6351,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6377,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6401,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6427,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6435,7 +6439,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6453,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6461,7 +6465,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6479,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6505,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6531,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6557,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6583,33 +6587,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="16">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>644</v>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6617,14 +6621,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6643,14 +6647,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6669,14 +6673,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6695,14 +6699,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6721,14 +6725,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6747,14 +6751,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6773,14 +6777,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
@@ -6791,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6799,14 +6803,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6817,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6825,14 +6829,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6851,14 +6855,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6877,14 +6881,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6903,14 +6907,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6929,14 +6933,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -6955,14 +6959,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C74" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>219</v>
-      </c>
       <c r="E74" s="31">
         <v>0</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -6981,14 +6985,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -6999,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -7007,14 +7011,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="D76" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="46" t="s">
-        <v>225</v>
-      </c>
       <c r="E76" s="46">
         <v>1</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="47" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7033,14 +7037,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7059,14 +7063,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -7085,14 +7089,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -7111,14 +7115,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -7129,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7137,14 +7141,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7163,14 +7167,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7189,14 +7193,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7215,14 +7219,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7233,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7241,14 +7245,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -7259,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7267,14 +7271,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7293,14 +7297,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7319,14 +7323,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7345,14 +7349,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7371,14 +7375,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7397,14 +7401,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7423,14 +7427,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E92" s="5">
         <v>1</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7449,14 +7453,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7475,14 +7479,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7501,14 +7505,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7519,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7527,14 +7531,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7553,14 +7557,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7579,14 +7583,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7605,14 +7609,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7631,14 +7635,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7657,14 +7661,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7683,14 +7687,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7709,14 +7713,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7735,14 +7739,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7761,14 +7765,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7787,14 +7791,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7813,14 +7817,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7839,14 +7843,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7857,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7865,14 +7869,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7891,14 +7895,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7917,14 +7921,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7943,14 +7947,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7969,14 +7973,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -7987,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7995,14 +7999,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -8021,14 +8025,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -8047,14 +8051,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -8073,14 +8077,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -8091,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8099,14 +8103,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -8125,14 +8129,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="E119" s="7">
         <v>1</v>
       </c>
@@ -8143,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="54" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8151,14 +8155,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -8169,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8177,14 +8181,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8203,14 +8207,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8229,14 +8233,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8247,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8255,14 +8259,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8281,14 +8285,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8307,14 +8311,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8333,14 +8337,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8359,14 +8363,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8385,14 +8389,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8403,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8411,14 +8415,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8437,14 +8441,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8455,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8463,14 +8467,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8481,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8489,14 +8493,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8507,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8515,14 +8519,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8541,14 +8545,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8567,14 +8571,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8593,14 +8597,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8619,14 +8623,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8645,14 +8649,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8671,14 +8675,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8697,14 +8701,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8723,14 +8727,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8741,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8749,14 +8753,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8775,14 +8779,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E144" s="5">
         <v>1</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8801,14 +8805,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="E145" s="5">
         <v>0</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8827,14 +8831,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8853,14 +8857,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8879,14 +8883,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8905,14 +8909,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8931,14 +8935,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8957,14 +8961,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8983,14 +8987,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -9009,14 +9013,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -9035,14 +9039,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -9061,14 +9065,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -9079,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -9087,14 +9091,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -9113,14 +9117,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9131,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9139,14 +9143,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -9157,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9165,14 +9169,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -9183,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9191,14 +9195,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9217,14 +9221,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9243,14 +9247,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9269,14 +9273,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -9287,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9295,13 +9299,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9313,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9321,14 +9325,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9339,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9347,14 +9351,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9373,14 +9377,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9399,14 +9403,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9425,10 +9429,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9441,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9449,10 +9453,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9465,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9473,10 +9477,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9489,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9497,10 +9501,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9513,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9521,14 +9525,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9539,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9547,10 +9551,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9563,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9571,10 +9575,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9587,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9595,10 +9599,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9611,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9619,14 +9623,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9645,14 +9649,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9663,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9671,10 +9675,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9687,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9695,10 +9699,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9711,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9719,10 +9723,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9735,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9743,10 +9747,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9759,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9767,11 +9771,11 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>523</v>
+      </c>
+      <c r="C183" t="s">
         <v>524</v>
       </c>
-      <c r="C183" t="s">
-        <v>525</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9790,11 +9794,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" t="s">
         <v>526</v>
       </c>
-      <c r="C184" t="s">
-        <v>527</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9813,11 +9817,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>527</v>
+      </c>
+      <c r="C185" t="s">
         <v>528</v>
       </c>
-      <c r="C185" t="s">
-        <v>529</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9836,11 +9840,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" t="s">
         <v>530</v>
       </c>
-      <c r="C186" t="s">
-        <v>531</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9859,11 +9863,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>531</v>
+      </c>
+      <c r="C187" t="s">
         <v>532</v>
       </c>
-      <c r="C187" t="s">
-        <v>533</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9882,11 +9886,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" t="s">
         <v>534</v>
       </c>
-      <c r="C188" t="s">
-        <v>535</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9905,11 +9909,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" t="s">
         <v>536</v>
       </c>
-      <c r="C189" t="s">
-        <v>537</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9928,11 +9932,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>537</v>
+      </c>
+      <c r="C190" t="s">
         <v>538</v>
       </c>
-      <c r="C190" t="s">
-        <v>539</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9951,11 +9955,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C191" t="s">
         <v>540</v>
       </c>
-      <c r="C191" t="s">
-        <v>541</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9974,11 +9978,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>541</v>
+      </c>
+      <c r="C192" t="s">
         <v>542</v>
       </c>
-      <c r="C192" t="s">
-        <v>543</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9997,11 +10001,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>543</v>
+      </c>
+      <c r="C193" t="s">
         <v>544</v>
       </c>
-      <c r="C193" t="s">
-        <v>545</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -10012,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -10020,11 +10024,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>545</v>
+      </c>
+      <c r="C194" t="s">
         <v>546</v>
       </c>
-      <c r="C194" t="s">
-        <v>547</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -10043,11 +10047,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>547</v>
+      </c>
+      <c r="C195" t="s">
         <v>548</v>
       </c>
-      <c r="C195" t="s">
-        <v>549</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -10066,11 +10070,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
         <v>550</v>
       </c>
-      <c r="C196" t="s">
-        <v>551</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -10089,11 +10093,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>551</v>
+      </c>
+      <c r="C197" t="s">
         <v>552</v>
       </c>
-      <c r="C197" t="s">
-        <v>553</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10112,11 +10116,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>553</v>
+      </c>
+      <c r="C198" t="s">
         <v>554</v>
       </c>
-      <c r="C198" t="s">
-        <v>555</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10135,11 +10139,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>555</v>
+      </c>
+      <c r="C199" t="s">
         <v>556</v>
       </c>
-      <c r="C199" t="s">
-        <v>557</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10158,11 +10162,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>557</v>
+      </c>
+      <c r="C200" t="s">
         <v>558</v>
       </c>
-      <c r="C200" t="s">
-        <v>559</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10181,11 +10185,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" t="s">
         <v>560</v>
       </c>
-      <c r="C201" t="s">
-        <v>561</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10204,11 +10208,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="C202" t="s">
-        <v>563</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10227,11 +10231,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" t="s">
         <v>564</v>
       </c>
-      <c r="C203" t="s">
-        <v>565</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10250,14 +10254,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" t="s">
+        <v>565</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C204" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E204">
         <v>1</v>
       </c>
@@ -10268,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10276,14 +10280,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C205" t="s">
-        <v>567</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10302,14 +10306,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" t="s">
+        <v>567</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C206" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10328,11 +10332,11 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>568</v>
+      </c>
+      <c r="C207" t="s">
         <v>569</v>
       </c>
-      <c r="C207" t="s">
-        <v>570</v>
-      </c>
       <c r="E207">
         <v>0</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10351,11 +10355,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" t="s">
         <v>571</v>
       </c>
-      <c r="C208" t="s">
-        <v>572</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10374,11 +10378,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="C209" t="s">
         <v>573</v>
       </c>
-      <c r="C209" t="s">
-        <v>574</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10389,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10397,11 +10401,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" t="s">
         <v>575</v>
       </c>
-      <c r="C210" t="s">
-        <v>576</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10412,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10420,11 +10424,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
         <v>577</v>
       </c>
-      <c r="C211" t="s">
-        <v>578</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10443,11 +10447,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="C212" t="s">
         <v>579</v>
       </c>
-      <c r="C212" t="s">
-        <v>580</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10466,11 +10470,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" t="s">
         <v>581</v>
       </c>
-      <c r="C213" t="s">
-        <v>582</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10489,11 +10493,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>582</v>
+      </c>
+      <c r="C214" t="s">
         <v>583</v>
       </c>
-      <c r="C214" t="s">
-        <v>584</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10512,11 +10516,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>584</v>
+      </c>
+      <c r="C215" t="s">
         <v>585</v>
       </c>
-      <c r="C215" t="s">
-        <v>586</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10527,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10535,11 +10539,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s">
         <v>587</v>
       </c>
-      <c r="C216" t="s">
-        <v>588</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10558,11 +10562,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>588</v>
+      </c>
+      <c r="C217" t="s">
         <v>589</v>
       </c>
-      <c r="C217" t="s">
-        <v>590</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10581,11 +10585,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>590</v>
+      </c>
+      <c r="C218" t="s">
         <v>591</v>
       </c>
-      <c r="C218" t="s">
-        <v>592</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10604,11 +10608,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>592</v>
+      </c>
+      <c r="C219" t="s">
         <v>593</v>
       </c>
-      <c r="C219" t="s">
-        <v>594</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10627,11 +10631,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>594</v>
+      </c>
+      <c r="C220" t="s">
         <v>595</v>
       </c>
-      <c r="C220" t="s">
-        <v>596</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10650,11 +10654,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" t="s">
         <v>597</v>
       </c>
-      <c r="C221" t="s">
-        <v>598</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10673,11 +10677,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>598</v>
+      </c>
+      <c r="C222" t="s">
         <v>599</v>
       </c>
-      <c r="C222" t="s">
-        <v>600</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10688,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10696,11 +10700,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" t="s">
         <v>601</v>
       </c>
-      <c r="C223" t="s">
-        <v>602</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10711,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10719,11 +10723,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>602</v>
+      </c>
+      <c r="C224" t="s">
         <v>603</v>
       </c>
-      <c r="C224" t="s">
-        <v>604</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10734,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10742,10 +10746,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10757,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10765,13 +10769,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C226" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10788,13 +10792,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="D227" t="s">
         <v>619</v>
-      </c>
-      <c r="D227" t="s">
-        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10811,13 +10815,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10834,13 +10838,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10857,13 +10861,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10880,13 +10884,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="D231" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10903,13 +10907,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10926,13 +10930,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="D233" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10949,13 +10953,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10972,14 +10976,14 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="E235">
         <v>0</v>
       </c>
@@ -10990,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10998,25 +11002,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -11024,25 +11028,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>671</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -11050,25 +11054,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>674</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -11076,25 +11080,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>680</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -11102,25 +11106,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11128,25 +11132,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11154,25 +11158,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11180,25 +11184,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11206,13 +11210,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11224,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11232,13 +11236,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11250,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11258,13 +11262,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11276,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11284,25 +11288,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11310,25 +11314,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11336,25 +11340,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11362,25 +11366,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11388,25 +11392,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11414,14 +11418,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" t="s">
+        <v>737</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C252" t="s">
-        <v>738</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11440,13 +11444,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D253" s="24" t="s">
         <v>939</v>
-      </c>
-      <c r="C253" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>940</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11459,7 +11463,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11467,25 +11471,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11493,25 +11497,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11519,13 +11523,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>748</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>749</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11538,7 +11542,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11546,14 +11550,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D257" s="15" t="s">
-        <v>752</v>
-      </c>
       <c r="E257" s="17">
         <v>0</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11572,14 +11576,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11590,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11598,25 +11602,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11624,25 +11628,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11650,25 +11654,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11676,14 +11680,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="D262" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>771</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11702,25 +11706,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11728,14 +11732,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>778</v>
-      </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11754,25 +11758,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11780,25 +11784,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11806,14 +11810,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -11832,14 +11836,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C268" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="D268" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="48" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="2">
         <v>1</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11858,13 +11862,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11876,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11884,14 +11888,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="D270" s="18" t="s">
-        <v>798</v>
-      </c>
       <c r="E270" s="17">
         <v>0</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11910,25 +11914,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11936,14 +11940,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>806</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11962,14 +11966,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>809</v>
-      </c>
       <c r="E273" s="17">
         <v>0</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="I273" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11988,25 +11992,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12014,25 +12018,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D275" s="18" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12040,22 +12044,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C276" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12063,25 +12067,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12089,13 +12093,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12107,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12115,22 +12119,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12138,13 +12142,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12156,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12164,13 +12168,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12182,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12190,25 +12194,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12216,25 +12220,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12242,14 +12246,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>849</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="D284" s="28" t="s">
-        <v>851</v>
-      </c>
       <c r="E284" s="29">
         <v>1</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12268,25 +12272,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>845</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>847</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12294,14 +12298,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="D286" s="28" t="s">
-        <v>854</v>
-      </c>
       <c r="E286" s="29">
         <v>1</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -12320,14 +12324,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>856</v>
-      </c>
       <c r="E287" s="27">
         <v>0</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12346,14 +12350,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D288" s="15" t="s">
-        <v>860</v>
-      </c>
       <c r="E288" s="17">
         <v>1</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12372,25 +12376,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12398,25 +12402,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12424,14 +12428,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>871</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12450,14 +12454,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="D292" s="20" t="s">
-        <v>875</v>
-      </c>
       <c r="E292">
         <v>0</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12476,14 +12480,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="D293" s="20" t="s">
-        <v>878</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12502,13 +12506,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12521,7 +12525,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12529,13 +12533,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>884</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12548,7 +12552,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12583,13 +12587,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>888</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>889</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12602,7 +12606,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12637,13 +12641,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>893</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12656,7 +12660,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12691,13 +12695,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="C298" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="D298" s="38" t="s">
         <v>894</v>
-      </c>
-      <c r="C298" s="39" t="s">
-        <v>897</v>
-      </c>
-      <c r="D298" s="38" t="s">
-        <v>895</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12710,7 +12714,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12745,13 +12749,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="41" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D299" s="41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E299" s="43">
         <v>1</v>
@@ -12764,7 +12768,7 @@
       </c>
       <c r="H299" s="43"/>
       <c r="I299" s="42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12799,13 +12803,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="41" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D300" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E300" s="43">
         <v>1</v>
@@ -12818,7 +12822,7 @@
       </c>
       <c r="H300" s="43"/>
       <c r="I300" s="42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12826,13 +12830,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="C301" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="D301" s="41" t="s">
         <v>941</v>
-      </c>
-      <c r="C301" s="41" t="s">
-        <v>898</v>
-      </c>
-      <c r="D301" s="41" t="s">
-        <v>942</v>
       </c>
       <c r="E301" s="43">
         <v>1</v>
@@ -12845,7 +12849,7 @@
       </c>
       <c r="H301" s="43"/>
       <c r="I301" s="44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
@@ -12853,13 +12857,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>900</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>901</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12872,7 +12876,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12880,13 +12884,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12899,7 +12903,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12907,13 +12911,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="C304" s="39" t="s">
+      <c r="D304" s="38" t="s">
         <v>910</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>911</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12926,7 +12930,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12934,14 +12938,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>914</v>
-      </c>
       <c r="E305" s="17">
         <v>1</v>
       </c>
@@ -12952,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12960,25 +12964,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>917</v>
-      </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12986,13 +12990,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>922</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>923</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13009,25 +13013,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>926</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13035,14 +13039,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="37" t="s">
         <v>929</v>
       </c>
-      <c r="D309" s="37" t="s">
-        <v>930</v>
-      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -13053,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13061,25 +13065,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>933</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13087,25 +13091,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="37" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -13113,10 +13117,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C312" s="35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D312" s="36"/>
       <c r="E312" s="36">
@@ -13130,7 +13134,7 @@
       </c>
       <c r="H312" s="36"/>
       <c r="I312" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -13138,10 +13142,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="34" t="s">
+        <v>964</v>
+      </c>
+      <c r="C313" s="35" t="s">
         <v>965</v>
-      </c>
-      <c r="C313" s="35" t="s">
-        <v>966</v>
       </c>
       <c r="D313" s="36"/>
       <c r="E313" s="36">
@@ -13155,7 +13159,7 @@
       </c>
       <c r="H313" s="36"/>
       <c r="I313" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13163,10 +13167,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="34" t="s">
+        <v>967</v>
+      </c>
+      <c r="C314" s="36" t="s">
         <v>968</v>
-      </c>
-      <c r="C314" s="36" t="s">
-        <v>969</v>
       </c>
       <c r="D314" s="36"/>
       <c r="E314" s="36">
@@ -13180,7 +13184,7 @@
       </c>
       <c r="H314" s="36"/>
       <c r="I314" s="35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13188,10 +13192,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C315" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D315" s="36"/>
       <c r="E315" s="36">
@@ -13205,7 +13209,7 @@
       </c>
       <c r="H315" s="36"/>
       <c r="I315" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -13213,10 +13217,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C316" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D316" s="36"/>
       <c r="E316" s="36">
@@ -13230,7 +13234,7 @@
       </c>
       <c r="H316" s="36"/>
       <c r="I316" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -13238,10 +13242,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="34" t="s">
+        <v>972</v>
+      </c>
+      <c r="C317" s="35" t="s">
         <v>973</v>
-      </c>
-      <c r="C317" s="35" t="s">
-        <v>974</v>
       </c>
       <c r="D317" s="36"/>
       <c r="E317" s="36">
@@ -13255,7 +13259,7 @@
       </c>
       <c r="H317" s="36"/>
       <c r="I317" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13263,10 +13267,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="51" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C318" s="35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D318" s="36"/>
       <c r="E318" s="36">
@@ -13280,7 +13284,7 @@
       </c>
       <c r="H318" s="36"/>
       <c r="I318" s="52" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13288,13 +13292,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
+        <v>980</v>
+      </c>
+      <c r="C319" s="49" t="s">
         <v>981</v>
       </c>
-      <c r="C319" s="49" t="s">
+      <c r="D319" s="48" t="s">
         <v>982</v>
-      </c>
-      <c r="D319" s="48" t="s">
-        <v>983</v>
       </c>
       <c r="E319" s="2">
         <v>1</v>
@@ -13307,7 +13311,7 @@
       </c>
       <c r="H319" s="2"/>
       <c r="I319" s="49" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13315,13 +13319,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="C320" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="D320" s="48" t="s">
         <v>954</v>
-      </c>
-      <c r="C320" s="49" t="s">
-        <v>984</v>
-      </c>
-      <c r="D320" s="48" t="s">
-        <v>955</v>
       </c>
       <c r="E320" s="2">
         <v>1</v>
@@ -13334,7 +13338,7 @@
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13342,10 +13346,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C321" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2">
@@ -13359,7 +13363,7 @@
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="49" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13367,7 +13371,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="59" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -13382,7 +13386,7 @@
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="50" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13390,14 +13394,14 @@
         <v>322</v>
       </c>
       <c r="B323" s="48" t="s">
+        <v>956</v>
+      </c>
+      <c r="C323" s="48" t="s">
         <v>957</v>
       </c>
-      <c r="C323" s="48" t="s">
+      <c r="D323" s="48" t="s">
         <v>958</v>
       </c>
-      <c r="D323" s="48" t="s">
-        <v>959</v>
-      </c>
       <c r="E323" s="2">
         <v>1</v>
       </c>
@@ -13408,10 +13412,10 @@
         <v>1</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I323" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13419,10 +13423,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="C324" s="50" t="s">
         <v>990</v>
-      </c>
-      <c r="C324" s="50" t="s">
-        <v>991</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2">
@@ -13436,7 +13440,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13444,10 +13448,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="48" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C325" s="50" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2">
@@ -13461,7 +13465,7 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -13469,10 +13473,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="48" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" s="50" t="s">
         <v>995</v>
-      </c>
-      <c r="C326" s="50" t="s">
-        <v>996</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
@@ -13486,7 +13490,7 @@
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16.5">
@@ -13494,13 +13498,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="C327" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="C327" s="50" t="s">
+      <c r="D327" s="48" t="s">
         <v>999</v>
-      </c>
-      <c r="D327" s="48" t="s">
-        <v>1000</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -13513,7 +13517,7 @@
       </c>
       <c r="H327" s="2"/>
       <c r="I327" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">
@@ -13521,13 +13525,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="55" t="s">
+        <v>977</v>
+      </c>
+      <c r="C328" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D328" s="55" t="s">
         <v>978</v>
-      </c>
-      <c r="C328" s="56" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D328" s="55" t="s">
-        <v>979</v>
       </c>
       <c r="E328" s="57">
         <v>1</v>
@@ -13540,7 +13544,7 @@
       </c>
       <c r="H328" s="57"/>
       <c r="I328" s="58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13548,10 +13552,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="48" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C329" s="49" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2">
@@ -13565,7 +13569,7 @@
       </c>
       <c r="H329" s="2"/>
       <c r="I329" s="49" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13573,10 +13577,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="48" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C330" s="49" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2">
@@ -13590,7 +13594,7 @@
       </c>
       <c r="H330" s="2"/>
       <c r="I330" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -13598,10 +13602,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="48" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C331" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2">
@@ -13615,7 +13619,7 @@
       </c>
       <c r="H331" s="2"/>
       <c r="I331" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
@@ -13623,10 +13627,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C332" s="49" t="s">
         <v>1005</v>
-      </c>
-      <c r="C332" s="49" t="s">
-        <v>1006</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2">
@@ -13640,7 +13644,7 @@
       </c>
       <c r="H332" s="2"/>
       <c r="I332" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="16.5">
@@ -13676,7 +13680,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4729,7 +4729,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B323" sqref="B323"/>
+      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -4726,10 +4726,10 @@
   <dimension ref="A1:AJ318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11587,13 +11587,13 @@
         <v>799</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
         <v>733</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5060,10 +5060,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
+      <selection pane="bottomRight" activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7044,7 +7044,7 @@
         <v>225</v>
       </c>
       <c r="E76" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="23">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1022">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4373,12 +4373,23 @@
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
   </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包1皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4479,6 +4490,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4573,7 +4590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4738,6 +4755,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5016,13 +5036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ335"/>
+  <dimension ref="A1:AJ336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B314" sqref="B314"/>
+      <selection pane="bottomRight" activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13662,6 +13682,31 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="336" spans="1:9" ht="16.5">
+      <c r="A336" s="16">
+        <v>335</v>
+      </c>
+      <c r="B336" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C336" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D336" s="50"/>
+      <c r="E336" s="50">
+        <v>1</v>
+      </c>
+      <c r="F336" s="50">
+        <v>1</v>
+      </c>
+      <c r="G336" s="50">
+        <v>1</v>
+      </c>
+      <c r="H336" s="50"/>
+      <c r="I336" s="49" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3947,38 +3947,6 @@
   </si>
   <si>
     <t>Act_Ty_QJD1Manager</t>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4512,7 +4480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4563,12 +4531,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4611,7 +4573,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4705,15 +4667,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4726,16 +4679,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4765,20 +4718,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5057,13 +5016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ337"/>
+  <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E309" sqref="E309"/>
+      <selection pane="bottomRight" activeCell="B314" sqref="B314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5080,7 +5039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6978,29 +6937,29 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A74" s="16">
+    <row r="74" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A74" s="52">
         <v>73</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="52" t="s">
         <v>655</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="31">
-        <v>0</v>
-      </c>
-      <c r="F74" s="32">
-        <v>0</v>
-      </c>
-      <c r="G74" s="32">
-        <v>0</v>
-      </c>
-      <c r="I74" s="33" t="s">
+      <c r="E74" s="52">
+        <v>0</v>
+      </c>
+      <c r="F74" s="50">
+        <v>1</v>
+      </c>
+      <c r="G74" s="50">
+        <v>1</v>
+      </c>
+      <c r="I74" s="53" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7034,16 +6993,16 @@
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="40">
         <v>0</v>
       </c>
       <c r="F76" s="23">
@@ -7052,8 +7011,8 @@
       <c r="G76" s="23">
         <v>1</v>
       </c>
-      <c r="I76" s="44" t="s">
-        <v>957</v>
+      <c r="I76" s="41" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7472,29 +7431,29 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
-      <c r="A93" s="16">
+    <row r="93" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A93" s="52">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="12" t="s">
+      <c r="E93" s="52">
+        <v>0</v>
+      </c>
+      <c r="F93" s="50">
+        <v>1</v>
+      </c>
+      <c r="G93" s="50">
+        <v>1</v>
+      </c>
+      <c r="I93" s="54" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8170,8 +8129,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="49" t="s">
-        <v>981</v>
+      <c r="I119" s="46" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11468,13 +11427,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>737</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11859,13 +11818,13 @@
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="46" t="s">
+      <c r="B268" s="43" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="46" t="s">
+      <c r="C268" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="45" t="s">
+      <c r="D268" s="42" t="s">
         <v>792</v>
       </c>
       <c r="E268" s="2">
@@ -11877,7 +11836,7 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-      <c r="I268" s="47" t="s">
+      <c r="I268" s="44" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12063,26 +12022,26 @@
         <v>817</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A276" s="55">
+    <row r="276" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A276" s="52">
         <v>275</v>
       </c>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="49" t="s">
         <v>818</v>
       </c>
-      <c r="C276" s="52" t="s">
+      <c r="C276" s="49" t="s">
         <v>819</v>
       </c>
-      <c r="E276" s="53">
-        <v>1</v>
-      </c>
-      <c r="F276" s="53">
-        <v>1</v>
-      </c>
-      <c r="G276" s="53">
-        <v>1</v>
-      </c>
-      <c r="I276" s="54" t="s">
+      <c r="E276" s="50">
+        <v>1</v>
+      </c>
+      <c r="F276" s="50">
+        <v>1</v>
+      </c>
+      <c r="G276" s="50">
+        <v>1</v>
+      </c>
+      <c r="I276" s="51" t="s">
         <v>820</v>
       </c>
     </row>
@@ -12718,13 +12677,13 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="35" t="s">
+      <c r="B298" s="32" t="s">
         <v>894</v>
       </c>
-      <c r="C298" s="36" t="s">
+      <c r="C298" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="D298" s="35" t="s">
+      <c r="D298" s="32" t="s">
         <v>895</v>
       </c>
       <c r="E298" s="30">
@@ -12737,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="30"/>
-      <c r="I298" s="37" t="s">
+      <c r="I298" s="34" t="s">
         <v>896</v>
       </c>
       <c r="J298" s="17"/>
@@ -12772,26 +12731,26 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="38" t="s">
-        <v>955</v>
-      </c>
-      <c r="C299" s="39" t="s">
+      <c r="B299" s="35" t="s">
+        <v>950</v>
+      </c>
+      <c r="C299" s="36" t="s">
         <v>920</v>
       </c>
-      <c r="D299" s="38" t="s">
-        <v>953</v>
-      </c>
-      <c r="E299" s="40">
-        <v>1</v>
-      </c>
-      <c r="F299" s="40">
-        <v>1</v>
-      </c>
-      <c r="G299" s="40">
-        <v>1</v>
-      </c>
-      <c r="H299" s="40"/>
-      <c r="I299" s="39" t="s">
+      <c r="D299" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="E299" s="37">
+        <v>1</v>
+      </c>
+      <c r="F299" s="37">
+        <v>1</v>
+      </c>
+      <c r="G299" s="37">
+        <v>1</v>
+      </c>
+      <c r="H299" s="37"/>
+      <c r="I299" s="36" t="s">
         <v>918</v>
       </c>
       <c r="J299" s="17"/>
@@ -12826,26 +12785,26 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="38" t="s">
-        <v>956</v>
-      </c>
-      <c r="C300" s="39" t="s">
+      <c r="B300" s="35" t="s">
+        <v>951</v>
+      </c>
+      <c r="C300" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="D300" s="38" t="s">
-        <v>952</v>
-      </c>
-      <c r="E300" s="40">
-        <v>1</v>
-      </c>
-      <c r="F300" s="40">
-        <v>1</v>
-      </c>
-      <c r="G300" s="40">
-        <v>1</v>
-      </c>
-      <c r="H300" s="40"/>
-      <c r="I300" s="39" t="s">
+      <c r="D300" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="37">
+        <v>1</v>
+      </c>
+      <c r="F300" s="37">
+        <v>1</v>
+      </c>
+      <c r="G300" s="37">
+        <v>1</v>
+      </c>
+      <c r="H300" s="37"/>
+      <c r="I300" s="36" t="s">
         <v>918</v>
       </c>
     </row>
@@ -12853,26 +12812,26 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="38" t="s">
-        <v>946</v>
-      </c>
-      <c r="C301" s="38" t="s">
+      <c r="B301" s="35" t="s">
+        <v>941</v>
+      </c>
+      <c r="C301" s="35" t="s">
         <v>898</v>
       </c>
-      <c r="D301" s="38" t="s">
-        <v>947</v>
-      </c>
-      <c r="E301" s="40">
-        <v>1</v>
-      </c>
-      <c r="F301" s="40">
-        <v>1</v>
-      </c>
-      <c r="G301" s="40">
-        <v>1</v>
-      </c>
-      <c r="H301" s="40"/>
-      <c r="I301" s="41" t="s">
+      <c r="D301" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="E301" s="37">
+        <v>1</v>
+      </c>
+      <c r="F301" s="37">
+        <v>1</v>
+      </c>
+      <c r="G301" s="37">
+        <v>1</v>
+      </c>
+      <c r="H301" s="37"/>
+      <c r="I301" s="38" t="s">
         <v>641</v>
       </c>
     </row>
@@ -12911,7 +12870,7 @@
         <v>905</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>903</v>
@@ -12934,13 +12893,13 @@
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="35" t="s">
+      <c r="B304" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="C304" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="D304" s="35" t="s">
+      <c r="D304" s="32" t="s">
         <v>911</v>
       </c>
       <c r="E304" s="30">
@@ -12953,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="30"/>
-      <c r="I304" s="36" t="s">
+      <c r="I304" s="33" t="s">
         <v>908</v>
       </c>
     </row>
@@ -12983,29 +12942,29 @@
         <v>918</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A306" s="55">
+    <row r="306" spans="1:9" s="50" customFormat="1" ht="16.5">
+      <c r="A306" s="52">
         <v>305</v>
       </c>
-      <c r="B306" s="51" t="s">
+      <c r="B306" s="48" t="s">
         <v>915</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="C306" s="49" t="s">
         <v>916</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D306" s="48" t="s">
         <v>917</v>
       </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
+      <c r="E306" s="50">
+        <v>1</v>
+      </c>
+      <c r="F306" s="50">
+        <v>1</v>
+      </c>
+      <c r="G306" s="50">
+        <v>1</v>
+      </c>
+      <c r="I306" s="49" t="s">
         <v>918</v>
       </c>
     </row>
@@ -13036,7 +12995,7 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="34" t="s">
+      <c r="B308" s="31" t="s">
         <v>924</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -13062,13 +13021,13 @@
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" s="31" t="s">
         <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D309" s="34" t="s">
+      <c r="D309" s="31" t="s">
         <v>930</v>
       </c>
       <c r="E309" s="17">
@@ -13114,13 +13073,13 @@
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="34" t="s">
+      <c r="B311" s="31" t="s">
         <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="D311" s="31" t="s">
         <v>937</v>
       </c>
       <c r="E311" s="17">
@@ -13141,10 +13100,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -13156,7 +13115,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13164,10 +13123,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="E313" s="17">
         <v>1</v>
@@ -13179,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13187,9 +13146,9 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="C314" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C314" s="17" t="s">
         <v>968</v>
       </c>
       <c r="E314" s="17">
@@ -13202,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13210,7 +13169,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="C315" s="15" t="s">
         <v>970</v>
@@ -13225,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="15" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13233,10 +13192,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="C316" s="17" t="s">
-        <v>973</v>
+        <v>971</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>946</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -13248,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13256,10 +13215,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E317" s="17">
         <v>1</v>
@@ -13271,18 +13230,18 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="18" t="s">
-        <v>976</v>
+      <c r="B318" s="45" t="s">
+        <v>962</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
       <c r="E318" s="17">
         <v>1</v>
@@ -13293,8 +13252,8 @@
       <c r="G318" s="17">
         <v>1</v>
       </c>
-      <c r="I318" s="15" t="s">
-        <v>950</v>
+      <c r="I318" s="19" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13302,10 +13261,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>978</v>
+        <v>981</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>982</v>
       </c>
       <c r="E319" s="17">
         <v>1</v>
@@ -13317,18 +13279,21 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="48" t="s">
-        <v>967</v>
+      <c r="B320" s="18" t="s">
+        <v>954</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>979</v>
+        <v>983</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>955</v>
       </c>
       <c r="E320" s="17">
         <v>1</v>
@@ -13339,8 +13304,8 @@
       <c r="G320" s="17">
         <v>1</v>
       </c>
-      <c r="I320" s="19" t="s">
-        <v>980</v>
+      <c r="I320" s="15" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13348,14 +13313,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="C321" s="15" t="s">
-        <v>986</v>
-      </c>
-      <c r="D321" s="18" t="s">
-        <v>987</v>
-      </c>
       <c r="E321" s="17">
         <v>1</v>
       </c>
@@ -13366,21 +13328,15 @@
         <v>1</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="C322" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>960</v>
+      <c r="B322" s="47" t="s">
+        <v>986</v>
       </c>
       <c r="E322" s="17">
         <v>1</v>
@@ -13391,8 +13347,8 @@
       <c r="G322" s="17">
         <v>1</v>
       </c>
-      <c r="I322" s="15" t="s">
-        <v>989</v>
+      <c r="I322" s="19" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13400,10 +13356,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="C323" s="15" t="s">
-        <v>990</v>
+        <v>957</v>
+      </c>
+      <c r="C323" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>959</v>
       </c>
       <c r="E323" s="17">
         <v>1</v>
@@ -13414,28 +13373,34 @@
       <c r="G323" s="17">
         <v>1</v>
       </c>
+      <c r="H323" s="17" t="s">
+        <v>1018</v>
+      </c>
       <c r="I323" s="15" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="50" t="s">
+      <c r="B324" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="15" t="s">
         <v>991</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13443,13 +13408,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>962</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>963</v>
-      </c>
-      <c r="D325" s="18" t="s">
-        <v>964</v>
+        <v>960</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>992</v>
       </c>
       <c r="E325" s="17">
         <v>1</v>
@@ -13459,9 +13421,6 @@
       </c>
       <c r="G325" s="17">
         <v>1</v>
-      </c>
-      <c r="H325" s="17" t="s">
-        <v>1023</v>
       </c>
       <c r="I325" s="15" t="s">
         <v>993</v>
@@ -13495,10 +13454,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>997</v>
+        <v>998</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>999</v>
       </c>
       <c r="E327" s="17">
         <v>1</v>
@@ -13510,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13518,11 +13480,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="C328" s="19" t="s">
         <v>1000</v>
       </c>
+      <c r="D328" s="18" t="s">
+        <v>978</v>
+      </c>
       <c r="E328" s="17">
         <v>1</v>
       </c>
@@ -13533,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13541,13 +13506,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C329" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D329" s="18" t="s">
-        <v>1004</v>
+        <v>1001</v>
+      </c>
+      <c r="C329" s="15" t="s">
+        <v>1006</v>
       </c>
       <c r="E329" s="17">
         <v>1</v>
@@ -13559,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13567,13 +13529,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>983</v>
+        <v>1002</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>1008</v>
       </c>
       <c r="E330" s="17">
         <v>1</v>
@@ -13585,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13593,10 +13552,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E331" s="17">
         <v>1</v>
@@ -13608,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="15" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13616,10 +13575,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="E332" s="17">
         <v>1</v>
@@ -13631,122 +13590,76 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" s="50" customFormat="1" ht="16.5">
       <c r="A333" s="16">
         <v>332</v>
       </c>
-      <c r="B333" s="18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C333" s="15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E333" s="17">
-        <v>1</v>
-      </c>
-      <c r="F333" s="17">
-        <v>1</v>
-      </c>
-      <c r="G333" s="17">
-        <v>1</v>
-      </c>
-      <c r="I333" s="15" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B333" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C333" s="49" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E333" s="50">
+        <v>1</v>
+      </c>
+      <c r="F333" s="50">
+        <v>1</v>
+      </c>
+      <c r="G333" s="50">
+        <v>1</v>
+      </c>
+      <c r="I333" s="49" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="50" customFormat="1" ht="16.5">
       <c r="A334" s="16">
         <v>333</v>
       </c>
-      <c r="B334" s="18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E334" s="17">
-        <v>1</v>
-      </c>
-      <c r="F334" s="17">
-        <v>1</v>
-      </c>
-      <c r="G334" s="17">
-        <v>1</v>
-      </c>
-      <c r="I334" s="15" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="B334" s="48" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C334" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E334" s="50">
+        <v>1</v>
+      </c>
+      <c r="F334" s="50">
+        <v>1</v>
+      </c>
+      <c r="G334" s="50">
+        <v>1</v>
+      </c>
+      <c r="I334" s="49" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="50" customFormat="1" ht="16.5">
       <c r="A335" s="16">
         <v>334</v>
       </c>
-      <c r="B335" s="51" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C335" s="52" t="s">
+      <c r="B335" s="48" t="s">
         <v>1016</v>
       </c>
-      <c r="E335" s="53">
-        <v>1</v>
-      </c>
-      <c r="F335" s="53">
-        <v>1</v>
-      </c>
-      <c r="G335" s="53">
-        <v>1</v>
-      </c>
-      <c r="I335" s="52" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A336" s="16">
-        <v>335</v>
-      </c>
-      <c r="B336" s="51" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C336" s="52" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E336" s="53">
-        <v>1</v>
-      </c>
-      <c r="F336" s="53">
-        <v>1</v>
-      </c>
-      <c r="G336" s="53">
-        <v>1</v>
-      </c>
-      <c r="I336" s="52" t="s">
+      <c r="C335" s="51" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A337" s="16">
-        <v>336</v>
-      </c>
-      <c r="B337" s="51" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C337" s="54" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E337" s="53">
-        <v>1</v>
-      </c>
-      <c r="F337" s="53">
-        <v>1</v>
-      </c>
-      <c r="G337" s="53">
-        <v>1</v>
-      </c>
-      <c r="I337" s="52" t="s">
-        <v>1018</v>
+      <c r="E335" s="50">
+        <v>1</v>
+      </c>
+      <c r="F335" s="50">
+        <v>1</v>
+      </c>
+      <c r="G335" s="50">
+        <v>1</v>
+      </c>
+      <c r="I335" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3838,10 +3838,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_czzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周卡</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3956,6 +3952,157 @@
   </si>
   <si>
     <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+  </si>
+  <si>
+    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3987,162 +4134,74 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>act_048_xnsmt</t>
-  </si>
-  <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
-    <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月30日</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_prize_quiz</t>
-  </si>
-  <si>
-    <t>Act_Ty_PrizeQuizManager</t>
-  </si>
-  <si>
-    <t>2月30日</t>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_010_taohua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_006_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4150,265 +4209,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHL</t>
-  </si>
-  <si>
-    <t>新游福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHLManager</t>
-  </si>
-  <si>
-    <t>有奖问答</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_003_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_005_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_004_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_006_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_041_xyxfl</t>
-  </si>
-  <si>
-    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_005_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sys_Act_JBZKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_xrxsfl</t>
-  </si>
-  <si>
-    <t>新人限时福利</t>
-  </si>
-  <si>
-    <t>Act_XRXSFLManager</t>
-  </si>
-  <si>
-    <t>act_ty_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买+自动抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_007_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_009_lihe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4416,7 +4217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4514,6 +4315,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4617,7 +4424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4762,9 +4569,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4783,10 +4587,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5066,13 +4876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ339"/>
+  <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B316" sqref="B316"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5096,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1010</v>
+        <v>963</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7062,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8179,8 +7989,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="49" t="s">
-        <v>970</v>
+      <c r="I119" s="48" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11477,13 +11287,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11556,13 +11366,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12046,53 +11856,53 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A275" s="53">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
-      <c r="B275" s="51" t="s">
+      <c r="B275" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E275" s="52">
-        <v>1</v>
-      </c>
-      <c r="F275" s="52">
-        <v>1</v>
-      </c>
-      <c r="G275" s="52">
-        <v>1</v>
-      </c>
-      <c r="I275" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A276" s="53">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="15" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A276" s="52">
         <v>275</v>
       </c>
-      <c r="B276" s="51" t="s">
+      <c r="B276" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="E276" s="52">
-        <v>1</v>
-      </c>
-      <c r="F276" s="52">
-        <v>1</v>
-      </c>
-      <c r="G276" s="52">
-        <v>1</v>
-      </c>
-      <c r="I276" s="51" t="s">
-        <v>1013</v>
+      <c r="E276" s="51">
+        <v>1</v>
+      </c>
+      <c r="F276" s="51">
+        <v>1</v>
+      </c>
+      <c r="G276" s="51">
+        <v>1</v>
+      </c>
+      <c r="I276" s="50" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12782,13 +12592,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C299" s="39" t="s">
         <v>914</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12836,13 +12646,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C300" s="39" t="s">
         <v>913</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12863,13 +12673,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C301" s="38" t="s">
         <v>893</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12920,7 +12730,7 @@
         <v>900</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>898</v>
@@ -12966,55 +12776,55 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="49" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="D305" s="49" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="I305" s="15" t="s">
+      <c r="E305" s="51">
+        <v>1</v>
+      </c>
+      <c r="F305" s="51">
+        <v>1</v>
+      </c>
+      <c r="G305" s="51">
+        <v>1</v>
+      </c>
+      <c r="I305" s="50" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A306" s="53">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="50" t="s">
+      <c r="B306" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="51" t="s">
+      <c r="C306" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="50" t="s">
+      <c r="D306" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="E306" s="52">
-        <v>1</v>
-      </c>
-      <c r="F306" s="52">
-        <v>1</v>
-      </c>
-      <c r="G306" s="52">
-        <v>1</v>
-      </c>
-      <c r="I306" s="51" t="s">
+      <c r="E306" s="17">
+        <v>0</v>
+      </c>
+      <c r="F306" s="17">
+        <v>0</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13023,13 +12833,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>916</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>917</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13046,25 +12856,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>0</v>
+      </c>
+      <c r="F308" s="17">
+        <v>0</v>
+      </c>
+      <c r="G308" s="17">
+        <v>0</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>920</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13072,13 +12882,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>923</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13098,25 +12908,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>0</v>
+      </c>
+      <c r="G310" s="17">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>927</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13124,212 +12934,216 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>0</v>
+      </c>
+      <c r="G311" s="17">
+        <v>0</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="312" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
-        <v>955</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="E312" s="17">
-        <v>0</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B312" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="C312" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="E312" s="51">
+        <v>1</v>
+      </c>
+      <c r="F312" s="51">
+        <v>1</v>
+      </c>
+      <c r="G312" s="51">
+        <v>1</v>
+      </c>
+      <c r="I312" s="50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="E313" s="17">
-        <v>0</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B313" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="C313" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="E313" s="51">
+        <v>1</v>
+      </c>
+      <c r="F313" s="51">
+        <v>1</v>
+      </c>
+      <c r="G313" s="51">
+        <v>1</v>
+      </c>
+      <c r="I313" s="50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="C314" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="E314" s="17">
-        <v>0</v>
-      </c>
-      <c r="F314" s="17">
-        <v>1</v>
-      </c>
-      <c r="G314" s="17">
-        <v>1</v>
-      </c>
-      <c r="I314" s="15" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B314" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="E314" s="51">
+        <v>1</v>
+      </c>
+      <c r="F314" s="51">
+        <v>1</v>
+      </c>
+      <c r="G314" s="51">
+        <v>1</v>
+      </c>
+      <c r="I314" s="50" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="C315" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="E315" s="17">
-        <v>0</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B315" s="54" t="s">
+        <v>989</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="E315" s="51">
+        <v>1</v>
+      </c>
+      <c r="F315" s="51">
+        <v>1</v>
+      </c>
+      <c r="G315" s="51">
+        <v>1</v>
+      </c>
+      <c r="I315" s="55" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="18" t="s">
-        <v>965</v>
-      </c>
-      <c r="C316" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="E316" s="17">
-        <v>0</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B316" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="C316" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="E316" s="51">
+        <v>1</v>
+      </c>
+      <c r="F316" s="51">
+        <v>1</v>
+      </c>
+      <c r="G316" s="51">
+        <v>1</v>
+      </c>
+      <c r="I316" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="C317" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="E317" s="17">
-        <v>0</v>
-      </c>
-      <c r="F317" s="17">
-        <v>1</v>
-      </c>
-      <c r="G317" s="17">
-        <v>1</v>
-      </c>
-      <c r="I317" s="15" t="s">
-        <v>960</v>
+      <c r="B317" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C317" s="50" t="s">
+        <v>994</v>
+      </c>
+      <c r="D317" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="48" t="s">
-        <v>956</v>
+      <c r="B318" s="57" t="s">
+        <v>979</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>968</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="D318" s="18"/>
       <c r="E318" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" s="17">
-        <v>1</v>
-      </c>
-      <c r="I318" s="19" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="52" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="I318" s="15" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="50" t="s">
-        <v>974</v>
-      </c>
-      <c r="C319" s="51" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D319" s="50" t="s">
-        <v>975</v>
-      </c>
-      <c r="E319" s="52">
-        <v>1</v>
-      </c>
-      <c r="F319" s="52">
-        <v>1</v>
-      </c>
-      <c r="G319" s="52">
-        <v>1</v>
-      </c>
-      <c r="I319" s="51" t="s">
-        <v>1013</v>
+      <c r="B319" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="E319" s="17">
+        <v>0</v>
+      </c>
+      <c r="F319" s="17">
+        <v>0</v>
+      </c>
+      <c r="G319" s="17">
+        <v>0</v>
+      </c>
+      <c r="I319" s="15" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13337,25 +13151,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="D320" s="18" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
       </c>
       <c r="F320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13363,42 +13174,54 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>950</v>
-      </c>
-      <c r="C321" s="15" t="s">
-        <v>978</v>
+        <v>946</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>948</v>
       </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
       <c r="F321" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H321" s="17" t="s">
+        <v>962</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="52" customFormat="1" ht="16.5">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="56" t="s">
-        <v>979</v>
-      </c>
-      <c r="E322" s="52">
-        <v>1</v>
-      </c>
-      <c r="F322" s="52">
-        <v>1</v>
-      </c>
-      <c r="G322" s="52">
-        <v>1</v>
-      </c>
-      <c r="I322" s="55" t="s">
-        <v>980</v>
+      <c r="B322" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="E322" s="17">
+        <v>0</v>
+      </c>
+      <c r="F322" s="17">
+        <v>0</v>
+      </c>
+      <c r="G322" s="17">
+        <v>0</v>
+      </c>
+      <c r="I322" s="15" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13406,42 +13229,42 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="C323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="D323" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="E323" s="17">
-        <v>1</v>
-      </c>
-      <c r="F323" s="17">
-        <v>1</v>
-      </c>
-      <c r="G323" s="17">
-        <v>1</v>
-      </c>
-      <c r="H323" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="18" t="s">
-        <v>982</v>
+      <c r="B324" s="53" t="s">
+        <v>965</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>983</v>
+        <v>966</v>
+      </c>
+      <c r="D324" t="s">
+        <v>967</v>
       </c>
       <c r="E324" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" s="17">
         <v>1</v>
@@ -13450,366 +13273,33 @@
         <v>1</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="C325" s="19" t="s">
-        <v>985</v>
-      </c>
-      <c r="E325" s="17">
-        <v>0</v>
-      </c>
-      <c r="F325" s="17">
-        <v>1</v>
-      </c>
-      <c r="G325" s="17">
-        <v>1</v>
-      </c>
-      <c r="I325" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A326" s="16">
-        <v>325</v>
-      </c>
-      <c r="B326" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A327" s="16">
-        <v>326</v>
-      </c>
-      <c r="B327" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="C327" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="D327" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A328" s="16">
-        <v>327</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="C328" s="19" t="s">
-        <v>993</v>
-      </c>
-      <c r="D328" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A329" s="16">
-        <v>328</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="C329" s="15" t="s">
-        <v>999</v>
-      </c>
-      <c r="E329" s="17">
-        <v>0</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A330" s="16">
-        <v>329</v>
-      </c>
-      <c r="B330" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="C330" s="15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E330" s="17">
-        <v>0</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A331" s="16">
-        <v>330</v>
-      </c>
-      <c r="B331" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C331" s="15" t="s">
-        <v>996</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A332" s="16">
-        <v>331</v>
-      </c>
-      <c r="B332" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="C332" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="E332" s="17">
-        <v>0</v>
-      </c>
-      <c r="F332" s="17">
-        <v>1</v>
-      </c>
-      <c r="G332" s="17">
-        <v>1</v>
-      </c>
-      <c r="I332" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A333" s="16">
-        <v>332</v>
-      </c>
-      <c r="B333" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C333" s="15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E333" s="17">
-        <v>0</v>
-      </c>
-      <c r="F333" s="17">
-        <v>1</v>
-      </c>
-      <c r="G333" s="17">
-        <v>1</v>
-      </c>
-      <c r="I333" s="15" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A334" s="16">
-        <v>333</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E334" s="17">
-        <v>0</v>
-      </c>
-      <c r="F334" s="17">
-        <v>1</v>
-      </c>
-      <c r="G334" s="17">
-        <v>1</v>
-      </c>
-      <c r="I334" s="15" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A335" s="16">
-        <v>334</v>
-      </c>
-      <c r="B335" s="50" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C335" s="51" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E335" s="52">
-        <v>1</v>
-      </c>
-      <c r="F335" s="52">
-        <v>1</v>
-      </c>
-      <c r="G335" s="52">
-        <v>1</v>
-      </c>
-      <c r="I335" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A336" s="16">
-        <v>335</v>
-      </c>
-      <c r="B336" s="50" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C336" s="51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D336" s="52"/>
-      <c r="E336" s="52">
-        <v>1</v>
-      </c>
-      <c r="F336" s="52">
-        <v>1</v>
-      </c>
-      <c r="G336" s="52">
-        <v>1</v>
-      </c>
-      <c r="H336" s="52"/>
-      <c r="I336" s="51" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="16.5">
-      <c r="A337" s="16">
-        <v>336</v>
-      </c>
-      <c r="B337" s="54" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E337" s="17">
-        <v>1</v>
-      </c>
-      <c r="F337" s="17">
-        <v>1</v>
-      </c>
-      <c r="G337" s="17">
-        <v>1</v>
-      </c>
-      <c r="I337" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" ht="16.5">
-      <c r="A338" s="16">
-        <v>337</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
+      <c r="B325" t="s">
+        <v>968</v>
+      </c>
+      <c r="C325" t="s">
+        <v>969</v>
+      </c>
+      <c r="D325" t="s">
+        <v>970</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="I325" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A339" s="16">
-        <v>338</v>
-      </c>
-      <c r="B339" s="50" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C339" s="51" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E339" s="52">
-        <v>1</v>
-      </c>
-      <c r="F339" s="52">
-        <v>1</v>
-      </c>
-      <c r="G339" s="52">
-        <v>1</v>
-      </c>
-      <c r="I339" s="51" t="s">
-        <v>1025</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4106,38 +4106,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4165,26 +4133,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4197,10 +4153,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4211,6 +4163,53 @@
   <si>
     <t>消消乐争霸</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_007_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_009_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_010</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_climbing</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐爬塔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGXXL_Tower_ClimbingManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
   </si>
 </sst>
 </file>
@@ -4876,13 +4875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ325"/>
+  <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12188,29 +12187,29 @@
         <v>640</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A288" s="52">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="50" t="s">
         <v>855</v>
       </c>
-      <c r="E288" s="17">
-        <v>1</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="15" t="s">
+      <c r="E288" s="51">
+        <v>1</v>
+      </c>
+      <c r="F288" s="51">
+        <v>1</v>
+      </c>
+      <c r="G288" s="51">
+        <v>1</v>
+      </c>
+      <c r="I288" s="50" t="s">
         <v>731</v>
       </c>
     </row>
@@ -12776,29 +12775,29 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="49" t="s">
+      <c r="B305" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="50" t="s">
+      <c r="C305" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="51">
-        <v>1</v>
-      </c>
-      <c r="F305" s="51">
-        <v>1</v>
-      </c>
-      <c r="G305" s="51">
-        <v>1</v>
-      </c>
-      <c r="I305" s="50" t="s">
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>0</v>
+      </c>
+      <c r="G305" s="17">
+        <v>0</v>
+      </c>
+      <c r="I305" s="15" t="s">
         <v>912</v>
       </c>
     </row>
@@ -12833,7 +12832,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,10 +12959,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12975,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12983,10 +12982,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12998,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,10 +13005,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13021,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,10 +13028,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13044,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13051,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,13 +13074,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D317" s="49" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E317" s="51">
         <v>1</v>
@@ -13093,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="50" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13100,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13300,6 +13299,58 @@
       </c>
       <c r="I325" t="s">
         <v>863</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" t="s">
+        <v>995</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="35" t="s">
+        <v>998</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="D327" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E327" s="30">
+        <v>1</v>
+      </c>
+      <c r="F327" s="30">
+        <v>1</v>
+      </c>
+      <c r="G327" s="30">
+        <v>1</v>
+      </c>
+      <c r="I327" s="37" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4878,10 +4878,10 @@
   <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A328" sqref="A328"/>
+      <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13315,13 +13315,13 @@
         <v>996</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="s">
         <v>997</v>
@@ -13341,13 +13341,13 @@
         <v>1000</v>
       </c>
       <c r="E327" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4368,14 +4368,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_008_meigui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_041_xyxfl</t>
   </si>
   <si>
@@ -4441,6 +4433,14 @@
   </si>
   <si>
     <t>消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_009_lihe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4649,7 +4649,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4800,9 +4800,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4816,6 +4813,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5101,7 +5104,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G331" sqref="G331"/>
+      <selection pane="bottomRight" activeCell="E339" sqref="E339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5125,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -11585,13 +11588,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>1027</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>1029</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12075,53 +12078,53 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A275" s="54">
+    <row r="275" spans="1:9" s="52" customFormat="1" ht="16.5">
+      <c r="A275" s="53">
         <v>274</v>
       </c>
-      <c r="B275" s="52" t="s">
+      <c r="B275" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="52" t="s">
+      <c r="C275" s="51" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="51" t="s">
+      <c r="D275" s="50" t="s">
         <v>813</v>
       </c>
-      <c r="E275" s="53">
-        <v>1</v>
-      </c>
-      <c r="F275" s="53">
-        <v>1</v>
-      </c>
-      <c r="G275" s="53">
-        <v>1</v>
-      </c>
-      <c r="I275" s="52" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A276" s="54">
+      <c r="E275" s="52">
+        <v>1</v>
+      </c>
+      <c r="F275" s="52">
+        <v>1</v>
+      </c>
+      <c r="G275" s="52">
+        <v>1</v>
+      </c>
+      <c r="I275" s="51" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="52" customFormat="1" ht="16.5">
+      <c r="A276" s="53">
         <v>275</v>
       </c>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="52" t="s">
+      <c r="C276" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="E276" s="53">
-        <v>1</v>
-      </c>
-      <c r="F276" s="53">
-        <v>1</v>
-      </c>
-      <c r="G276" s="53">
-        <v>1</v>
-      </c>
-      <c r="I276" s="52" t="s">
-        <v>1020</v>
+      <c r="E276" s="52">
+        <v>1</v>
+      </c>
+      <c r="F276" s="52">
+        <v>1</v>
+      </c>
+      <c r="G276" s="52">
+        <v>1</v>
+      </c>
+      <c r="I276" s="51" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13021,29 +13024,29 @@
         <v>912</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A306" s="54">
+    <row r="306" spans="1:9" s="52" customFormat="1" ht="16.5">
+      <c r="A306" s="53">
         <v>305</v>
       </c>
-      <c r="B306" s="51" t="s">
+      <c r="B306" s="50" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="C306" s="51" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D306" s="50" t="s">
         <v>911</v>
       </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
+      <c r="E306" s="52">
+        <v>1</v>
+      </c>
+      <c r="F306" s="52">
+        <v>1</v>
+      </c>
+      <c r="G306" s="52">
+        <v>1</v>
+      </c>
+      <c r="I306" s="51" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13381,30 +13384,30 @@
         <v>974</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="53" customFormat="1" ht="16.5">
+    <row r="321" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="51" t="s">
+      <c r="B321" s="50" t="s">
         <v>979</v>
       </c>
-      <c r="C321" s="52" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D321" s="51" t="s">
+      <c r="C321" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D321" s="50" t="s">
         <v>980</v>
       </c>
-      <c r="E321" s="53">
-        <v>1</v>
-      </c>
-      <c r="F321" s="53">
-        <v>1</v>
-      </c>
-      <c r="G321" s="53">
-        <v>1</v>
-      </c>
-      <c r="I321" s="52" t="s">
-        <v>1020</v>
+      <c r="E321" s="52">
+        <v>1</v>
+      </c>
+      <c r="F321" s="52">
+        <v>1</v>
+      </c>
+      <c r="G321" s="52">
+        <v>1</v>
+      </c>
+      <c r="I321" s="51" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13456,23 +13459,23 @@
         <v>952</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="324" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="50" t="s">
+      <c r="B324" s="56" t="s">
         <v>984</v>
       </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
+      <c r="E324" s="52">
+        <v>1</v>
+      </c>
+      <c r="F324" s="52">
+        <v>1</v>
+      </c>
+      <c r="G324" s="52">
+        <v>1</v>
+      </c>
+      <c r="I324" s="55" t="s">
         <v>985</v>
       </c>
     </row>
@@ -13499,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I325" s="15" t="s">
         <v>986</v>
@@ -13764,66 +13767,66 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="337" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A337" s="16">
         <v>336</v>
       </c>
-      <c r="B337" s="18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E337" s="17">
-        <v>0</v>
-      </c>
-      <c r="F337" s="17">
-        <v>1</v>
-      </c>
-      <c r="G337" s="17">
-        <v>1</v>
-      </c>
-      <c r="I337" s="15" t="s">
-        <v>1011</v>
+      <c r="B337" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C337" s="51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E337" s="52">
+        <v>1</v>
+      </c>
+      <c r="F337" s="52">
+        <v>1</v>
+      </c>
+      <c r="G337" s="52">
+        <v>1</v>
+      </c>
+      <c r="I337" s="51" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A338" s="16">
         <v>337</v>
       </c>
-      <c r="B338" s="51" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C338" s="52" t="s">
+      <c r="B338" s="50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C338" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D338" s="52"/>
+      <c r="E338" s="52">
+        <v>1</v>
+      </c>
+      <c r="F338" s="52">
+        <v>1</v>
+      </c>
+      <c r="G338" s="52">
+        <v>1</v>
+      </c>
+      <c r="H338" s="52"/>
+      <c r="I338" s="51" t="s">
         <v>1018</v>
-      </c>
-      <c r="D338" s="53"/>
-      <c r="E338" s="53">
-        <v>1</v>
-      </c>
-      <c r="F338" s="53">
-        <v>1</v>
-      </c>
-      <c r="G338" s="53">
-        <v>1</v>
-      </c>
-      <c r="H338" s="53"/>
-      <c r="I338" s="52" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
       <c r="A339" s="16">
         <v>338</v>
       </c>
-      <c r="B339" s="55" t="s">
+      <c r="B339" s="54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D339" t="s">
         <v>1021</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1023</v>
       </c>
       <c r="E339" s="17">
         <v>1</v>
@@ -13843,13 +13846,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D340" t="s">
         <v>1024</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1026</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -13864,27 +13867,27 @@
         <v>863</v>
       </c>
     </row>
-    <row r="341" spans="1:9" s="53" customFormat="1" ht="16.5">
+    <row r="341" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A341" s="16">
         <v>340</v>
       </c>
-      <c r="B341" s="51" t="s">
+      <c r="B341" s="50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C341" s="51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E341" s="52">
+        <v>1</v>
+      </c>
+      <c r="F341" s="52">
+        <v>1</v>
+      </c>
+      <c r="G341" s="52">
+        <v>1</v>
+      </c>
+      <c r="I341" s="51" t="s">
         <v>1030</v>
-      </c>
-      <c r="C341" s="52" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E341" s="53">
-        <v>1</v>
-      </c>
-      <c r="F341" s="53">
-        <v>1</v>
-      </c>
-      <c r="G341" s="53">
-        <v>1</v>
-      </c>
-      <c r="I341" s="52" t="s">
-        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1029">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3924,38 +3924,6 @@
   </si>
   <si>
     <t>Act_Ty_QJD1Manager</t>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5098,13 +5066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ341"/>
+  <dimension ref="A1:AJ339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E339" sqref="E339"/>
+      <selection pane="bottomRight" activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5128,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7094,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8212,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11509,13 +11477,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11588,13 +11556,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12101,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="51" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="52" customFormat="1" ht="16.5">
@@ -12124,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="51" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12814,13 +12782,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C299" s="39" t="s">
         <v>914</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12868,13 +12836,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C300" s="39" t="s">
         <v>913</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12895,13 +12863,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C301" s="38" t="s">
         <v>893</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12952,7 +12920,7 @@
         <v>900</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>898</v>
@@ -13182,10 +13150,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="E312" s="17">
         <v>0</v>
@@ -13197,7 +13165,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13205,10 +13173,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
       <c r="E313" s="17">
         <v>0</v>
@@ -13220,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13228,9 +13196,9 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="C314" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="C314" s="17" t="s">
         <v>962</v>
       </c>
       <c r="E314" s="17">
@@ -13243,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13251,7 +13219,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="C315" s="15" t="s">
         <v>964</v>
@@ -13266,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="15" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13274,10 +13242,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="C316" s="17" t="s">
-        <v>967</v>
+        <v>965</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>940</v>
       </c>
       <c r="E316" s="17">
         <v>0</v>
@@ -13289,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13297,10 +13265,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E317" s="17">
         <v>0</v>
@@ -13312,21 +13280,21 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="18" t="s">
-        <v>970</v>
+      <c r="B318" s="48" t="s">
+        <v>956</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="E318" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="17">
         <v>1</v>
@@ -13334,45 +13302,51 @@
       <c r="G318" s="17">
         <v>1</v>
       </c>
-      <c r="I318" s="15" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="I318" s="19" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="C319" s="15" t="s">
-        <v>972</v>
-      </c>
-      <c r="E319" s="17">
-        <v>0</v>
-      </c>
-      <c r="F319" s="17">
-        <v>1</v>
-      </c>
-      <c r="G319" s="17">
-        <v>1</v>
-      </c>
-      <c r="I319" s="15" t="s">
-        <v>965</v>
+      <c r="B319" s="50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C319" s="51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D319" s="50" t="s">
+        <v>975</v>
+      </c>
+      <c r="E319" s="52">
+        <v>1</v>
+      </c>
+      <c r="F319" s="52">
+        <v>1</v>
+      </c>
+      <c r="G319" s="52">
+        <v>1</v>
+      </c>
+      <c r="I319" s="51" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="48" t="s">
-        <v>961</v>
+      <c r="B320" s="18" t="s">
+        <v>948</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>973</v>
+        <v>976</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>949</v>
       </c>
       <c r="E320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="17">
         <v>1</v>
@@ -13380,60 +13354,51 @@
       <c r="G320" s="17">
         <v>1</v>
       </c>
-      <c r="I320" s="19" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="52" customFormat="1" ht="16.5">
+      <c r="I320" s="15" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="50" t="s">
-        <v>979</v>
-      </c>
-      <c r="C321" s="51" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D321" s="50" t="s">
-        <v>980</v>
-      </c>
-      <c r="E321" s="52">
-        <v>1</v>
-      </c>
-      <c r="F321" s="52">
-        <v>1</v>
-      </c>
-      <c r="G321" s="52">
-        <v>1</v>
-      </c>
-      <c r="I321" s="51" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B321" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C321" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="E321" s="17">
+        <v>0</v>
+      </c>
+      <c r="F321" s="17">
+        <v>1</v>
+      </c>
+      <c r="G321" s="17">
+        <v>1</v>
+      </c>
+      <c r="I321" s="15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="C322" s="15" t="s">
-        <v>981</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="E322" s="17">
-        <v>0</v>
-      </c>
-      <c r="F322" s="17">
-        <v>1</v>
-      </c>
-      <c r="G322" s="17">
-        <v>1</v>
-      </c>
-      <c r="I322" s="15" t="s">
-        <v>982</v>
+      <c r="B322" s="56" t="s">
+        <v>979</v>
+      </c>
+      <c r="E322" s="52">
+        <v>1</v>
+      </c>
+      <c r="F322" s="52">
+        <v>1</v>
+      </c>
+      <c r="G322" s="52">
+        <v>1</v>
+      </c>
+      <c r="I322" s="55" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13441,13 +13406,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>955</v>
-      </c>
-      <c r="C323" s="15" t="s">
-        <v>983</v>
+        <v>951</v>
+      </c>
+      <c r="C323" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>953</v>
       </c>
       <c r="E323" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" s="17">
         <v>1</v>
@@ -13455,28 +13423,34 @@
       <c r="G323" s="17">
         <v>1</v>
       </c>
+      <c r="H323" s="17" t="s">
+        <v>1009</v>
+      </c>
       <c r="I323" s="15" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="52" customFormat="1" ht="16.5">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="56" t="s">
+      <c r="B324" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="E324" s="17">
+        <v>0</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="15" t="s">
         <v>984</v>
-      </c>
-      <c r="E324" s="52">
-        <v>1</v>
-      </c>
-      <c r="F324" s="52">
-        <v>1</v>
-      </c>
-      <c r="G324" s="52">
-        <v>1</v>
-      </c>
-      <c r="I324" s="55" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13484,25 +13458,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>956</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>957</v>
-      </c>
-      <c r="D325" s="18" t="s">
-        <v>958</v>
+        <v>954</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>985</v>
       </c>
       <c r="E325" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F325" s="17">
         <v>1</v>
       </c>
       <c r="G325" s="17">
         <v>1</v>
-      </c>
-      <c r="H325" s="17" t="s">
-        <v>1014</v>
       </c>
       <c r="I325" s="15" t="s">
         <v>986</v>
@@ -13536,10 +13504,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>959</v>
+        <v>990</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>990</v>
+        <v>991</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>992</v>
       </c>
       <c r="E327" s="17">
         <v>0</v>
@@ -13551,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13559,11 +13530,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C328" s="19" t="s">
         <v>993</v>
       </c>
+      <c r="D328" s="18" t="s">
+        <v>972</v>
+      </c>
       <c r="E328" s="17">
         <v>0</v>
       </c>
@@ -13574,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13582,13 +13556,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="C329" s="19" t="s">
-        <v>996</v>
-      </c>
-      <c r="D329" s="18" t="s">
-        <v>997</v>
+        <v>994</v>
+      </c>
+      <c r="C329" s="15" t="s">
+        <v>999</v>
       </c>
       <c r="E329" s="17">
         <v>0</v>
@@ -13600,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13608,13 +13579,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>976</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>998</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>977</v>
+        <v>995</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>1001</v>
       </c>
       <c r="E330" s="17">
         <v>0</v>
@@ -13626,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13634,10 +13602,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="E331" s="17">
         <v>0</v>
@@ -13649,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="15" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13657,10 +13625,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E332" s="17">
         <v>0</v>
@@ -13672,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13680,10 +13648,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E333" s="17">
         <v>0</v>
@@ -13695,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13703,10 +13671,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="E334" s="17">
         <v>0</v>
@@ -13718,176 +13686,130 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A335" s="16">
         <v>334</v>
       </c>
-      <c r="B335" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C335" s="15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E335" s="17">
-        <v>0</v>
-      </c>
-      <c r="F335" s="17">
-        <v>1</v>
-      </c>
-      <c r="G335" s="17">
-        <v>1</v>
-      </c>
-      <c r="I335" s="15" t="s">
-        <v>1011</v>
+      <c r="B335" s="50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C335" s="51" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E335" s="52">
+        <v>1</v>
+      </c>
+      <c r="F335" s="52">
+        <v>1</v>
+      </c>
+      <c r="G335" s="52">
+        <v>1</v>
+      </c>
+      <c r="I335" s="51" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A336" s="16">
         <v>335</v>
       </c>
-      <c r="B336" s="18" t="s">
+      <c r="B336" s="50" t="s">
         <v>1012</v>
       </c>
-      <c r="C336" s="15" t="s">
+      <c r="C336" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D336" s="52"/>
+      <c r="E336" s="52">
+        <v>1</v>
+      </c>
+      <c r="F336" s="52">
+        <v>1</v>
+      </c>
+      <c r="G336" s="52">
+        <v>1</v>
+      </c>
+      <c r="H336" s="52"/>
+      <c r="I336" s="51" t="s">
         <v>1013</v>
       </c>
-      <c r="E336" s="17">
-        <v>0</v>
-      </c>
-      <c r="F336" s="17">
-        <v>1</v>
-      </c>
-      <c r="G336" s="17">
-        <v>1</v>
-      </c>
-      <c r="I336" s="15" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="52" customFormat="1" ht="16.5">
+    </row>
+    <row r="337" spans="1:9" ht="16.5">
       <c r="A337" s="16">
         <v>336</v>
       </c>
-      <c r="B337" s="50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C337" s="51" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E337" s="52">
-        <v>1</v>
-      </c>
-      <c r="F337" s="52">
-        <v>1</v>
-      </c>
-      <c r="G337" s="52">
-        <v>1</v>
-      </c>
-      <c r="I337" s="51" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B337" s="54" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E337" s="17">
+        <v>1</v>
+      </c>
+      <c r="F337" s="17">
+        <v>1</v>
+      </c>
+      <c r="G337" s="17">
+        <v>1</v>
+      </c>
+      <c r="I337" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="16.5">
       <c r="A338" s="16">
         <v>337</v>
       </c>
-      <c r="B338" s="50" t="s">
+      <c r="B338" t="s">
         <v>1017</v>
       </c>
-      <c r="C338" s="51" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D338" s="52"/>
-      <c r="E338" s="52">
-        <v>1</v>
-      </c>
-      <c r="F338" s="52">
-        <v>1</v>
-      </c>
-      <c r="G338" s="52">
-        <v>1</v>
-      </c>
-      <c r="H338" s="52"/>
-      <c r="I338" s="51" t="s">
+      <c r="C338" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" ht="16.5">
+      <c r="D338" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="52" customFormat="1" ht="16.5">
       <c r="A339" s="16">
         <v>338</v>
       </c>
-      <c r="B339" s="54" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E339" s="17">
-        <v>1</v>
-      </c>
-      <c r="F339" s="17">
-        <v>1</v>
-      </c>
-      <c r="G339" s="17">
-        <v>1</v>
-      </c>
-      <c r="I339" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="16.5">
-      <c r="A340" s="16">
-        <v>339</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C340" t="s">
+      <c r="B339" s="50" t="s">
         <v>1023</v>
       </c>
-      <c r="D340" t="s">
+      <c r="C339" s="51" t="s">
         <v>1024</v>
       </c>
-      <c r="E340">
-        <v>1</v>
-      </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-      <c r="I340" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="52" customFormat="1" ht="16.5">
-      <c r="A341" s="16">
-        <v>340</v>
-      </c>
-      <c r="B341" s="50" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C341" s="51" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E341" s="52">
-        <v>1</v>
-      </c>
-      <c r="F341" s="52">
-        <v>1</v>
-      </c>
-      <c r="G341" s="52">
-        <v>1</v>
-      </c>
-      <c r="I341" s="51" t="s">
-        <v>1030</v>
+      <c r="E339" s="52">
+        <v>1</v>
+      </c>
+      <c r="F339" s="52">
+        <v>1</v>
+      </c>
+      <c r="G339" s="52">
+        <v>1</v>
+      </c>
+      <c r="I339" s="51" t="s">
+        <v>1025</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -4165,26 +4165,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_007_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_009_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sgxxl_tower_climbing</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4194,22 @@
   </si>
   <si>
     <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_008_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_012_hedeng</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_010_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4878,10 +4878,10 @@
   <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12959,7 +12959,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>981</v>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,7 +12982,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C313" s="50" t="s">
         <v>982</v>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,7 +13005,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C314" s="50" t="s">
         <v>983</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13051,7 +13051,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C316" s="50" t="s">
         <v>986</v>
@@ -13306,25 +13306,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C326" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,22 +13332,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4881,7 +4881,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13315,7 +13315,7 @@
         <v>992</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4878,10 +4878,10 @@
   <dimension ref="A1:AJ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E326" sqref="E326"/>
+      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13341,7 +13341,7 @@
         <v>996</v>
       </c>
       <c r="E327" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="30">
         <v>1</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4118,9 +4118,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
     <t>通用礼包皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4204,11 +4201,72 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_010_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_011_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_052_qfhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_052_QFHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月12日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/ act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4875,13 +4933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ327"/>
+  <dimension ref="A1:AJ330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E325" sqref="E325"/>
+      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11901,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12832,7 +12890,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12962,7 +13020,7 @@
         <v>999</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12974,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,10 +13040,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12997,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,10 +13063,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13020,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13028,10 +13086,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>983</v>
+      </c>
+      <c r="C315" s="50" t="s">
         <v>984</v>
-      </c>
-      <c r="C315" s="50" t="s">
-        <v>985</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13054,7 +13112,7 @@
         <v>1000</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13074,10 +13132,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>986</v>
+      </c>
+      <c r="C317" s="50" t="s">
         <v>987</v>
-      </c>
-      <c r="C317" s="50" t="s">
-        <v>988</v>
       </c>
       <c r="D317" s="49" t="s">
         <v>975</v>
@@ -13100,10 +13158,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>998</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>977</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>978</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13306,25 +13364,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="C326" t="s">
         <v>990</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="D326" s="18" t="s">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>992</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,16 +13390,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="C327" s="36" t="s">
         <v>994</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="D327" s="35" t="s">
         <v>995</v>
       </c>
-      <c r="D327" s="35" t="s">
-        <v>996</v>
-      </c>
       <c r="E327" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="30">
         <v>1</v>
@@ -13351,6 +13409,81 @@
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3995,9 +3995,6 @@
     <t>act_048_xnsmt</t>
   </si>
   <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
     <t>Act_048_XNSMTManager</t>
   </si>
   <si>
@@ -4130,6 +4127,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4185,19 +4190,7 @@
     <t>BY3DPHBManager</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_011_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_012</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4246,27 +4239,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_001_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_013_long</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（福袋）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（福袋）</t>
+    <t>act_053_xcns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_053_XCNSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月19日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_012_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_014_caiqiu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4274,7 +4291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4381,6 +4398,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4481,7 +4505,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4654,6 +4678,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4933,13 +4960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ330"/>
+  <dimension ref="A1:AJ331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4963,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8047,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11423,13 +11450,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>972</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>973</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11936,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -11959,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12890,7 +12917,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -13017,10 +13044,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -13032,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13040,10 +13067,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13055,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13063,10 +13090,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13078,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13086,10 +13113,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13101,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13109,10 +13136,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13132,25 +13159,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D317" s="49" t="s">
+        <v>974</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>975</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13161,7 +13188,7 @@
         <v>995</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13174,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13185,7 +13212,7 @@
         <v>943</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D319" s="18" t="s">
         <v>944</v>
@@ -13200,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13211,7 +13238,7 @@
         <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
@@ -13233,12 +13260,12 @@
       <c r="B321" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="58" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>948</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13249,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13260,14 +13287,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="D322" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>960</v>
-      </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
@@ -13278,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13286,25 +13313,25 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="D323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>951</v>
-      </c>
-      <c r="E323" s="17">
-        <v>0</v>
-      </c>
-      <c r="F323" s="17">
-        <v>0</v>
-      </c>
-      <c r="G323" s="17">
-        <v>0</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13312,13 +13339,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="D324" t="s">
         <v>966</v>
-      </c>
-      <c r="D324" t="s">
-        <v>967</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13338,13 +13365,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>967</v>
+      </c>
+      <c r="C325" t="s">
         <v>968</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>969</v>
-      </c>
-      <c r="D325" t="s">
-        <v>970</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13364,13 +13391,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C326" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13382,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13390,13 +13417,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C327" s="36" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13416,25 +13443,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
         <v>999</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="D328" s="9" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="9" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13442,25 +13469,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D329" t="s">
         <v>1002</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1003</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E329" s="17">
-        <v>1</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13468,22 +13495,48 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
+      <c r="A331" s="16">
+        <v>330</v>
+      </c>
+      <c r="B331" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C331" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1008</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E330" s="17">
-        <v>1</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4283,7 +4283,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4963,10 +4963,10 @@
   <dimension ref="A1:AJ331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1020">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3357,10 +3357,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_027_mfflq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4283,7 +4279,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl_style/act_027_style_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4960,13 +4976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ331"/>
+  <dimension ref="A1:AJ332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
+      <selection pane="bottomRight" activeCell="G336" sqref="G336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4990,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -6956,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8074,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -10791,7 +10807,7 @@
         <v>629</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>630</v>
@@ -10906,7 +10922,7 @@
         <v>662</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>663</v>
@@ -11371,13 +11387,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11450,13 +11466,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>971</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>972</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11469,7 +11485,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11792,22 +11808,22 @@
         <v>791</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>792</v>
+        <v>1016</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E269" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="17">
-        <v>0</v>
-      </c>
-      <c r="I269" s="19" t="s">
-        <v>731</v>
+        <v>1</v>
+      </c>
+      <c r="I269" s="15" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11815,13 +11831,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>794</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>795</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11841,25 +11857,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>799</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11867,14 +11883,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>803</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -11885,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11893,13 +11909,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11919,25 +11935,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>809</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11945,14 +11961,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>813</v>
-      </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
@@ -11963,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -11971,11 +11987,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="50" t="s">
+        <v>813</v>
+      </c>
+      <c r="C276" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="50" t="s">
-        <v>815</v>
-      </c>
       <c r="E276" s="51">
         <v>1</v>
       </c>
@@ -11986,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11994,25 +12010,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12020,13 +12036,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12038,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12046,22 +12062,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12069,13 +12085,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12087,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12095,13 +12111,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12113,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12121,25 +12137,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12147,25 +12163,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12173,13 +12189,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>845</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>846</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12199,25 +12215,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>842</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12225,13 +12241,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>848</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>849</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12251,13 +12267,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>850</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>851</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12277,13 +12293,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="50" t="s">
+        <v>852</v>
+      </c>
+      <c r="C288" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="50" t="s">
+      <c r="D288" s="50" t="s">
         <v>854</v>
-      </c>
-      <c r="D288" s="50" t="s">
-        <v>855</v>
       </c>
       <c r="E288" s="51">
         <v>1</v>
@@ -12303,25 +12319,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>858</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12329,25 +12345,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>862</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12355,14 +12371,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>866</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12373,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12381,13 +12397,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>869</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>870</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12407,13 +12423,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>872</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>873</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12433,13 +12449,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>874</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>875</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12460,13 +12476,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12479,7 +12495,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12514,13 +12530,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>883</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>884</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12533,7 +12549,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12568,13 +12584,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>887</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>888</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12587,7 +12603,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12622,13 +12638,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="D298" s="35" t="s">
         <v>889</v>
-      </c>
-      <c r="C298" s="36" t="s">
-        <v>892</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>890</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12641,7 +12657,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12676,13 +12692,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12695,7 +12711,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12730,13 +12746,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12749,7 +12765,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12757,13 +12773,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="D301" s="38" t="s">
         <v>934</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>935</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12784,13 +12800,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>895</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>896</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12803,7 +12819,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12811,13 +12827,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12830,7 +12846,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12838,13 +12854,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="C304" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="D304" s="35" t="s">
         <v>904</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>905</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12857,7 +12873,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12865,14 +12881,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>908</v>
-      </c>
       <c r="E305" s="17">
         <v>0</v>
       </c>
@@ -12883,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12891,25 +12907,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="E306" s="17">
+        <v>0</v>
+      </c>
+      <c r="F306" s="17">
+        <v>0</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>911</v>
-      </c>
-      <c r="E306" s="17">
-        <v>0</v>
-      </c>
-      <c r="F306" s="17">
-        <v>0</v>
-      </c>
-      <c r="G306" s="17">
-        <v>0</v>
-      </c>
-      <c r="I306" s="15" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12917,13 +12933,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C307" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D307" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12940,25 +12956,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>0</v>
+      </c>
+      <c r="F308" s="17">
+        <v>0</v>
+      </c>
+      <c r="G308" s="17">
+        <v>0</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>919</v>
-      </c>
-      <c r="E308" s="17">
-        <v>0</v>
-      </c>
-      <c r="F308" s="17">
-        <v>0</v>
-      </c>
-      <c r="G308" s="17">
-        <v>0</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -12966,13 +12982,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>920</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>922</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>923</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12992,25 +13008,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>0</v>
+      </c>
+      <c r="G310" s="17">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>926</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>0</v>
-      </c>
-      <c r="G310" s="17">
-        <v>0</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13018,25 +13034,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>0</v>
+      </c>
+      <c r="G311" s="17">
+        <v>0</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>930</v>
-      </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>0</v>
-      </c>
-      <c r="G311" s="17">
-        <v>0</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13044,10 +13060,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -13059,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13067,10 +13083,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13082,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13090,10 +13106,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13105,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13113,11 +13129,11 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="C315" s="50" t="s">
         <v>982</v>
       </c>
-      <c r="C315" s="50" t="s">
-        <v>983</v>
-      </c>
       <c r="E315" s="51">
         <v>1</v>
       </c>
@@ -13128,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13136,10 +13152,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13159,25 +13175,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="C317" s="50" t="s">
         <v>985</v>
       </c>
-      <c r="C317" s="50" t="s">
-        <v>986</v>
-      </c>
       <c r="D317" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>974</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13185,10 +13201,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13201,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13209,25 +13225,25 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C319" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="D319" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="C319" s="15" t="s">
+      <c r="E319" s="17">
+        <v>0</v>
+      </c>
+      <c r="F319" s="17">
+        <v>0</v>
+      </c>
+      <c r="G319" s="17">
+        <v>0</v>
+      </c>
+      <c r="I319" s="15" t="s">
         <v>952</v>
-      </c>
-      <c r="D319" s="18" t="s">
-        <v>944</v>
-      </c>
-      <c r="E319" s="17">
-        <v>0</v>
-      </c>
-      <c r="F319" s="17">
-        <v>0</v>
-      </c>
-      <c r="G319" s="17">
-        <v>0</v>
-      </c>
-      <c r="I319" s="15" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13235,10 +13251,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
@@ -13250,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13258,14 +13274,14 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C321" s="58" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D321" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="C321" s="58" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D321" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13276,10 +13292,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13287,14 +13303,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="D322" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>959</v>
-      </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
@@ -13305,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13313,25 +13329,25 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>960</v>
-      </c>
-      <c r="D323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>950</v>
-      </c>
-      <c r="E323" s="17">
-        <v>0</v>
-      </c>
-      <c r="F323" s="17">
-        <v>0</v>
-      </c>
-      <c r="G323" s="17">
-        <v>0</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13339,13 +13355,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="D324" t="s">
         <v>965</v>
-      </c>
-      <c r="D324" t="s">
-        <v>966</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13365,14 +13381,14 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>966</v>
+      </c>
+      <c r="C325" t="s">
         <v>967</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>968</v>
       </c>
-      <c r="D325" t="s">
-        <v>969</v>
-      </c>
       <c r="E325">
         <v>1</v>
       </c>
@@ -13383,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -13391,25 +13407,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C326" t="s">
         <v>988</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="D326" s="18" t="s">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>990</v>
-      </c>
-      <c r="E326">
-        <v>1</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13417,13 +13433,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="C327" s="36" t="s">
         <v>992</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="D327" s="35" t="s">
         <v>993</v>
-      </c>
-      <c r="D327" s="35" t="s">
-        <v>994</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13443,25 +13459,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="D328" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="C328" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="D328" s="9" t="s">
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
         <v>998</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="9" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13469,25 +13485,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
+        <v>999</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" t="s">
         <v>1001</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1002</v>
-      </c>
-      <c r="E329" s="17">
-        <v>1</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13495,10 +13511,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E330" s="17">
         <v>1</v>
@@ -13510,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -13518,25 +13534,48 @@
         <v>330</v>
       </c>
       <c r="B331" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C331" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="D331" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="D331" s="9" t="s">
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="E331" s="17">
-        <v>1</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1008</v>
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
+      <c r="B332" s="53" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C332" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -4130,14 +4130,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>掉落排行榜皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4194,10 +4186,6 @@
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_012_hedeng</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4267,6 +4255,18 @@
   </si>
   <si>
     <t>act_ty_gifts_style/act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_013_long</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（福袋）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（福袋）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4936,10 +4936,10 @@
   <dimension ref="A1:AJ330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D321" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D335" sqref="D335"/>
+      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13017,10 +13017,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>980</v>
+        <v>1010</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -13032,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13040,10 +13040,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>981</v>
+        <v>1011</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13063,10 +13063,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13086,10 +13086,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13109,10 +13109,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13132,10 +13132,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D317" s="49" t="s">
         <v>975</v>
@@ -13158,7 +13158,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>977</v>
@@ -13364,25 +13364,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C326" t="s">
+        <v>988</v>
+      </c>
+      <c r="D326" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="C326" t="s">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>990</v>
-      </c>
-      <c r="D326" s="18" t="s">
-        <v>991</v>
-      </c>
-      <c r="E326">
-        <v>1</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13390,13 +13390,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>992</v>
+      </c>
+      <c r="D327" s="35" t="s">
         <v>993</v>
-      </c>
-      <c r="C327" s="36" t="s">
-        <v>994</v>
-      </c>
-      <c r="D327" s="35" t="s">
-        <v>995</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13416,25 +13416,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C328" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
         <v>1001</v>
-      </c>
-      <c r="D328" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="9" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -13442,25 +13442,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1005</v>
-      </c>
-      <c r="C329" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E329" s="17">
-        <v>1</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -13468,10 +13468,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E330" s="17">
         <v>1</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4258,15 +4258,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/ act_001_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>龙腾礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_001_ltlb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4936,10 +4936,10 @@
   <dimension ref="A1:AJ330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
+      <selection pane="bottomRight" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13468,22 +13468,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C330" s="19" t="s">
         <v>1009</v>
       </c>
-      <c r="C330" s="19" t="s">
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>1010</v>
-      </c>
-      <c r="E330" s="17">
-        <v>1</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4279,10 +4279,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>充值消耗模板，永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4300,6 +4296,10 @@
   </si>
   <si>
     <t>充值消耗模板皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4982,7 +4982,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G336" sqref="G336"/>
+      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11808,7 +11808,7 @@
         <v>791</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D269" s="18" t="s">
         <v>795</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13511,7 +13511,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C330" s="15" t="s">
         <v>1008</v>
@@ -13560,22 +13560,22 @@
         <v>331</v>
       </c>
       <c r="B332" s="53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C332" s="15" t="s">
         <v>1017</v>
       </c>
-      <c r="C332" s="15" t="s">
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
         <v>1018</v>
-      </c>
-      <c r="E332" s="17">
-        <v>1</v>
-      </c>
-      <c r="F332" s="17">
-        <v>1</v>
-      </c>
-      <c r="G332" s="17">
-        <v>1</v>
-      </c>
-      <c r="I332" s="15" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4300,6 +4300,22 @@
   </si>
   <si>
     <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡用户转入捕鱼奥秘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡用户转入捕鱼奥秘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4976,13 +4992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ332"/>
+  <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomRight" activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13578,6 +13594,32 @@
         <v>1018</v>
       </c>
     </row>
+    <row r="333" spans="1:9" ht="16.5">
+      <c r="A333" s="16">
+        <v>332</v>
+      </c>
+      <c r="B333" s="53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E333" s="17">
+        <v>1</v>
+      </c>
+      <c r="F333" s="17">
+        <v>1</v>
+      </c>
+      <c r="G333" s="17">
+        <v>1</v>
+      </c>
+      <c r="I333" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$335</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -489,7 +484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +494,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -522,7 +515,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -532,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -541,7 +533,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -551,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -570,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -629,7 +619,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +677,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -785,7 +771,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -803,7 +788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -821,7 +805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -884,7 +867,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -902,7 +884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1172,7 +1153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1163,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1173,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1269,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1301,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1310,7 +1287,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1337,7 +1313,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1355,7 +1330,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1373,7 +1347,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1391,7 +1364,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1401,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1410,7 +1382,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1431,7 +1402,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1441,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1450,7 +1420,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1468,7 +1437,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1478,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1487,7 +1455,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1497,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1514,7 +1481,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1524,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1533,7 +1499,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1551,7 +1516,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1561,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1570,7 +1534,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1588,7 +1551,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1598,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1607,7 +1569,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1625,7 +1586,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1643,7 +1603,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1661,7 +1620,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1679,7 +1637,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1697,7 +1654,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1707,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1716,7 +1672,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1734,7 +1689,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,7 +1707,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1771,7 +1724,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1781,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1790,7 +1742,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1808,7 +1759,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1818,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1827,7 +1777,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1845,7 +1794,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1855,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1864,7 +1812,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1882,7 +1829,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1892,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1901,7 +1847,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1919,7 +1864,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1929,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1938,7 +1882,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1965,7 +1908,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1983,7 +1925,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -2001,7 +1942,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -2019,7 +1959,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2037,7 +1976,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2064,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2073,7 +2011,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2091,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2100,7 +2037,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2127,7 +2063,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2154,7 +2089,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2172,7 +2106,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2865,7 +2798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,7 +2808,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3202,16 +3133,16 @@
     <t>BYTaskManager</t>
   </si>
   <si>
-    <t>act_029_hlqjd</t>
+    <t>act_ty_hlqjd</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
   </si>
   <si>
-    <t>Act_029_HLQJDManager</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
+    <t>Act_ty_HLQJDManager</t>
+  </si>
+  <si>
+    <t>5月17日23:59:59</t>
   </si>
   <si>
     <t>act_030_hd_zjm</t>
@@ -3522,7 +3453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3564,7 +3493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3575,7 +3503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3597,7 +3524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3534,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3658,6 +3583,9 @@
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>3月15日23:59:59</t>
+  </si>
+  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
@@ -3705,7 +3633,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,7 +3643,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3783,7 +3709,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3794,7 +3719,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3811,7 +3735,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3839,6 +3766,33 @@
   </si>
   <si>
     <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
+  </si>
+  <si>
+    <t>act_054_byns</t>
+  </si>
+  <si>
+    <t>捕鱼能手</t>
+  </si>
+  <si>
+    <t>Act_054_BYNSManager</t>
+  </si>
+  <si>
+    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3848,36 +3802,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActCJJBYBYAMManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡引导到捕鱼奥秘</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_cjj_by_byam_guide</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3888,7 +3824,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3896,47 +3831,36 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3948,42 +3872,184 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3992,13 +4058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4022,13 +4088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,18 +4106,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4074,15 +4314,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4119,13 +4601,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4137,19 +4619,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4164,119 +4643,151 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4534,19 +5045,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D314" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4562,7 +5074,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4613,11 +5125,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4639,11 +5151,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4665,11 +5177,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4691,11 +5203,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4717,11 +5229,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4743,11 +5255,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4769,11 +5281,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4795,11 +5307,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4821,11 +5333,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4847,11 +5359,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4873,11 +5385,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4899,11 +5411,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4925,11 +5437,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4951,11 +5463,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4977,11 +5489,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5003,11 +5515,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5029,11 +5541,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5055,11 +5567,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5081,11 +5593,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5107,11 +5619,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5133,11 +5645,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5159,11 +5671,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5185,11 +5697,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5211,11 +5723,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5237,11 +5749,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5263,11 +5775,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5289,11 +5801,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5315,11 +5827,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5341,11 +5853,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5367,11 +5879,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5393,11 +5905,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5419,11 +5931,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5445,11 +5957,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5471,11 +5983,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5497,11 +6009,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5523,11 +6035,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5549,11 +6061,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5575,11 +6087,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5601,11 +6113,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5627,11 +6139,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5653,11 +6165,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5679,11 +6191,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5705,11 +6217,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5731,11 +6243,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5757,11 +6269,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5783,11 +6295,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5809,11 +6321,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5835,11 +6347,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5861,11 +6373,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5887,11 +6399,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5911,11 +6423,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5937,11 +6449,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5963,11 +6475,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5989,15 +6501,15 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6015,11 +6527,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6041,11 +6553,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6067,11 +6579,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6093,11 +6605,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6119,11 +6631,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6145,11 +6657,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6171,11 +6683,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6197,11 +6709,11 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6223,11 +6735,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6249,11 +6761,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6275,11 +6787,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6301,11 +6813,11 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6327,11 +6839,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6353,11 +6865,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="I69" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6379,11 +6891,11 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6405,11 +6917,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="I71" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6431,11 +6943,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="I72" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6457,24 +6969,24 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -6483,11 +6995,11 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6509,24 +7021,24 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="23">
         <v>0</v>
       </c>
       <c r="F76" s="3">
@@ -6535,11 +7047,11 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6561,11 +7073,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6587,11 +7099,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6613,11 +7125,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6639,11 +7151,11 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6665,11 +7177,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6691,11 +7203,11 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6717,11 +7229,11 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6743,11 +7255,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6769,11 +7281,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6795,11 +7307,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6821,11 +7333,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6847,11 +7359,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6873,11 +7385,11 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6899,11 +7411,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6925,11 +7437,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6951,11 +7463,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6977,11 +7489,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7003,11 +7515,11 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7029,11 +7541,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7055,11 +7567,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7081,11 +7593,11 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7107,11 +7619,11 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7133,11 +7645,11 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7159,11 +7671,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7185,11 +7697,11 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7211,11 +7723,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7237,11 +7749,11 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7263,11 +7775,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7289,11 +7801,11 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7315,11 +7827,11 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7341,11 +7853,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7367,11 +7879,11 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7393,11 +7905,11 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7419,11 +7931,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7445,11 +7957,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7471,11 +7983,11 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7497,11 +8009,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7523,11 +8035,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7549,11 +8061,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="I115" s="20" t="s">
+      <c r="I115" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7575,11 +8087,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7601,11 +8113,11 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7627,24 +8139,24 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="I118" s="20" t="s">
+      <c r="I118" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
-      <c r="A119" s="25">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A119" s="24">
         <v>118</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="24">
         <v>1</v>
       </c>
       <c r="F119" s="4">
@@ -7653,11 +8165,11 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="28" t="s">
+      <c r="I119" s="27" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7679,11 +8191,11 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7705,11 +8217,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7731,11 +8243,11 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7757,11 +8269,11 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I123" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7783,11 +8295,11 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7809,11 +8321,11 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7835,11 +8347,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7861,11 +8373,11 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I127" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7887,11 +8399,11 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I128" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7913,11 +8425,11 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7939,11 +8451,11 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7965,11 +8477,11 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -7991,11 +8503,11 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8017,11 +8529,11 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8043,11 +8555,11 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I134" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8069,11 +8581,11 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8095,11 +8607,11 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I136" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8121,11 +8633,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I137" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8147,11 +8659,11 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I138" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8173,11 +8685,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I139" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8199,11 +8711,11 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8225,11 +8737,11 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8251,11 +8763,11 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="I142" s="21" t="s">
+      <c r="I142" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8277,11 +8789,11 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="I143" s="21" t="s">
+      <c r="I143" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8303,18 +8815,18 @@
       <c r="G144">
         <v>1</v>
       </c>
-      <c r="I144" s="21" t="s">
+      <c r="I144" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="28" t="s">
         <v>446</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -8329,11 +8841,11 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="I145" s="21" t="s">
+      <c r="I145" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8355,11 +8867,11 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="I146" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8381,11 +8893,11 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8407,11 +8919,11 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8433,11 +8945,11 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I149" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8459,11 +8971,11 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8485,11 +8997,11 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I151" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8511,11 +9023,11 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I152" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8537,11 +9049,11 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="I153" s="20" t="s">
+      <c r="I153" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8563,11 +9075,11 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8589,11 +9101,11 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8615,11 +9127,11 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I156" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8641,11 +9153,11 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="21" t="s">
+      <c r="I157" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8667,11 +9179,11 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8693,11 +9205,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="I159" s="20" t="s">
+      <c r="I159" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8719,11 +9231,11 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="I160" s="20" t="s">
+      <c r="I160" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8745,11 +9257,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="I161" s="20" t="s">
+      <c r="I161" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8771,11 +9283,11 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="I162" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8797,11 +9309,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163" s="20" t="s">
+      <c r="I163" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8823,11 +9335,11 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="I164" s="21" t="s">
+      <c r="I164" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8849,11 +9361,11 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="I165" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8875,11 +9387,11 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="I166" s="21" t="s">
+      <c r="I166" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8901,11 +9413,11 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8927,11 +9439,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168" s="20" t="s">
+      <c r="I168" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8951,11 +9463,11 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="21" t="s">
+      <c r="I169" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8975,11 +9487,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="I170" s="21" t="s">
+      <c r="I170" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -8999,11 +9511,11 @@
       <c r="G171">
         <v>1</v>
       </c>
-      <c r="I171" s="21" t="s">
+      <c r="I171" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9023,11 +9535,11 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="I172" s="21" t="s">
+      <c r="I172" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9049,11 +9561,11 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9073,11 +9585,11 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9097,11 +9609,11 @@
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="I175" s="21" t="s">
+      <c r="I175" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9121,11 +9633,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I176" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9147,11 +9659,11 @@
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="I177" s="21" t="s">
+      <c r="I177" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9173,11 +9685,11 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="I178" s="21" t="s">
+      <c r="I178" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9197,22 +9709,22 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25">
+      <c r="D180" s="24"/>
+      <c r="E180" s="24">
         <v>0</v>
       </c>
       <c r="F180" s="4">
@@ -9221,22 +9733,22 @@
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="20" t="s">
+      <c r="I180" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25">
+      <c r="D181" s="24"/>
+      <c r="E181" s="24">
         <v>0</v>
       </c>
       <c r="F181" s="4">
@@ -9245,22 +9757,22 @@
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25">
+      <c r="D182" s="24"/>
+      <c r="E182" s="24">
         <v>0</v>
       </c>
       <c r="F182" s="4">
@@ -9269,11 +9781,11 @@
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I182" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9292,11 +9804,11 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="I183" s="20" t="s">
+      <c r="I183" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9315,11 +9827,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="I184" s="20" t="s">
+      <c r="I184" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9338,11 +9850,11 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="I185" s="20" t="s">
+      <c r="I185" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9361,11 +9873,11 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="I186" s="20" t="s">
+      <c r="I186" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9384,11 +9896,11 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="I187" s="20" t="s">
+      <c r="I187" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9407,11 +9919,11 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="I188" s="20" t="s">
+      <c r="I188" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9430,11 +9942,11 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="I189" s="20" t="s">
+      <c r="I189" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9453,11 +9965,11 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9476,11 +9988,11 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="I191" s="20" t="s">
+      <c r="I191" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9499,11 +10011,11 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="I192" s="20" t="s">
+      <c r="I192" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9522,11 +10034,11 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="I193" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9545,11 +10057,11 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="I194" s="20" t="s">
+      <c r="I194" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9568,11 +10080,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="I195" s="20" t="s">
+      <c r="I195" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9591,11 +10103,11 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="I196" s="20" t="s">
+      <c r="I196" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9614,11 +10126,11 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="I197" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9637,11 +10149,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="I198" s="20" t="s">
+      <c r="I198" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9660,11 +10172,11 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="I199" s="20" t="s">
+      <c r="I199" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9683,11 +10195,11 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="I200" s="20" t="s">
+      <c r="I200" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9706,11 +10218,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="I201" s="20" t="s">
+      <c r="I201" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9729,11 +10241,11 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="I202" s="20" t="s">
+      <c r="I202" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9752,11 +10264,11 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="I203" s="20" t="s">
+      <c r="I203" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9778,11 +10290,11 @@
       <c r="G204">
         <v>1</v>
       </c>
-      <c r="I204" s="21" t="s">
+      <c r="I204" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9804,11 +10316,11 @@
       <c r="G205">
         <v>1</v>
       </c>
-      <c r="I205" s="21" t="s">
+      <c r="I205" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9830,11 +10342,11 @@
       <c r="G206">
         <v>1</v>
       </c>
-      <c r="I206" s="21" t="s">
+      <c r="I206" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9853,11 +10365,11 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="I207" s="20" t="s">
+      <c r="I207" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9876,11 +10388,11 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="I208" s="20" t="s">
+      <c r="I208" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9899,11 +10411,11 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="I209" s="20" t="s">
+      <c r="I209" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9922,11 +10434,11 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="I210" s="20" t="s">
+      <c r="I210" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9945,11 +10457,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="I211" s="21" t="s">
+      <c r="I211" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9968,11 +10480,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="I212" s="20" t="s">
+      <c r="I212" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -9991,11 +10503,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="I213" s="20" t="s">
+      <c r="I213" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10014,11 +10526,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="I214" s="20" t="s">
+      <c r="I214" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10037,11 +10549,11 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="I215" s="20" t="s">
+      <c r="I215" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10060,11 +10572,11 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="I216" s="20" t="s">
+      <c r="I216" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10083,11 +10595,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="I217" s="20" t="s">
+      <c r="I217" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10106,11 +10618,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="I218" s="20" t="s">
+      <c r="I218" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10129,11 +10641,11 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="I219" s="20" t="s">
+      <c r="I219" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10152,11 +10664,11 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="I220" s="20" t="s">
+      <c r="I220" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10175,11 +10687,11 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="I221" s="20" t="s">
+      <c r="I221" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10198,11 +10710,11 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="I222" s="20" t="s">
+      <c r="I222" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10221,11 +10733,11 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="I223" s="20" t="s">
+      <c r="I223" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10244,11 +10756,11 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="I224" s="20" t="s">
+      <c r="I224" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10267,11 +10779,11 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="I225" s="20" t="s">
+      <c r="I225" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10294,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10317,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10340,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10363,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10386,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10409,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10432,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10455,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10478,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10504,7 +11016,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10530,7 +11042,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10556,7 +11068,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10582,7 +11094,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10608,7 +11120,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10634,7 +11146,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10660,7 +11172,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10686,7 +11198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10712,7 +11224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10738,7 +11250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10764,7 +11276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10790,7 +11302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10816,7 +11328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10842,7 +11354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10868,7 +11380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10894,7 +11406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10920,7 +11432,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10946,34 +11458,34 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="D253" s="30" t="s">
+      <c r="D253" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="31">
-        <v>1</v>
-      </c>
-      <c r="F253" s="31">
-        <v>1</v>
-      </c>
-      <c r="G253" s="31">
-        <v>1</v>
-      </c>
-      <c r="H253" s="31"/>
-      <c r="I253" s="30" t="s">
+      <c r="E253" s="30">
+        <v>1</v>
+      </c>
+      <c r="F253" s="30">
+        <v>1</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -10999,7 +11511,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11025,17 +11537,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="32" t="s">
+      <c r="B256" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="D256" s="32" t="s">
+      <c r="D256" s="31" t="s">
         <v>736</v>
       </c>
       <c r="E256" s="5">
@@ -11048,21 +11560,21 @@
         <v>1</v>
       </c>
       <c r="H256" s="5"/>
-      <c r="I256" s="32" t="s">
+      <c r="I256" s="31" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="32" t="s">
+      <c r="B257" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="32" t="s">
+      <c r="D257" s="31" t="s">
         <v>740</v>
       </c>
       <c r="E257" s="5">
@@ -11074,21 +11586,21 @@
       <c r="G257" s="5">
         <v>1</v>
       </c>
-      <c r="I257" s="32" t="s">
+      <c r="I257" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="32" t="s">
+      <c r="B258" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="C258" s="32" t="s">
+      <c r="C258" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="32" t="s">
+      <c r="D258" s="31" t="s">
         <v>743</v>
       </c>
       <c r="E258" s="5">
@@ -11100,21 +11612,21 @@
       <c r="G258" s="5">
         <v>1</v>
       </c>
-      <c r="I258" s="32" t="s">
+      <c r="I258" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="32" t="s">
+      <c r="B259" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="C259" s="32" t="s">
+      <c r="C259" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="D259" s="32" t="s">
+      <c r="D259" s="31" t="s">
         <v>746</v>
       </c>
       <c r="E259" s="5">
@@ -11126,21 +11638,21 @@
       <c r="G259" s="5">
         <v>1</v>
       </c>
-      <c r="I259" s="32" t="s">
+      <c r="I259" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="32" t="s">
+      <c r="B260" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="C260" s="32" t="s">
+      <c r="C260" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="D260" s="32" t="s">
+      <c r="D260" s="31" t="s">
         <v>749</v>
       </c>
       <c r="E260" s="5">
@@ -11152,11 +11664,11 @@
       <c r="G260" s="5">
         <v>1</v>
       </c>
-      <c r="I260" s="32" t="s">
+      <c r="I260" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11178,21 +11690,21 @@
       <c r="G261">
         <v>1</v>
       </c>
-      <c r="I261" s="21" t="s">
+      <c r="I261" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="32" t="s">
+      <c r="B262" s="31" t="s">
         <v>753</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D262" s="32" t="s">
+      <c r="D262" s="31" t="s">
         <v>755</v>
       </c>
       <c r="E262">
@@ -11204,21 +11716,21 @@
       <c r="G262">
         <v>1</v>
       </c>
-      <c r="I262" s="21" t="s">
+      <c r="I262" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="C263" s="32" t="s">
+      <c r="C263" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="D263" s="32" t="s">
+      <c r="D263" s="31" t="s">
         <v>758</v>
       </c>
       <c r="E263" s="5">
@@ -11230,21 +11742,21 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-      <c r="I263" s="32" t="s">
+      <c r="I263" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C264" s="32" t="s">
+      <c r="C264" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D264" s="32" t="s">
+      <c r="D264" s="31" t="s">
         <v>761</v>
       </c>
       <c r="E264" s="5">
@@ -11256,21 +11768,21 @@
       <c r="G264" s="5">
         <v>1</v>
       </c>
-      <c r="I264" s="32" t="s">
+      <c r="I264" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="32" t="s">
+      <c r="B265" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="C265" s="32" t="s">
+      <c r="C265" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="D265" s="32" t="s">
+      <c r="D265" s="31" t="s">
         <v>764</v>
       </c>
       <c r="E265" s="5">
@@ -11286,17 +11798,17 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C266" s="32" t="s">
+      <c r="C266" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="33" t="s">
+      <c r="D266" s="32" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="5">
@@ -11308,21 +11820,21 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="51" t="s">
+      <c r="I266" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="32" t="s">
+      <c r="B267" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="32" t="s">
+      <c r="C267" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="D267" s="33" t="s">
+      <c r="D267" s="32" t="s">
         <v>770</v>
       </c>
       <c r="E267" s="5">
@@ -11334,21 +11846,21 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="51" t="s">
+      <c r="I267" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
-      <c r="A268" s="25">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A268" s="24">
         <v>267</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>773</v>
       </c>
       <c r="E268" s="4">
@@ -11360,21 +11872,21 @@
       <c r="G268" s="4">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="33" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="32" t="s">
+      <c r="B269" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="D269" s="33" t="s">
+      <c r="D269" s="32" t="s">
         <v>776</v>
       </c>
       <c r="E269" s="5">
@@ -11386,21 +11898,21 @@
       <c r="G269" s="5">
         <v>1</v>
       </c>
-      <c r="I269" s="32" t="s">
+      <c r="I269" s="31" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="32" t="s">
+      <c r="B270" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="C270" s="32" t="s">
+      <c r="C270" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="D270" s="33" t="s">
+      <c r="D270" s="32" t="s">
         <v>780</v>
       </c>
       <c r="E270" s="5">
@@ -11412,21 +11924,21 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-      <c r="I270" s="51" t="s">
+      <c r="I270" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="32" t="s">
+      <c r="C271" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="D271" s="33" t="s">
+      <c r="D271" s="32" t="s">
         <v>783</v>
       </c>
       <c r="E271" s="5">
@@ -11438,21 +11950,21 @@
       <c r="G271" s="5">
         <v>1</v>
       </c>
-      <c r="I271" s="51" t="s">
+      <c r="I271" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="D272" s="33" t="s">
+      <c r="D272" s="32" t="s">
         <v>786</v>
       </c>
       <c r="E272" s="5">
@@ -11464,21 +11976,21 @@
       <c r="G272" s="5">
         <v>1</v>
       </c>
-      <c r="I272" s="51" t="s">
+      <c r="I272" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="32" t="s">
         <v>789</v>
       </c>
       <c r="E273" s="5">
@@ -11490,21 +12002,21 @@
       <c r="G273" s="5">
         <v>1</v>
       </c>
-      <c r="I273" s="51" t="s">
+      <c r="I273" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="C274" s="32" t="s">
+      <c r="C274" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="D274" s="33" t="s">
+      <c r="D274" s="32" t="s">
         <v>792</v>
       </c>
       <c r="E274" s="5">
@@ -11516,44 +12028,44 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-      <c r="I274" s="51" t="s">
+      <c r="I274" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="32" t="s">
+      <c r="B275" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="D275" s="33" t="s">
+      <c r="D275" s="32" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="31" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
-      <c r="A276" s="36">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="37" t="s">
+      <c r="B276" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>798</v>
       </c>
       <c r="E276" s="6">
@@ -11565,21 +12077,21 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="37" t="s">
+      <c r="I276" s="36" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="32" t="s">
+      <c r="B277" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="C277" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="D277" s="33" t="s">
+      <c r="D277" s="32" t="s">
         <v>802</v>
       </c>
       <c r="E277" s="5">
@@ -11591,21 +12103,21 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-      <c r="I277" s="51" t="s">
+      <c r="I277" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="32" t="s">
+      <c r="B278" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="C278" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="D278" s="33" t="s">
+      <c r="D278" s="32" t="s">
         <v>805</v>
       </c>
       <c r="E278">
@@ -11617,18 +12129,18 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="51" t="s">
+      <c r="I278" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="32" t="s">
+      <c r="B279" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="C279" s="32" t="s">
+      <c r="C279" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E279">
@@ -11640,21 +12152,21 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="51" t="s">
+      <c r="I279" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="32" t="s">
+      <c r="B280" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="D280" s="33" t="s">
+      <c r="D280" s="32" t="s">
         <v>810</v>
       </c>
       <c r="E280">
@@ -11666,21 +12178,21 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="51" t="s">
+      <c r="I280" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="32" t="s">
+      <c r="B281" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="C281" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="D281" s="33" t="s">
+      <c r="D281" s="32" t="s">
         <v>813</v>
       </c>
       <c r="E281">
@@ -11692,21 +12204,21 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="51" t="s">
+      <c r="I281" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="32" t="s">
+      <c r="B282" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C282" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="D282" s="33" t="s">
+      <c r="D282" s="32" t="s">
         <v>816</v>
       </c>
       <c r="E282">
@@ -11718,21 +12230,21 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="51" t="s">
+      <c r="I282" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="38" t="s">
+      <c r="B283" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="C283" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="D283" s="33" t="s">
+      <c r="D283" s="32" t="s">
         <v>819</v>
       </c>
       <c r="E283">
@@ -11744,21 +12256,21 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="51" t="s">
+      <c r="I283" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="38" t="s">
         <v>820</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="39" t="s">
+      <c r="D284" s="38" t="s">
         <v>822</v>
       </c>
       <c r="E284" s="7">
@@ -11774,7 +12286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11784,7 +12296,7 @@
       <c r="C285" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D285" s="39" t="s">
+      <c r="D285" s="38" t="s">
         <v>825</v>
       </c>
       <c r="E285" s="7">
@@ -11800,7 +12312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11810,7 +12322,7 @@
       <c r="C286" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D286" s="39" t="s">
+      <c r="D286" s="38" t="s">
         <v>828</v>
       </c>
       <c r="E286" s="7">
@@ -11826,7 +12338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11836,7 +12348,7 @@
       <c r="C287" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D287" s="40" t="s">
+      <c r="D287" s="39" t="s">
         <v>831</v>
       </c>
       <c r="E287" s="8">
@@ -11852,17 +12364,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
-      <c r="A288" s="36">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A288" s="35">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="37" t="s">
+      <c r="D288" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E288" s="6">
@@ -11874,21 +12386,21 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="37" t="s">
+      <c r="I288" s="36" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="32" t="s">
+      <c r="B289" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="C289" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="32" t="s">
         <v>837</v>
       </c>
       <c r="E289">
@@ -11900,11 +12412,11 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="51" t="s">
+      <c r="I289" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11930,7 +12442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11956,17 +12468,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="37" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="32" t="s">
+      <c r="C292" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="37" t="s">
         <v>846</v>
       </c>
       <c r="E292">
@@ -11978,21 +12490,21 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="51" t="s">
+      <c r="I292" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="32" t="s">
+      <c r="C293" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="37" t="s">
         <v>849</v>
       </c>
       <c r="E293">
@@ -12004,21 +12516,21 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="51" t="s">
+      <c r="I293" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="33" t="s">
+      <c r="B294" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="C294" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="33" t="s">
+      <c r="D294" s="32" t="s">
         <v>852</v>
       </c>
       <c r="E294" s="5">
@@ -12031,21 +12543,21 @@
         <v>0</v>
       </c>
       <c r="H294" s="5"/>
-      <c r="I294" s="51" t="s">
+      <c r="I294" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="33" t="s">
+      <c r="B295" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="32" t="s">
+      <c r="C295" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="D295" s="33" t="s">
+      <c r="D295" s="32" t="s">
         <v>855</v>
       </c>
       <c r="E295" s="5">
@@ -12058,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5"/>
-      <c r="I295" s="51" t="s">
+      <c r="I295" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J295" s="5"/>
@@ -12089,17 +12601,17 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
-      <c r="B296" s="33" t="s">
+      <c r="B296" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="C296" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="D296" s="33" t="s">
+      <c r="D296" s="32" t="s">
         <v>859</v>
       </c>
       <c r="E296" s="5">
@@ -12112,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5"/>
-      <c r="I296" s="51" t="s">
+      <c r="I296" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J296" s="5"/>
@@ -12143,17 +12655,17 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="C297" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="D297" s="33" t="s">
+      <c r="D297" s="32" t="s">
         <v>862</v>
       </c>
       <c r="E297" s="5">
@@ -12166,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5"/>
-      <c r="I297" s="51" t="s">
+      <c r="I297" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J297" s="5"/>
@@ -12197,17 +12709,17 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
+      <c r="B298" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="42" t="s">
+      <c r="C298" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="D298" s="40" t="s">
         <v>865</v>
       </c>
       <c r="E298" s="9">
@@ -12220,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="53" t="s">
+      <c r="I298" s="41" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12251,30 +12763,30 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="44" t="s">
+      <c r="C299" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>868</v>
       </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="E299" s="44">
+        <v>1</v>
+      </c>
+      <c r="F299" s="44">
+        <v>1</v>
+      </c>
+      <c r="G299" s="44">
+        <v>1</v>
+      </c>
+      <c r="H299" s="44"/>
+      <c r="I299" s="43" t="s">
         <v>869</v>
       </c>
       <c r="J299" s="5"/>
@@ -12305,61 +12817,61 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="44" t="s">
+      <c r="C300" s="43" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="43" t="s">
+      <c r="D300" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="E300" s="44">
+        <v>1</v>
+      </c>
+      <c r="F300" s="44">
+        <v>1</v>
+      </c>
+      <c r="G300" s="44">
+        <v>1</v>
+      </c>
+      <c r="H300" s="44"/>
+      <c r="I300" s="43" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="42" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="43" t="s">
+      <c r="D301" s="42" t="s">
         <v>875</v>
       </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="54" t="s">
+      <c r="E301" s="44">
+        <v>1</v>
+      </c>
+      <c r="F301" s="44">
+        <v>1</v>
+      </c>
+      <c r="G301" s="44">
+        <v>1</v>
+      </c>
+      <c r="H301" s="44"/>
+      <c r="I301" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12382,21 +12894,21 @@
         <v>1</v>
       </c>
       <c r="H302" s="5"/>
-      <c r="I302" s="51" t="s">
+      <c r="I302" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="C303" s="31" t="s">
         <v>880</v>
       </c>
-      <c r="D303" s="33" t="s">
+      <c r="D303" s="32" t="s">
         <v>881</v>
       </c>
       <c r="E303" s="5">
@@ -12409,21 +12921,21 @@
         <v>1</v>
       </c>
       <c r="H303" s="5"/>
-      <c r="I303" s="32" t="s">
+      <c r="I303" s="31" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="40" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="40" t="s">
         <v>885</v>
       </c>
       <c r="E304" s="9">
@@ -12436,21 +12948,21 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="42" t="s">
+      <c r="I304" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="C305" s="31" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="33" t="s">
+      <c r="D305" s="32" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="5">
@@ -12462,21 +12974,21 @@
       <c r="G305" s="5">
         <v>1</v>
       </c>
-      <c r="I305" s="32" t="s">
+      <c r="I305" s="31" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="33" t="s">
+      <c r="B306" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="32" t="s">
+      <c r="C306" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="33" t="s">
+      <c r="D306" s="32" t="s">
         <v>891</v>
       </c>
       <c r="E306" s="5">
@@ -12488,21 +13000,21 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-      <c r="I306" s="32" t="s">
+      <c r="I306" s="31" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="32" t="s">
+      <c r="C307" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="D307" s="33" t="s">
+      <c r="D307" s="32" t="s">
         <v>894</v>
       </c>
       <c r="E307" s="5">
@@ -12515,17 +13027,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="45" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="D308" s="32" t="s">
         <v>897</v>
       </c>
       <c r="E308" s="5">
@@ -12537,21 +13049,21 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-      <c r="I308" s="32" t="s">
+      <c r="I308" s="31" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="C309" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="46" t="s">
+      <c r="D309" s="45" t="s">
         <v>901</v>
       </c>
       <c r="E309" s="5">
@@ -12563,21 +13075,21 @@
       <c r="G309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="51" t="s">
+      <c r="I309" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="31" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="33" t="s">
+      <c r="D310" s="32" t="s">
         <v>904</v>
       </c>
       <c r="E310" s="5">
@@ -12589,21 +13101,21 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-      <c r="I310" s="51" t="s">
+      <c r="I310" s="31" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="C311" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="46" t="s">
+      <c r="D311" s="45" t="s">
         <v>908</v>
       </c>
       <c r="E311" s="5">
@@ -12615,18 +13127,18 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-      <c r="I311" s="32" t="s">
+      <c r="I311" s="31" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="36" t="s">
         <v>911</v>
       </c>
       <c r="E312" s="6">
@@ -12638,18 +13150,18 @@
       <c r="G312" s="6">
         <v>1</v>
       </c>
-      <c r="I312" s="37" t="s">
+      <c r="I312" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="36" t="s">
         <v>914</v>
       </c>
       <c r="E313" s="6">
@@ -12661,18 +13173,18 @@
       <c r="G313" s="6">
         <v>1</v>
       </c>
-      <c r="I313" s="37" t="s">
+      <c r="I313" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="36" t="s">
         <v>916</v>
       </c>
       <c r="E314" s="6">
@@ -12684,18 +13196,18 @@
       <c r="G314" s="6">
         <v>1</v>
       </c>
-      <c r="I314" s="37" t="s">
+      <c r="I314" s="36" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="47" t="s">
         <v>917</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="36" t="s">
         <v>918</v>
       </c>
       <c r="E315" s="6">
@@ -12707,18 +13219,18 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="55" t="s">
+      <c r="I315" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="49" t="s">
+      <c r="B316" s="48" t="s">
         <v>919</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="36" t="s">
         <v>920</v>
       </c>
       <c r="E316" s="6">
@@ -12730,21 +13242,21 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="55" t="s">
+      <c r="I316" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="47" t="s">
+      <c r="B317" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="47" t="s">
+      <c r="D317" s="46" t="s">
         <v>923</v>
       </c>
       <c r="E317" s="6">
@@ -12756,47 +13268,47 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="37" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+      <c r="I317" s="36" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="50" t="s">
+      <c r="B318" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="D318" s="32"/>
+      <c r="E318" s="5">
+        <v>0</v>
+      </c>
+      <c r="F318" s="5">
+        <v>0</v>
+      </c>
+      <c r="G318" s="5">
+        <v>0</v>
+      </c>
+      <c r="I318" s="31" t="s">
         <v>924</v>
       </c>
-      <c r="C318" s="32" t="s">
-        <v>925</v>
-      </c>
-      <c r="D318" s="33"/>
-      <c r="E318" s="5">
-        <v>0</v>
-      </c>
-      <c r="F318" s="5">
-        <v>0</v>
-      </c>
-      <c r="G318" s="5">
-        <v>0</v>
-      </c>
-      <c r="I318" s="32" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+    </row>
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="C319" s="32" t="s">
+      <c r="B319" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="D319" s="33" t="s">
+      <c r="C319" s="31" t="s">
         <v>928</v>
       </c>
+      <c r="D319" s="32" t="s">
+        <v>929</v>
+      </c>
       <c r="E319" s="5">
         <v>0</v>
       </c>
@@ -12806,46 +13318,46 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-      <c r="I319" s="32" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+      <c r="I319" s="31" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="33" t="s">
+      <c r="B320" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="5">
+        <v>0</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="31" t="s">
         <v>930</v>
       </c>
-      <c r="C320" s="32" t="s">
-        <v>931</v>
-      </c>
-      <c r="E320" s="5">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-      <c r="G320" s="5">
-        <v>0</v>
-      </c>
-      <c r="I320" s="32" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    </row>
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="33" t="s">
-        <v>932</v>
-      </c>
-      <c r="C321" s="56" t="s">
+      <c r="B321" s="32" t="s">
         <v>933</v>
       </c>
-      <c r="D321" s="33" t="s">
+      <c r="C321" s="50" t="s">
         <v>934</v>
       </c>
+      <c r="D321" s="32" t="s">
+        <v>935</v>
+      </c>
       <c r="E321" s="5">
         <v>0</v>
       </c>
@@ -12856,24 +13368,24 @@
         <v>0</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="I321" s="32" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+        <v>936</v>
+      </c>
+      <c r="I321" s="31" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="33" t="s">
-        <v>936</v>
-      </c>
-      <c r="C322" s="51" t="s">
+      <c r="B322" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="33" t="s">
-        <v>937</v>
+      <c r="D322" s="32" t="s">
+        <v>938</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -12884,23 +13396,23 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-      <c r="I322" s="32" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+      <c r="I322" s="31" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="33" t="s">
-        <v>939</v>
-      </c>
-      <c r="C323" s="51" t="s">
+      <c r="B323" s="32" t="s">
         <v>940</v>
       </c>
-      <c r="D323" s="33" t="s">
+      <c r="C323" s="31" t="s">
         <v>941</v>
       </c>
+      <c r="D323" s="32" t="s">
+        <v>942</v>
+      </c>
       <c r="E323" s="5">
         <v>0</v>
       </c>
@@ -12910,22 +13422,22 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-      <c r="I323" s="32" t="s">
+      <c r="I323" s="31" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="57" t="s">
-        <v>942</v>
-      </c>
-      <c r="C324" s="51" t="s">
+      <c r="B324" s="51" t="s">
         <v>943</v>
       </c>
+      <c r="C324" s="31" t="s">
+        <v>944</v>
+      </c>
       <c r="D324" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -12936,22 +13448,22 @@
       <c r="G324" s="5">
         <v>1</v>
       </c>
-      <c r="I324" s="32" t="s">
+      <c r="I324" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C325" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D325" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -12966,18 +13478,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="33" t="s">
-        <v>948</v>
+      <c r="B326" s="32" t="s">
+        <v>949</v>
       </c>
       <c r="C326" t="s">
-        <v>949</v>
-      </c>
-      <c r="D326" s="33" t="s">
         <v>950</v>
+      </c>
+      <c r="D326" s="32" t="s">
+        <v>951</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -12992,19 +13504,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="41" t="s">
-        <v>951</v>
-      </c>
-      <c r="C327" s="42" t="s">
+      <c r="B327" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="D327" s="41" t="s">
+      <c r="C327" s="41" t="s">
         <v>953</v>
       </c>
+      <c r="D327" s="40" t="s">
+        <v>954</v>
+      </c>
       <c r="E327" s="9">
         <v>1</v>
       </c>
@@ -13014,22 +13526,22 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="53" t="s">
+      <c r="I327" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -13041,21 +13553,21 @@
         <v>1</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" ht="16.5">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="57" t="s">
-        <v>958</v>
-      </c>
-      <c r="C329" s="51" t="s">
+      <c r="B329" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13066,19 +13578,19 @@
       <c r="G329" s="5">
         <v>1</v>
       </c>
-      <c r="I329" s="32" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" ht="16.5">
+      <c r="I329" s="31" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
-        <v>974</v>
-      </c>
-      <c r="C330" s="32" t="s">
-        <v>961</v>
+      <c r="B330" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="C330" s="31" t="s">
+        <v>963</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13089,22 +13601,22 @@
       <c r="G330" s="5">
         <v>1</v>
       </c>
-      <c r="I330" s="32" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="16.5">
+      <c r="I330" s="31" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="57" t="s">
-        <v>963</v>
-      </c>
-      <c r="C331" s="32" t="s">
-        <v>964</v>
+      <c r="B331" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="31" t="s">
+        <v>966</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13115,22 +13627,22 @@
       <c r="G331" s="5">
         <v>1</v>
       </c>
-      <c r="I331" s="32" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="16.5">
+      <c r="I331" s="31" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="58" t="s">
-        <v>967</v>
+      <c r="B332" s="52" t="s">
+        <v>969</v>
       </c>
       <c r="C332" t="s">
-        <v>968</v>
-      </c>
-      <c r="D332" s="59" t="s">
-        <v>969</v>
+        <v>970</v>
+      </c>
+      <c r="D332" s="53" t="s">
+        <v>971</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13142,45 +13654,45 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="57" t="s">
+      <c r="B333" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
+        <v>974</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
         <v>972</v>
       </c>
-      <c r="C333" t="s">
-        <v>973</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
+    </row>
+    <row r="334" ht="16.5" spans="1:7">
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="57" t="s">
+      <c r="B334" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="54" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="C334" t="s">
-        <v>976</v>
-      </c>
-      <c r="D334" t="s">
-        <v>975</v>
-      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -13191,37 +13703,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="335" ht="15.75" spans="1:9">
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+      <c r="B335" s="52" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" t="s">
+        <v>979</v>
+      </c>
+      <c r="D335" s="52" t="s">
+        <v>980</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="31" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H331"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H335">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3633,6 +3708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3643,6 +3719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3709,6 +3786,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3719,6 +3797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3733,9 +3812,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
   </si>
   <si>
     <t>龙腾礼包</t>
@@ -3802,18 +3878,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3824,6 +3898,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3831,36 +3906,39 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3872,184 +3950,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4058,13 +4018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
+        <fgColor theme="4" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4088,13 +4048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4106,192 +4066,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4314,255 +4100,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4601,13 +4145,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4731,63 +4275,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5045,20 +4545,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D314" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
+      <selection pane="bottomRight" activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5074,7 +4573,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +4602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5129,7 +4628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5155,7 +4654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5181,7 +4680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5207,7 +4706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5233,7 +4732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5259,7 +4758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5285,7 +4784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5311,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5337,7 +4836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5363,7 +4862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5389,7 +4888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5415,7 +4914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5441,7 +4940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5467,7 +4966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5493,7 +4992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5519,7 +5018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5545,7 +5044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5571,7 +5070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5597,7 +5096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5623,7 +5122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5649,7 +5148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5675,7 +5174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5701,7 +5200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5727,7 +5226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5753,7 +5252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5779,7 +5278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5805,7 +5304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5831,7 +5330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5857,7 +5356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5883,7 +5382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5909,7 +5408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5935,7 +5434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5961,7 +5460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5987,7 +5486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6013,7 +5512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6039,7 +5538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6065,7 +5564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6091,7 +5590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6117,7 +5616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6143,7 +5642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6169,7 +5668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6195,7 +5694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6221,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6247,7 +5746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6273,7 +5772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6299,7 +5798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6325,7 +5824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6351,7 +5850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6377,7 +5876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6403,7 +5902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6427,7 +5926,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6453,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6479,7 +5978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6505,7 +6004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6531,7 +6030,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6557,7 +6056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6583,7 +6082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6609,7 +6108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6635,7 +6134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6661,7 +6160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6687,7 +6186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6713,7 +6212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6739,7 +6238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6765,7 +6264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6791,7 +6290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6817,7 +6316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6843,7 +6342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6869,7 +6368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6895,7 +6394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6921,7 +6420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6947,7 +6446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6973,7 +6472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6999,7 +6498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7025,7 +6524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7051,7 +6550,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7077,7 +6576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7103,7 +6602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7129,7 +6628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7155,7 +6654,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7181,7 +6680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7207,7 +6706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7233,7 +6732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7259,7 +6758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7285,7 +6784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7311,7 +6810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7337,7 +6836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7363,7 +6862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7389,7 +6888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7415,7 +6914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7441,7 +6940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7467,7 +6966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7493,7 +6992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7519,7 +7018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7545,7 +7044,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7571,7 +7070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7597,7 +7096,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7623,7 +7122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7649,7 +7148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7675,7 +7174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7701,7 +7200,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7727,7 +7226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7753,7 +7252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7779,7 +7278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7805,7 +7304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7831,7 +7330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7857,7 +7356,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7883,7 +7382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7909,7 +7408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7935,7 +7434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7961,7 +7460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7987,7 +7486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8013,7 +7512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8039,7 +7538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8065,7 +7564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8091,7 +7590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8117,7 +7616,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8143,7 +7642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8169,7 +7668,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8195,7 +7694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8221,7 +7720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8247,7 +7746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8273,7 +7772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8299,7 +7798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8325,7 +7824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8351,7 +7850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8377,7 +7876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8403,7 +7902,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8429,7 +7928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8455,7 +7954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8481,7 +7980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8507,7 +8006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8533,7 +8032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8559,7 +8058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8585,7 +8084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8611,7 +8110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8637,7 +8136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8663,7 +8162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8689,7 +8188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8715,7 +8214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8741,7 +8240,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8767,7 +8266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8793,7 +8292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8819,7 +8318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8845,7 +8344,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8871,7 +8370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8897,7 +8396,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8923,7 +8422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8949,7 +8448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8975,7 +8474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9001,7 +8500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9027,7 +8526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9053,7 +8552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9079,7 +8578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9105,7 +8604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9131,7 +8630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9157,7 +8656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9183,7 +8682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9209,7 +8708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9235,7 +8734,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9261,7 +8760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9287,7 +8786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9313,7 +8812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9339,7 +8838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9365,7 +8864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9391,7 +8890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9417,7 +8916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9443,7 +8942,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9467,7 +8966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9491,7 +8990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9515,7 +9014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9539,7 +9038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9565,7 +9064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9589,7 +9088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9613,7 +9112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9637,7 +9136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9663,7 +9162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9689,7 +9188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9713,7 +9212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9737,7 +9236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9761,7 +9260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9785,7 +9284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9808,7 +9307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9831,7 +9330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9854,7 +9353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9877,7 +9376,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9900,7 +9399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9923,7 +9422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9946,7 +9445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9969,7 +9468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9992,7 +9491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10015,7 +9514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10038,7 +9537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10061,7 +9560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10084,7 +9583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10107,7 +9606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10130,7 +9629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10153,7 +9652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10176,7 +9675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10199,7 +9698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10222,7 +9721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10245,7 +9744,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10268,7 +9767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10294,7 +9793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10320,7 +9819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10346,7 +9845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10369,7 +9868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10392,7 +9891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10415,7 +9914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10438,7 +9937,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10461,7 +9960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10484,7 +9983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10507,7 +10006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10530,7 +10029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10553,7 +10052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10576,7 +10075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10599,7 +10098,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10622,7 +10121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10645,7 +10144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10668,7 +10167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10691,7 +10190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10714,7 +10213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10737,7 +10236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10760,7 +10259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10783,7 +10282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10806,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10829,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10852,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10875,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10898,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10921,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10944,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10967,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10990,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11016,7 +10515,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11042,7 +10541,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11068,7 +10567,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11094,7 +10593,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11120,7 +10619,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11146,7 +10645,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11172,7 +10671,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11198,7 +10697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11224,7 +10723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11250,7 +10749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11276,7 +10775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11302,7 +10801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11328,7 +10827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11354,7 +10853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11380,7 +10879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11406,7 +10905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11432,7 +10931,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11458,7 +10957,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11485,7 +10984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11511,7 +11010,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11537,7 +11036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11564,7 +11063,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11590,7 +11089,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11616,7 +11115,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11642,7 +11141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11668,7 +11167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11694,7 +11193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11720,7 +11219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11746,7 +11245,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11772,7 +11271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11798,7 +11297,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11824,7 +11323,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11850,7 +11349,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11876,7 +11375,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11902,7 +11401,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11928,7 +11427,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11954,7 +11453,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11980,7 +11479,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12006,7 +11505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12032,7 +11531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12058,7 +11557,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12081,7 +11580,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12107,7 +11606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12133,7 +11632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12156,7 +11655,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12182,7 +11681,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12208,7 +11707,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12234,7 +11733,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12260,7 +11759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12286,7 +11785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12312,7 +11811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12338,7 +11837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12364,7 +11863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12390,7 +11889,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12416,7 +11915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12442,7 +11941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12468,7 +11967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12494,7 +11993,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12520,7 +12019,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12547,7 +12046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12601,7 +12100,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12655,7 +12154,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12709,7 +12208,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12763,7 +12262,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12817,7 +12316,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12844,7 +12343,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12871,7 +12370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12898,7 +12397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12925,7 +12424,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12952,7 +12451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12978,7 +12477,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13004,7 +12503,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13027,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13053,7 +12552,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13079,7 +12578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13105,7 +12604,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13131,7 +12630,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13154,7 +12653,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13177,7 +12676,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13200,7 +12699,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13223,7 +12722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13246,7 +12745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13272,7 +12771,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13296,7 +12795,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13322,7 +12821,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13345,7 +12844,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13374,7 +12873,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13400,7 +12899,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13426,7 +12925,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13452,7 +12951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13478,7 +12977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13504,7 +13003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13530,7 +13029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13556,7 +13055,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13582,91 +13081,91 @@
         <v>961</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>965</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>967</v>
       </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>968</v>
+      </c>
+      <c r="C332" t="s">
         <v>969</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>970</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>971</v>
       </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="C333" t="s">
         <v>973</v>
       </c>
-      <c r="C333" t="s">
-        <v>974</v>
-      </c>
       <c r="E333">
         <v>1</v>
       </c>
@@ -13677,22 +13176,22 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="334" ht="16.5" spans="1:7">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="C334" s="54" t="s">
         <v>975</v>
       </c>
-      <c r="C334" s="54" t="s">
+      <c r="D334" s="18" t="s">
         <v>976</v>
       </c>
-      <c r="D334" s="18" t="s">
-        <v>977</v>
-      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -13703,66 +13202,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:9">
+    <row r="335" spans="1:9" ht="15.75">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
+        <v>977</v>
+      </c>
+      <c r="C335" t="s">
         <v>978</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="52" t="s">
         <v>979</v>
       </c>
-      <c r="D335" s="52" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>980</v>
       </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>981</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3811,9 +3811,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3857,6 +3854,10 @@
   </si>
   <si>
     <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4530,10 +4531,10 @@
   <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13062,22 +13063,22 @@
         <v>329</v>
       </c>
       <c r="B330" s="57" t="s">
+        <v>974</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="32" t="s">
         <v>962</v>
-      </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="32" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -13085,25 +13086,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="57" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="32" t="s">
         <v>966</v>
-      </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="32" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
@@ -13111,25 +13112,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="C332" t="s">
         <v>968</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="59" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>970</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
@@ -13137,11 +13138,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="57" t="s">
+        <v>972</v>
+      </c>
+      <c r="C333" t="s">
         <v>973</v>
       </c>
-      <c r="C333" t="s">
-        <v>974</v>
-      </c>
       <c r="E333">
         <v>1</v>
       </c>
@@ -13152,14 +13153,14 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H331"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13179,7 +13180,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -3809,8 +3809,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -3907,39 +3907,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3961,9 +3930,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3977,22 +4022,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4006,54 +4051,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4125,7 +4125,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4137,43 +4191,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,85 +4275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4281,19 +4293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4323,6 +4323,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4333,6 +4348,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4352,30 +4376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4387,10 +4387,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4413,9 +4411,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4427,10 +4427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4439,137 +4439,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5068,7 +5068,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C339" sqref="C339"/>
+      <selection pane="bottomRight" activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13655,13 +13655,13 @@
         <v>971</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332" t="s">
         <v>972</v>

--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -506,7 +511,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -524,7 +529,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -542,7 +547,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1278,7 +1283,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1373,7 +1378,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1411,7 +1416,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1446,7 +1451,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1464,7 +1469,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1490,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1525,7 +1530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1560,7 +1565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1663,7 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1698,7 +1703,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1733,7 +1738,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1768,7 +1773,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1803,7 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1838,7 +1843,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1873,7 +1878,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2002,7 +2007,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2028,7 +2033,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3802,18 +3807,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>购买后180天领取奖励</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3837,7 +3840,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3855,12 +3858,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3872,13 +3875,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3897,7 +3900,7 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3908,146 +3911,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4055,8 +3921,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4065,13 +3952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4095,13 +3982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4113,192 +4000,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4321,257 +4034,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4608,13 +4079,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4740,64 +4211,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5055,20 +4485,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E337" sqref="E337"/>
+      <selection pane="bottomRight" activeCell="I332" sqref="I332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5084,7 +4513,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +4542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5139,7 +4568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5165,7 +4594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5191,7 +4620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5217,7 +4646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5243,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5269,7 +4698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5295,7 +4724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5321,7 +4750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5347,7 +4776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5373,7 +4802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5399,7 +4828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5425,7 +4854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5451,7 +4880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5477,7 +4906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5503,7 +4932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5529,7 +4958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5555,7 +4984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5581,7 +5010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5607,7 +5036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5633,7 +5062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5659,7 +5088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5685,7 +5114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5711,7 +5140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5737,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5763,7 +5192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5789,7 +5218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5815,7 +5244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5841,7 +5270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5867,7 +5296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5893,7 +5322,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5919,7 +5348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5945,7 +5374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5971,7 +5400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5997,7 +5426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6023,7 +5452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6049,7 +5478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6075,7 +5504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6101,7 +5530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6127,7 +5556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6153,7 +5582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6179,7 +5608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6205,7 +5634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6231,7 +5660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6257,7 +5686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6283,7 +5712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6309,7 +5738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6335,7 +5764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6361,7 +5790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6387,7 +5816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6413,7 +5842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6437,7 +5866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6463,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6489,7 +5918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6515,7 +5944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6541,7 +5970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6567,7 +5996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6593,7 +6022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6619,7 +6048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6645,7 +6074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6671,7 +6100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6697,7 +6126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6723,7 +6152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6749,7 +6178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6775,7 +6204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6801,7 +6230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6827,7 +6256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6853,7 +6282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6879,7 +6308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6905,7 +6334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6931,7 +6360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6957,7 +6386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6983,7 +6412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7009,7 +6438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7035,7 +6464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7061,7 +6490,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7087,7 +6516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7113,7 +6542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7139,7 +6568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7165,7 +6594,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7191,7 +6620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7217,7 +6646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7243,7 +6672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7269,7 +6698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7295,7 +6724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7321,7 +6750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7347,7 +6776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7373,7 +6802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7399,7 +6828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7425,7 +6854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7451,7 +6880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7477,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7503,7 +6932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7529,7 +6958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7555,7 +6984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7581,7 +7010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7607,7 +7036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7633,7 +7062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7659,7 +7088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7685,7 +7114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7711,7 +7140,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7737,7 +7166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7763,7 +7192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7789,7 +7218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7815,7 +7244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7841,7 +7270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7867,7 +7296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7893,7 +7322,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7919,7 +7348,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7945,7 +7374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7971,7 +7400,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7997,7 +7426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8023,7 +7452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8049,7 +7478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8075,7 +7504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8101,7 +7530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8127,7 +7556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8153,7 +7582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8179,7 +7608,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8205,7 +7634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8231,7 +7660,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8257,7 +7686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8283,7 +7712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8309,7 +7738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8335,7 +7764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8361,7 +7790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8387,7 +7816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8413,7 +7842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8439,7 +7868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8465,7 +7894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8491,7 +7920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8517,7 +7946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8543,7 +7972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8569,7 +7998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8595,7 +8024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8621,7 +8050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8647,7 +8076,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8673,7 +8102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8699,7 +8128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8725,7 +8154,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8751,7 +8180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8777,7 +8206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8803,7 +8232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8829,7 +8258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8855,7 +8284,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8881,7 +8310,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8907,7 +8336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8933,7 +8362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8959,7 +8388,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8985,7 +8414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9011,7 +8440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9037,7 +8466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9063,7 +8492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9089,7 +8518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9115,7 +8544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9141,7 +8570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9167,7 +8596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9193,7 +8622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9219,7 +8648,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9245,7 +8674,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9271,7 +8700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9297,7 +8726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9323,7 +8752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9349,7 +8778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9375,7 +8804,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9401,7 +8830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9427,7 +8856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9453,7 +8882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9477,7 +8906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9501,7 +8930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9525,7 +8954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9549,7 +8978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9575,7 +9004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9599,7 +9028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9623,7 +9052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9647,7 +9076,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9673,7 +9102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9699,7 +9128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9723,7 +9152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9747,7 +9176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9771,7 +9200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9795,7 +9224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9818,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9841,7 +9270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9864,7 +9293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9887,7 +9316,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9910,7 +9339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9933,7 +9362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9956,7 +9385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9979,7 +9408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -10002,7 +9431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10025,7 +9454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10048,7 +9477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10071,7 +9500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10094,7 +9523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10117,7 +9546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10140,7 +9569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10163,7 +9592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10186,7 +9615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10209,7 +9638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10232,7 +9661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10255,7 +9684,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10278,7 +9707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10304,7 +9733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10330,7 +9759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10356,7 +9785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10379,7 +9808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10402,7 +9831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10425,7 +9854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10448,7 +9877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10471,7 +9900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10494,7 +9923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10517,7 +9946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10540,7 +9969,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10563,7 +9992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10586,7 +10015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10609,7 +10038,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10632,7 +10061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10655,7 +10084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10678,7 +10107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10701,7 +10130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10724,7 +10153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10747,7 +10176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10770,7 +10199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10793,7 +10222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10816,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10839,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10862,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10885,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10908,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10931,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10954,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10977,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -11000,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11026,7 +10455,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11052,7 +10481,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11078,7 +10507,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11104,7 +10533,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11130,7 +10559,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11156,7 +10585,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11182,7 +10611,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11208,7 +10637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11234,7 +10663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11260,7 +10689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11286,7 +10715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11312,7 +10741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11338,7 +10767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11364,7 +10793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11390,7 +10819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11416,7 +10845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11442,7 +10871,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11468,7 +10897,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11495,7 +10924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11521,7 +10950,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11547,7 +10976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11574,7 +11003,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11600,7 +11029,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11626,7 +11055,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11652,7 +11081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11678,7 +11107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11704,7 +11133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11730,7 +11159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11756,7 +11185,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11782,7 +11211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11808,7 +11237,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11834,7 +11263,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11860,7 +11289,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11886,7 +11315,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11912,7 +11341,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11938,7 +11367,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11964,7 +11393,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11990,7 +11419,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12016,7 +11445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12042,7 +11471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12068,7 +11497,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12091,7 +11520,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12117,7 +11546,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12143,7 +11572,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12166,7 +11595,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12192,7 +11621,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12218,7 +11647,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12244,7 +11673,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12270,7 +11699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12296,7 +11725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12322,7 +11751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12348,7 +11777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12374,7 +11803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12400,7 +11829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12426,7 +11855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12452,7 +11881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12478,7 +11907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12504,7 +11933,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12530,7 +11959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12557,7 +11986,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12611,7 +12040,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12665,7 +12094,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12719,7 +12148,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12773,7 +12202,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12827,7 +12256,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12854,7 +12283,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12881,7 +12310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12908,7 +12337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12935,7 +12364,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12962,7 +12391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12988,7 +12417,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13014,7 +12443,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13037,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13063,7 +12492,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13089,7 +12518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13115,7 +12544,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13141,7 +12570,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13164,7 +12593,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13187,7 +12616,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13210,7 +12639,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13233,7 +12662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13256,7 +12685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13282,7 +12711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13306,7 +12735,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13332,7 +12761,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13355,7 +12784,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13384,7 +12813,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13410,7 +12839,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13436,7 +12865,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13462,7 +12891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13488,7 +12917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13514,7 +12943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13540,7 +12969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13566,7 +12995,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13592,7 +13021,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
@@ -13615,7 +13044,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:9">
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
@@ -13641,7 +13070,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:9">
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
@@ -13663,11 +13092,11 @@
       <c r="G332">
         <v>1</v>
       </c>
-      <c r="I332" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+      <c r="I332" s="56" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
@@ -13690,7 +13119,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="334" ht="16.5" spans="1:7">
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
@@ -13713,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:9">
+    <row r="335" spans="1:9" ht="15.75">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -13740,39 +13169,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/game_module_config_cjj.xlsx
+++ b/config_debug/game_module_config_cjj.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -511,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -529,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -547,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1283,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1378,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1416,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1451,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1469,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1495,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1530,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1565,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1668,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1703,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1738,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1773,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1808,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1843,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1878,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2007,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2033,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3255,13 +3250,13 @@
     <t>XRZXGiftManager</t>
   </si>
   <si>
-    <t>act_034_ldfd</t>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
+    <t>act_ty_ldfd</t>
+  </si>
+  <si>
+    <t>幸运福袋</t>
+  </si>
+  <si>
+    <t>Act_ty_LDFDManager</t>
   </si>
   <si>
     <t>by3d_shtx</t>
@@ -3546,34 +3541,37 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_014_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（财力）</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（铁锤）</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>五星掉落</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
-    <t>活动boss皮肤（五星）</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_015</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3588,13 +3586,13 @@
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>3月15日23:59:59</t>
+  </si>
+  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
   </si>
   <si>
     <t>act_ty_universal_dh</t>
@@ -3703,34 +3701,12 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年4月12日 23:59:59</t>
-    </r>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
   </si>
   <si>
@@ -3752,13 +3728,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年5月18日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3770,13 +3746,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_cjj_by_byam_guide</t>
@@ -3807,16 +3786,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>购买后180天领取奖励</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,7 +3821,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3858,12 +3839,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3875,20 +3856,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3900,7 +3874,7 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3911,9 +3885,146 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3921,29 +4032,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3952,13 +4042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39982299264503923"/>
+        <fgColor theme="4" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,13 +4072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4000,18 +4090,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"